--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DA0779-9BD1-4179-A13C-4358656B8CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BBFCB9-0F90-4C0D-8D62-15F2DF910366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="703">
   <si>
     <t>汇报日期</t>
   </si>
@@ -4457,10 +4457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周报及目标更新完成。多线程并发面试题整理结束。但仍然需要用自己的语言表达出来。只是理解了一遍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.7点起床计划，23点日报睡觉
 2.周报，git封面
 3.并发，结束，提交git</t>
@@ -4472,17 +4468,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>周报及目标更新完成。多线程并发面试题整理结束。但仍然需要用自己的语言表达出来。只是理解了一遍。封面工作量评估错误，要做好没自己想的那么简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.未完成。08:17计划，23:27日报，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未睡觉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2.完成。21:01，封面初版完成
+3.完成。21:30~23:30，已提交</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解了一下团队知识库软件：confluence，语雀，pincode；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:05计划，23:30日报（忘12-2）
+2.完成。11:20~15:30，4小时，1-00:15:51
+3.完成。17:13~18:05，1题(56)
+4.完成。18:06~23:06，5小时
+5.未完成。75.0kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.7点起床计划，23点日报睡觉
-2.英语：4小时，复习词汇，找培训
+2.英语：4小时，复习词汇
 3.leetcode：1题
-4.并发，5小时，提交git
-5.体重减到75.3kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.延期完成。08:17计划，23:27日报
-2.完成。21:01，23:59
-3.完成。21:30~23:30，已提交</t>
+4.技术：结束并发，提交git
+5.体重减到75.9kg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12379,7 +12414,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -12432,18 +12467,20 @@
     </row>
     <row r="2" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="E2" s="26"/>
+        <v>701</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>700</v>
+      </c>
       <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -12471,13 +12508,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="1"/>
@@ -18636,16 +18673,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -19102,16 +19139,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BBFCB9-0F90-4C0D-8D62-15F2DF910366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41DE02B-B087-4DE6-B789-C553F018B9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="706">
   <si>
     <t>汇报日期</t>
   </si>
@@ -4501,11 +4501,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>了解了一下团队知识库软件：confluence，语雀，pincode；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。07:05计划，23:30日报（忘12-2）
+    <t>1.完成。07:05计划，23:30日报
 2.完成。11:20~15:30，4小时，1-00:15:51
 3.完成。17:13~18:05，1题(56)
 4.完成。18:06~23:06，5小时
@@ -4513,11 +4509,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. leetcode：57. 插入区间（中等）。
+2. 技术：多线程并发，面试题整理结束。
+   1. Locksupport使用即参考案例，ConcurrentHashMap使用及原理
+   2. 重新修改Git文档的readme文件。
+3. 英语：《海贼王真人版》，第2遍听力，听至第1集00:15:51，复习之前遇到的词汇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-19
+星期二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.7点起床计划，23点日报睡觉
 2.英语：4小时，复习词汇
 3.leetcode：1题
 4.技术：结束并发，提交git
-5.体重减到75.9kg</t>
+5.体重减到75.9kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报睡觉
+2.英语：4小时，复习词汇
+3.leetcode：1题
+4.技术：Vue2小时，提交git
+5.体重减到75.7kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:05计划，23:30日报
+2.完成。11:20~15:30，4小时，1-00:15:51
+3.完成。17:13~18:05，1题(56)
+4.完成。18:06~23:06，已提交
+5.未完成。75.0kg。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4849,7 +4874,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="448">
+  <dxfs count="452">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -11820,16 +11887,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B71:B1048576 B15:B60 B1">
-    <cfRule type="cellIs" dxfId="447" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="127" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="130" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="131">
@@ -11844,16 +11911,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="443" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="122" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="123" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="125">
@@ -11868,16 +11935,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="439" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="117" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="118" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="119" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="120">
@@ -11892,16 +11959,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="435" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="112" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="113" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="114" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="115">
@@ -11916,16 +11983,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="431" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="106" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="107" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="108" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="109" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -11940,16 +12007,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="427" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="101" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="102" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="103" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="104" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -11964,16 +12031,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="423" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="97" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="98" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="99" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -11988,16 +12055,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="419" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="94" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="95">
@@ -12012,16 +12079,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="415" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="86" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="87" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="88" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="89" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -12036,16 +12103,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="411" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="84" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="85">
@@ -12060,16 +12127,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="407" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -12084,16 +12151,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="403" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -12108,16 +12175,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="399" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -12132,16 +12199,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="395" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -12156,16 +12223,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="391" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -12180,16 +12247,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="387" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -12204,16 +12271,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="383" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -12228,16 +12295,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="379" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -12252,16 +12319,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="375" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -12276,16 +12343,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="371" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -12300,16 +12367,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="367" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -12324,16 +12391,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="363" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -12348,16 +12415,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="359" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -12372,16 +12439,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="355" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -12408,13 +12475,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W114"/>
+  <dimension ref="A1:W115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -12467,20 +12534,18 @@
     </row>
     <row r="2" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="E2" s="26" t="s">
         <v>700</v>
       </c>
+      <c r="E2" s="26"/>
       <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -12500,23 +12565,25 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="F3" s="10"/>
+        <v>701</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -12535,21 +12602,21 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="58" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>134</v>
@@ -12572,21 +12639,21 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="58" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>134</v>
@@ -12611,19 +12678,19 @@
     </row>
     <row r="6" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>134</v>
@@ -12648,19 +12715,19 @@
     </row>
     <row r="7" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>134</v>
@@ -12685,19 +12752,19 @@
     </row>
     <row r="8" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>134</v>
@@ -12722,16 +12789,16 @@
     </row>
     <row r="9" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>667</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>669</v>
@@ -12757,21 +12824,21 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>134</v>
@@ -12794,21 +12861,21 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>134</v>
@@ -12833,19 +12900,19 @@
     </row>
     <row r="12" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>134</v>
@@ -12870,19 +12937,19 @@
     </row>
     <row r="13" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>134</v>
@@ -12907,19 +12974,19 @@
     </row>
     <row r="14" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>134</v>
@@ -12944,19 +13011,19 @@
     </row>
     <row r="15" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>134</v>
@@ -12981,19 +13048,19 @@
     </row>
     <row r="16" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>134</v>
@@ -13018,22 +13085,22 @@
     </row>
     <row r="17" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -13055,22 +13122,22 @@
     </row>
     <row r="18" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -13092,19 +13159,19 @@
     </row>
     <row r="19" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>134</v>
@@ -13129,19 +13196,19 @@
     </row>
     <row r="20" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>134</v>
@@ -13166,19 +13233,19 @@
     </row>
     <row r="21" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>134</v>
@@ -13203,19 +13270,19 @@
     </row>
     <row r="22" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>134</v>
@@ -13240,19 +13307,19 @@
     </row>
     <row r="23" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>134</v>
@@ -13277,19 +13344,19 @@
     </row>
     <row r="24" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>134</v>
@@ -13314,19 +13381,19 @@
     </row>
     <row r="25" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>684</v>
+        <v>578</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>134</v>
@@ -13351,19 +13418,19 @@
     </row>
     <row r="26" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>571</v>
+        <v>684</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>134</v>
@@ -13388,19 +13455,19 @@
     </row>
     <row r="27" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>134</v>
@@ -13425,19 +13492,19 @@
     </row>
     <row r="28" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>134</v>
@@ -13460,21 +13527,21 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="57.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>134</v>
@@ -13497,21 +13564,21 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="57.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>134</v>
@@ -13536,19 +13603,19 @@
     </row>
     <row r="31" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>134</v>
@@ -13571,21 +13638,21 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>134</v>
@@ -13608,21 +13675,21 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>134</v>
@@ -13645,21 +13712,21 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="77" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>134</v>
@@ -13682,21 +13749,21 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="77" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>134</v>
@@ -13719,24 +13786,24 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="62" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>441</v>
+        <v>527</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -13756,21 +13823,21 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="62" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>436</v>
+        <v>523</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>133</v>
@@ -13793,24 +13860,24 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -13832,19 +13899,19 @@
     </row>
     <row r="39" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>134</v>
@@ -13869,22 +13936,22 @@
     </row>
     <row r="40" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -13906,22 +13973,22 @@
     </row>
     <row r="41" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -13943,22 +14010,22 @@
     </row>
     <row r="42" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>413</v>
+        <v>134</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -13980,22 +14047,22 @@
     </row>
     <row r="43" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -14017,19 +14084,19 @@
     </row>
     <row r="44" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>134</v>
@@ -14054,19 +14121,19 @@
     </row>
     <row r="45" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>134</v>
@@ -14091,19 +14158,19 @@
     </row>
     <row r="46" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>134</v>
@@ -14128,19 +14195,19 @@
     </row>
     <row r="47" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>134</v>
@@ -14165,19 +14232,19 @@
     </row>
     <row r="48" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>575</v>
+        <v>398</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>134</v>
@@ -14202,19 +14269,19 @@
     </row>
     <row r="49" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>386</v>
+        <v>575</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>134</v>
@@ -14239,19 +14306,19 @@
     </row>
     <row r="50" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>134</v>
@@ -14276,19 +14343,19 @@
     </row>
     <row r="51" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>134</v>
@@ -14313,19 +14380,19 @@
     </row>
     <row r="52" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>134</v>
@@ -14350,22 +14417,22 @@
     </row>
     <row r="53" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -14387,22 +14454,22 @@
     </row>
     <row r="54" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -14424,19 +14491,19 @@
     </row>
     <row r="55" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>362</v>
+        <v>371</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>369</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>134</v>
@@ -14461,19 +14528,19 @@
     </row>
     <row r="56" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>134</v>
@@ -14498,22 +14565,22 @@
     </row>
     <row r="57" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -14535,22 +14602,22 @@
     </row>
     <row r="58" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -14572,19 +14639,19 @@
     </row>
     <row r="59" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>134</v>
@@ -14609,19 +14676,19 @@
     </row>
     <row r="60" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>134</v>
@@ -14644,24 +14711,24 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -14683,22 +14750,22 @@
     </row>
     <row r="62" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -14720,19 +14787,19 @@
     </row>
     <row r="63" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>134</v>
@@ -14757,19 +14824,19 @@
     </row>
     <row r="64" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>134</v>
@@ -14794,19 +14861,19 @@
     </row>
     <row r="65" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>134</v>
@@ -14829,21 +14896,21 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="87" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>134</v>
@@ -14868,19 +14935,19 @@
     </row>
     <row r="67" spans="1:23" ht="87" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>134</v>
@@ -14903,21 +14970,21 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="87" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>134</v>
@@ -14940,24 +15007,24 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -14979,19 +15046,19 @@
     </row>
     <row r="70" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>133</v>
@@ -15016,22 +15083,22 @@
     </row>
     <row r="71" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -15051,21 +15118,21 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" ht="87" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>134</v>
@@ -15088,21 +15155,21 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="87" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>134</v>
@@ -15127,19 +15194,19 @@
     </row>
     <row r="74" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>134</v>
@@ -15162,24 +15229,24 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -15199,24 +15266,24 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -15238,19 +15305,19 @@
     </row>
     <row r="77" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>134</v>
@@ -15275,19 +15342,19 @@
     </row>
     <row r="78" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>134</v>
@@ -15310,21 +15377,21 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>134</v>
@@ -15347,21 +15414,21 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>134</v>
@@ -15384,24 +15451,24 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -15423,22 +15490,22 @@
     </row>
     <row r="82" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -15460,19 +15527,19 @@
     </row>
     <row r="83" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>134</v>
@@ -15497,19 +15564,19 @@
     </row>
     <row r="84" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>134</v>
@@ -15534,19 +15601,19 @@
     </row>
     <row r="85" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>134</v>
@@ -15571,19 +15638,19 @@
     </row>
     <row r="86" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>134</v>
@@ -15606,21 +15673,21 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>134</v>
@@ -15643,21 +15710,21 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>134</v>
@@ -15682,19 +15749,19 @@
     </row>
     <row r="89" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>134</v>
@@ -15719,19 +15786,19 @@
     </row>
     <row r="90" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>134</v>
@@ -15754,21 +15821,21 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B91" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>134</v>
@@ -15791,9 +15858,9 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>9</v>
@@ -15805,7 +15872,7 @@
         <v>140</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>134</v>
@@ -15830,22 +15897,22 @@
     </row>
     <row r="93" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -15867,21 +15934,21 @@
     </row>
     <row r="94" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C94" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D94" s="13" t="s">
+      <c r="C94" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E94" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F94" s="14" t="s">
+      <c r="E94" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F94" s="10" t="s">
         <v>133</v>
       </c>
       <c r="G94" s="1"/>
@@ -15904,21 +15971,21 @@
     </row>
     <row r="95" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F95" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F95" s="14" t="s">
         <v>133</v>
       </c>
       <c r="G95" s="1"/>
@@ -15939,24 +16006,24 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F96" s="14" t="s">
-        <v>134</v>
+        <v>149</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -15976,9 +16043,9 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>9</v>
@@ -15990,7 +16057,7 @@
         <v>140</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="F97" s="14" t="s">
         <v>134</v>
@@ -16013,23 +16080,25 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F98" s="14"/>
+        <v>231</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -16050,19 +16119,19 @@
     </row>
     <row r="99" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F99" s="14"/>
       <c r="G99" s="1"/>
@@ -16085,7 +16154,7 @@
     </row>
     <row r="100" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>9</v>
@@ -16094,10 +16163,10 @@
         <v>150</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F100" s="14"/>
       <c r="G100" s="1"/>
@@ -16120,7 +16189,7 @@
     </row>
     <row r="101" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>9</v>
@@ -16129,10 +16198,10 @@
         <v>150</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F101" s="14"/>
       <c r="G101" s="1"/>
@@ -16155,19 +16224,19 @@
     </row>
     <row r="102" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E102" s="15" t="s">
-        <v>162</v>
+        <v>9</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="F102" s="14"/>
       <c r="G102" s="1"/>
@@ -16190,19 +16259,19 @@
     </row>
     <row r="103" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F103" s="14"/>
       <c r="G103" s="1"/>
@@ -16225,19 +16294,19 @@
     </row>
     <row r="104" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="1"/>
@@ -16260,18 +16329,20 @@
     </row>
     <row r="105" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E105" s="15"/>
+        <v>167</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>168</v>
+      </c>
       <c r="F105" s="14"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -16293,20 +16364,18 @@
     </row>
     <row r="106" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E106" s="15" t="s">
-        <v>170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E106" s="15"/>
       <c r="F106" s="14"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -16328,19 +16397,19 @@
     </row>
     <row r="107" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F107" s="14"/>
       <c r="G107" s="1"/>
@@ -16361,21 +16430,21 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="1"/>
@@ -16398,19 +16467,19 @@
     </row>
     <row r="109" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F109" s="14"/>
       <c r="G109" s="1"/>
@@ -16431,21 +16500,21 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="1"/>
@@ -16466,21 +16535,21 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="1"/>
@@ -16503,19 +16572,19 @@
     </row>
     <row r="112" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="1"/>
@@ -16536,21 +16605,21 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="1"/>
@@ -16571,21 +16640,21 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="1"/>
@@ -16606,9 +16675,68 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
+    <row r="115" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A115" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F115" s="14"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B88:B1048576 B1">
+  <conditionalFormatting sqref="B89:B1048576 B1">
+    <cfRule type="cellIs" dxfId="355" priority="446" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="447" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="353" priority="448" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="449" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="450">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87">
     <cfRule type="cellIs" dxfId="351" priority="441" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -16632,7 +16760,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B86">
+  <conditionalFormatting sqref="B88">
     <cfRule type="cellIs" dxfId="347" priority="436" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -16656,7 +16784,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B87">
+  <conditionalFormatting sqref="B86">
     <cfRule type="cellIs" dxfId="343" priority="431" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -16753,19 +16881,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="327" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="406" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="407" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="408" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="409" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="415">
+    <cfRule type="colorScale" priority="410">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16801,19 +16929,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="cellIs" dxfId="319" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="391" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="392" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="393" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="394" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="400">
+    <cfRule type="colorScale" priority="395">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18673,16 +18801,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -18697,7 +18825,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B114" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B115" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -19139,16 +19267,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41DE02B-B087-4DE6-B789-C553F018B9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3457BD-4FF9-47BF-A635-B9DFAFB16978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4501,14 +4501,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。07:05计划，23:30日报
-2.完成。11:20~15:30，4小时，1-00:15:51
-3.完成。17:13~18:05，1题(56)
-4.完成。18:06~23:06，5小时
-5.未完成。75.0kg。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. leetcode：57. 插入区间（中等）。
 2. 技术：多线程并发，面试题整理结束。
    1. Locksupport使用即参考案例，ConcurrentHashMap使用及原理
@@ -4542,6 +4534,14 @@
 2.完成。11:20~15:30，4小时，1-00:15:51
 3.完成。17:13~18:05，1题(56)
 4.完成。18:06~23:06，已提交
+5.未完成。75.4kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:19计划，23:30日报
+2.完成。11:20~15:30，4小时，1-00:15:51
+3.完成。17:13~18:05，1题(56)
+4.完成。18:06~23:06，5小时
 5.未完成。75.0kg。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -12481,7 +12481,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -12534,16 +12534,16 @@
     </row>
     <row r="2" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="10"/>
@@ -12573,13 +12573,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>134</v>

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3457BD-4FF9-47BF-A635-B9DFAFB16978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7418C963-90B7-4514-89B3-07A6FF6D3549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="710">
   <si>
     <t>汇报日期</t>
   </si>
@@ -4522,14 +4522,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.7点起床计划，23点日报睡觉
-2.英语：4小时，复习词汇
-3.leetcode：1题
-4.技术：Vue2小时，提交git
-5.体重减到75.7kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.完成。07:05计划，23:30日报
 2.完成。11:20~15:30，4小时，1-00:15:51
 3.完成。17:13~18:05，1题(56)
@@ -4538,11 +4530,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。07:19计划，23:30日报
-2.完成。11:20~15:30，4小时，1-00:15:51
-3.完成。17:13~18:05，1题(56)
-4.完成。18:06~23:06，5小时
-5.未完成。75.0kg。</t>
+    <t>1.7点起床计划，23点日报睡觉
+2.英语：4小时，复习词汇
+3.技术：Vue2小时，提交git
+4.体重减到75.5kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 技术：前端学习，《java架构师需要掌握的前端架构》看到视频19。1. 前端架构演进：无架构 &gt; MVC架构 &gt; 多页面架构 &gt; 单页面架构 &gt; 大前端时代 &gt; 微前端
+   2. TypeScript，工具插件安装，Hello world项目搭建，基本数据类型学习。
+   3. Vue，如何学习Vue，template编译过程。
+2. 英语：《海贼王真人版》，第2遍听力，听至第1集00:25:51，复习之前遇到的词汇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:19计划，23:07日报
+2.完成。11:00~17:00，4小时，1-00:25:51
+3.完成。17:13~23:59，视频19，120分钟
+4.完成。75.4kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-20
+星期三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:19计划，23:07日报
+2.完成。11:00~17:00，4小时，1-00:25:51
+3.完成。17:13~23:59，视频19，120分钟
+4.完成。75.4kg
+5.完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报睡觉
+2.英语：4小时，复习词汇
+3.技术：Vue3小时，提交git
+4.leetcode：1题(非必须)
+5.体重减到75.2kg(非必须)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4874,7 +4900,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="452">
+  <dxfs count="456">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -11887,16 +11955,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B71:B1048576 B15:B60 B1">
-    <cfRule type="cellIs" dxfId="451" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="127" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="130" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="131">
@@ -11911,16 +11979,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="447" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="122" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="123" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="125">
@@ -11935,16 +12003,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="443" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="117" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="118" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="119" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="120">
@@ -11959,16 +12027,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="439" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="112" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="113" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="114" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="115">
@@ -11983,16 +12051,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="435" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="106" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="107" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="108" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="109" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -12007,16 +12075,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="431" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="101" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="102" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="103" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="104" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -12031,16 +12099,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="427" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="97" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="98" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="99" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -12055,16 +12123,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="423" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="94" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="95">
@@ -12079,16 +12147,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="419" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="86" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="87" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="88" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="89" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -12103,16 +12171,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="415" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="84" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="85">
@@ -12127,16 +12195,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="411" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -12151,16 +12219,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="407" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -12175,16 +12243,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="403" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -12199,16 +12267,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="399" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -12223,16 +12291,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="395" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -12247,16 +12315,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="391" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -12271,16 +12339,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="387" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -12295,16 +12363,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="383" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -12319,16 +12387,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="379" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -12343,16 +12411,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="375" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -12367,16 +12435,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="371" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -12391,16 +12459,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="367" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -12415,16 +12483,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="363" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -12439,16 +12507,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="359" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -12475,13 +12543,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W115"/>
+  <dimension ref="A1:W116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6:D6"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -12532,18 +12600,18 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="72.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="10"/>
@@ -12565,21 +12633,21 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>134</v>
@@ -12602,21 +12670,21 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>134</v>
@@ -12639,21 +12707,21 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="58" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>134</v>
@@ -12676,21 +12744,21 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="58" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>134</v>
@@ -12715,19 +12783,19 @@
     </row>
     <row r="7" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>134</v>
@@ -12752,19 +12820,19 @@
     </row>
     <row r="8" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>134</v>
@@ -12789,19 +12857,19 @@
     </row>
     <row r="9" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>134</v>
@@ -12826,16 +12894,16 @@
     </row>
     <row r="10" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>667</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>669</v>
@@ -12861,21 +12929,21 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>134</v>
@@ -12898,21 +12966,21 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>134</v>
@@ -12937,19 +13005,19 @@
     </row>
     <row r="13" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>134</v>
@@ -12974,19 +13042,19 @@
     </row>
     <row r="14" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>134</v>
@@ -13011,19 +13079,19 @@
     </row>
     <row r="15" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>134</v>
@@ -13048,19 +13116,19 @@
     </row>
     <row r="16" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>134</v>
@@ -13085,19 +13153,19 @@
     </row>
     <row r="17" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>134</v>
@@ -13122,22 +13190,22 @@
     </row>
     <row r="18" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -13159,22 +13227,22 @@
     </row>
     <row r="19" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -13196,19 +13264,19 @@
     </row>
     <row r="20" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>134</v>
@@ -13233,19 +13301,19 @@
     </row>
     <row r="21" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>134</v>
@@ -13270,19 +13338,19 @@
     </row>
     <row r="22" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>134</v>
@@ -13307,19 +13375,19 @@
     </row>
     <row r="23" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>134</v>
@@ -13344,19 +13412,19 @@
     </row>
     <row r="24" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>134</v>
@@ -13381,19 +13449,19 @@
     </row>
     <row r="25" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>134</v>
@@ -13418,19 +13486,19 @@
     </row>
     <row r="26" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>684</v>
+        <v>578</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>134</v>
@@ -13455,19 +13523,19 @@
     </row>
     <row r="27" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>571</v>
+        <v>684</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>134</v>
@@ -13492,19 +13560,19 @@
     </row>
     <row r="28" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>134</v>
@@ -13529,19 +13597,19 @@
     </row>
     <row r="29" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>134</v>
@@ -13564,21 +13632,21 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="57.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>134</v>
@@ -13601,21 +13669,21 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="57.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>134</v>
@@ -13640,19 +13708,19 @@
     </row>
     <row r="32" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>134</v>
@@ -13675,21 +13743,21 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>134</v>
@@ -13712,21 +13780,21 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>134</v>
@@ -13749,21 +13817,21 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="77" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>134</v>
@@ -13786,21 +13854,21 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="77" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>134</v>
@@ -13823,24 +13891,24 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="62" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>441</v>
+        <v>527</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -13860,21 +13928,21 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="62" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>436</v>
+        <v>523</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>133</v>
@@ -13897,24 +13965,24 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -13936,19 +14004,19 @@
     </row>
     <row r="40" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>134</v>
@@ -13973,22 +14041,22 @@
     </row>
     <row r="41" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -14010,22 +14078,22 @@
     </row>
     <row r="42" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -14047,22 +14115,22 @@
     </row>
     <row r="43" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>413</v>
+        <v>134</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -14084,22 +14152,22 @@
     </row>
     <row r="44" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -14121,19 +14189,19 @@
     </row>
     <row r="45" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>134</v>
@@ -14158,19 +14226,19 @@
     </row>
     <row r="46" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>134</v>
@@ -14195,19 +14263,19 @@
     </row>
     <row r="47" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>134</v>
@@ -14232,19 +14300,19 @@
     </row>
     <row r="48" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>134</v>
@@ -14269,19 +14337,19 @@
     </row>
     <row r="49" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>575</v>
+        <v>398</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>134</v>
@@ -14306,19 +14374,19 @@
     </row>
     <row r="50" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>386</v>
+        <v>575</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>134</v>
@@ -14343,19 +14411,19 @@
     </row>
     <row r="51" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>134</v>
@@ -14380,19 +14448,19 @@
     </row>
     <row r="52" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>134</v>
@@ -14417,19 +14485,19 @@
     </row>
     <row r="53" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>134</v>
@@ -14454,22 +14522,22 @@
     </row>
     <row r="54" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -14491,22 +14559,22 @@
     </row>
     <row r="55" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -14528,19 +14596,19 @@
     </row>
     <row r="56" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>362</v>
+        <v>371</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>369</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>134</v>
@@ -14565,19 +14633,19 @@
     </row>
     <row r="57" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>134</v>
@@ -14602,22 +14670,22 @@
     </row>
     <row r="58" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -14639,22 +14707,22 @@
     </row>
     <row r="59" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -14676,19 +14744,19 @@
     </row>
     <row r="60" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>134</v>
@@ -14713,19 +14781,19 @@
     </row>
     <row r="61" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>134</v>
@@ -14748,24 +14816,24 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -14787,22 +14855,22 @@
     </row>
     <row r="63" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -14824,19 +14892,19 @@
     </row>
     <row r="64" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>134</v>
@@ -14861,19 +14929,19 @@
     </row>
     <row r="65" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>134</v>
@@ -14898,19 +14966,19 @@
     </row>
     <row r="66" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>134</v>
@@ -14933,21 +15001,21 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" ht="87" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>134</v>
@@ -14972,19 +15040,19 @@
     </row>
     <row r="68" spans="1:23" ht="87" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>134</v>
@@ -15007,21 +15075,21 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="87" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>134</v>
@@ -15044,24 +15112,24 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -15083,19 +15151,19 @@
     </row>
     <row r="71" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>133</v>
@@ -15120,22 +15188,22 @@
     </row>
     <row r="72" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -15155,21 +15223,21 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" ht="87" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>134</v>
@@ -15192,21 +15260,21 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="87" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>134</v>
@@ -15231,19 +15299,19 @@
     </row>
     <row r="75" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>134</v>
@@ -15266,24 +15334,24 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -15303,24 +15371,24 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -15342,19 +15410,19 @@
     </row>
     <row r="78" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>134</v>
@@ -15379,19 +15447,19 @@
     </row>
     <row r="79" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>134</v>
@@ -15414,21 +15482,21 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>134</v>
@@ -15451,21 +15519,21 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>134</v>
@@ -15488,24 +15556,24 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -15527,22 +15595,22 @@
     </row>
     <row r="83" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -15564,19 +15632,19 @@
     </row>
     <row r="84" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>134</v>
@@ -15601,19 +15669,19 @@
     </row>
     <row r="85" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>134</v>
@@ -15638,19 +15706,19 @@
     </row>
     <row r="86" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>134</v>
@@ -15675,19 +15743,19 @@
     </row>
     <row r="87" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>134</v>
@@ -15710,21 +15778,21 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>134</v>
@@ -15747,21 +15815,21 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>134</v>
@@ -15786,19 +15854,19 @@
     </row>
     <row r="90" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>134</v>
@@ -15823,19 +15891,19 @@
     </row>
     <row r="91" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>134</v>
@@ -15858,21 +15926,21 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B92" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>134</v>
@@ -15895,9 +15963,9 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>9</v>
@@ -15909,7 +15977,7 @@
         <v>140</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>134</v>
@@ -15934,22 +16002,22 @@
     </row>
     <row r="94" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -15971,21 +16039,21 @@
     </row>
     <row r="95" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D95" s="13" t="s">
+      <c r="C95" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E95" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F95" s="14" t="s">
+      <c r="E95" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F95" s="10" t="s">
         <v>133</v>
       </c>
       <c r="G95" s="1"/>
@@ -16008,21 +16076,21 @@
     </row>
     <row r="96" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F96" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F96" s="14" t="s">
         <v>133</v>
       </c>
       <c r="G96" s="1"/>
@@ -16043,24 +16111,24 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>134</v>
+        <v>149</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -16080,9 +16148,9 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>9</v>
@@ -16094,7 +16162,7 @@
         <v>140</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="F98" s="14" t="s">
         <v>134</v>
@@ -16117,23 +16185,25 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F99" s="14"/>
+        <v>231</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -16154,19 +16224,19 @@
     </row>
     <row r="100" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F100" s="14"/>
       <c r="G100" s="1"/>
@@ -16189,7 +16259,7 @@
     </row>
     <row r="101" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>9</v>
@@ -16198,10 +16268,10 @@
         <v>150</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F101" s="14"/>
       <c r="G101" s="1"/>
@@ -16224,7 +16294,7 @@
     </row>
     <row r="102" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>9</v>
@@ -16233,10 +16303,10 @@
         <v>150</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F102" s="14"/>
       <c r="G102" s="1"/>
@@ -16259,19 +16329,19 @@
     </row>
     <row r="103" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E103" s="15" t="s">
-        <v>162</v>
+        <v>9</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="F103" s="14"/>
       <c r="G103" s="1"/>
@@ -16294,19 +16364,19 @@
     </row>
     <row r="104" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="1"/>
@@ -16329,19 +16399,19 @@
     </row>
     <row r="105" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F105" s="14"/>
       <c r="G105" s="1"/>
@@ -16364,18 +16434,20 @@
     </row>
     <row r="106" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E106" s="15"/>
+        <v>167</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>168</v>
+      </c>
       <c r="F106" s="14"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -16397,20 +16469,18 @@
     </row>
     <row r="107" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E107" s="15" t="s">
-        <v>170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E107" s="15"/>
       <c r="F107" s="14"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -16432,19 +16502,19 @@
     </row>
     <row r="108" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="1"/>
@@ -16465,21 +16535,21 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F109" s="14"/>
       <c r="G109" s="1"/>
@@ -16502,19 +16572,19 @@
     </row>
     <row r="110" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="1"/>
@@ -16535,21 +16605,21 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="1"/>
@@ -16570,21 +16640,21 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="1"/>
@@ -16607,19 +16677,19 @@
     </row>
     <row r="113" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="1"/>
@@ -16640,21 +16710,21 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="1"/>
@@ -16675,21 +16745,21 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="1"/>
@@ -16710,9 +16780,68 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
+    <row r="116" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A116" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F116" s="14"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B89:B1048576 B1">
+  <conditionalFormatting sqref="B90:B1048576 B1">
+    <cfRule type="cellIs" dxfId="359" priority="451" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="452" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="357" priority="453" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="356" priority="454" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="455">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B88">
     <cfRule type="cellIs" dxfId="355" priority="446" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -16736,7 +16865,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B87">
+  <conditionalFormatting sqref="B89">
     <cfRule type="cellIs" dxfId="351" priority="441" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -16760,7 +16889,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B87">
     <cfRule type="cellIs" dxfId="347" priority="436" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -16857,19 +16986,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="cellIs" dxfId="331" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="411" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="412" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="413" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="414" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="420">
+    <cfRule type="colorScale" priority="415">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16905,19 +17034,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="cellIs" dxfId="323" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="396" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="397" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="398" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="399" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="405">
+    <cfRule type="colorScale" priority="400">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18825,7 +18954,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B115" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B116" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7418C963-90B7-4514-89B3-07A6FF6D3549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA3724F-672A-4F62-8286-9BF3808708E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="714">
   <si>
     <t>汇报日期</t>
   </si>
@@ -4389,14 +4389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.生活：7:30起床计划，23:30日报，坚持5天。
-2.技术：结束Vue。Leetcode：5题。
-3.英语：学习20小时。报名英语培训。
-4.健康：减到74.5kg。运动替换游戏6天。
-5.周报：周日23:59前，更新目标进度，下周计划。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1.完成。实际：6天
 2.</t>
@@ -4544,31 +4536,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2023-12-20
+星期三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.完成。07:19计划，23:07日报
 2.完成。11:00~17:00，4小时，1-00:25:51
 3.完成。17:13~23:59，视频19，120分钟
-4.完成。75.4kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-12-20
-星期三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。07:19计划，23:07日报
-2.完成。11:00~17:00，4小时，1-00:25:51
-3.完成。17:13~23:59，视频19，120分钟
-4.完成。75.4kg
-5.完成。</t>
+4.完成。75.3kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.生活：7:30起床计划，23:30日报，坚持5天。
+2.技术：结束Vue。Leetcode：5题。
+3.英语：学习20小时。报名英语培训。
+4.健康：周末减到74.5kg。运动替换游戏6天。
+5.周报：周日23:59前，更新目标进度，下周计划。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报睡觉
+2.技术：Vue3小时，提交git
+3.英语：4小时，复习词汇
+4.leetcode：1题(非必须)
+5.体重减到75.2kg(非必须)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.7点起床计划，23点日报睡觉
 2.英语：4小时，复习词汇
-3.技术：Vue3小时，提交git
-4.leetcode：1题(非必须)
-5.体重减到75.2kg(非必须)</t>
+3.leetcode：1题
+4.技术：结束并发，提交git
+5.体重减到75.0kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-21
+星期四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:05计划，23:30日报
+2.完成。11:20~15:30，4小时，1-00:44:28
+3.完成。17:13~18:05，1题(56)
+4.完成。18:06~23:06，已提交
+5.未完成。75.4kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:17计划，23:07日报
+2.完成。09:00~16:00，视频27，
+3.完成。19:00~23:00，4小时，1-00:44:28
+4.完成。16:00~17:40，1题(71)
+5.未完成。75.4kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 技术：前端学习，《java架构师需要掌握的前端架构》看到视频27。第一次学习Vue，源码讲解部分跳过了
+   1. Vue hello world项目执行。vue2生命周期
+   2. Vue3性能提升分析，新特性。
+2. leetcode：71. 简化路径（中等）。学习栈的使用。
+3. 英语：《海贼王真人版》，第2遍听力，听至第1集00:44:28，复习之前遇到的词汇。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4900,7 +4929,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="456">
+  <dxfs count="460">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -10008,7 +10079,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -10063,7 +10134,7 @@
         <v>45284</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>691</v>
@@ -10228,7 +10299,7 @@
         <v>569</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>581</v>
@@ -10268,7 +10339,7 @@
         <v>522</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>554</v>
@@ -11955,16 +12026,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B71:B1048576 B15:B60 B1">
-    <cfRule type="cellIs" dxfId="455" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="127" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="130" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="131">
@@ -11979,16 +12050,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="451" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="122" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="123" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="125">
@@ -12003,16 +12074,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="447" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="117" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="118" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="119" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="120">
@@ -12027,16 +12098,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="443" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="112" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="113" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="114" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="115">
@@ -12051,16 +12122,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="439" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="106" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="107" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="108" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="109" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -12075,16 +12146,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="435" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="101" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="102" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="103" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="104" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -12099,16 +12170,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="431" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="97" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="98" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="99" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -12123,16 +12194,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="427" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="94" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="95">
@@ -12147,16 +12218,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="423" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="86" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="87" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="88" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="89" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -12171,16 +12242,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="419" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="84" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="85">
@@ -12195,16 +12266,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="415" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -12219,16 +12290,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="411" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -12243,16 +12314,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="407" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -12267,16 +12338,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="403" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -12291,16 +12362,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="399" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -12315,16 +12386,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="395" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -12339,16 +12410,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="391" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -12363,16 +12434,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="387" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -12387,16 +12458,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="383" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -12411,16 +12482,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="379" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -12435,16 +12506,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="375" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -12459,16 +12530,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="371" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -12483,16 +12554,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="367" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -12507,16 +12578,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="363" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -12543,13 +12614,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W116"/>
+  <dimension ref="A1:W117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -12600,9 +12671,9 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="72.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
@@ -12611,7 +12682,7 @@
         <v>709</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="10"/>
@@ -12633,21 +12704,21 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="72.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>134</v>
@@ -12670,21 +12741,21 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>134</v>
@@ -12707,21 +12778,21 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>699</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>698</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>134</v>
@@ -12744,21 +12815,21 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="58" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>134</v>
@@ -12781,21 +12852,21 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="58" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>134</v>
@@ -12820,19 +12891,19 @@
     </row>
     <row r="8" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>134</v>
@@ -12857,19 +12928,19 @@
     </row>
     <row r="9" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>134</v>
@@ -12894,19 +12965,19 @@
     </row>
     <row r="10" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>134</v>
@@ -12931,16 +13002,16 @@
     </row>
     <row r="11" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>667</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>669</v>
@@ -12966,21 +13037,21 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>134</v>
@@ -13003,21 +13074,21 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>134</v>
@@ -13042,19 +13113,19 @@
     </row>
     <row r="14" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>134</v>
@@ -13079,19 +13150,19 @@
     </row>
     <row r="15" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>134</v>
@@ -13116,19 +13187,19 @@
     </row>
     <row r="16" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>134</v>
@@ -13153,19 +13224,19 @@
     </row>
     <row r="17" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>134</v>
@@ -13190,19 +13261,19 @@
     </row>
     <row r="18" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>134</v>
@@ -13227,22 +13298,22 @@
     </row>
     <row r="19" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -13264,22 +13335,22 @@
     </row>
     <row r="20" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -13301,19 +13372,19 @@
     </row>
     <row r="21" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>134</v>
@@ -13338,19 +13409,19 @@
     </row>
     <row r="22" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>134</v>
@@ -13375,19 +13446,19 @@
     </row>
     <row r="23" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>134</v>
@@ -13412,19 +13483,19 @@
     </row>
     <row r="24" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>134</v>
@@ -13449,19 +13520,19 @@
     </row>
     <row r="25" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>134</v>
@@ -13486,19 +13557,19 @@
     </row>
     <row r="26" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>134</v>
@@ -13523,19 +13594,19 @@
     </row>
     <row r="27" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>684</v>
+        <v>578</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>134</v>
@@ -13560,19 +13631,19 @@
     </row>
     <row r="28" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>571</v>
+        <v>684</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>134</v>
@@ -13597,19 +13668,19 @@
     </row>
     <row r="29" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>134</v>
@@ -13634,19 +13705,19 @@
     </row>
     <row r="30" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>134</v>
@@ -13669,21 +13740,21 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="57.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>134</v>
@@ -13706,21 +13777,21 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="57.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>134</v>
@@ -13745,19 +13816,19 @@
     </row>
     <row r="33" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>134</v>
@@ -13780,21 +13851,21 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>134</v>
@@ -13817,21 +13888,21 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>134</v>
@@ -13854,21 +13925,21 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="77" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>134</v>
@@ -13891,21 +13962,21 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="77" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>134</v>
@@ -13928,24 +13999,24 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="62" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>441</v>
+        <v>527</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -13965,21 +14036,21 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="62" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>436</v>
+        <v>523</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>133</v>
@@ -14002,24 +14073,24 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -14041,19 +14112,19 @@
     </row>
     <row r="41" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>134</v>
@@ -14078,22 +14149,22 @@
     </row>
     <row r="42" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -14115,22 +14186,22 @@
     </row>
     <row r="43" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -14152,22 +14223,22 @@
     </row>
     <row r="44" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>413</v>
+        <v>134</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -14189,22 +14260,22 @@
     </row>
     <row r="45" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -14226,19 +14297,19 @@
     </row>
     <row r="46" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>134</v>
@@ -14263,19 +14334,19 @@
     </row>
     <row r="47" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>134</v>
@@ -14300,19 +14371,19 @@
     </row>
     <row r="48" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>134</v>
@@ -14337,19 +14408,19 @@
     </row>
     <row r="49" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>134</v>
@@ -14374,19 +14445,19 @@
     </row>
     <row r="50" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>575</v>
+        <v>398</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>134</v>
@@ -14411,19 +14482,19 @@
     </row>
     <row r="51" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>386</v>
+        <v>575</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>134</v>
@@ -14448,19 +14519,19 @@
     </row>
     <row r="52" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>134</v>
@@ -14485,19 +14556,19 @@
     </row>
     <row r="53" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>134</v>
@@ -14522,19 +14593,19 @@
     </row>
     <row r="54" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>134</v>
@@ -14559,22 +14630,22 @@
     </row>
     <row r="55" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -14596,22 +14667,22 @@
     </row>
     <row r="56" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -14633,19 +14704,19 @@
     </row>
     <row r="57" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>362</v>
+        <v>371</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>369</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>134</v>
@@ -14670,19 +14741,19 @@
     </row>
     <row r="58" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>134</v>
@@ -14707,22 +14778,22 @@
     </row>
     <row r="59" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -14744,22 +14815,22 @@
     </row>
     <row r="60" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -14781,19 +14852,19 @@
     </row>
     <row r="61" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>134</v>
@@ -14818,19 +14889,19 @@
     </row>
     <row r="62" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>134</v>
@@ -14853,24 +14924,24 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -14892,22 +14963,22 @@
     </row>
     <row r="64" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -14929,19 +15000,19 @@
     </row>
     <row r="65" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>134</v>
@@ -14966,19 +15037,19 @@
     </row>
     <row r="66" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>134</v>
@@ -15003,19 +15074,19 @@
     </row>
     <row r="67" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>134</v>
@@ -15038,21 +15109,21 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" ht="87" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>134</v>
@@ -15077,19 +15148,19 @@
     </row>
     <row r="69" spans="1:23" ht="87" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>134</v>
@@ -15112,21 +15183,21 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="87" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>134</v>
@@ -15149,24 +15220,24 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -15188,19 +15259,19 @@
     </row>
     <row r="72" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>133</v>
@@ -15225,22 +15296,22 @@
     </row>
     <row r="73" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -15260,21 +15331,21 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" ht="87" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>134</v>
@@ -15297,21 +15368,21 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" ht="87" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>134</v>
@@ -15336,19 +15407,19 @@
     </row>
     <row r="76" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>134</v>
@@ -15371,24 +15442,24 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -15408,24 +15479,24 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -15447,19 +15518,19 @@
     </row>
     <row r="79" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>134</v>
@@ -15484,19 +15555,19 @@
     </row>
     <row r="80" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>134</v>
@@ -15519,21 +15590,21 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>134</v>
@@ -15556,21 +15627,21 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>134</v>
@@ -15593,24 +15664,24 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -15632,22 +15703,22 @@
     </row>
     <row r="84" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -15669,19 +15740,19 @@
     </row>
     <row r="85" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>134</v>
@@ -15706,19 +15777,19 @@
     </row>
     <row r="86" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>134</v>
@@ -15743,19 +15814,19 @@
     </row>
     <row r="87" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>134</v>
@@ -15780,19 +15851,19 @@
     </row>
     <row r="88" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>134</v>
@@ -15815,21 +15886,21 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>134</v>
@@ -15852,21 +15923,21 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>134</v>
@@ -15891,19 +15962,19 @@
     </row>
     <row r="91" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>134</v>
@@ -15928,19 +15999,19 @@
     </row>
     <row r="92" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>134</v>
@@ -15963,21 +16034,21 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B93" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>134</v>
@@ -16000,9 +16071,9 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>9</v>
@@ -16014,7 +16085,7 @@
         <v>140</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>134</v>
@@ -16039,22 +16110,22 @@
     </row>
     <row r="95" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -16076,21 +16147,21 @@
     </row>
     <row r="96" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C96" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D96" s="13" t="s">
+      <c r="C96" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E96" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F96" s="14" t="s">
+      <c r="E96" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F96" s="10" t="s">
         <v>133</v>
       </c>
       <c r="G96" s="1"/>
@@ -16113,21 +16184,21 @@
     </row>
     <row r="97" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E97" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F97" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F97" s="14" t="s">
         <v>133</v>
       </c>
       <c r="G97" s="1"/>
@@ -16148,24 +16219,24 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F98" s="14" t="s">
-        <v>134</v>
+        <v>149</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -16185,9 +16256,9 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>9</v>
@@ -16199,7 +16270,7 @@
         <v>140</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="F99" s="14" t="s">
         <v>134</v>
@@ -16222,23 +16293,25 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F100" s="14"/>
+        <v>231</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -16259,19 +16332,19 @@
     </row>
     <row r="101" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F101" s="14"/>
       <c r="G101" s="1"/>
@@ -16294,7 +16367,7 @@
     </row>
     <row r="102" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>9</v>
@@ -16303,10 +16376,10 @@
         <v>150</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F102" s="14"/>
       <c r="G102" s="1"/>
@@ -16329,7 +16402,7 @@
     </row>
     <row r="103" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>9</v>
@@ -16338,10 +16411,10 @@
         <v>150</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F103" s="14"/>
       <c r="G103" s="1"/>
@@ -16364,19 +16437,19 @@
     </row>
     <row r="104" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E104" s="15" t="s">
-        <v>162</v>
+        <v>9</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="1"/>
@@ -16399,19 +16472,19 @@
     </row>
     <row r="105" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F105" s="14"/>
       <c r="G105" s="1"/>
@@ -16434,19 +16507,19 @@
     </row>
     <row r="106" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F106" s="14"/>
       <c r="G106" s="1"/>
@@ -16469,18 +16542,20 @@
     </row>
     <row r="107" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E107" s="15"/>
+        <v>167</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>168</v>
+      </c>
       <c r="F107" s="14"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -16502,20 +16577,18 @@
     </row>
     <row r="108" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E108" s="15" t="s">
-        <v>170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E108" s="15"/>
       <c r="F108" s="14"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -16537,19 +16610,19 @@
     </row>
     <row r="109" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F109" s="14"/>
       <c r="G109" s="1"/>
@@ -16570,21 +16643,21 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="1"/>
@@ -16607,19 +16680,19 @@
     </row>
     <row r="111" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="1"/>
@@ -16640,21 +16713,21 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="1"/>
@@ -16675,21 +16748,21 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="1"/>
@@ -16712,19 +16785,19 @@
     </row>
     <row r="114" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="1"/>
@@ -16745,21 +16818,21 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="1"/>
@@ -16780,21 +16853,21 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="1"/>
@@ -16815,9 +16888,68 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
+    <row r="117" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A117" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F117" s="14"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B90:B1048576 B1">
+  <conditionalFormatting sqref="B91:B1048576 B1">
+    <cfRule type="cellIs" dxfId="363" priority="456" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="362" priority="457" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="458" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="360" priority="459" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="460">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B89">
     <cfRule type="cellIs" dxfId="359" priority="451" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -16841,7 +16973,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B90">
     <cfRule type="cellIs" dxfId="355" priority="446" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -16865,7 +16997,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
+  <conditionalFormatting sqref="B88">
     <cfRule type="cellIs" dxfId="351" priority="441" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -16962,19 +17094,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="335" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="416" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="417" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="418" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="419" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="425">
+    <cfRule type="colorScale" priority="420">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17010,19 +17142,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="327" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="401" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="402" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="403" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="404" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="410">
+    <cfRule type="colorScale" priority="405">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18954,7 +19086,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B116" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B117" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA3724F-672A-4F62-8286-9BF3808708E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AB28DC-22D4-4DD6-96C2-CC8CCD91FC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="715">
   <si>
     <t>汇报日期</t>
   </si>
@@ -4564,32 +4564,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.7点起床计划，23点日报睡觉
-2.英语：4小时，复习词汇
-3.leetcode：1题
-4.技术：结束并发，提交git
-5.体重减到75.0kg(非必须)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2023-12-21
 星期四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。07:05计划，23:30日报
-2.完成。11:20~15:30，4小时，1-00:44:28
-3.完成。17:13~18:05，1题(56)
-4.完成。18:06~23:06，已提交
-5.未完成。75.4kg。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。07:17计划，23:07日报
-2.完成。09:00~16:00，视频27，
-3.完成。19:00~23:00，4小时，1-00:44:28
-4.完成。16:00~17:40，1题(71)
-5.未完成。75.4kg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4598,6 +4574,34 @@
    2. Vue3性能提升分析，新特性。
 2. leetcode：71. 简化路径（中等）。学习栈的使用。
 3. 英语：《海贼王真人版》，第2遍听力，听至第1集00:44:28，复习之前遇到的词汇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:17计划，23:28日报
+2.完成。09:00~16:00，视频27，
+3.完成。19:00~23:00，4小时，1-00:44:28
+4.完成。16:00~17:40，1题(71)
+5.未完成。74.9kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:15计划，23:30日报
+2.完成。09:00~14:00，4小时，1-00:44:28
+3.完成。17:13~18:05，1题(56)
+4.完成。18:06~23:06，已提交
+5.未完成。75.4kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报睡觉
+2.英语：4小时，复习词汇
+3.leetcode：1题
+4.技术：结束并发，提交git
+5.体重减到74.9kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚饭吃代餐，除了饮料不允许吃其他的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12620,7 +12624,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -12673,18 +12677,20 @@
     </row>
     <row r="2" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>711</v>
-      </c>
-      <c r="E2" s="26"/>
+        <v>712</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>714</v>
+      </c>
       <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -12715,10 +12721,10 @@
         <v>708</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>134</v>

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AB28DC-22D4-4DD6-96C2-CC8CCD91FC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1F8D65-F9DA-495E-A6DE-198F704CA1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="717">
   <si>
     <t>汇报日期</t>
   </si>
@@ -4585,23 +4585,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。07:15计划，23:30日报
-2.完成。09:00~14:00，4小时，1-00:44:28
-3.完成。17:13~18:05，1题(56)
-4.完成。18:06~23:06，已提交
-5.未完成。75.4kg。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.7点起床计划，23点日报睡觉
 2.英语：4小时，复习词汇
-3.leetcode：1题
-4.技术：结束并发，提交git
+3.leetcode：1题(非必须)
+4.技术：5小时，提交git
 5.体重减到74.9kg(非必须)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晚饭吃代餐，除了饮料不允许吃其他的</t>
+    <t>1.完成。07:15计划，23:30日报
+2.完成。09:00~14:00，4小时，2-00:00:52
+3.完成。14:30~16:26，1题(155)
+4.完成。16:40~23:00，5小时，看到视频6
+5.未完成。75.4kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. leetcode：155. 最小栈（中等）。自己用LinkedList写了一个，489ms，学习了别人的实现提升至：3ms。
+2. 技术：前端学习，《前端技术之Vue框架》看到视频6。第一次学习Vue，源码讲解部分跳过了
+   1. 和Js进行对比，为什么Vue是一个渐进式的，对新手更友好的框架。
+   2. Vue的插值语法，如何判断Vue.js是否引入成功。
+   3. Vue指令学习：v-if, v-show, v-for
+3. 英语：《海贼王真人版》，第2遍听力，听至第2集00:00:52，复习之前遇到的词汇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-22
+星期五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报睡觉
+2.英语：4小时，复习词汇
+3.leetcode：1题(非必须)
+4.技术：Vue视频21，提交git
+5.体重减到74.8kg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4933,7 +4951,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="460">
+  <dxfs count="464">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -12030,16 +12090,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B71:B1048576 B15:B60 B1">
-    <cfRule type="cellIs" dxfId="459" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="127" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="130" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="131">
@@ -12054,16 +12114,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="455" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="122" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="123" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="125">
@@ -12078,16 +12138,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="451" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="117" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="118" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="119" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="120">
@@ -12102,16 +12162,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="447" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="112" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="113" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="114" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="115">
@@ -12126,16 +12186,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="443" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="106" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="107" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="108" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="109" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -12150,16 +12210,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="439" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="101" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="102" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="103" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="104" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -12174,16 +12234,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="435" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="97" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="98" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="99" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -12198,16 +12258,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="431" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="94" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="95">
@@ -12222,16 +12282,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="427" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="86" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="87" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="88" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="89" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -12246,16 +12306,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="423" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="84" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="85">
@@ -12270,16 +12330,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="419" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -12294,16 +12354,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="415" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -12318,16 +12378,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="411" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -12342,16 +12402,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="407" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -12366,16 +12426,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="403" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -12390,16 +12450,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="399" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -12414,16 +12474,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="395" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -12438,16 +12498,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="391" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -12462,16 +12522,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="387" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -12486,16 +12546,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="383" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -12510,16 +12570,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="379" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -12534,16 +12594,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="375" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -12558,16 +12618,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="371" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -12582,16 +12642,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="367" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -12618,13 +12678,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W117"/>
+  <dimension ref="A1:W118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -12677,20 +12737,18 @@
     </row>
     <row r="2" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>714</v>
-      </c>
+      <c r="E2" s="26"/>
       <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -12710,21 +12768,21 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="72.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>134</v>
@@ -12747,21 +12805,21 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="72.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>134</v>
@@ -12784,21 +12842,21 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>134</v>
@@ -12821,21 +12879,21 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>134</v>
@@ -12858,21 +12916,21 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="58" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>134</v>
@@ -12895,21 +12953,21 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="58" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>134</v>
@@ -12934,19 +12992,19 @@
     </row>
     <row r="9" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>134</v>
@@ -12971,19 +13029,19 @@
     </row>
     <row r="10" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>134</v>
@@ -13008,19 +13066,19 @@
     </row>
     <row r="11" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>134</v>
@@ -13045,16 +13103,16 @@
     </row>
     <row r="12" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>667</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>669</v>
@@ -13080,21 +13138,21 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>134</v>
@@ -13117,21 +13175,21 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>134</v>
@@ -13156,19 +13214,19 @@
     </row>
     <row r="15" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>134</v>
@@ -13193,19 +13251,19 @@
     </row>
     <row r="16" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>134</v>
@@ -13230,19 +13288,19 @@
     </row>
     <row r="17" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>134</v>
@@ -13267,19 +13325,19 @@
     </row>
     <row r="18" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>134</v>
@@ -13304,19 +13362,19 @@
     </row>
     <row r="19" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>134</v>
@@ -13341,22 +13399,22 @@
     </row>
     <row r="20" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -13378,22 +13436,22 @@
     </row>
     <row r="21" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -13415,19 +13473,19 @@
     </row>
     <row r="22" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>134</v>
@@ -13452,19 +13510,19 @@
     </row>
     <row r="23" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>134</v>
@@ -13489,19 +13547,19 @@
     </row>
     <row r="24" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>134</v>
@@ -13526,19 +13584,19 @@
     </row>
     <row r="25" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>134</v>
@@ -13563,19 +13621,19 @@
     </row>
     <row r="26" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>134</v>
@@ -13600,19 +13658,19 @@
     </row>
     <row r="27" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>134</v>
@@ -13637,19 +13695,19 @@
     </row>
     <row r="28" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>684</v>
+        <v>578</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>134</v>
@@ -13674,19 +13732,19 @@
     </row>
     <row r="29" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>571</v>
+        <v>684</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>134</v>
@@ -13711,19 +13769,19 @@
     </row>
     <row r="30" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>134</v>
@@ -13748,19 +13806,19 @@
     </row>
     <row r="31" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>134</v>
@@ -13783,21 +13841,21 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="57.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>134</v>
@@ -13820,21 +13878,21 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="57.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>134</v>
@@ -13859,19 +13917,19 @@
     </row>
     <row r="34" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>134</v>
@@ -13894,21 +13952,21 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>134</v>
@@ -13931,21 +13989,21 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>134</v>
@@ -13968,21 +14026,21 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="77" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>134</v>
@@ -14005,21 +14063,21 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="77" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>134</v>
@@ -14042,24 +14100,24 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="62" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>441</v>
+        <v>527</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -14079,21 +14137,21 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="62" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>436</v>
+        <v>523</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>133</v>
@@ -14116,24 +14174,24 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -14155,19 +14213,19 @@
     </row>
     <row r="42" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>134</v>
@@ -14192,22 +14250,22 @@
     </row>
     <row r="43" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -14229,22 +14287,22 @@
     </row>
     <row r="44" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -14266,22 +14324,22 @@
     </row>
     <row r="45" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>413</v>
+        <v>134</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -14303,22 +14361,22 @@
     </row>
     <row r="46" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -14340,19 +14398,19 @@
     </row>
     <row r="47" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>134</v>
@@ -14377,19 +14435,19 @@
     </row>
     <row r="48" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>134</v>
@@ -14414,19 +14472,19 @@
     </row>
     <row r="49" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>134</v>
@@ -14451,19 +14509,19 @@
     </row>
     <row r="50" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>134</v>
@@ -14488,19 +14546,19 @@
     </row>
     <row r="51" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>575</v>
+        <v>398</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>134</v>
@@ -14525,19 +14583,19 @@
     </row>
     <row r="52" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>386</v>
+        <v>575</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>134</v>
@@ -14562,19 +14620,19 @@
     </row>
     <row r="53" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>134</v>
@@ -14599,19 +14657,19 @@
     </row>
     <row r="54" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>134</v>
@@ -14636,19 +14694,19 @@
     </row>
     <row r="55" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>134</v>
@@ -14673,22 +14731,22 @@
     </row>
     <row r="56" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -14710,22 +14768,22 @@
     </row>
     <row r="57" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -14747,19 +14805,19 @@
     </row>
     <row r="58" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>362</v>
+        <v>371</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>369</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>134</v>
@@ -14784,19 +14842,19 @@
     </row>
     <row r="59" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>134</v>
@@ -14821,22 +14879,22 @@
     </row>
     <row r="60" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -14858,22 +14916,22 @@
     </row>
     <row r="61" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -14895,19 +14953,19 @@
     </row>
     <row r="62" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>134</v>
@@ -14932,19 +14990,19 @@
     </row>
     <row r="63" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>134</v>
@@ -14967,24 +15025,24 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -15006,22 +15064,22 @@
     </row>
     <row r="65" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -15043,19 +15101,19 @@
     </row>
     <row r="66" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>134</v>
@@ -15080,19 +15138,19 @@
     </row>
     <row r="67" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>134</v>
@@ -15117,19 +15175,19 @@
     </row>
     <row r="68" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>134</v>
@@ -15152,21 +15210,21 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" ht="87" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>134</v>
@@ -15191,19 +15249,19 @@
     </row>
     <row r="70" spans="1:23" ht="87" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>134</v>
@@ -15226,21 +15284,21 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="87" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>134</v>
@@ -15263,24 +15321,24 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -15302,19 +15360,19 @@
     </row>
     <row r="73" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>133</v>
@@ -15339,22 +15397,22 @@
     </row>
     <row r="74" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -15374,21 +15432,21 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" ht="87" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>134</v>
@@ -15411,21 +15469,21 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="87" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>134</v>
@@ -15450,19 +15508,19 @@
     </row>
     <row r="77" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>134</v>
@@ -15485,24 +15543,24 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -15522,24 +15580,24 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -15561,19 +15619,19 @@
     </row>
     <row r="80" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>134</v>
@@ -15598,19 +15656,19 @@
     </row>
     <row r="81" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>134</v>
@@ -15633,21 +15691,21 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>134</v>
@@ -15670,21 +15728,21 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>134</v>
@@ -15707,24 +15765,24 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -15746,22 +15804,22 @@
     </row>
     <row r="85" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -15783,19 +15841,19 @@
     </row>
     <row r="86" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>134</v>
@@ -15820,19 +15878,19 @@
     </row>
     <row r="87" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>134</v>
@@ -15857,19 +15915,19 @@
     </row>
     <row r="88" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>134</v>
@@ -15894,19 +15952,19 @@
     </row>
     <row r="89" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>134</v>
@@ -15929,21 +15987,21 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>134</v>
@@ -15966,21 +16024,21 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>134</v>
@@ -16005,19 +16063,19 @@
     </row>
     <row r="92" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>134</v>
@@ -16042,19 +16100,19 @@
     </row>
     <row r="93" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>134</v>
@@ -16077,21 +16135,21 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B94" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>134</v>
@@ -16114,9 +16172,9 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>9</v>
@@ -16128,7 +16186,7 @@
         <v>140</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>134</v>
@@ -16153,22 +16211,22 @@
     </row>
     <row r="96" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C96" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -16190,21 +16248,21 @@
     </row>
     <row r="97" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C97" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D97" s="13" t="s">
+      <c r="C97" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E97" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F97" s="14" t="s">
+      <c r="E97" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F97" s="10" t="s">
         <v>133</v>
       </c>
       <c r="G97" s="1"/>
@@ -16227,21 +16285,21 @@
     </row>
     <row r="98" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F98" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F98" s="14" t="s">
         <v>133</v>
       </c>
       <c r="G98" s="1"/>
@@ -16262,24 +16320,24 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F99" s="14" t="s">
-        <v>134</v>
+        <v>149</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -16299,9 +16357,9 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>9</v>
@@ -16313,7 +16371,7 @@
         <v>140</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="F100" s="14" t="s">
         <v>134</v>
@@ -16336,23 +16394,25 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F101" s="14"/>
+        <v>231</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -16373,19 +16433,19 @@
     </row>
     <row r="102" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F102" s="14"/>
       <c r="G102" s="1"/>
@@ -16408,7 +16468,7 @@
     </row>
     <row r="103" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>9</v>
@@ -16417,10 +16477,10 @@
         <v>150</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F103" s="14"/>
       <c r="G103" s="1"/>
@@ -16443,7 +16503,7 @@
     </row>
     <row r="104" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>9</v>
@@ -16452,10 +16512,10 @@
         <v>150</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="1"/>
@@ -16478,19 +16538,19 @@
     </row>
     <row r="105" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E105" s="15" t="s">
-        <v>162</v>
+        <v>9</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="F105" s="14"/>
       <c r="G105" s="1"/>
@@ -16513,19 +16573,19 @@
     </row>
     <row r="106" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F106" s="14"/>
       <c r="G106" s="1"/>
@@ -16548,19 +16608,19 @@
     </row>
     <row r="107" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F107" s="14"/>
       <c r="G107" s="1"/>
@@ -16583,18 +16643,20 @@
     </row>
     <row r="108" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E108" s="15"/>
+        <v>167</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>168</v>
+      </c>
       <c r="F108" s="14"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -16616,20 +16678,18 @@
     </row>
     <row r="109" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E109" s="15"/>
       <c r="F109" s="14"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -16651,19 +16711,19 @@
     </row>
     <row r="110" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="1"/>
@@ -16684,21 +16744,21 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="1"/>
@@ -16721,19 +16781,19 @@
     </row>
     <row r="112" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="1"/>
@@ -16754,21 +16814,21 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="1"/>
@@ -16789,21 +16849,21 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="1"/>
@@ -16826,19 +16886,19 @@
     </row>
     <row r="115" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="1"/>
@@ -16859,21 +16919,21 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="1"/>
@@ -16894,21 +16954,21 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F117" s="14"/>
       <c r="G117" s="1"/>
@@ -16929,9 +16989,68 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
+    <row r="118" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A118" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F118" s="14"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B91:B1048576 B1">
+  <conditionalFormatting sqref="B92:B1048576 B1">
+    <cfRule type="cellIs" dxfId="367" priority="461" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="366" priority="462" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="365" priority="463" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="464" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="465">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90">
     <cfRule type="cellIs" dxfId="363" priority="456" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -16955,7 +17074,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
+  <conditionalFormatting sqref="B91">
     <cfRule type="cellIs" dxfId="359" priority="451" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -16979,7 +17098,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
+  <conditionalFormatting sqref="B89">
     <cfRule type="cellIs" dxfId="355" priority="446" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -17076,19 +17195,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="339" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="421" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="422" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="423" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="424" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="430">
+    <cfRule type="colorScale" priority="425">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17124,19 +17243,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="cellIs" dxfId="331" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="406" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="407" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="408" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="409" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="415">
+    <cfRule type="colorScale" priority="410">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19092,7 +19211,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B117" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B118" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1F8D65-F9DA-495E-A6DE-198F704CA1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E946EF2F-0E15-4977-B6FA-9955067A5385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="718">
   <si>
     <t>汇报日期</t>
   </si>
@@ -4593,14 +4593,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。07:15计划，23:30日报
-2.完成。09:00~14:00，4小时，2-00:00:52
-3.完成。14:30~16:26，1题(155)
-4.完成。16:40~23:00，5小时，看到视频6
-5.未完成。75.4kg。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. leetcode：155. 最小栈（中等）。自己用LinkedList写了一个，489ms，学习了别人的实现提升至：3ms。
 2. 技术：前端学习，《前端技术之Vue框架》看到视频6。第一次学习Vue，源码讲解部分跳过了
    1. 和Js进行对比，为什么Vue是一个渐进式的，对新手更友好的框架。
@@ -4615,11 +4607,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.7点起床计划，23点日报睡觉
+    <t>1.完成。07:15计划，23:30日报
+2.完成。09:00~14:00，4小时，2-00:00:52
+3.完成。14:30~16:26，1题(155)
+4.完成。16:40~23:00，5小时，看到视频6
+5.未完成。74.5kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。08:39计划，23:30日报
+2.完成。09:00~14:00，4小时，2-00:00:52
+3.完成。14:30~16:26，1题(155)
+4.完成。16:40~23:00，5小时，看到视频6
+5.未完成。75.4kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8点起床计划，23点日报
 2.英语：4小时，复习词汇
 3.leetcode：1题(非必须)
 4.技术：Vue视频21，提交git
-5.体重减到74.8kg</t>
+5.体重减到74.5kg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10143,7 +10151,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -12684,7 +12692,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -12737,16 +12745,16 @@
     </row>
     <row r="2" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>716</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>713</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="10"/>
@@ -12779,10 +12787,10 @@
         <v>712</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>713</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>714</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>134</v>
@@ -19187,16 +19195,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -19653,16 +19661,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E946EF2F-0E15-4977-B6FA-9955067A5385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA74F81F-AE9F-41CE-8C7D-5E1A4948DC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -4347,13 +4347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.未完成。12:23计划，01:35日报
-2.完成。12:23~17:00，3小时，1-00:10:34
-3.完成。20:30~01:30，13题
-4.完成。75.5kg。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.未完成。07:53计划，23:30日报（忘12-1）
 2.完成。10:30~15:30，4小时，8-00:00:46
 3.完成。16:45~17:40，1题(530)
@@ -4449,12 +4442,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.7点起床计划，23点日报睡觉
-2.周报，git封面
-3.并发，结束，提交git</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2023-12-18
 星期一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4464,8 +4451,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. leetcode：57. 插入区间（中等）。
+2. 技术：多线程并发，面试题整理结束。
+   1. Locksupport使用即参考案例，ConcurrentHashMap使用及原理
+   2. 重新修改Git文档的readme文件。
+3. 英语：《海贼王真人版》，第2遍听力，听至第1集00:15:51，复习之前遇到的词汇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-19
+星期二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报睡觉
+2.英语：4小时，复习词汇
+3.leetcode：1题
+4.技术：结束并发，提交git
+5.体重减到75.9kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:05计划，23:30日报
+2.完成。11:20~15:30，4小时，1-00:15:51
+3.完成。17:13~18:05，1题(56)
+4.完成。18:06~23:06，已提交
+5.未完成。75.4kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报睡觉
+2.英语：4小时，复习词汇
+3.技术：Vue2小时，提交git
+4.体重减到75.5kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 技术：前端学习，《java架构师需要掌握的前端架构》看到视频19。1. 前端架构演进：无架构 &gt; MVC架构 &gt; 多页面架构 &gt; 单页面架构 &gt; 大前端时代 &gt; 微前端
+   2. TypeScript，工具插件安装，Hello world项目搭建，基本数据类型学习。
+   3. Vue，如何学习Vue，template编译过程。
+2. 英语：《海贼王真人版》，第2遍听力，听至第1集00:25:51，复习之前遇到的词汇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-20
+星期三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:19计划，23:07日报
+2.完成。11:00~17:00，4小时，1-00:25:51
+3.完成。17:13~23:59，视频19，120分钟
+4.完成。75.3kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.生活：7:30起床计划，23:30日报，坚持5天。
+2.技术：结束Vue。Leetcode：5题。
+3.英语：学习20小时。报名英语培训。
+4.健康：周末减到74.5kg。运动替换游戏6天。
+5.周报：周日23:59前，更新目标进度，下周计划。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报睡觉
+2.技术：Vue3小时，提交git
+3.英语：4小时，复习词汇
+4.leetcode：1题(非必须)
+5.体重减到75.2kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-21
+星期四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 技术：前端学习，《java架构师需要掌握的前端架构》看到视频27。第一次学习Vue，源码讲解部分跳过了
+   1. Vue hello world项目执行。vue2生命周期
+   2. Vue3性能提升分析，新特性。
+2. leetcode：71. 简化路径（中等）。学习栈的使用。
+3. 英语：《海贼王真人版》，第2遍听力，听至第1集00:44:28，复习之前遇到的词汇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:17计划，23:28日报
+2.完成。09:00~16:00，视频27，
+3.完成。19:00~23:00，4小时，1-00:44:28
+4.完成。16:00~17:40，1题(71)
+5.未完成。74.9kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报睡觉
+2.英语：4小时，复习词汇
+3.leetcode：1题(非必须)
+4.技术：5小时，提交git
+5.体重减到74.9kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. leetcode：155. 最小栈（中等）。自己用LinkedList写了一个，489ms，学习了别人的实现提升至：3ms。
+2. 技术：前端学习，《前端技术之Vue框架》看到视频6。第一次学习Vue，源码讲解部分跳过了
+   1. 和Js进行对比，为什么Vue是一个渐进式的，对新手更友好的框架。
+   2. Vue的插值语法，如何判断Vue.js是否引入成功。
+   3. Vue指令学习：v-if, v-show, v-for
+3. 英语：《海贼王真人版》，第2遍听力，听至第2集00:00:52，复习之前遇到的词汇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-22
+星期五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:15计划，23:30日报
+2.完成。09:00~14:00，4小时，2-00:00:52
+3.完成。14:30~16:26，1题(155)
+4.完成。16:40~23:00，5小时，看到视频6
+5.未完成。74.5kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8点起床计划，23点日报
+2.英语：4小时，复习词汇
+3.leetcode：1题(非必须)
+4.技术：Vue视频21，提交git
+5.体重减到74.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>1.未完成。08:17计划，23:27日报，</t>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
@@ -4476,7 +4593,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>未睡觉</t>
+      <t>未完成</t>
     </r>
     <r>
       <rPr>
@@ -4486,148 +4603,31 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
+      <t>。12:23计划，01:35日报
+2.完成。12:23~17:00，3小时，1-00:10:34
+3.完成。20:30~01:30，13题
+4.完成。75.5kg。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报(非必须)
+2.周报，git封面
+3.并发，结束，提交git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未完成。08:17计划，23:27日报, 未睡觉
 2.完成。21:01，封面初版完成
 3.完成。21:30~23:30，已提交</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. leetcode：57. 插入区间（中等）。
-2. 技术：多线程并发，面试题整理结束。
-   1. Locksupport使用即参考案例，ConcurrentHashMap使用及原理
-   2. 重新修改Git文档的readme文件。
-3. 英语：《海贼王真人版》，第2遍听力，听至第1集00:15:51，复习之前遇到的词汇。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-12-19
-星期二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.7点起床计划，23点日报睡觉
-2.英语：4小时，复习词汇
-3.leetcode：1题
-4.技术：结束并发，提交git
-5.体重减到75.9kg(非必须)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。07:05计划，23:30日报
-2.完成。11:20~15:30，4小时，1-00:15:51
-3.完成。17:13~18:05，1题(56)
-4.完成。18:06~23:06，已提交
-5.未完成。75.4kg。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.7点起床计划，23点日报睡觉
-2.英语：4小时，复习词汇
-3.技术：Vue2小时，提交git
-4.体重减到75.5kg(非必须)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 技术：前端学习，《java架构师需要掌握的前端架构》看到视频19。1. 前端架构演进：无架构 &gt; MVC架构 &gt; 多页面架构 &gt; 单页面架构 &gt; 大前端时代 &gt; 微前端
-   2. TypeScript，工具插件安装，Hello world项目搭建，基本数据类型学习。
-   3. Vue，如何学习Vue，template编译过程。
-2. 英语：《海贼王真人版》，第2遍听力，听至第1集00:25:51，复习之前遇到的词汇。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-12-20
-星期三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。07:19计划，23:07日报
-2.完成。11:00~17:00，4小时，1-00:25:51
-3.完成。17:13~23:59，视频19，120分钟
-4.完成。75.3kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.生活：7:30起床计划，23:30日报，坚持5天。
-2.技术：结束Vue。Leetcode：5题。
-3.英语：学习20小时。报名英语培训。
-4.健康：周末减到74.5kg。运动替换游戏6天。
-5.周报：周日23:59前，更新目标进度，下周计划。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.7点起床计划，23点日报睡觉
-2.技术：Vue3小时，提交git
-3.英语：4小时，复习词汇
-4.leetcode：1题(非必须)
-5.体重减到75.2kg(非必须)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-12-21
-星期四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 技术：前端学习，《java架构师需要掌握的前端架构》看到视频27。第一次学习Vue，源码讲解部分跳过了
-   1. Vue hello world项目执行。vue2生命周期
-   2. Vue3性能提升分析，新特性。
-2. leetcode：71. 简化路径（中等）。学习栈的使用。
-3. 英语：《海贼王真人版》，第2遍听力，听至第1集00:44:28，复习之前遇到的词汇。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。07:17计划，23:28日报
-2.完成。09:00~16:00，视频27，
-3.完成。19:00~23:00，4小时，1-00:44:28
-4.完成。16:00~17:40，1题(71)
-5.未完成。74.9kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.7点起床计划，23点日报睡觉
-2.英语：4小时，复习词汇
-3.leetcode：1题(非必须)
-4.技术：5小时，提交git
-5.体重减到74.9kg(非必须)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. leetcode：155. 最小栈（中等）。自己用LinkedList写了一个，489ms，学习了别人的实现提升至：3ms。
-2. 技术：前端学习，《前端技术之Vue框架》看到视频6。第一次学习Vue，源码讲解部分跳过了
-   1. 和Js进行对比，为什么Vue是一个渐进式的，对新手更友好的框架。
-   2. Vue的插值语法，如何判断Vue.js是否引入成功。
-   3. Vue指令学习：v-if, v-show, v-for
-3. 英语：《海贼王真人版》，第2遍听力，听至第2集00:00:52，复习之前遇到的词汇。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-12-22
-星期五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。07:15计划，23:30日报
-2.完成。09:00~14:00，4小时，2-00:00:52
-3.完成。14:30~16:26，1题(155)
-4.完成。16:40~23:00，5小时，看到视频6
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。08:39计划，23:30日报
+2.完成。10:00~14:35，4小时，2-00:15:58
+3.完成。14:50~16:25，1题(452)
+4.完成。17:21~22:21，
 5.未完成。74.5kg。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。08:39计划，23:30日报
-2.完成。09:00~14:00，4小时，2-00:00:52
-3.完成。14:30~16:26，1题(155)
-4.完成。16:40~23:00，5小时，看到视频6
-5.未完成。75.4kg。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8点起床计划，23点日报
-2.英语：4小时，复习词汇
-3.leetcode：1题(非必须)
-4.技术：Vue视频21，提交git
-5.体重减到74.5kg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10151,22 +10151,22 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.54296875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="11.77734375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5546875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>45284</v>
       </c>
@@ -10206,10 +10206,10 @@
         <v>45284</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -10230,7 +10230,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>45277</v>
       </c>
@@ -10247,13 +10247,13 @@
         <v>656</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>691</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>692</v>
-      </c>
       <c r="H3" s="18" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -10272,7 +10272,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>45270</v>
       </c>
@@ -10314,7 +10314,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>45263</v>
       </c>
@@ -10354,7 +10354,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>45256</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>569</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>581</v>
@@ -10394,7 +10394,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>45249</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>522</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>554</v>
@@ -10434,7 +10434,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>45242</v>
       </c>
@@ -10474,7 +10474,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>45235</v>
       </c>
@@ -10514,7 +10514,7 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>45228</v>
       </c>
@@ -10554,7 +10554,7 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>45221</v>
       </c>
@@ -10594,7 +10594,7 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>45214</v>
       </c>
@@ -10634,7 +10634,7 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>45200</v>
       </c>
@@ -10674,7 +10674,7 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>45193</v>
       </c>
@@ -10714,7 +10714,7 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>45186</v>
       </c>
@@ -10754,7 +10754,7 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>45178</v>
       </c>
@@ -10794,7 +10794,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45171</v>
       </c>
@@ -10834,7 +10834,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>45163</v>
       </c>
@@ -10858,7 +10858,7 @@
       </c>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>45156</v>
       </c>
@@ -10882,7 +10882,7 @@
       </c>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>45150</v>
       </c>
@@ -10906,7 +10906,7 @@
       </c>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>45143</v>
       </c>
@@ -10930,7 +10930,7 @@
       </c>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>45136</v>
       </c>
@@ -10954,7 +10954,7 @@
       </c>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>45129</v>
       </c>
@@ -10978,7 +10978,7 @@
       </c>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>45122</v>
       </c>
@@ -11002,7 +11002,7 @@
       </c>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>45115</v>
       </c>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>45107</v>
       </c>
@@ -11050,7 +11050,7 @@
       </c>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>45101</v>
       </c>
@@ -11074,7 +11074,7 @@
       </c>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>45094</v>
       </c>
@@ -11098,7 +11098,7 @@
       </c>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>45087</v>
       </c>
@@ -11122,7 +11122,7 @@
       </c>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>45080</v>
       </c>
@@ -11144,7 +11144,7 @@
       <c r="G30" s="15"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>45073</v>
       </c>
@@ -11166,7 +11166,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>45065</v>
       </c>
@@ -11190,7 +11190,7 @@
       </c>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>45058</v>
       </c>
@@ -11212,7 +11212,7 @@
       <c r="G33" s="15"/>
       <c r="H33" s="18"/>
     </row>
-    <row r="34" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>45051</v>
       </c>
@@ -11236,7 +11236,7 @@
       </c>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>45044</v>
       </c>
@@ -11258,7 +11258,7 @@
       <c r="G35" s="13"/>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>45037</v>
       </c>
@@ -11282,7 +11282,7 @@
       </c>
       <c r="H36" s="18"/>
     </row>
-    <row r="37" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>45030</v>
       </c>
@@ -11306,7 +11306,7 @@
       </c>
       <c r="H37" s="18"/>
     </row>
-    <row r="38" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>45024</v>
       </c>
@@ -11330,7 +11330,7 @@
       </c>
       <c r="H38" s="18"/>
     </row>
-    <row r="39" spans="1:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>45009</v>
       </c>
@@ -11352,7 +11352,7 @@
       <c r="G39" s="15"/>
       <c r="H39" s="18"/>
     </row>
-    <row r="40" spans="1:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>45009</v>
       </c>
@@ -11376,7 +11376,7 @@
       </c>
       <c r="H40" s="18"/>
     </row>
-    <row r="41" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>45003</v>
       </c>
@@ -11398,7 +11398,7 @@
       <c r="G41" s="15"/>
       <c r="H41" s="18"/>
     </row>
-    <row r="42" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>44996</v>
       </c>
@@ -11422,7 +11422,7 @@
       </c>
       <c r="H42" s="18"/>
     </row>
-    <row r="43" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>44989</v>
       </c>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="H43" s="18"/>
     </row>
-    <row r="44" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>44983</v>
       </c>
@@ -11470,7 +11470,7 @@
       </c>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>44975</v>
       </c>
@@ -11494,7 +11494,7 @@
       </c>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>44968</v>
       </c>
@@ -11518,7 +11518,7 @@
       </c>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>44960</v>
       </c>
@@ -11542,7 +11542,7 @@
       </c>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>44953</v>
       </c>
@@ -11566,7 +11566,7 @@
       </c>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>44946</v>
       </c>
@@ -11590,7 +11590,7 @@
       </c>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>44940</v>
       </c>
@@ -11614,7 +11614,7 @@
       </c>
       <c r="H50" s="18"/>
     </row>
-    <row r="51" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>44933</v>
       </c>
@@ -11638,7 +11638,7 @@
       </c>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>44926</v>
       </c>
@@ -11662,7 +11662,7 @@
       </c>
       <c r="H52" s="18"/>
     </row>
-    <row r="53" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>44919</v>
       </c>
@@ -11686,7 +11686,7 @@
       </c>
       <c r="H53" s="18"/>
     </row>
-    <row r="54" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>44912</v>
       </c>
@@ -11710,7 +11710,7 @@
       </c>
       <c r="H54" s="18"/>
     </row>
-    <row r="55" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>44905</v>
       </c>
@@ -11734,7 +11734,7 @@
       </c>
       <c r="H55" s="18"/>
     </row>
-    <row r="56" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>44898</v>
       </c>
@@ -11758,7 +11758,7 @@
       </c>
       <c r="H56" s="18"/>
     </row>
-    <row r="57" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>44890</v>
       </c>
@@ -11782,7 +11782,7 @@
       </c>
       <c r="H57" s="18"/>
     </row>
-    <row r="58" spans="1:8" ht="87" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="90.6" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>44883</v>
       </c>
@@ -11806,7 +11806,7 @@
       </c>
       <c r="H58" s="18"/>
     </row>
-    <row r="59" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>44876</v>
       </c>
@@ -11830,7 +11830,7 @@
       </c>
       <c r="H59" s="18"/>
     </row>
-    <row r="60" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>44870</v>
       </c>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="H60" s="18"/>
     </row>
-    <row r="61" spans="1:8" ht="68.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="68.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>44870</v>
       </c>
@@ -11878,7 +11878,7 @@
       </c>
       <c r="H61" s="18"/>
     </row>
-    <row r="62" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>44862</v>
       </c>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="H62" s="18"/>
     </row>
-    <row r="63" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>44855</v>
       </c>
@@ -11926,7 +11926,7 @@
       </c>
       <c r="H63" s="18"/>
     </row>
-    <row r="64" spans="1:8" ht="73.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>44848</v>
       </c>
@@ -11950,7 +11950,7 @@
       </c>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>44842</v>
       </c>
@@ -11974,7 +11974,7 @@
       </c>
       <c r="H65" s="18"/>
     </row>
-    <row r="66" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>44834</v>
       </c>
@@ -11998,7 +11998,7 @@
       </c>
       <c r="H66" s="18"/>
     </row>
-    <row r="67" spans="1:8" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>44829</v>
       </c>
@@ -12022,7 +12022,7 @@
       </c>
       <c r="H67" s="18"/>
     </row>
-    <row r="68" spans="1:8" ht="77.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="77.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>44822</v>
       </c>
@@ -12046,7 +12046,7 @@
       </c>
       <c r="H68" s="18"/>
     </row>
-    <row r="69" spans="1:8" ht="94.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>44813</v>
       </c>
@@ -12070,7 +12070,7 @@
       </c>
       <c r="H69" s="18"/>
     </row>
-    <row r="70" spans="1:8" ht="135.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="135.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>44808</v>
       </c>
@@ -12692,21 +12692,21 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56.81640625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="12.77734375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.77734375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -12743,18 +12743,18 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>717</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>716</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="10"/>
@@ -12776,21 +12776,21 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>715</v>
-      </c>
       <c r="E3" s="26" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>134</v>
@@ -12813,21 +12813,21 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="72.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="72.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>711</v>
-      </c>
       <c r="E4" s="26" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>134</v>
@@ -12850,21 +12850,21 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>706</v>
-      </c>
       <c r="E5" s="26" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>134</v>
@@ -12887,21 +12887,21 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>134</v>
@@ -12924,7 +12924,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>683</v>
       </c>
@@ -12932,13 +12932,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>695</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>697</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>134</v>
@@ -12961,7 +12961,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="58" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="58.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>682</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>685</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>687</v>
+        <v>714</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>686</v>
@@ -12998,7 +12998,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>677</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>680</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>681</v>
@@ -13035,7 +13035,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>673</v>
       </c>
@@ -13072,7 +13072,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>670</v>
       </c>
@@ -13109,7 +13109,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>668</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>667</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>669</v>
@@ -13146,7 +13146,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>665</v>
       </c>
@@ -13183,7 +13183,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>653</v>
       </c>
@@ -13220,7 +13220,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>649</v>
       </c>
@@ -13257,7 +13257,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>646</v>
       </c>
@@ -13294,7 +13294,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>642</v>
       </c>
@@ -13331,7 +13331,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>639</v>
       </c>
@@ -13368,7 +13368,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>633</v>
       </c>
@@ -13405,7 +13405,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>631</v>
       </c>
@@ -13442,7 +13442,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>608</v>
       </c>
@@ -13479,7 +13479,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>601</v>
       </c>
@@ -13516,7 +13516,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>598</v>
       </c>
@@ -13553,7 +13553,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>591</v>
       </c>
@@ -13590,7 +13590,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>586</v>
       </c>
@@ -13627,7 +13627,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>583</v>
       </c>
@@ -13664,7 +13664,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>579</v>
       </c>
@@ -13701,7 +13701,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>570</v>
       </c>
@@ -13738,7 +13738,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>568</v>
       </c>
@@ -13775,7 +13775,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>567</v>
       </c>
@@ -13812,7 +13812,7 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>558</v>
       </c>
@@ -13849,7 +13849,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>556</v>
       </c>
@@ -13886,7 +13886,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="57.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="57.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>555</v>
       </c>
@@ -13923,7 +13923,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>546</v>
       </c>
@@ -13960,7 +13960,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="75.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>542</v>
       </c>
@@ -13997,7 +13997,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="74.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>538</v>
       </c>
@@ -14034,7 +14034,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>536</v>
       </c>
@@ -14071,7 +14071,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="77" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="76.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>529</v>
       </c>
@@ -14108,7 +14108,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>526</v>
       </c>
@@ -14145,7 +14145,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="62" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="61.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>525</v>
       </c>
@@ -14182,7 +14182,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>516</v>
       </c>
@@ -14219,7 +14219,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>517</v>
       </c>
@@ -14256,7 +14256,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>518</v>
       </c>
@@ -14293,7 +14293,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>519</v>
       </c>
@@ -14330,7 +14330,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>520</v>
       </c>
@@ -14367,7 +14367,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>492</v>
       </c>
@@ -14404,7 +14404,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>493</v>
       </c>
@@ -14441,7 +14441,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>494</v>
       </c>
@@ -14478,7 +14478,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>495</v>
       </c>
@@ -14515,7 +14515,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>496</v>
       </c>
@@ -14552,7 +14552,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>497</v>
       </c>
@@ -14589,7 +14589,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>498</v>
       </c>
@@ -14626,7 +14626,7 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>499</v>
       </c>
@@ -14663,7 +14663,7 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>500</v>
       </c>
@@ -14700,7 +14700,7 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>501</v>
       </c>
@@ -14737,7 +14737,7 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>502</v>
       </c>
@@ -14774,7 +14774,7 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>503</v>
       </c>
@@ -14811,7 +14811,7 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>504</v>
       </c>
@@ -14848,7 +14848,7 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>505</v>
       </c>
@@ -14885,7 +14885,7 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>506</v>
       </c>
@@ -14922,7 +14922,7 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>507</v>
       </c>
@@ -14959,7 +14959,7 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>508</v>
       </c>
@@ -14996,7 +14996,7 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>509</v>
       </c>
@@ -15033,7 +15033,7 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="74.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>510</v>
       </c>
@@ -15070,7 +15070,7 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="75.599999999999994" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>511</v>
       </c>
@@ -15107,7 +15107,7 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>512</v>
       </c>
@@ -15144,7 +15144,7 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>513</v>
       </c>
@@ -15181,7 +15181,7 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>514</v>
       </c>
@@ -15218,7 +15218,7 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>515</v>
       </c>
@@ -15255,7 +15255,7 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" ht="87" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>491</v>
       </c>
@@ -15292,7 +15292,7 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" ht="87" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>443</v>
       </c>
@@ -15329,7 +15329,7 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>444</v>
       </c>
@@ -15366,7 +15366,7 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>445</v>
       </c>
@@ -15403,7 +15403,7 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>446</v>
       </c>
@@ -15440,7 +15440,7 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>447</v>
       </c>
@@ -15477,7 +15477,7 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="87" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="90" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>448</v>
       </c>
@@ -15514,7 +15514,7 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>449</v>
       </c>
@@ -15551,7 +15551,7 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>450</v>
       </c>
@@ -15588,7 +15588,7 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>451</v>
       </c>
@@ -15625,7 +15625,7 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>452</v>
       </c>
@@ -15662,7 +15662,7 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>453</v>
       </c>
@@ -15699,7 +15699,7 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>454</v>
       </c>
@@ -15736,7 +15736,7 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>455</v>
       </c>
@@ -15773,7 +15773,7 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>456</v>
       </c>
@@ -15810,7 +15810,7 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>457</v>
       </c>
@@ -15847,7 +15847,7 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>458</v>
       </c>
@@ -15884,7 +15884,7 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>459</v>
       </c>
@@ -15921,7 +15921,7 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>460</v>
       </c>
@@ -15958,7 +15958,7 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>461</v>
       </c>
@@ -15995,7 +15995,7 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>462</v>
       </c>
@@ -16032,7 +16032,7 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>463</v>
       </c>
@@ -16069,7 +16069,7 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>464</v>
       </c>
@@ -16106,7 +16106,7 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>465</v>
       </c>
@@ -16143,7 +16143,7 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>466</v>
       </c>
@@ -16180,7 +16180,7 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>467</v>
       </c>
@@ -16217,7 +16217,7 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>468</v>
       </c>
@@ -16254,7 +16254,7 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>469</v>
       </c>
@@ -16291,7 +16291,7 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>470</v>
       </c>
@@ -16328,7 +16328,7 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>471</v>
       </c>
@@ -16365,7 +16365,7 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>472</v>
       </c>
@@ -16402,7 +16402,7 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>473</v>
       </c>
@@ -16439,7 +16439,7 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>474</v>
       </c>
@@ -16474,7 +16474,7 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>475</v>
       </c>
@@ -16509,7 +16509,7 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>476</v>
       </c>
@@ -16544,7 +16544,7 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>477</v>
       </c>
@@ -16579,7 +16579,7 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>478</v>
       </c>
@@ -16614,7 +16614,7 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>479</v>
       </c>
@@ -16649,7 +16649,7 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>480</v>
       </c>
@@ -16684,7 +16684,7 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>481</v>
       </c>
@@ -16717,7 +16717,7 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>482</v>
       </c>
@@ -16752,7 +16752,7 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>483</v>
       </c>
@@ -16787,7 +16787,7 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>484</v>
       </c>
@@ -16822,7 +16822,7 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>485</v>
       </c>
@@ -16857,7 +16857,7 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>486</v>
       </c>
@@ -16892,7 +16892,7 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>487</v>
       </c>
@@ -16927,7 +16927,7 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>488</v>
       </c>
@@ -16962,7 +16962,7 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>489</v>
       </c>
@@ -16997,7 +16997,7 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>490</v>
       </c>
@@ -19240,24 +19240,24 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="95.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="95.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>222</v>
       </c>
@@ -19277,7 +19277,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -19297,7 +19297,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -19317,7 +19317,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -19337,7 +19337,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -19357,7 +19357,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -19377,7 +19377,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
@@ -19397,7 +19397,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -19417,7 +19417,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -19437,7 +19437,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -19457,7 +19457,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="58" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
@@ -19477,7 +19477,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -19519,15 +19519,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.81640625" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>617</v>
       </c>
@@ -19539,7 +19539,7 @@
       <c r="E1" s="37"/>
       <c r="F1" s="38"/>
     </row>
-    <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>618</v>
       </c>
@@ -19559,7 +19559,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>625</v>
       </c>
@@ -19575,7 +19575,7 @@
       <c r="E3" s="33"/>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>626</v>
       </c>
@@ -19591,7 +19591,7 @@
       <c r="E4" s="33"/>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>629</v>
       </c>
@@ -19607,7 +19607,7 @@
       <c r="E5" s="33"/>
       <c r="F5" s="23"/>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>658</v>
       </c>
@@ -19623,7 +19623,7 @@
       <c r="E6" s="33"/>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="23"/>
       <c r="C7" s="32"/>
@@ -19631,7 +19631,7 @@
       <c r="E7" s="33"/>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="B8" s="23"/>
       <c r="C8" s="32"/>
@@ -19639,7 +19639,7 @@
       <c r="E8" s="33"/>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="23"/>
       <c r="C9" s="32"/>
@@ -19647,7 +19647,7 @@
       <c r="E9" s="33"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="23"/>
       <c r="C10" s="32"/>

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E946EF2F-0E15-4977-B6FA-9955067A5385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1AD261-C56F-4A84-A64C-CC18CF48BCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="727">
   <si>
     <t>汇报日期</t>
   </si>
@@ -4615,19 +4615,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。08:39计划，23:30日报
-2.完成。09:00~14:00，4小时，2-00:00:52
-3.完成。14:30~16:26，1题(155)
-4.完成。16:40~23:00，5小时，看到视频6
-5.未完成。75.4kg。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.8点起床计划，23点日报
 2.英语：4小时，复习词汇
 3.leetcode：1题(非必须)
 4.技术：Vue视频21，提交git
 5.体重减到74.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. leetcode：452. 用最少数量的箭引爆气球（中等）。学习贪心算法，这道题理解了很久。
+   1. 开始题都看不懂，看题解，题解也看不懂，后面用数据debug才明白。
+2. 技术：前端学习，《前端技术之Vue框架》看到视频17。
+   1. Vue指令学习：v-html，v-text，v-cloak，v-once，v-pre，v-on，v-bind，v-model
+   2. 事件修饰符：stop，self，prevent
+3. 英语：《海贼王真人版》，第2遍听力，听至第2集00:15:52，复习之前遇到的词汇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-23
+星期六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。08:39计划，23:30日报
+2.完成。09:00~14:00，4小时，2-00:15:52
+3.完成。14:30~16:26，1题(155)
+4.未完成。16:40~23:15，看到视频17
+5.未完成。74.7kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-24
+星期日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报
+2.英语：报名英语培训
+3.周报，补充readme
+5.体重减到74.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:20计划，23:30日报
+2.完成。12:13~14:55，2小时，2-00:17:04
+3.完成。
+4.未完成。16:00~23:15，看到视频17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报
+2.英语：2小时，复习词汇
+3.技术：Vue结束，提交git
+5.体重减到74.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 技术：前端学习，《前端技术之Vue框架》看到视频17。
+   1. Vue事件修饰符：capture，once。按键修饰符，系统修饰符（鼠标+按键），exact
+   2. 鼠标按键修饰符，表单修饰符（v-model）lazy，number，trim
+   3. Vue脚手架，项目搭建，启动服务，cli目录结构，启动文件
+   4. Vue组件，组件结构，自定义组件
+2. 英语：《海贼王真人版》，第2遍听力，听至第2集00:17:04，复习之前遇到的词汇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:20计划，23:18日报
+2.完成。12:13~14:55，2小时，2-00:17:04
+3.未完成。看到视频27
+4.未完成。75.0kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。实际：5天
+2.完成。实际：95%，5题
+3.完成。实际：22小时，
+4.完成。实际：75.0kg，周六
+5.完成。实际：21:01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4959,7 +5023,91 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="464">
+  <dxfs count="472">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -10151,7 +10299,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -10209,7 +10357,7 @@
         <v>707</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>691</v>
+        <v>726</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -12098,16 +12246,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B71:B1048576 B15:B60 B1">
-    <cfRule type="cellIs" dxfId="463" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="127" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="130" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="131">
@@ -12122,16 +12270,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="459" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="122" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="123" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="125">
@@ -12146,16 +12294,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="455" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="117" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="118" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="119" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="120">
@@ -12170,16 +12318,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="451" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="112" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="113" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="114" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="115">
@@ -12194,16 +12342,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="447" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="106" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="107" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="108" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="109" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -12218,16 +12366,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="443" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="101" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="102" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="103" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="104" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -12242,16 +12390,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="439" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="97" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="98" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="99" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -12266,16 +12414,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="435" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="94" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="95">
@@ -12290,16 +12438,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="431" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="86" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="87" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="88" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="89" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -12314,16 +12462,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="427" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="84" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="85">
@@ -12338,16 +12486,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="423" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -12362,16 +12510,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="419" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -12386,16 +12534,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="415" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -12410,16 +12558,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="411" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -12434,16 +12582,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="407" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -12458,16 +12606,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="403" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -12482,16 +12630,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="399" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -12506,16 +12654,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="395" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -12530,16 +12678,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="391" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -12554,16 +12702,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="387" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -12578,16 +12726,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="383" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -12602,16 +12750,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="379" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -12626,16 +12774,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="375" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -12650,16 +12798,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="371" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -12686,7 +12834,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W118"/>
+  <dimension ref="A1:W120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -12743,18 +12891,18 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="10"/>
@@ -12776,21 +12924,21 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="59.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>134</v>
@@ -12813,24 +12961,24 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="72.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -12850,21 +12998,21 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>134</v>
@@ -12887,21 +13035,21 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="72.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>134</v>
@@ -12924,21 +13072,21 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>134</v>
@@ -12961,21 +13109,21 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="58" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>134</v>
@@ -12998,21 +13146,21 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>134</v>
@@ -13035,21 +13183,21 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="58" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>134</v>
@@ -13074,19 +13222,19 @@
     </row>
     <row r="11" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>134</v>
@@ -13111,19 +13259,19 @@
     </row>
     <row r="12" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>134</v>
@@ -13148,19 +13296,19 @@
     </row>
     <row r="13" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>134</v>
@@ -13183,21 +13331,21 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>134</v>
@@ -13222,19 +13370,19 @@
     </row>
     <row r="15" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>134</v>
@@ -13257,21 +13405,21 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>134</v>
@@ -13296,19 +13444,19 @@
     </row>
     <row r="17" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>134</v>
@@ -13333,19 +13481,19 @@
     </row>
     <row r="18" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>134</v>
@@ -13370,19 +13518,19 @@
     </row>
     <row r="19" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>134</v>
@@ -13407,19 +13555,19 @@
     </row>
     <row r="20" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>613</v>
+        <v>641</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>134</v>
@@ -13444,22 +13592,22 @@
     </row>
     <row r="21" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>608</v>
+        <v>633</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>607</v>
+        <v>636</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -13481,19 +13629,19 @@
     </row>
     <row r="22" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>605</v>
+        <v>634</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>134</v>
@@ -13518,22 +13666,22 @@
     </row>
     <row r="23" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -13555,19 +13703,19 @@
     </row>
     <row r="24" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>134</v>
@@ -13592,19 +13740,19 @@
     </row>
     <row r="25" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>134</v>
@@ -13629,19 +13777,19 @@
     </row>
     <row r="26" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>134</v>
@@ -13666,19 +13814,19 @@
     </row>
     <row r="27" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>134</v>
@@ -13703,19 +13851,19 @@
     </row>
     <row r="28" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>134</v>
@@ -13740,19 +13888,19 @@
     </row>
     <row r="29" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>684</v>
+        <v>584</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>134</v>
@@ -13777,19 +13925,19 @@
     </row>
     <row r="30" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>134</v>
@@ -13814,19 +13962,19 @@
     </row>
     <row r="31" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>565</v>
+        <v>684</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>134</v>
@@ -13851,19 +13999,19 @@
     </row>
     <row r="32" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>134</v>
@@ -13886,21 +14034,21 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="57.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>134</v>
@@ -13925,19 +14073,19 @@
     </row>
     <row r="34" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>134</v>
@@ -13960,21 +14108,21 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="57.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>134</v>
@@ -13997,21 +14145,21 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>134</v>
@@ -14034,21 +14182,21 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>134</v>
@@ -14071,21 +14219,21 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="77" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>134</v>
@@ -14110,19 +14258,19 @@
     </row>
     <row r="39" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>134</v>
@@ -14145,24 +14293,24 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="62" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="77" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>441</v>
+        <v>531</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -14184,22 +14332,22 @@
     </row>
     <row r="41" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>434</v>
+        <v>527</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>442</v>
+        <v>530</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>436</v>
+        <v>528</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -14219,24 +14367,24 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="62" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>435</v>
+        <v>524</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>437</v>
+        <v>523</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -14256,24 +14404,24 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -14295,22 +14443,22 @@
     </row>
     <row r="44" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -14332,19 +14480,19 @@
     </row>
     <row r="45" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>134</v>
@@ -14369,22 +14517,22 @@
     </row>
     <row r="46" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>413</v>
+        <v>133</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -14406,19 +14554,19 @@
     </row>
     <row r="47" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>134</v>
@@ -14443,22 +14591,22 @@
     </row>
     <row r="48" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -14480,19 +14628,19 @@
     </row>
     <row r="49" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>134</v>
@@ -14517,19 +14665,19 @@
     </row>
     <row r="50" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>134</v>
@@ -14554,19 +14702,19 @@
     </row>
     <row r="51" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>134</v>
@@ -14591,19 +14739,19 @@
     </row>
     <row r="52" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>575</v>
+        <v>399</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>134</v>
@@ -14628,19 +14776,19 @@
     </row>
     <row r="53" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>134</v>
@@ -14665,19 +14813,19 @@
     </row>
     <row r="54" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>381</v>
+        <v>575</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>134</v>
@@ -14702,19 +14850,19 @@
     </row>
     <row r="55" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>134</v>
@@ -14739,19 +14887,19 @@
     </row>
     <row r="56" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>134</v>
@@ -14776,22 +14924,22 @@
     </row>
     <row r="57" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -14813,19 +14961,19 @@
     </row>
     <row r="58" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>134</v>
@@ -14850,22 +14998,22 @@
     </row>
     <row r="59" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>362</v>
+        <v>373</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>372</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -14887,19 +15035,19 @@
     </row>
     <row r="60" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>358</v>
+        <v>371</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>369</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>134</v>
@@ -14924,22 +15072,22 @@
     </row>
     <row r="61" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -14961,19 +15109,19 @@
     </row>
     <row r="62" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>134</v>
@@ -14998,22 +15146,22 @@
     </row>
     <row r="63" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -15035,19 +15183,19 @@
     </row>
     <row r="64" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>134</v>
@@ -15070,24 +15218,24 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -15107,21 +15255,21 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>134</v>
@@ -15146,22 +15294,22 @@
     </row>
     <row r="67" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -15183,19 +15331,19 @@
     </row>
     <row r="68" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>134</v>
@@ -15220,19 +15368,19 @@
     </row>
     <row r="69" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>134</v>
@@ -15255,21 +15403,21 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" ht="87" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>134</v>
@@ -15292,21 +15440,21 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" ht="87" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>443</v>
+        <v>515</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>134</v>
@@ -15329,21 +15477,21 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="87" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>134</v>
@@ -15366,24 +15514,24 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="87" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -15403,24 +15551,24 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -15442,22 +15590,22 @@
     </row>
     <row r="75" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -15477,24 +15625,24 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="87" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -15514,21 +15662,21 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>134</v>
@@ -15551,21 +15699,21 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="87" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>134</v>
@@ -15588,24 +15736,24 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -15625,21 +15773,21 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>134</v>
@@ -15662,24 +15810,24 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -15701,19 +15849,19 @@
     </row>
     <row r="82" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>134</v>
@@ -15736,21 +15884,21 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>134</v>
@@ -15773,21 +15921,21 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>134</v>
@@ -15812,22 +15960,22 @@
     </row>
     <row r="85" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -15847,21 +15995,21 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>134</v>
@@ -15886,22 +16034,22 @@
     </row>
     <row r="87" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -15923,19 +16071,19 @@
     </row>
     <row r="88" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>134</v>
@@ -15960,19 +16108,19 @@
     </row>
     <row r="89" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>134</v>
@@ -15997,19 +16145,19 @@
     </row>
     <row r="90" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>134</v>
@@ -16032,21 +16180,21 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>134</v>
@@ -16069,21 +16217,21 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>134</v>
@@ -16106,21 +16254,21 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>134</v>
@@ -16145,19 +16293,19 @@
     </row>
     <row r="94" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>134</v>
@@ -16180,21 +16328,21 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>9</v>
+        <v>465</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>134</v>
@@ -16217,21 +16365,21 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="B96" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>134</v>
@@ -16254,24 +16402,24 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -16293,22 +16441,22 @@
     </row>
     <row r="98" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F98" s="14" t="s">
-        <v>133</v>
+        <v>9</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -16330,19 +16478,19 @@
     </row>
     <row r="99" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>133</v>
@@ -16365,24 +16513,24 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E100" s="18" t="s">
-        <v>151</v>
+        <v>13</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>146</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -16402,24 +16550,24 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>134</v>
+        <v>149</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -16439,23 +16587,25 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F102" s="14"/>
+        <v>151</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -16474,9 +16624,9 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>9</v>
@@ -16485,12 +16635,14 @@
         <v>150</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F103" s="14"/>
+        <v>231</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -16511,19 +16663,19 @@
     </row>
     <row r="104" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="1"/>
@@ -16546,7 +16698,7 @@
     </row>
     <row r="105" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>9</v>
@@ -16555,10 +16707,10 @@
         <v>150</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F105" s="14"/>
       <c r="G105" s="1"/>
@@ -16581,19 +16733,19 @@
     </row>
     <row r="106" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E106" s="15" t="s">
-        <v>162</v>
+        <v>9</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="F106" s="14"/>
       <c r="G106" s="1"/>
@@ -16616,19 +16768,19 @@
     </row>
     <row r="107" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E107" s="15" t="s">
-        <v>165</v>
+        <v>9</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="F107" s="14"/>
       <c r="G107" s="1"/>
@@ -16651,19 +16803,19 @@
     </row>
     <row r="108" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="1"/>
@@ -16686,7 +16838,7 @@
     </row>
     <row r="109" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>13</v>
@@ -16697,7 +16849,9 @@
       <c r="D109" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E109" s="15"/>
+      <c r="E109" s="15" t="s">
+        <v>165</v>
+      </c>
       <c r="F109" s="14"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -16719,19 +16873,19 @@
     </row>
     <row r="110" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="1"/>
@@ -16754,20 +16908,18 @@
     </row>
     <row r="111" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E111" s="15" t="s">
-        <v>173</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E111" s="15"/>
       <c r="F111" s="14"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -16787,21 +16939,21 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="1"/>
@@ -16822,21 +16974,21 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="1"/>
@@ -16857,21 +17009,21 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="1"/>
@@ -16894,19 +17046,19 @@
     </row>
     <row r="115" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="1"/>
@@ -16927,21 +17079,21 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="1"/>
@@ -16962,21 +17114,21 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F117" s="14"/>
       <c r="G117" s="1"/>
@@ -16997,21 +17149,21 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="1"/>
@@ -17032,9 +17184,127 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
+    <row r="119" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+      <c r="A119" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F119" s="14"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
+    </row>
+    <row r="120" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A120" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E120" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F120" s="14"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B92:B1048576 B1">
+  <conditionalFormatting sqref="B94:B1048576 B1">
+    <cfRule type="cellIs" dxfId="375" priority="471" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="374" priority="472" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="473" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="372" priority="474" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="475">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92">
+    <cfRule type="cellIs" dxfId="371" priority="466" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="370" priority="467" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="369" priority="468" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="368" priority="469" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="470">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93">
     <cfRule type="cellIs" dxfId="367" priority="461" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -17058,7 +17328,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
+  <conditionalFormatting sqref="B91">
     <cfRule type="cellIs" dxfId="363" priority="456" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -17082,7 +17352,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91">
+  <conditionalFormatting sqref="B90">
     <cfRule type="cellIs" dxfId="359" priority="451" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -17155,40 +17425,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="cellIs" dxfId="347" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="431" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="432" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="433" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="439" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="440">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B86">
-    <cfRule type="cellIs" dxfId="343" priority="431" operator="equal">
-      <formula>"部分完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="432" operator="equal">
-      <formula>"里程碑"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="433" operator="equal">
-      <formula>"进行中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="434" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="435">
@@ -17202,20 +17448,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="339" priority="421" operator="equal">
+  <conditionalFormatting sqref="B86">
+    <cfRule type="cellIs" dxfId="343" priority="426" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="427" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="428" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="429" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="425">
+    <cfRule type="colorScale" priority="430">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17226,17 +17472,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="335" priority="416" operator="equal">
+  <conditionalFormatting sqref="B85">
+    <cfRule type="cellIs" dxfId="339" priority="416" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="417" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="418" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="419" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="420">
@@ -17250,6 +17496,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="cellIs" dxfId="335" priority="411" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="412" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="333" priority="413" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="332" priority="414" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="415">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B83">
     <cfRule type="cellIs" dxfId="331" priority="406" operator="equal">
       <formula>"部分完成"</formula>
@@ -19195,16 +19465,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -19219,7 +19489,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B118" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B120" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -19661,16 +19931,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1AD261-C56F-4A84-A64C-CC18CF48BCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF196B84-6107-41C5-8EB0-D35F0132EC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="731">
   <si>
     <t>汇报日期</t>
   </si>
@@ -4370,10 +4370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英语：下周要报班了，不能自己抹黑下去了。技术上要注意不要陷入细节研究，已经理解的东西要注意如何正确表达出来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.完成。实际：5天
 2.完成。实际：80%，6题
 3.完成。实际：20小时，12小时
@@ -4548,14 +4544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.生活：7:30起床计划，23:30日报，坚持5天。
-2.技术：结束Vue。Leetcode：5题。
-3.英语：学习20小时。报名英语培训。
-4.健康：周末减到74.5kg。运动替换游戏6天。
-5.周报：周日23:59前，更新目标进度，下周计划。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.7点起床计划，23点日报睡觉
 2.技术：Vue3小时，提交git
 3.英语：4小时，复习词汇
@@ -4687,11 +4675,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。实际：5天
-2.完成。实际：95%，5题
+    <t>1.生活：7:30起床计划，23:30日报，坚持5天。
+2.技术：结束Vue。Leetcode：5题。
+3.英语：学习20小时。确定英语培训。
+4.健康：周末减到74.5kg。运动替换游戏6天。
+5.周报：周日23:59前，更新目标进度，下周计划。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.完成。实际：5天
+2.完成。实际：100%，5题
 3.完成。实际：22小时，
-4.完成。实际：75.0kg，周六
-5.完成。实际：21:01</t>
+4.部分完成。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际：75.0kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，7天
+5.未完成。实际：21:01</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语：下周要报班了，不能自己摸黑下去了。技术上要注意不要陷入细节研究，已经理解的东西要注意如何正确表达出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语：《海贼王真人版》第二遍听至00:17:04。速度比第一遍有提升，但不理想。英语培训机构目前确认是Cambly。技术：本周Vue2结束，还学习了TypeScript。健康：本周末没控制住饮食，体重反弹未完成目标。
+整体：虽然本周很冷，但除减重目标外其他目标还是全部完成了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端UI框架待项目实战中继续学习。已学过的技术还是有很多忘了。需要定期复习。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.完成。实际：5天
+2.完成。实际：100%，5题
+3.完成。实际：22小时，
+4.部分完成。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际：75.0kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，7天
+5.未完成。实际：22:50</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.生活：7:30起床计划，23:30日报，坚持5天。
+2.技术：项目实战25小时。Leetcode：5题。
+3.英语：学习20小时。报名英语培训。
+4.健康：周末减到74.0kg。运动替换游戏6天。
+5.周报：周日23:59前，更新目标进度，下周计划。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4703,7 +4772,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -4773,6 +4842,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -5023,7 +5099,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="472">
+  <dxfs count="476">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -10293,16 +10411,16 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:X70"/>
+  <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="11.81640625" style="16" customWidth="1"/>
     <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
@@ -10314,7 +10432,7 @@
     <col min="9" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -10340,24 +10458,24 @@
         <v>616</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="73.5" customHeight="1">
       <c r="A2" s="7">
-        <v>45284</v>
+        <v>45291</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="7">
-        <v>45278</v>
+        <v>45285</v>
       </c>
       <c r="D2" s="7">
-        <v>45284</v>
+        <v>45291</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>707</v>
+        <v>730</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -10378,30 +10496,30 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="73.5" customHeight="1">
       <c r="A3" s="7">
-        <v>45277</v>
+        <v>45284</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7">
-        <v>45271</v>
+        <v>45278</v>
       </c>
       <c r="D3" s="7">
-        <v>45277</v>
+        <v>45284</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>656</v>
+        <v>724</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>691</v>
+        <v>729</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>692</v>
+        <v>727</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>690</v>
+        <v>728</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -10420,30 +10538,30 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="73.5" customHeight="1">
       <c r="A4" s="7">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7">
-        <v>45263</v>
+        <v>45271</v>
       </c>
       <c r="D4" s="7">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>635</v>
+        <v>656</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>661</v>
+        <v>690</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>657</v>
+        <v>691</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>662</v>
+        <v>726</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -10462,29 +10580,31 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="73.5" customHeight="1">
       <c r="A5" s="7">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7">
-        <v>45257</v>
+        <v>45263</v>
       </c>
       <c r="D5" s="7">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>614</v>
+        <v>661</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>610</v>
-      </c>
-      <c r="H5" s="18"/>
+        <v>657</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>662</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -10502,27 +10622,27 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="73.5" customHeight="1">
       <c r="A6" s="7">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="7">
-        <v>45250</v>
+        <v>45257</v>
       </c>
       <c r="D6" s="7">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>569</v>
+        <v>611</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>693</v>
+        <v>614</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>581</v>
+        <v>610</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="1"/>
@@ -10542,27 +10662,27 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="73.5" customHeight="1">
       <c r="A7" s="7">
-        <v>45249</v>
+        <v>45256</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7">
-        <v>45243</v>
+        <v>45250</v>
       </c>
       <c r="D7" s="7">
-        <v>45249</v>
+        <v>45256</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>522</v>
+        <v>569</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="1"/>
@@ -10582,27 +10702,27 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="73.5" customHeight="1">
       <c r="A8" s="7">
-        <v>45242</v>
+        <v>45249</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7">
-        <v>45236</v>
+        <v>45243</v>
       </c>
       <c r="D8" s="7">
-        <v>45242</v>
+        <v>45249</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>416</v>
+        <v>522</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>533</v>
+        <v>693</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="1"/>
@@ -10622,27 +10742,27 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="73.5" customHeight="1">
       <c r="A9" s="7">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="7">
-        <v>45229</v>
+        <v>45236</v>
       </c>
       <c r="D9" s="7">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>417</v>
+        <v>533</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>415</v>
+        <v>521</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="1"/>
@@ -10662,27 +10782,27 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="56.25" customHeight="1">
       <c r="A10" s="7">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="7">
-        <v>45222</v>
+        <v>45229</v>
       </c>
       <c r="D10" s="7">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="1"/>
@@ -10702,27 +10822,27 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="56.25" customHeight="1">
       <c r="A11" s="7">
-        <v>45221</v>
+        <v>45228</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="7">
-        <v>45215</v>
+        <v>45222</v>
       </c>
       <c r="D11" s="7">
-        <v>45221</v>
+        <v>45228</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="1"/>
@@ -10742,27 +10862,27 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="56.25" customHeight="1">
       <c r="A12" s="7">
-        <v>45214</v>
+        <v>45221</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7">
-        <v>45204</v>
+        <v>45215</v>
       </c>
       <c r="D12" s="7">
-        <v>45214</v>
+        <v>45221</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="1"/>
@@ -10782,27 +10902,27 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="56.25" customHeight="1">
       <c r="A13" s="7">
-        <v>45200</v>
+        <v>45214</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="7">
-        <v>45194</v>
+        <v>45204</v>
       </c>
       <c r="D13" s="7">
-        <v>45200</v>
+        <v>45214</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="1"/>
@@ -10822,27 +10942,27 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="56.25" customHeight="1">
       <c r="A14" s="7">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="7">
-        <v>45187</v>
+        <v>45194</v>
       </c>
       <c r="D14" s="7">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="1"/>
@@ -10862,27 +10982,27 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="56.25" customHeight="1">
       <c r="A15" s="7">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="7">
-        <v>45179</v>
+        <v>45187</v>
       </c>
       <c r="D15" s="7">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="1"/>
@@ -10902,27 +11022,27 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="56.25" customHeight="1">
       <c r="A16" s="7">
-        <v>45178</v>
+        <v>45186</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="7">
-        <v>45171</v>
+        <v>45179</v>
       </c>
       <c r="D16" s="7">
-        <v>45177</v>
+        <v>45186</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="1"/>
@@ -10942,27 +11062,27 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="56.25" customHeight="1">
       <c r="A17" s="7">
+        <v>45178</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7">
         <v>45171</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="7">
-        <v>45164</v>
-      </c>
       <c r="D17" s="7">
-        <v>45170</v>
+        <v>45177</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="1"/>
@@ -10982,846 +11102,862 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+    <row r="18" spans="1:24" ht="56.25" customHeight="1">
+      <c r="A18" s="7">
+        <v>45171</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7">
+        <v>45164</v>
+      </c>
+      <c r="D18" s="7">
+        <v>45170</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" ht="56.25" customHeight="1">
+      <c r="A19" s="12">
         <v>45163</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C19" s="12">
         <v>45157</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D19" s="12">
         <v>45163</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:24" ht="56.25" customHeight="1">
+      <c r="A20" s="12">
         <v>45156</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="12">
-        <v>45150</v>
-      </c>
-      <c r="D19" s="12">
-        <v>45156</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
-        <v>45150</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="12">
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="D20" s="12">
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="56.25" customHeight="1">
       <c r="A21" s="12">
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="12">
+        <v>45143</v>
+      </c>
+      <c r="D21" s="12">
+        <v>45149</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:24" ht="56.25" customHeight="1">
+      <c r="A22" s="12">
+        <v>45143</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="12">
         <v>45136</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="12">
         <v>45142</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:24" ht="56.25" customHeight="1">
+      <c r="A23" s="12">
         <v>45136</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="12">
-        <v>45129</v>
-      </c>
-      <c r="D22" s="12">
-        <v>45135</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
-        <v>45129</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="12">
+        <v>45129</v>
+      </c>
+      <c r="D23" s="12">
+        <v>45135</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:24" ht="56.25" customHeight="1">
+      <c r="A24" s="12">
+        <v>45129</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12">
         <v>45122</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D24" s="12">
         <v>45128</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E24" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G24" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:24" ht="56.25" customHeight="1">
+      <c r="A25" s="12">
         <v>45122</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="12">
-        <v>45115</v>
-      </c>
-      <c r="D24" s="12">
-        <v>45121</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
-        <v>45115</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="12">
+        <v>45115</v>
+      </c>
+      <c r="D25" s="12">
+        <v>45121</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:24" ht="56.25" customHeight="1">
+      <c r="A26" s="12">
+        <v>45115</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="12">
         <v>45108</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D26" s="12">
         <v>45114</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G26" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:24" ht="56.25" customHeight="1">
+      <c r="A27" s="12">
         <v>45107</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C27" s="12">
         <v>45101</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="12">
         <v>45107</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F27" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G27" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:24" ht="56.25" customHeight="1">
+      <c r="A28" s="12">
         <v>45101</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="12">
-        <v>45094</v>
-      </c>
-      <c r="D27" s="12">
-        <v>45100</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
-        <v>45094</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="12">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="D28" s="12">
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="56.25" customHeight="1">
       <c r="A29" s="12">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="12">
+        <v>45087</v>
+      </c>
+      <c r="D29" s="12">
+        <v>45093</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:24" ht="56.25" customHeight="1">
+      <c r="A30" s="12">
+        <v>45087</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="12">
         <v>45080</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D30" s="12">
         <v>45086</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E30" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F30" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G30" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:24" ht="56.25" customHeight="1">
+      <c r="A31" s="12">
         <v>45080</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="12">
-        <v>45073</v>
-      </c>
-      <c r="D30" s="12">
-        <v>45079</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
-        <v>45073</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="12">
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="D31" s="12">
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="56.25" customHeight="1">
       <c r="A32" s="12">
+        <v>45073</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="12">
+        <v>45066</v>
+      </c>
+      <c r="D32" s="12">
+        <v>45072</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" ht="56.25" customHeight="1">
+      <c r="A33" s="12">
         <v>45065</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="12">
-        <v>45059</v>
-      </c>
-      <c r="D32" s="12">
-        <v>45065</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
-        <v>45058</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="12">
-        <v>45052</v>
+        <v>45059</v>
       </c>
       <c r="D33" s="12">
+        <v>45065</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" ht="56.25" customHeight="1">
+      <c r="A34" s="12">
         <v>45058</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
-        <v>45051</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="12">
+        <v>45052</v>
+      </c>
+      <c r="D34" s="12">
+        <v>45058</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" ht="56.25" customHeight="1">
+      <c r="A35" s="12">
+        <v>45051</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="12">
         <v>45045</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="12">
         <v>45051</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E35" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F35" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G35" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" ht="56.25" customHeight="1">
+      <c r="A36" s="12">
         <v>45044</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B36" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C36" s="12">
         <v>45038</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D36" s="12">
         <v>45044</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E36" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F36" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
+      <c r="G36" s="13"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" ht="56.25" customHeight="1">
+      <c r="A37" s="12">
         <v>45037</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C37" s="12">
         <v>45031</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="12">
         <v>45037</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E37" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F37" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G37" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="18"/>
-    </row>
-    <row r="37" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" ht="56.25" customHeight="1">
+      <c r="A38" s="12">
         <v>45030</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="12">
-        <v>45024</v>
-      </c>
-      <c r="D37" s="12">
-        <v>45030</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
-        <v>45024</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="12">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="D38" s="12">
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H38" s="18"/>
     </row>
-    <row r="39" spans="1:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="56.25" customHeight="1">
       <c r="A39" s="12">
-        <v>45009</v>
+        <v>45024</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="12">
-        <v>45003</v>
+        <v>45017</v>
       </c>
       <c r="D39" s="12">
-        <v>45009</v>
+        <v>45023</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="H39" s="18"/>
     </row>
-    <row r="40" spans="1:8" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="43.5">
       <c r="A40" s="12">
         <v>45009</v>
       </c>
       <c r="B40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="12">
+        <v>45003</v>
+      </c>
+      <c r="D40" s="12">
+        <v>45009</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="15"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" ht="43.5">
+      <c r="A41" s="12">
+        <v>45009</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C41" s="12">
         <v>45010</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D41" s="12">
         <v>45016</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E41" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F41" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G41" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" ht="56.25" customHeight="1">
+      <c r="A42" s="12">
         <v>45003</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C42" s="12">
         <v>44996</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D42" s="12">
         <v>45002</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E42" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F42" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
+      <c r="G42" s="15"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" ht="56.25" customHeight="1">
+      <c r="A43" s="12">
         <v>44996</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B43" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C43" s="12">
         <v>44989</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D43" s="12">
         <v>44995</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E43" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F43" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G43" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" ht="56.25" customHeight="1">
+      <c r="A44" s="12">
         <v>44989</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B44" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C44" s="12">
         <v>44982</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D44" s="12">
         <v>44988</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E44" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F44" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G44" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
+      <c r="H44" s="18"/>
+    </row>
+    <row r="45" spans="1:8" ht="56.25" customHeight="1">
+      <c r="A45" s="12">
         <v>44983</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B45" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C45" s="12">
         <v>44975</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D45" s="12">
         <v>44981</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E45" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F45" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G45" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12">
+      <c r="H45" s="18"/>
+    </row>
+    <row r="46" spans="1:8" ht="56.25" customHeight="1">
+      <c r="A46" s="12">
         <v>44975</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="12">
-        <v>44968</v>
-      </c>
-      <c r="D45" s="12">
-        <v>44974</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12">
-        <v>44968</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="12">
+        <v>44968</v>
+      </c>
+      <c r="D46" s="12">
+        <v>44974</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="18"/>
+    </row>
+    <row r="47" spans="1:8" ht="56.25" customHeight="1">
+      <c r="A47" s="12">
+        <v>44968</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="12">
         <v>44961</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D47" s="12">
         <v>44967</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E47" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F47" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G47" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H46" s="18"/>
-    </row>
-    <row r="47" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+      <c r="H47" s="18"/>
+    </row>
+    <row r="48" spans="1:8" ht="56.25" customHeight="1">
+      <c r="A48" s="12">
         <v>44960</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C48" s="12">
         <v>44954</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D48" s="12">
         <v>44960</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E48" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F48" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G48" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="H47" s="18"/>
-    </row>
-    <row r="48" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
+      <c r="H48" s="18"/>
+    </row>
+    <row r="49" spans="1:8" ht="56.25" customHeight="1">
+      <c r="A49" s="12">
         <v>44953</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B49" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C49" s="12">
         <v>44947</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D49" s="12">
         <v>44953</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E49" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F49" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G49" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12">
+      <c r="H49" s="18"/>
+    </row>
+    <row r="50" spans="1:8" ht="56.25" customHeight="1">
+      <c r="A50" s="12">
         <v>44946</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="12">
-        <v>44940</v>
-      </c>
-      <c r="D49" s="12">
-        <v>44946</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
-        <v>44940</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="12">
-        <v>44933</v>
+        <v>44940</v>
       </c>
       <c r="D50" s="12">
-        <v>44939</v>
+        <v>44946</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H50" s="18"/>
     </row>
-    <row r="51" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="56.25" customHeight="1">
       <c r="A51" s="12">
-        <v>44933</v>
+        <v>44940</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="12">
-        <v>44926</v>
+        <v>44933</v>
       </c>
       <c r="D51" s="12">
-        <v>44932</v>
+        <v>44939</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="56.25" customHeight="1">
       <c r="A52" s="12">
-        <v>44926</v>
+        <v>44933</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="12">
-        <v>44919</v>
+        <v>44926</v>
       </c>
       <c r="D52" s="12">
-        <v>44925</v>
+        <v>44932</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H52" s="18"/>
     </row>
-    <row r="53" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="56.25" customHeight="1">
       <c r="A53" s="12">
-        <v>44919</v>
+        <v>44926</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="12">
-        <v>44912</v>
+        <v>44919</v>
       </c>
       <c r="D53" s="12">
-        <v>44918</v>
+        <v>44925</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>110</v>
@@ -11830,179 +11966,179 @@
         <v>111</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H53" s="18"/>
     </row>
-    <row r="54" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="56.25" customHeight="1">
       <c r="A54" s="12">
-        <v>44912</v>
+        <v>44919</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="12">
-        <v>44905</v>
+        <v>44912</v>
       </c>
       <c r="D54" s="12">
-        <v>44911</v>
+        <v>44918</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>110</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H54" s="18"/>
     </row>
-    <row r="55" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="56.25" customHeight="1">
       <c r="A55" s="12">
-        <v>44905</v>
+        <v>44912</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="12">
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="D55" s="12">
-        <v>44904</v>
+        <v>44911</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H55" s="18"/>
     </row>
-    <row r="56" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="56.25" customHeight="1">
       <c r="A56" s="12">
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="12">
-        <v>44890</v>
+        <v>44898</v>
       </c>
       <c r="D56" s="12">
-        <v>44897</v>
+        <v>44904</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H56" s="18"/>
     </row>
-    <row r="57" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="56.25" customHeight="1">
       <c r="A57" s="12">
-        <v>44890</v>
+        <v>44898</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="12">
-        <v>44883</v>
+        <v>44890</v>
       </c>
       <c r="D57" s="12">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>119</v>
       </c>
       <c r="F57" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H57" s="18"/>
+    </row>
+    <row r="58" spans="1:8" ht="99.75" customHeight="1">
+      <c r="A58" s="12">
+        <v>44890</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="12">
+        <v>44883</v>
+      </c>
+      <c r="D58" s="12">
+        <v>44890</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G57" s="15" t="s">
+      <c r="G58" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="H57" s="18"/>
-    </row>
-    <row r="58" spans="1:8" ht="87" x14ac:dyDescent="0.3">
-      <c r="A58" s="12">
+      <c r="H58" s="18"/>
+    </row>
+    <row r="59" spans="1:8" ht="87">
+      <c r="A59" s="12">
         <v>44883</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B59" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C59" s="12">
         <v>44876</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D59" s="12">
         <v>44883</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E59" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F59" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="G59" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="H58" s="18"/>
-    </row>
-    <row r="59" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12">
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" spans="1:8" ht="71" customHeight="1">
+      <c r="A60" s="12">
         <v>44876</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="12">
-        <v>44870</v>
-      </c>
-      <c r="D59" s="12">
-        <v>44876</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H59" s="18"/>
-    </row>
-    <row r="60" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12">
-        <v>44870</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="12">
-        <v>44863</v>
+        <v>44870</v>
       </c>
       <c r="D60" s="12">
-        <v>44869</v>
+        <v>44876</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H60" s="18"/>
     </row>
-    <row r="61" spans="1:8" ht="68.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="73.5" customHeight="1">
       <c r="A61" s="12">
         <v>44870</v>
       </c>
@@ -12026,226 +12162,274 @@
       </c>
       <c r="H61" s="18"/>
     </row>
-    <row r="62" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="68.75" customHeight="1">
       <c r="A62" s="12">
-        <v>44862</v>
+        <v>44870</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="12">
-        <v>44855</v>
+        <v>44863</v>
       </c>
       <c r="D62" s="12">
+        <v>44869</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" spans="1:8" ht="71" customHeight="1">
+      <c r="A63" s="12">
         <v>44862</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="H62" s="18"/>
-    </row>
-    <row r="63" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="12">
-        <v>44855</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="12">
-        <v>44849</v>
+        <v>44855</v>
       </c>
       <c r="D63" s="12">
+        <v>44862</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" spans="1:8" ht="74" customHeight="1">
+      <c r="A64" s="12">
         <v>44855</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="H63" s="18"/>
-    </row>
-    <row r="64" spans="1:8" ht="73.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="12">
-        <v>44848</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="12">
-        <v>44842</v>
+        <v>44849</v>
       </c>
       <c r="D64" s="12">
+        <v>44855</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H64" s="18"/>
+    </row>
+    <row r="65" spans="1:8" ht="73.25" customHeight="1">
+      <c r="A65" s="12">
         <v>44848</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="H64" s="18"/>
-    </row>
-    <row r="65" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="12">
-        <v>44842</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="12">
-        <v>44835</v>
+        <v>44842</v>
       </c>
       <c r="D65" s="12">
+        <v>44848</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" spans="1:8" ht="78" customHeight="1">
+      <c r="A66" s="12">
         <v>44842</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H65" s="18"/>
-    </row>
-    <row r="66" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="12">
-        <v>44834</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C66" s="12">
-        <v>44829</v>
+        <v>44835</v>
       </c>
       <c r="D66" s="12">
+        <v>44842</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="1:8" ht="76.5" customHeight="1">
+      <c r="A67" s="12">
         <v>44834</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="H66" s="18"/>
-    </row>
-    <row r="67" spans="1:8" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="12">
-        <v>44829</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C67" s="12">
-        <v>44823</v>
+        <v>44829</v>
       </c>
       <c r="D67" s="12">
+        <v>44834</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="1:8" ht="76.25" customHeight="1">
+      <c r="A68" s="12">
         <v>44829</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="H67" s="18"/>
-    </row>
-    <row r="68" spans="1:8" ht="77.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="12">
-        <v>44822</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C68" s="12">
-        <v>44815</v>
+        <v>44823</v>
       </c>
       <c r="D68" s="12">
+        <v>44829</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="H68" s="18"/>
+    </row>
+    <row r="69" spans="1:8" ht="77.75" customHeight="1">
+      <c r="A69" s="12">
         <v>44822</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="H68" s="18"/>
-    </row>
-    <row r="69" spans="1:8" ht="94.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="12">
-        <v>44813</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C69" s="12">
-        <v>44807</v>
+        <v>44815</v>
       </c>
       <c r="D69" s="12">
+        <v>44822</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="H69" s="18"/>
+    </row>
+    <row r="70" spans="1:8" ht="94.25" customHeight="1">
+      <c r="A70" s="12">
         <v>44813</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="H69" s="18"/>
-    </row>
-    <row r="70" spans="1:8" ht="135.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="12">
-        <v>44808</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C70" s="12">
+        <v>44807</v>
+      </c>
+      <c r="D70" s="12">
+        <v>44813</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="H70" s="18"/>
+    </row>
+    <row r="71" spans="1:8" ht="135.5" customHeight="1">
+      <c r="A71" s="12">
+        <v>44808</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="12">
         <v>44800</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D71" s="12">
         <v>44808</v>
       </c>
-      <c r="E70" s="34" t="s">
+      <c r="E71" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="15" t="s">
+      <c r="F71" s="35"/>
+      <c r="G71" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="H70" s="18"/>
+      <c r="H71" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B71:B1048576 B15:B60 B1">
+  <conditionalFormatting sqref="B72:B1048576 B16:B61 B1">
+    <cfRule type="cellIs" dxfId="475" priority="131" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="474" priority="132" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="473" priority="133" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="472" priority="135" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
     <cfRule type="cellIs" dxfId="471" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -12255,10 +12439,10 @@
     <cfRule type="cellIs" dxfId="469" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="129" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="131">
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12293,7 +12477,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
+  <conditionalFormatting sqref="B62">
     <cfRule type="cellIs" dxfId="463" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -12317,7 +12501,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
+  <conditionalFormatting sqref="B63">
     <cfRule type="cellIs" dxfId="459" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -12341,7 +12525,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
+  <conditionalFormatting sqref="B64">
     <cfRule type="cellIs" dxfId="455" priority="106" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -12365,7 +12549,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
+  <conditionalFormatting sqref="B65">
     <cfRule type="cellIs" dxfId="451" priority="101" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -12389,7 +12573,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
+  <conditionalFormatting sqref="B66">
     <cfRule type="cellIs" dxfId="447" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -12413,7 +12597,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
+  <conditionalFormatting sqref="B67">
     <cfRule type="cellIs" dxfId="443" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -12437,7 +12621,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
+  <conditionalFormatting sqref="B68">
     <cfRule type="cellIs" dxfId="439" priority="86" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -12461,20 +12645,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="435" priority="81" operator="equal">
+  <conditionalFormatting sqref="B69">
+    <cfRule type="cellIs" dxfId="435" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="85">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12485,7 +12669,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
+  <conditionalFormatting sqref="B70">
     <cfRule type="cellIs" dxfId="431" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -12509,7 +12693,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+  <conditionalFormatting sqref="B71">
     <cfRule type="cellIs" dxfId="427" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -12533,7 +12717,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
+  <conditionalFormatting sqref="B13">
     <cfRule type="cellIs" dxfId="423" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -12582,19 +12766,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="415" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12798,16 +12982,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="379" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -12825,7 +13009,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D70 A1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D71 A1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12836,14 +13020,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="12.81640625" style="27" customWidth="1"/>
     <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
@@ -12854,7 +13038,7 @@
     <col min="7" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -12891,18 +13075,18 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="58">
       <c r="A2" s="9" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="10"/>
@@ -12924,21 +13108,21 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="59.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="59.5" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>725</v>
-      </c>
       <c r="E3" s="26" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>134</v>
@@ -12961,21 +13145,21 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="73.5" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>133</v>
@@ -12998,21 +13182,21 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="73.5" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>134</v>
@@ -13035,21 +13219,21 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="72.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="72.5" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>708</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>711</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>710</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>134</v>
@@ -13072,21 +13256,21 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="59" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>703</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>704</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>134</v>
@@ -13109,21 +13293,21 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="75.5" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>702</v>
-      </c>
       <c r="E8" s="26" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>134</v>
@@ -13146,7 +13330,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="43.5">
       <c r="A9" s="9" t="s">
         <v>683</v>
       </c>
@@ -13154,13 +13338,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>134</v>
@@ -13183,7 +13367,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="58" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="58" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>682</v>
       </c>
@@ -13220,7 +13404,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="75.5" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>677</v>
       </c>
@@ -13257,7 +13441,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="75.5" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>673</v>
       </c>
@@ -13294,7 +13478,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="75.5" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>670</v>
       </c>
@@ -13331,7 +13515,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="75.5" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>668</v>
       </c>
@@ -13368,7 +13552,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="75.5" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>665</v>
       </c>
@@ -13405,7 +13589,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="58">
       <c r="A16" s="9" t="s">
         <v>653</v>
       </c>
@@ -13442,7 +13626,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="75.5" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>649</v>
       </c>
@@ -13479,7 +13663,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="75.5" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>646</v>
       </c>
@@ -13516,7 +13700,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="75.5" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>642</v>
       </c>
@@ -13553,7 +13737,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="75.5" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>639</v>
       </c>
@@ -13590,7 +13774,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="75.5" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>633</v>
       </c>
@@ -13627,7 +13811,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="75.5" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>631</v>
       </c>
@@ -13664,7 +13848,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="75.5" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>608</v>
       </c>
@@ -13701,7 +13885,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="75.5" customHeight="1">
       <c r="A24" s="9" t="s">
         <v>601</v>
       </c>
@@ -13738,7 +13922,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="75.5" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>598</v>
       </c>
@@ -13775,7 +13959,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="75.5" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>591</v>
       </c>
@@ -13812,7 +13996,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="75.5" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>586</v>
       </c>
@@ -13849,7 +14033,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="75.5" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>583</v>
       </c>
@@ -13886,7 +14070,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="75.5" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>579</v>
       </c>
@@ -13923,7 +14107,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="75.5" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>570</v>
       </c>
@@ -13960,7 +14144,7 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="75.5" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>568</v>
       </c>
@@ -13997,7 +14181,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="75.5" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>567</v>
       </c>
@@ -14034,7 +14218,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="75.5" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>558</v>
       </c>
@@ -14071,7 +14255,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="75.5" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>556</v>
       </c>
@@ -14108,7 +14292,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="57.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="57.5" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>555</v>
       </c>
@@ -14145,7 +14329,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="75.5" customHeight="1">
       <c r="A36" s="9" t="s">
         <v>546</v>
       </c>
@@ -14182,7 +14366,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="75.5" customHeight="1">
       <c r="A37" s="9" t="s">
         <v>542</v>
       </c>
@@ -14219,7 +14403,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="74.5" customHeight="1">
       <c r="A38" s="9" t="s">
         <v>538</v>
       </c>
@@ -14256,7 +14440,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="72.5">
       <c r="A39" s="9" t="s">
         <v>536</v>
       </c>
@@ -14293,7 +14477,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="77" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="77" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>529</v>
       </c>
@@ -14330,7 +14514,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="72.5">
       <c r="A41" s="9" t="s">
         <v>526</v>
       </c>
@@ -14367,7 +14551,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="62" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="62" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>525</v>
       </c>
@@ -14404,7 +14588,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="72.5">
       <c r="A43" s="9" t="s">
         <v>516</v>
       </c>
@@ -14441,7 +14625,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="74.75" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>517</v>
       </c>
@@ -14478,7 +14662,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="74.75" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>518</v>
       </c>
@@ -14515,7 +14699,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="74.75" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>519</v>
       </c>
@@ -14552,7 +14736,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="74.75" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>520</v>
       </c>
@@ -14589,7 +14773,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="74.75" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>492</v>
       </c>
@@ -14626,7 +14810,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="74.75" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>493</v>
       </c>
@@ -14663,7 +14847,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="74.75" customHeight="1">
       <c r="A50" s="9" t="s">
         <v>494</v>
       </c>
@@ -14700,7 +14884,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="74.75" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>495</v>
       </c>
@@ -14737,7 +14921,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="74.75" customHeight="1">
       <c r="A52" s="9" t="s">
         <v>496</v>
       </c>
@@ -14774,7 +14958,7 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="74.75" customHeight="1">
       <c r="A53" s="9" t="s">
         <v>497</v>
       </c>
@@ -14811,7 +14995,7 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="74.75" customHeight="1">
       <c r="A54" s="9" t="s">
         <v>498</v>
       </c>
@@ -14848,7 +15032,7 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="74.75" customHeight="1">
       <c r="A55" s="9" t="s">
         <v>499</v>
       </c>
@@ -14885,7 +15069,7 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="74.75" customHeight="1">
       <c r="A56" s="9" t="s">
         <v>500</v>
       </c>
@@ -14922,7 +15106,7 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="74.75" customHeight="1">
       <c r="A57" s="9" t="s">
         <v>501</v>
       </c>
@@ -14959,7 +15143,7 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="74.75" customHeight="1">
       <c r="A58" s="9" t="s">
         <v>502</v>
       </c>
@@ -14996,7 +15180,7 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="74.75" customHeight="1">
       <c r="A59" s="9" t="s">
         <v>503</v>
       </c>
@@ -15033,7 +15217,7 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="74.75" customHeight="1">
       <c r="A60" s="9" t="s">
         <v>504</v>
       </c>
@@ -15070,7 +15254,7 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="74.75" customHeight="1">
       <c r="A61" s="9" t="s">
         <v>505</v>
       </c>
@@ -15107,7 +15291,7 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="74.75" customHeight="1">
       <c r="A62" s="9" t="s">
         <v>506</v>
       </c>
@@ -15144,7 +15328,7 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="74.75" customHeight="1">
       <c r="A63" s="9" t="s">
         <v>507</v>
       </c>
@@ -15181,7 +15365,7 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="74.75" customHeight="1">
       <c r="A64" s="9" t="s">
         <v>508</v>
       </c>
@@ -15218,7 +15402,7 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="74.75" customHeight="1">
       <c r="A65" s="9" t="s">
         <v>509</v>
       </c>
@@ -15255,7 +15439,7 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="74.75" customHeight="1">
       <c r="A66" s="9" t="s">
         <v>510</v>
       </c>
@@ -15292,7 +15476,7 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" ht="72.5">
       <c r="A67" s="9" t="s">
         <v>511</v>
       </c>
@@ -15329,7 +15513,7 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="72.5">
       <c r="A68" s="9" t="s">
         <v>512</v>
       </c>
@@ -15366,7 +15550,7 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="72.5">
       <c r="A69" s="9" t="s">
         <v>513</v>
       </c>
@@ -15403,7 +15587,7 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="72.5">
       <c r="A70" s="9" t="s">
         <v>514</v>
       </c>
@@ -15440,7 +15624,7 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="72.5">
       <c r="A71" s="9" t="s">
         <v>515</v>
       </c>
@@ -15477,7 +15661,7 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" ht="87" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="87">
       <c r="A72" s="9" t="s">
         <v>491</v>
       </c>
@@ -15514,7 +15698,7 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" ht="87" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="87">
       <c r="A73" s="9" t="s">
         <v>443</v>
       </c>
@@ -15551,7 +15735,7 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="73.5" customHeight="1">
       <c r="A74" s="9" t="s">
         <v>444</v>
       </c>
@@ -15588,7 +15772,7 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" ht="72.5">
       <c r="A75" s="9" t="s">
         <v>445</v>
       </c>
@@ -15625,7 +15809,7 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="72.5">
       <c r="A76" s="9" t="s">
         <v>446</v>
       </c>
@@ -15662,7 +15846,7 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="72.5">
       <c r="A77" s="9" t="s">
         <v>447</v>
       </c>
@@ -15699,7 +15883,7 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" ht="87" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="87">
       <c r="A78" s="9" t="s">
         <v>448</v>
       </c>
@@ -15736,7 +15920,7 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="58">
       <c r="A79" s="9" t="s">
         <v>449</v>
       </c>
@@ -15773,7 +15957,7 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="58">
       <c r="A80" s="9" t="s">
         <v>450</v>
       </c>
@@ -15810,7 +15994,7 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="43.5">
       <c r="A81" s="9" t="s">
         <v>451</v>
       </c>
@@ -15847,7 +16031,7 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" ht="76.25" customHeight="1">
       <c r="A82" s="9" t="s">
         <v>452</v>
       </c>
@@ -15884,7 +16068,7 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="76.25" customHeight="1">
       <c r="A83" s="9" t="s">
         <v>453</v>
       </c>
@@ -15921,7 +16105,7 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" ht="76.25" customHeight="1">
       <c r="A84" s="9" t="s">
         <v>454</v>
       </c>
@@ -15958,7 +16142,7 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" ht="59" customHeight="1">
       <c r="A85" s="9" t="s">
         <v>455</v>
       </c>
@@ -15995,7 +16179,7 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" ht="33" customHeight="1">
       <c r="A86" s="9" t="s">
         <v>456</v>
       </c>
@@ -16032,7 +16216,7 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" ht="59" customHeight="1">
       <c r="A87" s="9" t="s">
         <v>457</v>
       </c>
@@ -16069,7 +16253,7 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" ht="59" customHeight="1">
       <c r="A88" s="9" t="s">
         <v>458</v>
       </c>
@@ -16106,7 +16290,7 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" ht="59" customHeight="1">
       <c r="A89" s="9" t="s">
         <v>459</v>
       </c>
@@ -16143,7 +16327,7 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" ht="59" customHeight="1">
       <c r="A90" s="9" t="s">
         <v>460</v>
       </c>
@@ -16180,7 +16364,7 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" ht="59" customHeight="1">
       <c r="A91" s="9" t="s">
         <v>461</v>
       </c>
@@ -16217,7 +16401,7 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" ht="59" customHeight="1">
       <c r="A92" s="9" t="s">
         <v>462</v>
       </c>
@@ -16254,7 +16438,7 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="29">
       <c r="A93" s="9" t="s">
         <v>463</v>
       </c>
@@ -16291,7 +16475,7 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" ht="42.75" customHeight="1">
       <c r="A94" s="9" t="s">
         <v>464</v>
       </c>
@@ -16328,7 +16512,7 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" ht="42.75" customHeight="1">
       <c r="A95" s="9" t="s">
         <v>465</v>
       </c>
@@ -16365,7 +16549,7 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" ht="42.75" customHeight="1">
       <c r="A96" s="9" t="s">
         <v>466</v>
       </c>
@@ -16402,7 +16586,7 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" ht="32" customHeight="1">
       <c r="A97" s="9" t="s">
         <v>467</v>
       </c>
@@ -16439,7 +16623,7 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="29">
       <c r="A98" s="9" t="s">
         <v>468</v>
       </c>
@@ -16476,7 +16660,7 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="29">
       <c r="A99" s="9" t="s">
         <v>469</v>
       </c>
@@ -16513,7 +16697,7 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="29">
       <c r="A100" s="9" t="s">
         <v>470</v>
       </c>
@@ -16550,7 +16734,7 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" ht="29">
       <c r="A101" s="9" t="s">
         <v>471</v>
       </c>
@@ -16587,7 +16771,7 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" ht="43.5">
       <c r="A102" s="9" t="s">
         <v>472</v>
       </c>
@@ -16624,7 +16808,7 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" ht="42.75" customHeight="1">
       <c r="A103" s="9" t="s">
         <v>473</v>
       </c>
@@ -16661,7 +16845,7 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" ht="29">
       <c r="A104" s="9" t="s">
         <v>474</v>
       </c>
@@ -16696,7 +16880,7 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" ht="29">
       <c r="A105" s="9" t="s">
         <v>475</v>
       </c>
@@ -16731,7 +16915,7 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" ht="29">
       <c r="A106" s="9" t="s">
         <v>476</v>
       </c>
@@ -16766,7 +16950,7 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" ht="29">
       <c r="A107" s="9" t="s">
         <v>477</v>
       </c>
@@ -16801,7 +16985,7 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" ht="29">
       <c r="A108" s="9" t="s">
         <v>478</v>
       </c>
@@ -16836,7 +17020,7 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" ht="29">
       <c r="A109" s="9" t="s">
         <v>479</v>
       </c>
@@ -16871,7 +17055,7 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="29">
       <c r="A110" s="9" t="s">
         <v>480</v>
       </c>
@@ -16906,7 +17090,7 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="29">
       <c r="A111" s="9" t="s">
         <v>481</v>
       </c>
@@ -16939,7 +17123,7 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" ht="29">
       <c r="A112" s="9" t="s">
         <v>482</v>
       </c>
@@ -16974,7 +17158,7 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" ht="29" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="29">
       <c r="A113" s="9" t="s">
         <v>483</v>
       </c>
@@ -17009,7 +17193,7 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="43.5">
       <c r="A114" s="9" t="s">
         <v>484</v>
       </c>
@@ -17044,7 +17228,7 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" ht="43.5">
       <c r="A115" s="9" t="s">
         <v>485</v>
       </c>
@@ -17079,7 +17263,7 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" ht="58">
       <c r="A116" s="9" t="s">
         <v>486</v>
       </c>
@@ -17114,7 +17298,7 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" ht="43.5">
       <c r="A117" s="9" t="s">
         <v>487</v>
       </c>
@@ -17149,7 +17333,7 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" ht="43.5">
       <c r="A118" s="9" t="s">
         <v>488</v>
       </c>
@@ -17184,7 +17368,7 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" ht="72.5">
       <c r="A119" s="9" t="s">
         <v>489</v>
       </c>
@@ -17219,7 +17403,7 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" ht="58">
       <c r="A120" s="9" t="s">
         <v>490</v>
       </c>
@@ -17257,16 +17441,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B94:B1048576 B1">
-    <cfRule type="cellIs" dxfId="375" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="471" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="472" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="473" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="474" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="475">
@@ -17281,16 +17465,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="cellIs" dxfId="371" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="466" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="467" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="468" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="469" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="470">
@@ -17305,16 +17489,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="cellIs" dxfId="367" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="461" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="462" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="463" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="464" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="465">
@@ -17329,16 +17513,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="cellIs" dxfId="363" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="456" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="457" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="458" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="459" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="460">
@@ -17353,16 +17537,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="cellIs" dxfId="359" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="451" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="452" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="453" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="454" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="455">
@@ -17377,16 +17561,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="cellIs" dxfId="355" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="446" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="447" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="448" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="449" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="450">
@@ -17401,16 +17585,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="cellIs" dxfId="351" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="441" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="442" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="443" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="444" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="445">
@@ -17425,16 +17609,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="cellIs" dxfId="347" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="431" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="432" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="433" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="434" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="435">
@@ -17449,16 +17633,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="cellIs" dxfId="343" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="426" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="427" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="428" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="429" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="430">
@@ -17473,16 +17657,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="339" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="416" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="417" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="418" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="419" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="420">
@@ -17497,16 +17681,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="335" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="411" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="412" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="413" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="414" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="415">
@@ -17521,16 +17705,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="cellIs" dxfId="331" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="406" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="407" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="408" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="409" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="410">
@@ -17545,16 +17729,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="327" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="401" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="402" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="403" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="404" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="405">
@@ -17569,16 +17753,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="cellIs" dxfId="323" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="396" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="397" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="398" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="399" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="400">
@@ -17593,16 +17777,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="cellIs" dxfId="319" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="391" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="392" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="393" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="394" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="395">
@@ -17617,16 +17801,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="cellIs" dxfId="315" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="386" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="387" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="388" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="389" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="390">
@@ -17641,16 +17825,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="cellIs" dxfId="311" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="381" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="382" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="383" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="384" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="385">
@@ -17665,16 +17849,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="cellIs" dxfId="307" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="376" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="377" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="378" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="379" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="380">
@@ -17689,16 +17873,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="cellIs" dxfId="303" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="371" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="372" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="373" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="374" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="375">
@@ -17713,16 +17897,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="299" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="366" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="367" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="368" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="369" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="370">
@@ -17737,16 +17921,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="295" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="361" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="362" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="363" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="364" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="365">
@@ -17761,16 +17945,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="291" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="356" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="357" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="358" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="359" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="360">
@@ -17785,16 +17969,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="cellIs" dxfId="287" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="351" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="352" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="353" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="354" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="355">
@@ -17809,16 +17993,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="283" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="346" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="347" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="348" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="349" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="350">
@@ -17833,16 +18017,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="279" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="341" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="342" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="343" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="344" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="345">
@@ -17857,16 +18041,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="275" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="336" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="337" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="338" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="339" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="340">
@@ -17881,16 +18065,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="271" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="331" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="332" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="333" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="334" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="335">
@@ -17905,16 +18089,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="267" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="326" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="327" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="328" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="329" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="330">
@@ -17929,16 +18113,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="263" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="321" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="322" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="323" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="324" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="325">
@@ -17953,16 +18137,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="259" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="316" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="317" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="318" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="319" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="320">
@@ -17977,16 +18161,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="255" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="311" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="312" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="313" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="314" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="315">
@@ -18001,16 +18185,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="251" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="306" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="307" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="308" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="309" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="310">
@@ -18025,16 +18209,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="247" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="301" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="302" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="303" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="304" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="305">
@@ -18049,16 +18233,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="243" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="296" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="297" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="298" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="299" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="300">
@@ -18073,16 +18257,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="239" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="291" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="292" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="293" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="294" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="295">
@@ -18097,16 +18281,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="235" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="286" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="287" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="288" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="289" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="290">
@@ -18121,16 +18305,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="231" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="281" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="282" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="283" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="284" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="285">
@@ -18145,16 +18329,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="227" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="276" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="277" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="278" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="279" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="280">
@@ -18169,16 +18353,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="223" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="271" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="272" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="273" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="274" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="275">
@@ -18193,16 +18377,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="219" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="266" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="267" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="268" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="269" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="270">
@@ -18217,16 +18401,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="215" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="261" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="262" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="263" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="264" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="265">
@@ -18241,16 +18425,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="211" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="256" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="257" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="258" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="259" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="260">
@@ -18265,16 +18449,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="207" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="251" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="252" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="253" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="254" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="255">
@@ -18289,16 +18473,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="cellIs" dxfId="203" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="246" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="247" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="248" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="249" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -18313,16 +18497,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="cellIs" dxfId="199" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="241" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="242" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="243" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="244" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="245">
@@ -18337,16 +18521,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="cellIs" dxfId="195" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="236" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="237" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="238" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="239" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="240">
@@ -18361,16 +18545,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="cellIs" dxfId="191" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="231" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="232" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="233" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="234" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="235">
@@ -18385,16 +18569,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="cellIs" dxfId="187" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="226" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="227" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="228" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="229" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="230">
@@ -18409,16 +18593,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="183" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="221" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="222" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="223" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="224" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="225">
@@ -18433,16 +18617,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="179" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="216" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="217" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="218" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="219" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="220">
@@ -18457,16 +18641,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="cellIs" dxfId="175" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="211" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="212" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="213" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="214" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="215">
@@ -18481,16 +18665,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="cellIs" dxfId="171" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="206" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="207" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="208" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="209" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="210">
@@ -18505,16 +18689,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="cellIs" dxfId="167" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="201" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="202" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="203" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="204" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="205">
@@ -18529,16 +18713,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="163" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="196" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="197" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="198" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="199" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="200">
@@ -18553,16 +18737,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="cellIs" dxfId="159" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="191" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="192" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="193" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="194" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="195">
@@ -18577,16 +18761,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="cellIs" dxfId="155" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="186" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="187" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="188" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="189" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="190">
@@ -18601,16 +18785,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="151" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="181" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="182" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="183" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="184" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="185">
@@ -18625,16 +18809,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="147" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="176" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="177" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="178" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="179" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="180">
@@ -18649,16 +18833,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="143" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="171" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="172" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="173" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="174" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="175">
@@ -18673,16 +18857,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="139" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="166" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="167" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="168" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="169" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="170">
@@ -18697,16 +18881,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="135" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="161" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="162" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="163" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="164" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="165">
@@ -18721,16 +18905,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="131" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="156" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="157" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="158" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="159" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="160">
@@ -18745,16 +18929,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="127" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="151" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="152" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="153" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="154" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="155">
@@ -18769,16 +18953,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="cellIs" dxfId="123" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="146" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="147" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="148" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="149" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="150">
@@ -18793,16 +18977,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="cellIs" dxfId="119" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="141" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="142" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="143" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="144" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="145">
@@ -18817,16 +19001,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="cellIs" dxfId="115" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="136" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="137" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="138" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="139" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="140">
@@ -18841,16 +19025,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="cellIs" dxfId="111" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="131" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="132" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="133" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="134" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="135">
@@ -18865,16 +19049,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="cellIs" dxfId="107" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="127" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="129" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="130">
@@ -18889,16 +19073,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="103" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="122" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="123" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="125">
@@ -18913,16 +19097,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="99" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="117" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="118" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="119" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="120">
@@ -18937,16 +19121,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="95" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="112" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="113" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="114" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="115">
@@ -18961,16 +19145,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="91" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="106" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="107" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="108" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="109" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -18985,16 +19169,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="cellIs" dxfId="87" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="101" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="103" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="104" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -19009,16 +19193,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="cellIs" dxfId="83" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="97" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="98" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="99" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -19033,16 +19217,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="79" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="94" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="95">
@@ -19057,16 +19241,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="75" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="86" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="87" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="88" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="89" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -19081,16 +19265,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="71" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="84" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="85">
@@ -19105,16 +19289,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="67" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -19129,16 +19313,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="63" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -19153,16 +19337,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="59" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -19177,16 +19361,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -19201,16 +19385,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="51" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -19225,16 +19409,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -19249,16 +19433,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -19273,16 +19457,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -19297,16 +19481,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -19321,16 +19505,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -19345,16 +19529,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -19369,16 +19553,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -19393,16 +19577,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -19417,16 +19601,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -19441,16 +19625,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -19465,16 +19649,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -19516,7 +19700,7 @@
       <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
@@ -19527,7 +19711,7 @@
     <col min="7" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" s="19" t="s">
         <v>222</v>
       </c>
@@ -19547,7 +19731,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="72.5">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -19567,7 +19751,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="43.5">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -19587,7 +19771,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="43.5">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -19607,7 +19791,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="43.5">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -19627,7 +19811,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="43.5">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -19647,7 +19831,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="43.5">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
@@ -19667,7 +19851,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="43.5">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -19687,7 +19871,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -19707,7 +19891,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="29">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -19727,7 +19911,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="58" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="58">
       <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
@@ -19747,7 +19931,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="29">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -19789,7 +19973,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
@@ -19797,7 +19981,7 @@
     <col min="5" max="5" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.5">
       <c r="A1" s="24" t="s">
         <v>617</v>
       </c>
@@ -19809,7 +19993,7 @@
       <c r="E1" s="37"/>
       <c r="F1" s="38"/>
     </row>
-    <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.5">
       <c r="A2" s="28" t="s">
         <v>618</v>
       </c>
@@ -19829,7 +20013,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.5">
       <c r="A3" s="31" t="s">
         <v>625</v>
       </c>
@@ -19845,7 +20029,7 @@
       <c r="E3" s="33"/>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.5">
       <c r="A4" s="31" t="s">
         <v>626</v>
       </c>
@@ -19861,7 +20045,7 @@
       <c r="E4" s="33"/>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="29">
       <c r="A5" s="31" t="s">
         <v>629</v>
       </c>
@@ -19877,7 +20061,7 @@
       <c r="E5" s="33"/>
       <c r="F5" s="23"/>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="29">
       <c r="A6" s="31" t="s">
         <v>658</v>
       </c>
@@ -19893,7 +20077,7 @@
       <c r="E6" s="33"/>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.5">
       <c r="A7" s="31"/>
       <c r="B7" s="23"/>
       <c r="C7" s="32"/>
@@ -19901,7 +20085,7 @@
       <c r="E7" s="33"/>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.5">
       <c r="A8" s="31"/>
       <c r="B8" s="23"/>
       <c r="C8" s="32"/>
@@ -19909,7 +20093,7 @@
       <c r="E8" s="33"/>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.5">
       <c r="A9" s="31"/>
       <c r="B9" s="23"/>
       <c r="C9" s="32"/>
@@ -19917,7 +20101,7 @@
       <c r="E9" s="33"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.5">
       <c r="A10" s="31"/>
       <c r="B10" s="23"/>
       <c r="C10" s="32"/>

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF196B84-6107-41C5-8EB0-D35F0132EC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A25455-AD8F-4B4A-9AA4-9D92375B5C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="742">
   <si>
     <t>汇报日期</t>
   </si>
@@ -4645,13 +4645,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。07:20计划，23:30日报
-2.完成。12:13~14:55，2小时，2-00:17:04
-3.完成。
-4.未完成。16:00~23:15，看到视频17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.7点起床计划，23点日报
 2.英语：2小时，复习词汇
 3.技术：Vue结束，提交git
@@ -4761,6 +4754,83 @@
 3.英语：学习20小时。报名英语培训。
 4.健康：周末减到74.0kg。运动替换游戏6天。
 5.周报：周日23:59前，更新目标进度，下周计划。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-25
+星期一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 技术：前端学习，《前端技术之Vue框架》已全部学习完毕。
+   1. Vue组件，父给子组件传值，子修改父组件值。
+2. 英语：研究英语培训机构，打算下周报名。先学个3个月试试效果。
+3. 完成本周周报，计划下周周报。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近3天，减重目标完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主观原因：对体重控制的重要性认知不足，对体型控制的意愿下降。
+客观原因：天太冷，需要食物补充热量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周减重目标必须完成，否则下周一周不允许打开购物，视频网站。中饭晚饭不允许吃除了代餐之外的任何食物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.未完成。07:20计划，日报忘了
+2.完成。12:13~14:55，2小时，2-00:17:04
+3.完成。23:20
+4.未完成。75.0kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Leetcode：9. 回文数，使用左右指针做出来了，同时将一半数反转也做了一遍。
+2. 技术：架构设计实战，《亿级流量多级缓存分布式课程》视频1。
+3. 英语：咨询新东方英语培训。推荐了3个课程，vip小班课（25800），直播大班课（7980），录播课+8小时1v1（15580）
+   1. 月底前报名有个8.8折扣券。还告诉我，如果想短时间考个证用于面试的话，雅思更合适。
+   2. 整体沟通下来，还是挺专业的。了解到我觉得课程太贵还有其他选择时，也没有死缠烂打。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报
+2.英语：4小时，咨询培训
+3.leetcode：1题
+4.技术：实战5小时，提交git
+5.体重减到74.8kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。09:39计划，23:25日报（忘12-3）
+2.完成。09:40~14:20，4小时，2-00:15:52
+3.完成。16:20~17:25，1题(9)
+4.完成。17:30~23:30，5小时
+5.未完成。74.7kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-26
+星期二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报
+2.英语：4小时，咨询培训
+3.leetcode：1题
+4.技术：设计视频2，提交git
+5.体重减到74.8kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。09:39计划，23:25日报（忘12-3）
+2.完成。09:40~14:20，4小时，2-00:15:52
+3.完成。16:20~17:25，1题(9)
+4.完成。17:30~23:30，5小时
+5.未完成。74.9kg。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5099,7 +5169,91 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="476">
+  <dxfs count="484">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -10413,11 +10567,11 @@
   </sheetPr>
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:H2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -10472,10 +10626,10 @@
         <v>45291</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -10510,16 +10664,16 @@
         <v>45284</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G3" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>727</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>728</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -10561,7 +10715,7 @@
         <v>691</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -12406,16 +12560,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B72:B1048576 B16:B61 B1">
-    <cfRule type="cellIs" dxfId="475" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="131" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="132" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="133" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="135" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="136">
@@ -12430,16 +12584,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="471" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="127" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="129" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="130">
@@ -12454,16 +12608,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="467" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="122" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="123" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="125">
@@ -12478,16 +12632,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="463" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="117" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="118" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="119" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="120">
@@ -12502,16 +12656,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="459" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="112" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="113" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="114" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="115">
@@ -12526,16 +12680,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="455" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="106" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="107" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="108" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="109" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -12550,16 +12704,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="451" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="101" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="102" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="103" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="104" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -12574,16 +12728,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="447" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="97" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="98" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="99" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -12598,16 +12752,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="443" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="94" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="95">
@@ -12622,16 +12776,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="439" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="86" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="87" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="88" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="89" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -12646,16 +12800,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="435" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -12670,16 +12824,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="431" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -12694,16 +12848,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="427" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -12718,16 +12872,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="423" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -12742,16 +12896,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="419" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -12766,16 +12920,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="415" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -12790,16 +12944,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="411" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -12814,16 +12968,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="407" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -12838,16 +12992,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="403" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -12862,16 +13016,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="399" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -12886,16 +13040,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="395" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -12910,16 +13064,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="391" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -12934,16 +13088,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="387" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -12958,16 +13112,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="383" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -12982,16 +13136,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -13018,13 +13172,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W120"/>
+  <dimension ref="A1:W122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -13075,18 +13229,18 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="58">
+    <row r="2" spans="1:23" ht="73.5" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="10"/>
@@ -13108,21 +13262,21 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="59.5" customHeight="1">
+    <row r="3" spans="1:23" ht="73.5" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>716</v>
+        <v>730</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>134</v>
@@ -13145,24 +13299,24 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="73.5" customHeight="1">
+    <row r="4" spans="1:23" ht="58">
       <c r="A4" s="9" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -13182,21 +13336,21 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="73.5" customHeight="1">
+    <row r="5" spans="1:23" ht="59.5" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>134</v>
@@ -13219,24 +13373,24 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="72.5" customHeight="1">
+    <row r="6" spans="1:23" ht="73.5" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -13256,21 +13410,21 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="59" customHeight="1">
+    <row r="7" spans="1:23" ht="73.5" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>134</v>
@@ -13293,21 +13447,21 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="75.5" customHeight="1">
+    <row r="8" spans="1:23" ht="72.5" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>134</v>
@@ -13330,21 +13484,21 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="43.5">
+    <row r="9" spans="1:23" ht="59" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>134</v>
@@ -13367,21 +13521,21 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="58" customHeight="1">
+    <row r="10" spans="1:23" ht="75.5" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>134</v>
@@ -13404,21 +13558,21 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="75.5" customHeight="1">
+    <row r="11" spans="1:23" ht="43.5">
       <c r="A11" s="9" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>134</v>
@@ -13441,21 +13595,21 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="75.5" customHeight="1">
+    <row r="12" spans="1:23" ht="58" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>134</v>
@@ -13480,19 +13634,19 @@
     </row>
     <row r="13" spans="1:23" ht="75.5" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>134</v>
@@ -13517,19 +13671,19 @@
     </row>
     <row r="14" spans="1:23" ht="75.5" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>134</v>
@@ -13554,19 +13708,19 @@
     </row>
     <row r="15" spans="1:23" ht="75.5" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>134</v>
@@ -13589,21 +13743,21 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="58">
+    <row r="16" spans="1:23" ht="75.5" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>134</v>
@@ -13628,19 +13782,19 @@
     </row>
     <row r="17" spans="1:23" ht="75.5" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>134</v>
@@ -13663,21 +13817,21 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="75.5" customHeight="1">
+    <row r="18" spans="1:23" ht="58">
       <c r="A18" s="9" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>134</v>
@@ -13702,19 +13856,19 @@
     </row>
     <row r="19" spans="1:23" ht="75.5" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>134</v>
@@ -13739,19 +13893,19 @@
     </row>
     <row r="20" spans="1:23" ht="75.5" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>134</v>
@@ -13776,19 +13930,19 @@
     </row>
     <row r="21" spans="1:23" ht="75.5" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>134</v>
@@ -13813,19 +13967,19 @@
     </row>
     <row r="22" spans="1:23" ht="75.5" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>613</v>
+        <v>641</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>134</v>
@@ -13850,22 +14004,22 @@
     </row>
     <row r="23" spans="1:23" ht="75.5" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>608</v>
+        <v>633</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>607</v>
+        <v>636</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -13887,19 +14041,19 @@
     </row>
     <row r="24" spans="1:23" ht="75.5" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>605</v>
+        <v>634</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>134</v>
@@ -13924,22 +14078,22 @@
     </row>
     <row r="25" spans="1:23" ht="75.5" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -13961,19 +14115,19 @@
     </row>
     <row r="26" spans="1:23" ht="75.5" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>134</v>
@@ -13998,19 +14152,19 @@
     </row>
     <row r="27" spans="1:23" ht="75.5" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>134</v>
@@ -14035,19 +14189,19 @@
     </row>
     <row r="28" spans="1:23" ht="75.5" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>134</v>
@@ -14072,19 +14226,19 @@
     </row>
     <row r="29" spans="1:23" ht="75.5" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>134</v>
@@ -14109,19 +14263,19 @@
     </row>
     <row r="30" spans="1:23" ht="75.5" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>134</v>
@@ -14146,19 +14300,19 @@
     </row>
     <row r="31" spans="1:23" ht="75.5" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>684</v>
+        <v>584</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>134</v>
@@ -14183,19 +14337,19 @@
     </row>
     <row r="32" spans="1:23" ht="75.5" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>134</v>
@@ -14220,19 +14374,19 @@
     </row>
     <row r="33" spans="1:23" ht="75.5" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>565</v>
+        <v>684</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>134</v>
@@ -14257,19 +14411,19 @@
     </row>
     <row r="34" spans="1:23" ht="75.5" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>134</v>
@@ -14292,21 +14446,21 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="57.5" customHeight="1">
+    <row r="35" spans="1:23" ht="75.5" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>134</v>
@@ -14331,19 +14485,19 @@
     </row>
     <row r="36" spans="1:23" ht="75.5" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>134</v>
@@ -14366,21 +14520,21 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="75.5" customHeight="1">
+    <row r="37" spans="1:23" ht="57.5" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>134</v>
@@ -14403,21 +14557,21 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="74.5" customHeight="1">
+    <row r="38" spans="1:23" ht="75.5" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>134</v>
@@ -14440,21 +14594,21 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="72.5">
+    <row r="39" spans="1:23" ht="75.5" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>134</v>
@@ -14477,21 +14631,21 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="77" customHeight="1">
+    <row r="40" spans="1:23" ht="74.5" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>134</v>
@@ -14516,19 +14670,19 @@
     </row>
     <row r="41" spans="1:23" ht="72.5">
       <c r="A41" s="9" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>134</v>
@@ -14551,24 +14705,24 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="62" customHeight="1">
+    <row r="42" spans="1:23" ht="77" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>441</v>
+        <v>531</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -14590,22 +14744,22 @@
     </row>
     <row r="43" spans="1:23" ht="72.5">
       <c r="A43" s="9" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>434</v>
+        <v>527</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>442</v>
+        <v>530</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>436</v>
+        <v>528</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -14625,24 +14779,24 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="74.75" customHeight="1">
+    <row r="44" spans="1:23" ht="62" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>435</v>
+        <v>524</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>437</v>
+        <v>523</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -14662,24 +14816,24 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="74.75" customHeight="1">
+    <row r="45" spans="1:23" ht="72.5">
       <c r="A45" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -14701,22 +14855,22 @@
     </row>
     <row r="46" spans="1:23" ht="74.75" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -14738,19 +14892,19 @@
     </row>
     <row r="47" spans="1:23" ht="74.75" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>134</v>
@@ -14775,22 +14929,22 @@
     </row>
     <row r="48" spans="1:23" ht="74.75" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>413</v>
+        <v>133</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -14812,19 +14966,19 @@
     </row>
     <row r="49" spans="1:23" ht="74.75" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>134</v>
@@ -14849,22 +15003,22 @@
     </row>
     <row r="50" spans="1:23" ht="74.75" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -14886,19 +15040,19 @@
     </row>
     <row r="51" spans="1:23" ht="74.75" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>134</v>
@@ -14923,19 +15077,19 @@
     </row>
     <row r="52" spans="1:23" ht="74.75" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>134</v>
@@ -14960,19 +15114,19 @@
     </row>
     <row r="53" spans="1:23" ht="74.75" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>134</v>
@@ -14997,19 +15151,19 @@
     </row>
     <row r="54" spans="1:23" ht="74.75" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>575</v>
+        <v>399</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>134</v>
@@ -15034,19 +15188,19 @@
     </row>
     <row r="55" spans="1:23" ht="74.75" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>134</v>
@@ -15071,19 +15225,19 @@
     </row>
     <row r="56" spans="1:23" ht="74.75" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>381</v>
+        <v>575</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>134</v>
@@ -15108,19 +15262,19 @@
     </row>
     <row r="57" spans="1:23" ht="74.75" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>134</v>
@@ -15145,19 +15299,19 @@
     </row>
     <row r="58" spans="1:23" ht="74.75" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>134</v>
@@ -15182,22 +15336,22 @@
     </row>
     <row r="59" spans="1:23" ht="74.75" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -15219,19 +15373,19 @@
     </row>
     <row r="60" spans="1:23" ht="74.75" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>134</v>
@@ -15256,22 +15410,22 @@
     </row>
     <row r="61" spans="1:23" ht="74.75" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>362</v>
+        <v>373</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>372</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -15293,19 +15447,19 @@
     </row>
     <row r="62" spans="1:23" ht="74.75" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>358</v>
+        <v>371</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>369</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>134</v>
@@ -15330,22 +15484,22 @@
     </row>
     <row r="63" spans="1:23" ht="74.75" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -15367,19 +15521,19 @@
     </row>
     <row r="64" spans="1:23" ht="74.75" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>134</v>
@@ -15404,22 +15558,22 @@
     </row>
     <row r="65" spans="1:23" ht="74.75" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -15441,19 +15595,19 @@
     </row>
     <row r="66" spans="1:23" ht="74.75" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>134</v>
@@ -15476,24 +15630,24 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" ht="72.5">
+    <row r="67" spans="1:23" ht="74.75" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -15513,21 +15667,21 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" ht="72.5">
+    <row r="68" spans="1:23" ht="74.75" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>134</v>
@@ -15552,22 +15706,22 @@
     </row>
     <row r="69" spans="1:23" ht="72.5">
       <c r="A69" s="9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -15589,19 +15743,19 @@
     </row>
     <row r="70" spans="1:23" ht="72.5">
       <c r="A70" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>134</v>
@@ -15626,19 +15780,19 @@
     </row>
     <row r="71" spans="1:23" ht="72.5">
       <c r="A71" s="9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>134</v>
@@ -15661,21 +15815,21 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" ht="87">
+    <row r="72" spans="1:23" ht="72.5">
       <c r="A72" s="9" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>134</v>
@@ -15698,21 +15852,21 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" ht="87">
+    <row r="73" spans="1:23" ht="72.5">
       <c r="A73" s="9" t="s">
-        <v>443</v>
+        <v>515</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>134</v>
@@ -15735,21 +15889,21 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" ht="73.5" customHeight="1">
+    <row r="74" spans="1:23" ht="87">
       <c r="A74" s="9" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>134</v>
@@ -15772,24 +15926,24 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" ht="72.5">
+    <row r="75" spans="1:23" ht="87">
       <c r="A75" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -15809,24 +15963,24 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="72.5">
+    <row r="76" spans="1:23" ht="73.5" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -15848,22 +16002,22 @@
     </row>
     <row r="77" spans="1:23" ht="72.5">
       <c r="A77" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -15883,24 +16037,24 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" ht="87">
+    <row r="78" spans="1:23" ht="72.5">
       <c r="A78" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -15920,21 +16074,21 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" ht="58">
+    <row r="79" spans="1:23" ht="72.5">
       <c r="A79" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>134</v>
@@ -15957,21 +16111,21 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" ht="58">
+    <row r="80" spans="1:23" ht="87">
       <c r="A80" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>134</v>
@@ -15994,24 +16148,24 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="43.5">
+    <row r="81" spans="1:23" ht="58">
       <c r="A81" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -16031,21 +16185,21 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" ht="76.25" customHeight="1">
+    <row r="82" spans="1:23" ht="58">
       <c r="A82" s="9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>134</v>
@@ -16068,24 +16222,24 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" ht="76.25" customHeight="1">
+    <row r="83" spans="1:23" ht="43.5">
       <c r="A83" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -16107,19 +16261,19 @@
     </row>
     <row r="84" spans="1:23" ht="76.25" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>134</v>
@@ -16142,21 +16296,21 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" ht="59" customHeight="1">
+    <row r="85" spans="1:23" ht="76.25" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>134</v>
@@ -16179,21 +16333,21 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" ht="33" customHeight="1">
+    <row r="86" spans="1:23" ht="76.25" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>134</v>
@@ -16218,22 +16372,22 @@
     </row>
     <row r="87" spans="1:23" ht="59" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -16253,21 +16407,21 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" ht="59" customHeight="1">
+    <row r="88" spans="1:23" ht="33" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>134</v>
@@ -16292,22 +16446,22 @@
     </row>
     <row r="89" spans="1:23" ht="59" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -16329,19 +16483,19 @@
     </row>
     <row r="90" spans="1:23" ht="59" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>134</v>
@@ -16366,19 +16520,19 @@
     </row>
     <row r="91" spans="1:23" ht="59" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>134</v>
@@ -16403,19 +16557,19 @@
     </row>
     <row r="92" spans="1:23" ht="59" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>134</v>
@@ -16438,21 +16592,21 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" ht="29">
+    <row r="93" spans="1:23" ht="59" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>134</v>
@@ -16475,21 +16629,21 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" ht="42.75" customHeight="1">
+    <row r="94" spans="1:23" ht="59" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>134</v>
@@ -16512,21 +16666,21 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" ht="42.75" customHeight="1">
+    <row r="95" spans="1:23" ht="29">
       <c r="A95" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>134</v>
@@ -16551,19 +16705,19 @@
     </row>
     <row r="96" spans="1:23" ht="42.75" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>134</v>
@@ -16586,21 +16740,21 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" ht="32" customHeight="1">
+    <row r="97" spans="1:23" ht="42.75" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>9</v>
+        <v>465</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>134</v>
@@ -16623,21 +16777,21 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" ht="29">
+    <row r="98" spans="1:23" ht="42.75" customHeight="1">
       <c r="A98" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="B98" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B98" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>134</v>
@@ -16660,24 +16814,24 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" ht="29">
+    <row r="99" spans="1:23" ht="32" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -16699,22 +16853,22 @@
     </row>
     <row r="100" spans="1:23" ht="29">
       <c r="A100" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E100" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>133</v>
+        <v>9</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -16736,19 +16890,19 @@
     </row>
     <row r="101" spans="1:23" ht="29">
       <c r="A101" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>133</v>
@@ -16771,24 +16925,24 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" ht="43.5">
+    <row r="102" spans="1:23" ht="29">
       <c r="A102" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>151</v>
+        <v>13</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>146</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -16808,24 +16962,24 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" ht="42.75" customHeight="1">
+    <row r="103" spans="1:23" ht="29">
       <c r="A103" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="F103" s="14" t="s">
-        <v>134</v>
+        <v>149</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -16845,23 +16999,25 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" ht="29">
+    <row r="104" spans="1:23" ht="43.5">
       <c r="A104" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F104" s="14"/>
+        <v>151</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -16880,9 +17036,9 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" ht="29">
+    <row r="105" spans="1:23" ht="42.75" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>9</v>
@@ -16891,12 +17047,14 @@
         <v>150</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F105" s="14"/>
+        <v>231</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -16917,19 +17075,19 @@
     </row>
     <row r="106" spans="1:23" ht="29">
       <c r="A106" s="9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F106" s="14"/>
       <c r="G106" s="1"/>
@@ -16952,7 +17110,7 @@
     </row>
     <row r="107" spans="1:23" ht="29">
       <c r="A107" s="9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>9</v>
@@ -16961,10 +17119,10 @@
         <v>150</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F107" s="14"/>
       <c r="G107" s="1"/>
@@ -16987,19 +17145,19 @@
     </row>
     <row r="108" spans="1:23" ht="29">
       <c r="A108" s="9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E108" s="15" t="s">
-        <v>162</v>
+        <v>9</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="1"/>
@@ -17022,19 +17180,19 @@
     </row>
     <row r="109" spans="1:23" ht="29">
       <c r="A109" s="9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>165</v>
+        <v>9</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="F109" s="14"/>
       <c r="G109" s="1"/>
@@ -17057,19 +17215,19 @@
     </row>
     <row r="110" spans="1:23" ht="29">
       <c r="A110" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="1"/>
@@ -17092,7 +17250,7 @@
     </row>
     <row r="111" spans="1:23" ht="29">
       <c r="A111" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>13</v>
@@ -17103,7 +17261,9 @@
       <c r="D111" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E111" s="15"/>
+      <c r="E111" s="15" t="s">
+        <v>165</v>
+      </c>
       <c r="F111" s="14"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -17125,19 +17285,19 @@
     </row>
     <row r="112" spans="1:23" ht="29">
       <c r="A112" s="9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="1"/>
@@ -17160,20 +17320,18 @@
     </row>
     <row r="113" spans="1:23" ht="29">
       <c r="A113" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="E113" s="15" t="s">
-        <v>173</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E113" s="15"/>
       <c r="F113" s="14"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -17193,21 +17351,21 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" ht="43.5">
+    <row r="114" spans="1:23" ht="29">
       <c r="A114" s="9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="1"/>
@@ -17228,21 +17386,21 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" ht="43.5">
+    <row r="115" spans="1:23" ht="29">
       <c r="A115" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="1"/>
@@ -17263,21 +17421,21 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" ht="58">
+    <row r="116" spans="1:23" ht="43.5">
       <c r="A116" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="1"/>
@@ -17300,19 +17458,19 @@
     </row>
     <row r="117" spans="1:23" ht="43.5">
       <c r="A117" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F117" s="14"/>
       <c r="G117" s="1"/>
@@ -17333,21 +17491,21 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" ht="43.5">
+    <row r="118" spans="1:23" ht="58">
       <c r="A118" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="1"/>
@@ -17368,21 +17526,21 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" ht="72.5">
+    <row r="119" spans="1:23" ht="43.5">
       <c r="A119" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F119" s="14"/>
       <c r="G119" s="1"/>
@@ -17403,21 +17561,21 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" ht="58">
+    <row r="120" spans="1:23" ht="43.5">
       <c r="A120" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F120" s="14"/>
       <c r="G120" s="1"/>
@@ -17438,19 +17596,161 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
+    <row r="121" spans="1:23" ht="72.5">
+      <c r="A121" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E121" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F121" s="14"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
+    </row>
+    <row r="122" spans="1:23" ht="58">
+      <c r="A122" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E122" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F122" s="14"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="1"/>
+      <c r="W122" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B94:B1048576 B1">
-    <cfRule type="cellIs" dxfId="379" priority="471" operator="equal">
+  <conditionalFormatting sqref="B96:B1048576 B1">
+    <cfRule type="cellIs" dxfId="383" priority="486" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="487" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="488" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="489" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="490">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B94">
+    <cfRule type="cellIs" dxfId="379" priority="481" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="378" priority="482" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="377" priority="483" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="376" priority="484" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="485">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95">
+    <cfRule type="cellIs" dxfId="375" priority="476" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="374" priority="477" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="373" priority="478" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="372" priority="479" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="480">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B93">
+    <cfRule type="cellIs" dxfId="371" priority="471" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="370" priority="472" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="369" priority="473" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="368" priority="474" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="475">
@@ -17465,16 +17765,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="cellIs" dxfId="375" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="466" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="467" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="468" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="469" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="470">
@@ -17488,17 +17788,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
-    <cfRule type="cellIs" dxfId="371" priority="461" operator="equal">
+  <conditionalFormatting sqref="B91">
+    <cfRule type="cellIs" dxfId="363" priority="461" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="462" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="463" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="464" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="465">
@@ -17512,17 +17812,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91">
-    <cfRule type="cellIs" dxfId="367" priority="456" operator="equal">
+  <conditionalFormatting sqref="B90">
+    <cfRule type="cellIs" dxfId="359" priority="456" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="457" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="458" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="459" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="460">
@@ -17536,41 +17836,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B90">
-    <cfRule type="cellIs" dxfId="363" priority="451" operator="equal">
+  <conditionalFormatting sqref="B89">
+    <cfRule type="cellIs" dxfId="355" priority="446" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="447" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="448" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="454" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="455">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
-    <cfRule type="cellIs" dxfId="359" priority="446" operator="equal">
-      <formula>"部分完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="447" operator="equal">
-      <formula>"里程碑"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="448" operator="equal">
-      <formula>"进行中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="449" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="450">
@@ -17585,16 +17861,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="cellIs" dxfId="355" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="441" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="442" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="443" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="444" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="445">
@@ -17609,16 +17885,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="cellIs" dxfId="351" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="431" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="432" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="433" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="434" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="435">
@@ -17633,16 +17909,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="cellIs" dxfId="347" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="426" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="427" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="428" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="429" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="430">
@@ -17657,16 +17933,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="343" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="421" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="422" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="423" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="424" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="425">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84">
+    <cfRule type="cellIs" dxfId="335" priority="416" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="417" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="333" priority="418" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="332" priority="419" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="420">
@@ -17680,17 +17980,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="339" priority="411" operator="equal">
+  <conditionalFormatting sqref="B83">
+    <cfRule type="cellIs" dxfId="331" priority="411" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="412" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="413" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="414" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="415">
@@ -17704,17 +18004,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
-    <cfRule type="cellIs" dxfId="335" priority="406" operator="equal">
+  <conditionalFormatting sqref="B82">
+    <cfRule type="cellIs" dxfId="327" priority="406" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="407" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="408" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="409" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="410">
@@ -17728,17 +18028,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="331" priority="401" operator="equal">
+  <conditionalFormatting sqref="B81">
+    <cfRule type="cellIs" dxfId="323" priority="401" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="402" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="403" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="404" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="405">
@@ -17752,17 +18052,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
-    <cfRule type="cellIs" dxfId="327" priority="396" operator="equal">
+  <conditionalFormatting sqref="B80">
+    <cfRule type="cellIs" dxfId="319" priority="396" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="397" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="398" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="399" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="400">
@@ -17776,17 +18076,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80">
-    <cfRule type="cellIs" dxfId="323" priority="391" operator="equal">
+  <conditionalFormatting sqref="B79">
+    <cfRule type="cellIs" dxfId="315" priority="391" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="392" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="393" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="394" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="395">
@@ -17800,17 +18100,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
-    <cfRule type="cellIs" dxfId="319" priority="386" operator="equal">
+  <conditionalFormatting sqref="B78">
+    <cfRule type="cellIs" dxfId="311" priority="386" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="387" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="388" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="389" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="390">
@@ -17824,17 +18124,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B78">
-    <cfRule type="cellIs" dxfId="315" priority="381" operator="equal">
+  <conditionalFormatting sqref="B77">
+    <cfRule type="cellIs" dxfId="307" priority="381" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="382" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="383" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="384" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="385">
@@ -17848,17 +18148,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B77">
-    <cfRule type="cellIs" dxfId="311" priority="376" operator="equal">
+  <conditionalFormatting sqref="B76">
+    <cfRule type="cellIs" dxfId="303" priority="376" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="377" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="378" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="379" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="380">
@@ -17872,17 +18172,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
-    <cfRule type="cellIs" dxfId="307" priority="371" operator="equal">
+  <conditionalFormatting sqref="B75">
+    <cfRule type="cellIs" dxfId="299" priority="371" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="372" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="373" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="374" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="375">
@@ -17896,17 +18196,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="303" priority="366" operator="equal">
+  <conditionalFormatting sqref="B74">
+    <cfRule type="cellIs" dxfId="295" priority="366" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="367" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="368" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="369" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="370">
@@ -17920,17 +18220,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="299" priority="361" operator="equal">
+  <conditionalFormatting sqref="B73">
+    <cfRule type="cellIs" dxfId="291" priority="361" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="362" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="363" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="364" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="365">
@@ -17944,17 +18244,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="295" priority="356" operator="equal">
+  <conditionalFormatting sqref="B72">
+    <cfRule type="cellIs" dxfId="287" priority="356" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="357" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="358" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="359" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="360">
@@ -17968,17 +18268,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72">
-    <cfRule type="cellIs" dxfId="291" priority="351" operator="equal">
+  <conditionalFormatting sqref="B71">
+    <cfRule type="cellIs" dxfId="283" priority="351" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="352" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="353" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="354" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="355">
@@ -17992,17 +18292,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="287" priority="346" operator="equal">
+  <conditionalFormatting sqref="B70">
+    <cfRule type="cellIs" dxfId="279" priority="346" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="347" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="348" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="349" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="350">
@@ -18016,17 +18316,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="283" priority="341" operator="equal">
+  <conditionalFormatting sqref="B69">
+    <cfRule type="cellIs" dxfId="275" priority="341" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="342" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="343" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="344" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="345">
@@ -18040,17 +18340,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="279" priority="336" operator="equal">
+  <conditionalFormatting sqref="B68">
+    <cfRule type="cellIs" dxfId="271" priority="336" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="337" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="338" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="339" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="340">
@@ -18064,17 +18364,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="275" priority="331" operator="equal">
+  <conditionalFormatting sqref="B67">
+    <cfRule type="cellIs" dxfId="267" priority="331" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="332" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="333" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="334" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="335">
@@ -18088,17 +18388,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="271" priority="326" operator="equal">
+  <conditionalFormatting sqref="B66">
+    <cfRule type="cellIs" dxfId="263" priority="326" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="327" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="328" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="329" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="330">
@@ -18112,17 +18412,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="267" priority="321" operator="equal">
+  <conditionalFormatting sqref="B65">
+    <cfRule type="cellIs" dxfId="259" priority="321" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="322" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="323" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="324" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="325">
@@ -18136,17 +18436,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="263" priority="316" operator="equal">
+  <conditionalFormatting sqref="B64">
+    <cfRule type="cellIs" dxfId="255" priority="316" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="317" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="318" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="319" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="320">
@@ -18160,17 +18460,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="259" priority="311" operator="equal">
+  <conditionalFormatting sqref="B63">
+    <cfRule type="cellIs" dxfId="251" priority="311" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="312" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="313" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="314" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="315">
@@ -18184,17 +18484,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="255" priority="306" operator="equal">
+  <conditionalFormatting sqref="B62">
+    <cfRule type="cellIs" dxfId="247" priority="306" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="307" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="308" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="309" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="310">
@@ -18208,17 +18508,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="251" priority="301" operator="equal">
+  <conditionalFormatting sqref="B61">
+    <cfRule type="cellIs" dxfId="243" priority="301" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="302" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="303" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="304" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="305">
@@ -18232,17 +18532,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="247" priority="296" operator="equal">
+  <conditionalFormatting sqref="B60">
+    <cfRule type="cellIs" dxfId="239" priority="296" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="297" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="298" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="299" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="300">
@@ -18256,17 +18556,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="243" priority="291" operator="equal">
+  <conditionalFormatting sqref="B59">
+    <cfRule type="cellIs" dxfId="235" priority="291" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="292" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="293" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="294" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="295">
@@ -18280,17 +18580,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="239" priority="286" operator="equal">
+  <conditionalFormatting sqref="B58">
+    <cfRule type="cellIs" dxfId="231" priority="286" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="287" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="288" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="289" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="290">
@@ -18304,17 +18604,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="235" priority="281" operator="equal">
+  <conditionalFormatting sqref="B57">
+    <cfRule type="cellIs" dxfId="227" priority="281" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="282" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="283" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="284" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="285">
@@ -18328,17 +18628,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="231" priority="276" operator="equal">
+  <conditionalFormatting sqref="B56">
+    <cfRule type="cellIs" dxfId="223" priority="276" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="277" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="278" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="279" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="280">
@@ -18352,17 +18652,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="227" priority="271" operator="equal">
+  <conditionalFormatting sqref="B55">
+    <cfRule type="cellIs" dxfId="219" priority="271" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="272" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="273" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="274" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="275">
@@ -18376,17 +18676,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="223" priority="266" operator="equal">
+  <conditionalFormatting sqref="B54">
+    <cfRule type="cellIs" dxfId="215" priority="266" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="267" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="268" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="269" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="270">
@@ -18400,17 +18700,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="219" priority="261" operator="equal">
+  <conditionalFormatting sqref="B53">
+    <cfRule type="cellIs" dxfId="211" priority="261" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="262" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="263" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="264" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="265">
@@ -18424,17 +18724,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="215" priority="256" operator="equal">
+  <conditionalFormatting sqref="B52">
+    <cfRule type="cellIs" dxfId="207" priority="256" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="257" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="258" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="259" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="260">
@@ -18448,17 +18748,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="211" priority="251" operator="equal">
+  <conditionalFormatting sqref="B51">
+    <cfRule type="cellIs" dxfId="203" priority="251" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="252" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="253" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="254" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="255">
@@ -18472,17 +18772,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
-    <cfRule type="cellIs" dxfId="207" priority="246" operator="equal">
+  <conditionalFormatting sqref="B50">
+    <cfRule type="cellIs" dxfId="199" priority="246" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="247" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="248" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="249" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -18496,17 +18796,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="cellIs" dxfId="203" priority="241" operator="equal">
+  <conditionalFormatting sqref="B49">
+    <cfRule type="cellIs" dxfId="195" priority="241" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="242" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="243" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="244" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="245">
@@ -18520,17 +18820,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="cellIs" dxfId="199" priority="236" operator="equal">
+  <conditionalFormatting sqref="B48">
+    <cfRule type="cellIs" dxfId="191" priority="236" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="237" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="238" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="239" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="240">
@@ -18544,17 +18844,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
-    <cfRule type="cellIs" dxfId="195" priority="231" operator="equal">
+  <conditionalFormatting sqref="B47">
+    <cfRule type="cellIs" dxfId="187" priority="231" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="232" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="233" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="234" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="235">
@@ -18568,17 +18868,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="cellIs" dxfId="191" priority="226" operator="equal">
+  <conditionalFormatting sqref="B46">
+    <cfRule type="cellIs" dxfId="183" priority="226" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="227" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="228" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="229" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="230">
@@ -18592,17 +18892,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="187" priority="221" operator="equal">
+  <conditionalFormatting sqref="B45">
+    <cfRule type="cellIs" dxfId="179" priority="221" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="222" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="223" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="224" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="225">
@@ -18616,17 +18916,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="183" priority="216" operator="equal">
+  <conditionalFormatting sqref="B44">
+    <cfRule type="cellIs" dxfId="175" priority="216" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="217" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="218" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="219" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="220">
@@ -18640,17 +18940,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="cellIs" dxfId="179" priority="211" operator="equal">
+  <conditionalFormatting sqref="B43">
+    <cfRule type="cellIs" dxfId="171" priority="211" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="212" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="213" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="214" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="215">
@@ -18664,17 +18964,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="cellIs" dxfId="175" priority="206" operator="equal">
+  <conditionalFormatting sqref="B42">
+    <cfRule type="cellIs" dxfId="167" priority="206" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="207" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="208" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="209" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="210">
@@ -18688,17 +18988,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="cellIs" dxfId="171" priority="201" operator="equal">
+  <conditionalFormatting sqref="B41">
+    <cfRule type="cellIs" dxfId="163" priority="201" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="202" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="203" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="204" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="205">
@@ -18712,17 +19012,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="167" priority="196" operator="equal">
+  <conditionalFormatting sqref="B40">
+    <cfRule type="cellIs" dxfId="159" priority="196" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="197" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="198" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="199" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="200">
@@ -18736,17 +19036,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="cellIs" dxfId="163" priority="191" operator="equal">
+  <conditionalFormatting sqref="B39">
+    <cfRule type="cellIs" dxfId="155" priority="191" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="192" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="193" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="194" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="195">
@@ -18760,17 +19060,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="cellIs" dxfId="159" priority="186" operator="equal">
+  <conditionalFormatting sqref="B38">
+    <cfRule type="cellIs" dxfId="151" priority="186" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="187" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="188" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="189" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="190">
@@ -18784,17 +19084,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="155" priority="181" operator="equal">
+  <conditionalFormatting sqref="B37">
+    <cfRule type="cellIs" dxfId="147" priority="181" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="182" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="183" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="184" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="185">
@@ -18808,17 +19108,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="151" priority="176" operator="equal">
+  <conditionalFormatting sqref="B36">
+    <cfRule type="cellIs" dxfId="143" priority="176" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="177" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="178" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="179" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="180">
@@ -18832,17 +19132,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="147" priority="171" operator="equal">
+  <conditionalFormatting sqref="B35">
+    <cfRule type="cellIs" dxfId="139" priority="171" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="172" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="173" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="174" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="175">
@@ -18856,17 +19156,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="143" priority="166" operator="equal">
+  <conditionalFormatting sqref="B34">
+    <cfRule type="cellIs" dxfId="135" priority="166" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="167" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="168" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="169" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="170">
@@ -18880,17 +19180,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="139" priority="161" operator="equal">
+  <conditionalFormatting sqref="B33">
+    <cfRule type="cellIs" dxfId="131" priority="161" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="162" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="163" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="164" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="165">
@@ -18904,17 +19204,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="135" priority="156" operator="equal">
+  <conditionalFormatting sqref="B32">
+    <cfRule type="cellIs" dxfId="127" priority="156" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="157" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="158" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="159" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="160">
@@ -18928,17 +19228,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="131" priority="151" operator="equal">
+  <conditionalFormatting sqref="B31">
+    <cfRule type="cellIs" dxfId="123" priority="151" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="152" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="153" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="154" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="155">
@@ -18952,17 +19252,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="cellIs" dxfId="127" priority="146" operator="equal">
+  <conditionalFormatting sqref="B30">
+    <cfRule type="cellIs" dxfId="119" priority="146" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="147" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="148" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="149" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="150">
@@ -18976,17 +19276,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="cellIs" dxfId="123" priority="141" operator="equal">
+  <conditionalFormatting sqref="B29">
+    <cfRule type="cellIs" dxfId="115" priority="141" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="142" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="143" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="144" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="145">
@@ -19000,17 +19300,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="cellIs" dxfId="119" priority="136" operator="equal">
+  <conditionalFormatting sqref="B28">
+    <cfRule type="cellIs" dxfId="111" priority="136" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="137" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="138" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="139" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="140">
@@ -19024,17 +19324,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="cellIs" dxfId="115" priority="131" operator="equal">
+  <conditionalFormatting sqref="B27">
+    <cfRule type="cellIs" dxfId="107" priority="131" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="132" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="133" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="134" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="135">
@@ -19048,17 +19348,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="cellIs" dxfId="111" priority="126" operator="equal">
+  <conditionalFormatting sqref="B26">
+    <cfRule type="cellIs" dxfId="103" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="127" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="129" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="130">
@@ -19072,17 +19372,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="107" priority="121" operator="equal">
+  <conditionalFormatting sqref="B25">
+    <cfRule type="cellIs" dxfId="99" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="122" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="123" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="125">
@@ -19096,17 +19396,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="103" priority="116" operator="equal">
+  <conditionalFormatting sqref="B24">
+    <cfRule type="cellIs" dxfId="95" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="117" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="118" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="119" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="120">
@@ -19120,17 +19420,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="99" priority="111" operator="equal">
+  <conditionalFormatting sqref="B23">
+    <cfRule type="cellIs" dxfId="91" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="112" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="113" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="114" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="115">
@@ -19144,17 +19444,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="95" priority="106" operator="equal">
+  <conditionalFormatting sqref="B22">
+    <cfRule type="cellIs" dxfId="87" priority="106" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="107" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="108" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="109" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -19168,17 +19468,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="cellIs" dxfId="91" priority="101" operator="equal">
+  <conditionalFormatting sqref="B21">
+    <cfRule type="cellIs" dxfId="83" priority="101" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="102" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="103" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="104" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -19192,17 +19492,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="cellIs" dxfId="87" priority="96" operator="equal">
+  <conditionalFormatting sqref="B20">
+    <cfRule type="cellIs" dxfId="79" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="97" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="98" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="99" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -19216,17 +19516,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="83" priority="91" operator="equal">
+  <conditionalFormatting sqref="B19">
+    <cfRule type="cellIs" dxfId="75" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="94" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="95">
@@ -19240,17 +19540,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="79" priority="86" operator="equal">
+  <conditionalFormatting sqref="B18">
+    <cfRule type="cellIs" dxfId="71" priority="86" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="87" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="88" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="89" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -19264,17 +19564,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="75" priority="81" operator="equal">
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="67" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="84" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="85">
@@ -19288,17 +19588,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
+  <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" dxfId="63" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -19312,17 +19612,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="67" priority="71" operator="equal">
+  <conditionalFormatting sqref="B15">
+    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -19336,17 +19636,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -19360,17 +19660,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
+  <conditionalFormatting sqref="B13">
+    <cfRule type="cellIs" dxfId="51" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -19384,17 +19684,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="47" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -19408,17 +19708,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+  <conditionalFormatting sqref="B11">
+    <cfRule type="cellIs" dxfId="43" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="55">
@@ -19432,17 +19732,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+  <conditionalFormatting sqref="B10">
+    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -19456,17 +19756,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+  <conditionalFormatting sqref="B9">
+    <cfRule type="cellIs" dxfId="35" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -19480,17 +19780,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
+  <conditionalFormatting sqref="B8">
+    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -19504,17 +19804,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -19528,17 +19828,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -19552,17 +19852,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -19576,17 +19876,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -19600,41 +19900,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+  <conditionalFormatting sqref="B3">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
-      <formula>"部分完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
-      <formula>"里程碑"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
-      <formula>"进行中"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -19649,16 +19925,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -19673,7 +19949,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B120" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B122" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -19691,13 +19967,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -19949,6 +20225,26 @@
       </c>
       <c r="F12" s="15" t="s">
         <v>595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29">
+      <c r="A13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="23">
+        <v>45285</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A25455-AD8F-4B4A-9AA4-9D92375B5C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F1B044-611C-481C-8312-9C1525B9A759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="745">
   <si>
     <t>汇报日期</t>
   </si>
@@ -4805,32 +4805,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2023-12-26
+星期二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.完成。09:39计划，23:25日报（忘12-3）
 2.完成。09:40~14:20，4小时，2-00:15:52
 3.完成。16:20~17:25，1题(9)
 4.完成。17:30~23:30，5小时
-5.未完成。74.7kg。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-12-26
-星期二</t>
+5.完成。74.6kg。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.7点起床计划，23点日报
-2.英语：4小时，咨询培训
+2.英语：4小时，学习
 3.leetcode：1题
 4.技术：设计视频2，提交git
 5.体重减到74.8kg(非必须)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。09:39计划，23:25日报（忘12-3）
-2.完成。09:40~14:20，4小时，2-00:15:52
-3.完成。16:20~17:25，1题(9)
-4.完成。17:30~23:30，5小时
-5.未完成。74.9kg。</t>
+    <t>1. Leetcode：108. 将有序数组转换为二叉搜索树，同时将一半数反转也做了一遍。
+2. 技术：架构设计实战，《亿级流量多级缓存分布式课程》看到视频
+3. 英语：记忆之前学过的美剧中出现的单词，准备自我介绍以及沟通中可能遇到的句子，想试一下能否与外教沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报
+2.英语：4小时，学习
+3.leetcode：1题
+4.技术：设计视频3，提交git
+5.体重减到74.8kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:23计划，23:25日报
+2.完成。10:30~16:00，4小时，2-00:15:52
+3.完成。16:20~17:20，1题(108)
+4.完成。17:45~22:45，5小时
+5.未完成。74.7kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-27
+星期三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5169,7 +5188,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="484">
+  <dxfs count="488">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -12560,16 +12621,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B72:B1048576 B16:B61 B1">
-    <cfRule type="cellIs" dxfId="483" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="131" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="132" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="133" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="135" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="136">
@@ -12584,16 +12645,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="479" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="127" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="129" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="130">
@@ -12608,16 +12669,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="475" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="122" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="123" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="125">
@@ -12632,16 +12693,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="471" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="117" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="118" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="119" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="120">
@@ -12656,16 +12717,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="467" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="112" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="113" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="114" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="115">
@@ -12680,16 +12741,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="463" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="106" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="107" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="108" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="109" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -12704,16 +12765,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="459" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="101" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="102" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="103" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="104" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -12728,16 +12789,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="455" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="97" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="98" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="99" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -12752,16 +12813,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="451" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="94" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="95">
@@ -12776,16 +12837,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="447" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="86" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="87" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="88" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="89" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -12800,16 +12861,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="443" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -12824,16 +12885,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="439" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -12848,16 +12909,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="435" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -12872,16 +12933,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="431" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -12896,16 +12957,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="427" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -12920,16 +12981,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="423" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -12944,16 +13005,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="419" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -12968,16 +13029,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="415" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -12992,16 +13053,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="411" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -13016,16 +13077,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="407" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -13040,16 +13101,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="403" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -13064,16 +13125,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="399" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -13088,16 +13149,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="395" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -13112,16 +13173,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="391" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -13136,16 +13197,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="387" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -13172,13 +13233,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W122"/>
+  <dimension ref="A1:W123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -13231,19 +13292,21 @@
     </row>
     <row r="2" spans="1:23" ht="73.5" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="E2" s="26"/>
-      <c r="F2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -13264,19 +13327,19 @@
     </row>
     <row r="3" spans="1:23" ht="73.5" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>741</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>736</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>134</v>
@@ -13299,21 +13362,21 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="58">
+    <row r="4" spans="1:23" ht="73.5" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>134</v>
@@ -13336,21 +13399,21 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="59.5" customHeight="1">
+    <row r="5" spans="1:23" ht="58">
       <c r="A5" s="9" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>134</v>
@@ -13373,24 +13436,24 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="73.5" customHeight="1">
+    <row r="6" spans="1:23" ht="59.5" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -13412,22 +13475,22 @@
     </row>
     <row r="7" spans="1:23" ht="73.5" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -13447,21 +13510,21 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="72.5" customHeight="1">
+    <row r="8" spans="1:23" ht="73.5" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>134</v>
@@ -13484,21 +13547,21 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="59" customHeight="1">
+    <row r="9" spans="1:23" ht="72.5" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>134</v>
@@ -13521,21 +13584,21 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="75.5" customHeight="1">
+    <row r="10" spans="1:23" ht="59" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>134</v>
@@ -13558,21 +13621,21 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="43.5">
+    <row r="11" spans="1:23" ht="75.5" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>134</v>
@@ -13595,21 +13658,21 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="58" customHeight="1">
+    <row r="12" spans="1:23" ht="43.5">
       <c r="A12" s="9" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>134</v>
@@ -13632,21 +13695,21 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="75.5" customHeight="1">
+    <row r="13" spans="1:23" ht="58" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>134</v>
@@ -13671,19 +13734,19 @@
     </row>
     <row r="14" spans="1:23" ht="75.5" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>134</v>
@@ -13708,19 +13771,19 @@
     </row>
     <row r="15" spans="1:23" ht="75.5" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>134</v>
@@ -13745,19 +13808,19 @@
     </row>
     <row r="16" spans="1:23" ht="75.5" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>134</v>
@@ -13782,16 +13845,16 @@
     </row>
     <row r="17" spans="1:23" ht="75.5" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>667</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>669</v>
@@ -13817,21 +13880,21 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="58">
+    <row r="18" spans="1:23" ht="75.5" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>134</v>
@@ -13854,21 +13917,21 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="75.5" customHeight="1">
+    <row r="19" spans="1:23" ht="58">
       <c r="A19" s="9" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>134</v>
@@ -13893,19 +13956,19 @@
     </row>
     <row r="20" spans="1:23" ht="75.5" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>134</v>
@@ -13930,19 +13993,19 @@
     </row>
     <row r="21" spans="1:23" ht="75.5" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>134</v>
@@ -13967,19 +14030,19 @@
     </row>
     <row r="22" spans="1:23" ht="75.5" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>134</v>
@@ -14004,19 +14067,19 @@
     </row>
     <row r="23" spans="1:23" ht="75.5" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>134</v>
@@ -14041,19 +14104,19 @@
     </row>
     <row r="24" spans="1:23" ht="75.5" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>134</v>
@@ -14078,22 +14141,22 @@
     </row>
     <row r="25" spans="1:23" ht="75.5" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -14115,22 +14178,22 @@
     </row>
     <row r="26" spans="1:23" ht="75.5" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -14152,19 +14215,19 @@
     </row>
     <row r="27" spans="1:23" ht="75.5" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>134</v>
@@ -14189,19 +14252,19 @@
     </row>
     <row r="28" spans="1:23" ht="75.5" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>134</v>
@@ -14226,19 +14289,19 @@
     </row>
     <row r="29" spans="1:23" ht="75.5" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>134</v>
@@ -14263,19 +14326,19 @@
     </row>
     <row r="30" spans="1:23" ht="75.5" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>134</v>
@@ -14300,19 +14363,19 @@
     </row>
     <row r="31" spans="1:23" ht="75.5" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>134</v>
@@ -14337,19 +14400,19 @@
     </row>
     <row r="32" spans="1:23" ht="75.5" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>134</v>
@@ -14374,19 +14437,19 @@
     </row>
     <row r="33" spans="1:23" ht="75.5" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>684</v>
+        <v>578</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>134</v>
@@ -14411,19 +14474,19 @@
     </row>
     <row r="34" spans="1:23" ht="75.5" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>571</v>
+        <v>684</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>134</v>
@@ -14448,19 +14511,19 @@
     </row>
     <row r="35" spans="1:23" ht="75.5" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>134</v>
@@ -14485,19 +14548,19 @@
     </row>
     <row r="36" spans="1:23" ht="75.5" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>134</v>
@@ -14520,21 +14583,21 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="57.5" customHeight="1">
+    <row r="37" spans="1:23" ht="75.5" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>134</v>
@@ -14557,21 +14620,21 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="75.5" customHeight="1">
+    <row r="38" spans="1:23" ht="57.5" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>134</v>
@@ -14596,19 +14659,19 @@
     </row>
     <row r="39" spans="1:23" ht="75.5" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>134</v>
@@ -14631,21 +14694,21 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="74.5" customHeight="1">
+    <row r="40" spans="1:23" ht="75.5" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>134</v>
@@ -14668,21 +14731,21 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="72.5">
+    <row r="41" spans="1:23" ht="74.5" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>134</v>
@@ -14705,21 +14768,21 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="77" customHeight="1">
+    <row r="42" spans="1:23" ht="72.5">
       <c r="A42" s="9" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>134</v>
@@ -14742,21 +14805,21 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="72.5">
+    <row r="43" spans="1:23" ht="77" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>134</v>
@@ -14779,24 +14842,24 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="62" customHeight="1">
+    <row r="44" spans="1:23" ht="72.5">
       <c r="A44" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>441</v>
+        <v>527</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -14816,21 +14879,21 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="72.5">
+    <row r="45" spans="1:23" ht="62" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>436</v>
+        <v>523</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>133</v>
@@ -14853,24 +14916,24 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="74.75" customHeight="1">
+    <row r="46" spans="1:23" ht="72.5">
       <c r="A46" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -14892,19 +14955,19 @@
     </row>
     <row r="47" spans="1:23" ht="74.75" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>134</v>
@@ -14929,22 +14992,22 @@
     </row>
     <row r="48" spans="1:23" ht="74.75" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -14966,22 +15029,22 @@
     </row>
     <row r="49" spans="1:23" ht="74.75" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -15003,22 +15066,22 @@
     </row>
     <row r="50" spans="1:23" ht="74.75" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>413</v>
+        <v>134</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -15040,22 +15103,22 @@
     </row>
     <row r="51" spans="1:23" ht="74.75" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -15077,19 +15140,19 @@
     </row>
     <row r="52" spans="1:23" ht="74.75" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>134</v>
@@ -15114,19 +15177,19 @@
     </row>
     <row r="53" spans="1:23" ht="74.75" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>134</v>
@@ -15151,19 +15214,19 @@
     </row>
     <row r="54" spans="1:23" ht="74.75" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>134</v>
@@ -15188,19 +15251,19 @@
     </row>
     <row r="55" spans="1:23" ht="74.75" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>134</v>
@@ -15225,19 +15288,19 @@
     </row>
     <row r="56" spans="1:23" ht="74.75" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>575</v>
+        <v>398</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>134</v>
@@ -15262,19 +15325,19 @@
     </row>
     <row r="57" spans="1:23" ht="74.75" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>386</v>
+        <v>575</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>134</v>
@@ -15299,19 +15362,19 @@
     </row>
     <row r="58" spans="1:23" ht="74.75" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>134</v>
@@ -15336,19 +15399,19 @@
     </row>
     <row r="59" spans="1:23" ht="74.75" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>134</v>
@@ -15373,19 +15436,19 @@
     </row>
     <row r="60" spans="1:23" ht="74.75" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>134</v>
@@ -15410,22 +15473,22 @@
     </row>
     <row r="61" spans="1:23" ht="74.75" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -15447,22 +15510,22 @@
     </row>
     <row r="62" spans="1:23" ht="74.75" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -15484,19 +15547,19 @@
     </row>
     <row r="63" spans="1:23" ht="74.75" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>362</v>
+        <v>371</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>369</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>134</v>
@@ -15521,19 +15584,19 @@
     </row>
     <row r="64" spans="1:23" ht="74.75" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>134</v>
@@ -15558,22 +15621,22 @@
     </row>
     <row r="65" spans="1:23" ht="74.75" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -15595,22 +15658,22 @@
     </row>
     <row r="66" spans="1:23" ht="74.75" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -15632,19 +15695,19 @@
     </row>
     <row r="67" spans="1:23" ht="74.75" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>134</v>
@@ -15669,19 +15732,19 @@
     </row>
     <row r="68" spans="1:23" ht="74.75" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>134</v>
@@ -15704,24 +15767,24 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" ht="72.5">
+    <row r="69" spans="1:23" ht="74.75" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -15743,22 +15806,22 @@
     </row>
     <row r="70" spans="1:23" ht="72.5">
       <c r="A70" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -15780,19 +15843,19 @@
     </row>
     <row r="71" spans="1:23" ht="72.5">
       <c r="A71" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>134</v>
@@ -15817,19 +15880,19 @@
     </row>
     <row r="72" spans="1:23" ht="72.5">
       <c r="A72" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>134</v>
@@ -15854,19 +15917,19 @@
     </row>
     <row r="73" spans="1:23" ht="72.5">
       <c r="A73" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>134</v>
@@ -15889,21 +15952,21 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" ht="87">
+    <row r="74" spans="1:23" ht="72.5">
       <c r="A74" s="9" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>134</v>
@@ -15928,19 +15991,19 @@
     </row>
     <row r="75" spans="1:23" ht="87">
       <c r="A75" s="9" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>134</v>
@@ -15963,21 +16026,21 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="73.5" customHeight="1">
+    <row r="76" spans="1:23" ht="87">
       <c r="A76" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>134</v>
@@ -16000,24 +16063,24 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" ht="72.5">
+    <row r="77" spans="1:23" ht="73.5" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -16039,19 +16102,19 @@
     </row>
     <row r="78" spans="1:23" ht="72.5">
       <c r="A78" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>133</v>
@@ -16076,22 +16139,22 @@
     </row>
     <row r="79" spans="1:23" ht="72.5">
       <c r="A79" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -16111,21 +16174,21 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" ht="87">
+    <row r="80" spans="1:23" ht="72.5">
       <c r="A80" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>134</v>
@@ -16148,21 +16211,21 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="58">
+    <row r="81" spans="1:23" ht="87">
       <c r="A81" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>134</v>
@@ -16187,19 +16250,19 @@
     </row>
     <row r="82" spans="1:23" ht="58">
       <c r="A82" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>134</v>
@@ -16222,24 +16285,24 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" ht="43.5">
+    <row r="83" spans="1:23" ht="58">
       <c r="A83" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -16259,24 +16322,24 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="76.25" customHeight="1">
+    <row r="84" spans="1:23" ht="43.5">
       <c r="A84" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -16298,19 +16361,19 @@
     </row>
     <row r="85" spans="1:23" ht="76.25" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>134</v>
@@ -16335,19 +16398,19 @@
     </row>
     <row r="86" spans="1:23" ht="76.25" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>134</v>
@@ -16370,21 +16433,21 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" ht="59" customHeight="1">
+    <row r="87" spans="1:23" ht="76.25" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>134</v>
@@ -16407,21 +16470,21 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" ht="33" customHeight="1">
+    <row r="88" spans="1:23" ht="59" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>134</v>
@@ -16444,24 +16507,24 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" ht="59" customHeight="1">
+    <row r="89" spans="1:23" ht="33" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -16483,22 +16546,22 @@
     </row>
     <row r="90" spans="1:23" ht="59" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -16520,19 +16583,19 @@
     </row>
     <row r="91" spans="1:23" ht="59" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>134</v>
@@ -16557,19 +16620,19 @@
     </row>
     <row r="92" spans="1:23" ht="59" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>134</v>
@@ -16594,19 +16657,19 @@
     </row>
     <row r="93" spans="1:23" ht="59" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>134</v>
@@ -16631,19 +16694,19 @@
     </row>
     <row r="94" spans="1:23" ht="59" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>134</v>
@@ -16666,21 +16729,21 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" ht="29">
+    <row r="95" spans="1:23" ht="59" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>134</v>
@@ -16703,21 +16766,21 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" ht="42.75" customHeight="1">
+    <row r="96" spans="1:23" ht="29">
       <c r="A96" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>134</v>
@@ -16742,19 +16805,19 @@
     </row>
     <row r="97" spans="1:23" ht="42.75" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>134</v>
@@ -16779,19 +16842,19 @@
     </row>
     <row r="98" spans="1:23" ht="42.75" customHeight="1">
       <c r="A98" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>134</v>
@@ -16814,21 +16877,21 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" ht="32" customHeight="1">
+    <row r="99" spans="1:23" ht="42.75" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B99" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>134</v>
@@ -16851,9 +16914,9 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" ht="29">
+    <row r="100" spans="1:23" ht="32" customHeight="1">
       <c r="A100" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>9</v>
@@ -16865,7 +16928,7 @@
         <v>140</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>134</v>
@@ -16890,22 +16953,22 @@
     </row>
     <row r="101" spans="1:23" ht="29">
       <c r="A101" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -16927,21 +16990,21 @@
     </row>
     <row r="102" spans="1:23" ht="29">
       <c r="A102" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D102" s="13" t="s">
+      <c r="C102" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E102" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F102" s="14" t="s">
+      <c r="E102" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F102" s="10" t="s">
         <v>133</v>
       </c>
       <c r="G102" s="1"/>
@@ -16964,21 +17027,21 @@
     </row>
     <row r="103" spans="1:23" ht="29">
       <c r="A103" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E103" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F103" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F103" s="14" t="s">
         <v>133</v>
       </c>
       <c r="G103" s="1"/>
@@ -16999,24 +17062,24 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" ht="43.5">
+    <row r="104" spans="1:23" ht="29">
       <c r="A104" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F104" s="14" t="s">
-        <v>134</v>
+        <v>149</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -17036,9 +17099,9 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" ht="42.75" customHeight="1">
+    <row r="105" spans="1:23" ht="43.5">
       <c r="A105" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>9</v>
@@ -17050,7 +17113,7 @@
         <v>140</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="F105" s="14" t="s">
         <v>134</v>
@@ -17073,23 +17136,25 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" ht="29">
+    <row r="106" spans="1:23" ht="42.75" customHeight="1">
       <c r="A106" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F106" s="14"/>
+        <v>231</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -17110,19 +17175,19 @@
     </row>
     <row r="107" spans="1:23" ht="29">
       <c r="A107" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F107" s="14"/>
       <c r="G107" s="1"/>
@@ -17145,7 +17210,7 @@
     </row>
     <row r="108" spans="1:23" ht="29">
       <c r="A108" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>9</v>
@@ -17154,10 +17219,10 @@
         <v>150</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="1"/>
@@ -17180,7 +17245,7 @@
     </row>
     <row r="109" spans="1:23" ht="29">
       <c r="A109" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>9</v>
@@ -17189,10 +17254,10 @@
         <v>150</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F109" s="14"/>
       <c r="G109" s="1"/>
@@ -17215,19 +17280,19 @@
     </row>
     <row r="110" spans="1:23" ht="29">
       <c r="A110" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D110" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E110" s="15" t="s">
-        <v>162</v>
+        <v>9</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="1"/>
@@ -17250,19 +17315,19 @@
     </row>
     <row r="111" spans="1:23" ht="29">
       <c r="A111" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="1"/>
@@ -17285,19 +17350,19 @@
     </row>
     <row r="112" spans="1:23" ht="29">
       <c r="A112" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="1"/>
@@ -17320,18 +17385,20 @@
     </row>
     <row r="113" spans="1:23" ht="29">
       <c r="A113" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E113" s="15"/>
+        <v>167</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>168</v>
+      </c>
       <c r="F113" s="14"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -17353,20 +17420,18 @@
     </row>
     <row r="114" spans="1:23" ht="29">
       <c r="A114" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E114" s="15" t="s">
-        <v>170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E114" s="15"/>
       <c r="F114" s="14"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -17388,19 +17453,19 @@
     </row>
     <row r="115" spans="1:23" ht="29">
       <c r="A115" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="1"/>
@@ -17421,21 +17486,21 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" ht="43.5">
+    <row r="116" spans="1:23" ht="29">
       <c r="A116" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="1"/>
@@ -17458,19 +17523,19 @@
     </row>
     <row r="117" spans="1:23" ht="43.5">
       <c r="A117" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F117" s="14"/>
       <c r="G117" s="1"/>
@@ -17491,21 +17556,21 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" ht="58">
+    <row r="118" spans="1:23" ht="43.5">
       <c r="A118" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="1"/>
@@ -17526,21 +17591,21 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" ht="43.5">
+    <row r="119" spans="1:23" ht="58">
       <c r="A119" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F119" s="14"/>
       <c r="G119" s="1"/>
@@ -17563,19 +17628,19 @@
     </row>
     <row r="120" spans="1:23" ht="43.5">
       <c r="A120" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F120" s="14"/>
       <c r="G120" s="1"/>
@@ -17596,21 +17661,21 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
-    <row r="121" spans="1:23" ht="72.5">
+    <row r="121" spans="1:23" ht="43.5">
       <c r="A121" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F121" s="14"/>
       <c r="G121" s="1"/>
@@ -17631,21 +17696,21 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="1:23" ht="58">
+    <row r="122" spans="1:23" ht="72.5">
       <c r="A122" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B122" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F122" s="14"/>
       <c r="G122" s="1"/>
@@ -17666,9 +17731,68 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
+    <row r="123" spans="1:23" ht="58">
+      <c r="A123" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E123" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F123" s="14"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
+      <c r="W123" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B96:B1048576 B1">
+  <conditionalFormatting sqref="B97:B1048576 B1">
+    <cfRule type="cellIs" dxfId="387" priority="491" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="386" priority="492" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="385" priority="493" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="384" priority="494" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="495">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95">
     <cfRule type="cellIs" dxfId="383" priority="486" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -17692,7 +17816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B94">
+  <conditionalFormatting sqref="B96">
     <cfRule type="cellIs" dxfId="379" priority="481" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -17716,7 +17840,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95">
+  <conditionalFormatting sqref="B94">
     <cfRule type="cellIs" dxfId="375" priority="476" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -17813,19 +17937,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="cellIs" dxfId="359" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="451" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="452" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="453" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="454" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="460">
+    <cfRule type="colorScale" priority="455">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17861,19 +17985,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="cellIs" dxfId="351" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="436" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="437" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="438" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="439" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="445">
+    <cfRule type="colorScale" priority="440">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19877,19 +20001,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19949,7 +20073,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B122" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B123" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F1B044-611C-481C-8312-9C1525B9A759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D62AF5A-87A7-4ED4-9760-394B16371424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-和目标无关，回顾一下自己今天的所做所为，是否有提升，是否为所做的一切后悔？</t>
+回顾自己今天的所做所为，是否有提升，是否有收获，是否为之后悔？是否依然笃定，坚定不移的前进？</t>
         </r>
       </text>
     </comment>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="750">
   <si>
     <t>汇报日期</t>
   </si>
@@ -4832,24 +4832,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2023-12-27
+星期三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.7点起床计划，23点日报
 2.英语：4小时，学习
-3.leetcode：1题
+3.leetcode：1题(非必须)
 4.技术：设计视频3，提交git
-5.体重减到74.8kg(非必须)</t>
+5.体重减到74.6kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:29计划，23:25日报
+2.完成。09:40~14:20，7小时，2-00:15:52
+3.完成。16:20~16:45，复习-1题(108)
+4.完成。17:00~23:25，视频3
+5.未完成。74.6kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Leetcode：108. 将有序数组转换为二叉搜索树，复习昨天的题。
+2. 技术：架构设计实战，《亿级流量多级缓存分布式课程》看到视频3，00:41:30。
+   1. 今天花在英语上的时间过多，影响了技术学习，明天应该就恢复。
+   2. 长短连接，长轮询，
+3. 英语：记忆之前学过的美剧中出现的单词，在Cambly上约了一节试听课和英国外教沟通了20分钟，晚上订了艾力老师的课程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-27
+星期四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.完成。07:23计划，23:25日报
 2.完成。10:30~16:00，4小时，2-00:15:52
 3.完成。16:20~17:20，1题(108)
-4.完成。17:45~22:45，5小时
-5.未完成。74.7kg。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-12-27
-星期三</t>
+4.完成。17:45~22:45，客户端优化
+5.完成。74.4kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报
+2.英语：4小时，学习
+3.leetcode：1题(非必须)
+4.技术：设计视频4，提交git
+5.体重减到74.6kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:29计划，23:40日报
+2.完成。09:40~14:20，7小时，2-00:15:52
+3.完成。16:20~16:45，复习-1题(108)
+4.未完成。17:00~23:25，视频3
+5.未完成。74.6kg。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5188,7 +5225,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="488">
+  <dxfs count="492">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -12621,16 +12700,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B72:B1048576 B16:B61 B1">
-    <cfRule type="cellIs" dxfId="487" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="131" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="132" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="133" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="135" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="136">
@@ -12645,16 +12724,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="483" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="127" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="129" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="130">
@@ -12669,16 +12748,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="479" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="122" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="123" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="125">
@@ -12693,16 +12772,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="475" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="117" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="118" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="119" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="120">
@@ -12717,16 +12796,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="471" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="112" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="113" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="114" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="115">
@@ -12741,16 +12820,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="467" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="106" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="107" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="108" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="109" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -12765,16 +12844,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="463" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="101" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="102" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="103" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="104" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -12789,16 +12868,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="459" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="97" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="98" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="99" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -12813,16 +12892,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="455" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="94" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="95">
@@ -12837,16 +12916,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="451" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="86" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="87" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="88" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="89" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -12861,16 +12940,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="447" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -12885,16 +12964,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="443" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -12909,16 +12988,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="439" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -12933,16 +13012,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="435" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -12957,16 +13036,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="431" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -12981,16 +13060,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="427" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -13005,16 +13084,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="423" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -13029,16 +13108,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="419" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -13053,16 +13132,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="415" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -13077,16 +13156,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="411" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -13101,16 +13180,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="407" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -13125,16 +13204,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="403" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -13149,16 +13228,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="399" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -13173,16 +13252,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="395" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -13197,16 +13276,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="391" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -13233,13 +13312,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W123"/>
+  <dimension ref="A1:W124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -13292,21 +13371,19 @@
     </row>
     <row r="2" spans="1:23" ht="73.5" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E2" s="26"/>
-      <c r="F2" s="10" t="s">
-        <v>133</v>
-      </c>
+      <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -13327,19 +13404,19 @@
     </row>
     <row r="3" spans="1:23" ht="73.5" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>134</v>
@@ -13364,19 +13441,19 @@
     </row>
     <row r="4" spans="1:23" ht="73.5" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>134</v>
@@ -13399,21 +13476,21 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="58">
+    <row r="5" spans="1:23" ht="73.5" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>134</v>
@@ -13436,21 +13513,21 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="59.5" customHeight="1">
+    <row r="6" spans="1:23" ht="58">
       <c r="A6" s="9" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>134</v>
@@ -13473,24 +13550,24 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="73.5" customHeight="1">
+    <row r="7" spans="1:23" ht="59.5" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -13512,22 +13589,22 @@
     </row>
     <row r="8" spans="1:23" ht="73.5" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -13547,21 +13624,21 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="72.5" customHeight="1">
+    <row r="9" spans="1:23" ht="73.5" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>134</v>
@@ -13584,21 +13661,21 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="59" customHeight="1">
+    <row r="10" spans="1:23" ht="72.5" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>134</v>
@@ -13621,21 +13698,21 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="75.5" customHeight="1">
+    <row r="11" spans="1:23" ht="59" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>134</v>
@@ -13658,21 +13735,21 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="43.5">
+    <row r="12" spans="1:23" ht="75.5" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>134</v>
@@ -13695,21 +13772,21 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="58" customHeight="1">
+    <row r="13" spans="1:23" ht="43.5">
       <c r="A13" s="9" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>134</v>
@@ -13732,21 +13809,21 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="75.5" customHeight="1">
+    <row r="14" spans="1:23" ht="58" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>134</v>
@@ -13771,19 +13848,19 @@
     </row>
     <row r="15" spans="1:23" ht="75.5" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>134</v>
@@ -13808,19 +13885,19 @@
     </row>
     <row r="16" spans="1:23" ht="75.5" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>134</v>
@@ -13845,19 +13922,19 @@
     </row>
     <row r="17" spans="1:23" ht="75.5" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>134</v>
@@ -13882,16 +13959,16 @@
     </row>
     <row r="18" spans="1:23" ht="75.5" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>667</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>669</v>
@@ -13917,21 +13994,21 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="58">
+    <row r="19" spans="1:23" ht="75.5" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>134</v>
@@ -13954,21 +14031,21 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="75.5" customHeight="1">
+    <row r="20" spans="1:23" ht="58">
       <c r="A20" s="9" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>134</v>
@@ -13993,19 +14070,19 @@
     </row>
     <row r="21" spans="1:23" ht="75.5" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>134</v>
@@ -14030,19 +14107,19 @@
     </row>
     <row r="22" spans="1:23" ht="75.5" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>134</v>
@@ -14067,19 +14144,19 @@
     </row>
     <row r="23" spans="1:23" ht="75.5" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>134</v>
@@ -14104,19 +14181,19 @@
     </row>
     <row r="24" spans="1:23" ht="75.5" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>134</v>
@@ -14141,19 +14218,19 @@
     </row>
     <row r="25" spans="1:23" ht="75.5" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>134</v>
@@ -14178,22 +14255,22 @@
     </row>
     <row r="26" spans="1:23" ht="75.5" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -14215,22 +14292,22 @@
     </row>
     <row r="27" spans="1:23" ht="75.5" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -14252,19 +14329,19 @@
     </row>
     <row r="28" spans="1:23" ht="75.5" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>134</v>
@@ -14289,19 +14366,19 @@
     </row>
     <row r="29" spans="1:23" ht="75.5" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>134</v>
@@ -14326,19 +14403,19 @@
     </row>
     <row r="30" spans="1:23" ht="75.5" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>134</v>
@@ -14363,19 +14440,19 @@
     </row>
     <row r="31" spans="1:23" ht="75.5" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>134</v>
@@ -14400,19 +14477,19 @@
     </row>
     <row r="32" spans="1:23" ht="75.5" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>134</v>
@@ -14437,19 +14514,19 @@
     </row>
     <row r="33" spans="1:23" ht="75.5" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>134</v>
@@ -14474,19 +14551,19 @@
     </row>
     <row r="34" spans="1:23" ht="75.5" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>684</v>
+        <v>578</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>134</v>
@@ -14511,19 +14588,19 @@
     </row>
     <row r="35" spans="1:23" ht="75.5" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>571</v>
+        <v>684</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>134</v>
@@ -14548,19 +14625,19 @@
     </row>
     <row r="36" spans="1:23" ht="75.5" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>134</v>
@@ -14585,19 +14662,19 @@
     </row>
     <row r="37" spans="1:23" ht="75.5" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>134</v>
@@ -14620,21 +14697,21 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="57.5" customHeight="1">
+    <row r="38" spans="1:23" ht="75.5" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>134</v>
@@ -14657,21 +14734,21 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="75.5" customHeight="1">
+    <row r="39" spans="1:23" ht="57.5" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>134</v>
@@ -14696,19 +14773,19 @@
     </row>
     <row r="40" spans="1:23" ht="75.5" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>134</v>
@@ -14731,21 +14808,21 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="74.5" customHeight="1">
+    <row r="41" spans="1:23" ht="75.5" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>134</v>
@@ -14768,21 +14845,21 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="72.5">
+    <row r="42" spans="1:23" ht="74.5" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>134</v>
@@ -14805,21 +14882,21 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="77" customHeight="1">
+    <row r="43" spans="1:23" ht="72.5">
       <c r="A43" s="9" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>134</v>
@@ -14842,21 +14919,21 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="72.5">
+    <row r="44" spans="1:23" ht="77" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>134</v>
@@ -14879,24 +14956,24 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="62" customHeight="1">
+    <row r="45" spans="1:23" ht="72.5">
       <c r="A45" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>441</v>
+        <v>527</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -14916,21 +14993,21 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="72.5">
+    <row r="46" spans="1:23" ht="62" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>436</v>
+        <v>523</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>133</v>
@@ -14953,24 +15030,24 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="74.75" customHeight="1">
+    <row r="47" spans="1:23" ht="72.5">
       <c r="A47" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -14992,19 +15069,19 @@
     </row>
     <row r="48" spans="1:23" ht="74.75" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>134</v>
@@ -15029,22 +15106,22 @@
     </row>
     <row r="49" spans="1:23" ht="74.75" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -15066,22 +15143,22 @@
     </row>
     <row r="50" spans="1:23" ht="74.75" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -15103,22 +15180,22 @@
     </row>
     <row r="51" spans="1:23" ht="74.75" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>413</v>
+        <v>134</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -15140,22 +15217,22 @@
     </row>
     <row r="52" spans="1:23" ht="74.75" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -15177,19 +15254,19 @@
     </row>
     <row r="53" spans="1:23" ht="74.75" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>134</v>
@@ -15214,19 +15291,19 @@
     </row>
     <row r="54" spans="1:23" ht="74.75" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>134</v>
@@ -15251,19 +15328,19 @@
     </row>
     <row r="55" spans="1:23" ht="74.75" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>134</v>
@@ -15288,19 +15365,19 @@
     </row>
     <row r="56" spans="1:23" ht="74.75" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>134</v>
@@ -15325,19 +15402,19 @@
     </row>
     <row r="57" spans="1:23" ht="74.75" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>575</v>
+        <v>398</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>134</v>
@@ -15362,19 +15439,19 @@
     </row>
     <row r="58" spans="1:23" ht="74.75" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>386</v>
+        <v>575</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>134</v>
@@ -15399,19 +15476,19 @@
     </row>
     <row r="59" spans="1:23" ht="74.75" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>134</v>
@@ -15436,19 +15513,19 @@
     </row>
     <row r="60" spans="1:23" ht="74.75" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>134</v>
@@ -15473,19 +15550,19 @@
     </row>
     <row r="61" spans="1:23" ht="74.75" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>134</v>
@@ -15510,22 +15587,22 @@
     </row>
     <row r="62" spans="1:23" ht="74.75" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -15547,22 +15624,22 @@
     </row>
     <row r="63" spans="1:23" ht="74.75" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -15584,19 +15661,19 @@
     </row>
     <row r="64" spans="1:23" ht="74.75" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E64" s="18" t="s">
-        <v>362</v>
+        <v>371</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>369</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>134</v>
@@ -15621,19 +15698,19 @@
     </row>
     <row r="65" spans="1:23" ht="74.75" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>134</v>
@@ -15658,22 +15735,22 @@
     </row>
     <row r="66" spans="1:23" ht="74.75" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -15695,22 +15772,22 @@
     </row>
     <row r="67" spans="1:23" ht="74.75" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -15732,19 +15809,19 @@
     </row>
     <row r="68" spans="1:23" ht="74.75" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>134</v>
@@ -15769,19 +15846,19 @@
     </row>
     <row r="69" spans="1:23" ht="74.75" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>134</v>
@@ -15804,24 +15881,24 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" ht="72.5">
+    <row r="70" spans="1:23" ht="74.75" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -15843,22 +15920,22 @@
     </row>
     <row r="71" spans="1:23" ht="72.5">
       <c r="A71" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -15880,19 +15957,19 @@
     </row>
     <row r="72" spans="1:23" ht="72.5">
       <c r="A72" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>134</v>
@@ -15917,19 +15994,19 @@
     </row>
     <row r="73" spans="1:23" ht="72.5">
       <c r="A73" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>134</v>
@@ -15954,19 +16031,19 @@
     </row>
     <row r="74" spans="1:23" ht="72.5">
       <c r="A74" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>134</v>
@@ -15989,21 +16066,21 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" ht="87">
+    <row r="75" spans="1:23" ht="72.5">
       <c r="A75" s="9" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>134</v>
@@ -16028,19 +16105,19 @@
     </row>
     <row r="76" spans="1:23" ht="87">
       <c r="A76" s="9" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>134</v>
@@ -16063,21 +16140,21 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" ht="73.5" customHeight="1">
+    <row r="77" spans="1:23" ht="87">
       <c r="A77" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>134</v>
@@ -16100,24 +16177,24 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" ht="72.5">
+    <row r="78" spans="1:23" ht="73.5" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -16139,19 +16216,19 @@
     </row>
     <row r="79" spans="1:23" ht="72.5">
       <c r="A79" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>133</v>
@@ -16176,22 +16253,22 @@
     </row>
     <row r="80" spans="1:23" ht="72.5">
       <c r="A80" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -16211,21 +16288,21 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="87">
+    <row r="81" spans="1:23" ht="72.5">
       <c r="A81" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>134</v>
@@ -16248,21 +16325,21 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" ht="58">
+    <row r="82" spans="1:23" ht="87">
       <c r="A82" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>134</v>
@@ -16287,19 +16364,19 @@
     </row>
     <row r="83" spans="1:23" ht="58">
       <c r="A83" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>134</v>
@@ -16322,24 +16399,24 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="43.5">
+    <row r="84" spans="1:23" ht="58">
       <c r="A84" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -16359,24 +16436,24 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" ht="76.25" customHeight="1">
+    <row r="85" spans="1:23" ht="43.5">
       <c r="A85" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -16398,19 +16475,19 @@
     </row>
     <row r="86" spans="1:23" ht="76.25" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>134</v>
@@ -16435,19 +16512,19 @@
     </row>
     <row r="87" spans="1:23" ht="76.25" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>134</v>
@@ -16470,21 +16547,21 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" ht="59" customHeight="1">
+    <row r="88" spans="1:23" ht="76.25" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>134</v>
@@ -16507,21 +16584,21 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" ht="33" customHeight="1">
+    <row r="89" spans="1:23" ht="59" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>134</v>
@@ -16544,24 +16621,24 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" ht="59" customHeight="1">
+    <row r="90" spans="1:23" ht="33" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -16583,22 +16660,22 @@
     </row>
     <row r="91" spans="1:23" ht="59" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -16620,19 +16697,19 @@
     </row>
     <row r="92" spans="1:23" ht="59" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>134</v>
@@ -16657,19 +16734,19 @@
     </row>
     <row r="93" spans="1:23" ht="59" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>134</v>
@@ -16694,19 +16771,19 @@
     </row>
     <row r="94" spans="1:23" ht="59" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>134</v>
@@ -16731,19 +16808,19 @@
     </row>
     <row r="95" spans="1:23" ht="59" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>134</v>
@@ -16766,21 +16843,21 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" ht="29">
+    <row r="96" spans="1:23" ht="59" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>134</v>
@@ -16803,21 +16880,21 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" ht="42.75" customHeight="1">
+    <row r="97" spans="1:23" ht="29">
       <c r="A97" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>134</v>
@@ -16842,19 +16919,19 @@
     </row>
     <row r="98" spans="1:23" ht="42.75" customHeight="1">
       <c r="A98" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>134</v>
@@ -16879,19 +16956,19 @@
     </row>
     <row r="99" spans="1:23" ht="42.75" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>134</v>
@@ -16914,21 +16991,21 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" ht="32" customHeight="1">
+    <row r="100" spans="1:23" ht="42.75" customHeight="1">
       <c r="A100" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B100" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B100" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>134</v>
@@ -16951,9 +17028,9 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" ht="29">
+    <row r="101" spans="1:23" ht="32" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>9</v>
@@ -16965,7 +17042,7 @@
         <v>140</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>134</v>
@@ -16990,22 +17067,22 @@
     </row>
     <row r="102" spans="1:23" ht="29">
       <c r="A102" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -17027,21 +17104,21 @@
     </row>
     <row r="103" spans="1:23" ht="29">
       <c r="A103" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D103" s="13" t="s">
+      <c r="C103" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E103" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F103" s="14" t="s">
+      <c r="E103" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F103" s="10" t="s">
         <v>133</v>
       </c>
       <c r="G103" s="1"/>
@@ -17064,21 +17141,21 @@
     </row>
     <row r="104" spans="1:23" ht="29">
       <c r="A104" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E104" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F104" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F104" s="14" t="s">
         <v>133</v>
       </c>
       <c r="G104" s="1"/>
@@ -17099,24 +17176,24 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" ht="43.5">
+    <row r="105" spans="1:23" ht="29">
       <c r="A105" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F105" s="14" t="s">
-        <v>134</v>
+        <v>149</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -17136,9 +17213,9 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" ht="42.75" customHeight="1">
+    <row r="106" spans="1:23" ht="43.5">
       <c r="A106" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>9</v>
@@ -17150,7 +17227,7 @@
         <v>140</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="F106" s="14" t="s">
         <v>134</v>
@@ -17173,23 +17250,25 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="1:23" ht="29">
+    <row r="107" spans="1:23" ht="42.75" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F107" s="14"/>
+        <v>231</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -17210,19 +17289,19 @@
     </row>
     <row r="108" spans="1:23" ht="29">
       <c r="A108" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="1"/>
@@ -17245,7 +17324,7 @@
     </row>
     <row r="109" spans="1:23" ht="29">
       <c r="A109" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>9</v>
@@ -17254,10 +17333,10 @@
         <v>150</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F109" s="14"/>
       <c r="G109" s="1"/>
@@ -17280,7 +17359,7 @@
     </row>
     <row r="110" spans="1:23" ht="29">
       <c r="A110" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>9</v>
@@ -17289,10 +17368,10 @@
         <v>150</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="1"/>
@@ -17315,19 +17394,19 @@
     </row>
     <row r="111" spans="1:23" ht="29">
       <c r="A111" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E111" s="15" t="s">
-        <v>162</v>
+        <v>9</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="1"/>
@@ -17350,19 +17429,19 @@
     </row>
     <row r="112" spans="1:23" ht="29">
       <c r="A112" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="1"/>
@@ -17385,19 +17464,19 @@
     </row>
     <row r="113" spans="1:23" ht="29">
       <c r="A113" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="1"/>
@@ -17420,18 +17499,20 @@
     </row>
     <row r="114" spans="1:23" ht="29">
       <c r="A114" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E114" s="15"/>
+        <v>167</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>168</v>
+      </c>
       <c r="F114" s="14"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -17453,20 +17534,18 @@
     </row>
     <row r="115" spans="1:23" ht="29">
       <c r="A115" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E115" s="15"/>
       <c r="F115" s="14"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -17488,19 +17567,19 @@
     </row>
     <row r="116" spans="1:23" ht="29">
       <c r="A116" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="1"/>
@@ -17521,21 +17600,21 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" ht="43.5">
+    <row r="117" spans="1:23" ht="29">
       <c r="A117" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F117" s="14"/>
       <c r="G117" s="1"/>
@@ -17558,19 +17637,19 @@
     </row>
     <row r="118" spans="1:23" ht="43.5">
       <c r="A118" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="1"/>
@@ -17591,21 +17670,21 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" ht="58">
+    <row r="119" spans="1:23" ht="43.5">
       <c r="A119" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B119" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F119" s="14"/>
       <c r="G119" s="1"/>
@@ -17626,21 +17705,21 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" ht="43.5">
+    <row r="120" spans="1:23" ht="58">
       <c r="A120" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F120" s="14"/>
       <c r="G120" s="1"/>
@@ -17663,19 +17742,19 @@
     </row>
     <row r="121" spans="1:23" ht="43.5">
       <c r="A121" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F121" s="14"/>
       <c r="G121" s="1"/>
@@ -17696,21 +17775,21 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="1:23" ht="72.5">
+    <row r="122" spans="1:23" ht="43.5">
       <c r="A122" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F122" s="14"/>
       <c r="G122" s="1"/>
@@ -17731,21 +17810,21 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="1:23" ht="58">
+    <row r="123" spans="1:23" ht="72.5">
       <c r="A123" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F123" s="14"/>
       <c r="G123" s="1"/>
@@ -17766,9 +17845,68 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
+    <row r="124" spans="1:23" ht="58">
+      <c r="A124" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E124" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F124" s="14"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="V124" s="1"/>
+      <c r="W124" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B97:B1048576 B1">
+  <conditionalFormatting sqref="B98:B1048576 B1">
+    <cfRule type="cellIs" dxfId="391" priority="496" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="390" priority="497" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="389" priority="498" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="499" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="500">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96">
     <cfRule type="cellIs" dxfId="387" priority="491" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -17792,7 +17930,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B95">
+  <conditionalFormatting sqref="B97">
     <cfRule type="cellIs" dxfId="383" priority="486" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -17816,7 +17954,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B96">
+  <conditionalFormatting sqref="B95">
     <cfRule type="cellIs" dxfId="379" priority="481" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -17913,19 +18051,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="cellIs" dxfId="363" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="456" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="457" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="458" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="459" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="465">
+    <cfRule type="colorScale" priority="460">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17961,19 +18099,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="cellIs" dxfId="355" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="441" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="442" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="443" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="444" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="450">
+    <cfRule type="colorScale" priority="445">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19977,19 +20115,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -20073,7 +20211,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B123" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B124" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D62AF5A-87A7-4ED4-9760-394B16371424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6316377B-0406-464E-952F-AEDBA8FF1A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4845,14 +4845,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。07:29计划，23:25日报
-2.完成。09:40~14:20，7小时，2-00:15:52
-3.完成。16:20~16:45，复习-1题(108)
-4.完成。17:00~23:25，视频3
-5.未完成。74.6kg。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. Leetcode：108. 将有序数组转换为二叉搜索树，复习昨天的题。
 2. 技术：架构设计实战，《亿级流量多级缓存分布式课程》看到视频3，00:41:30。
    1. 今天花在英语上的时间过多，影响了技术学习，明天应该就恢复。
@@ -4874,18 +4866,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.完成。07:29计划，23:40日报
+2.完成。09:40~14:20，7小时，2-00:15:52
+3.完成。16:20~16:45，复习-1题(108)
+4.未完成。17:00~23:25，视频3
+5.完成。74.3kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.7点起床计划，23点日报
 2.英语：4小时，学习
 3.leetcode：1题(非必须)
 4.技术：设计视频4，提交git
-5.体重减到74.6kg(非必须)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。07:29计划，23:40日报
+5.体重减到74.3kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:28计划，23:25日报
 2.完成。09:40~14:20，7小时，2-00:15:52
 3.完成。16:20~16:45，复习-1题(108)
-4.未完成。17:00~23:25，视频3
+4.完成。17:00~23:25，视频3
 5.未完成。74.6kg。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13371,7 +13371,7 @@
     </row>
     <row r="2" spans="1:23" ht="73.5" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
@@ -13380,7 +13380,7 @@
         <v>748</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="10"/>
@@ -13413,10 +13413,10 @@
         <v>743</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>134</v>
@@ -13450,7 +13450,7 @@
         <v>740</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>741</v>
@@ -20187,16 +20187,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -20673,16 +20673,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6316377B-0406-464E-952F-AEDBA8FF1A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DEBA7B-D44E-4EA1-8FC9-22AB83492A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -4883,8 +4883,8 @@
   </si>
   <si>
     <t>1.完成。07:28计划，23:25日报
-2.完成。09:40~14:20，7小时，2-00:15:52
-3.完成。16:20~16:45，复习-1题(108)
+2.完成。09:30~13:30，3小时，2-00:15:52
+3.完成。15:00~16:45，复习-1题(108)
 4.完成。17:00~23:25，视频3
 5.未完成。74.6kg。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10714,19 +10714,19 @@
       <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.54296875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="11.77734375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5546875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" ht="15.6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -11932,7 +11932,7 @@
       </c>
       <c r="H39" s="18"/>
     </row>
-    <row r="40" spans="1:8" ht="43.5">
+    <row r="40" spans="1:8" ht="45">
       <c r="A40" s="12">
         <v>45009</v>
       </c>
@@ -11954,7 +11954,7 @@
       <c r="G40" s="15"/>
       <c r="H40" s="18"/>
     </row>
-    <row r="41" spans="1:8" ht="43.5">
+    <row r="41" spans="1:8" ht="45">
       <c r="A41" s="12">
         <v>45009</v>
       </c>
@@ -12384,7 +12384,7 @@
       </c>
       <c r="H58" s="18"/>
     </row>
-    <row r="59" spans="1:8" ht="87">
+    <row r="59" spans="1:8" ht="90.6">
       <c r="A59" s="12">
         <v>44883</v>
       </c>
@@ -12408,7 +12408,7 @@
       </c>
       <c r="H59" s="18"/>
     </row>
-    <row r="60" spans="1:8" ht="71" customHeight="1">
+    <row r="60" spans="1:8" ht="70.95" customHeight="1">
       <c r="A60" s="12">
         <v>44876</v>
       </c>
@@ -12456,7 +12456,7 @@
       </c>
       <c r="H61" s="18"/>
     </row>
-    <row r="62" spans="1:8" ht="68.75" customHeight="1">
+    <row r="62" spans="1:8" ht="68.7" customHeight="1">
       <c r="A62" s="12">
         <v>44870</v>
       </c>
@@ -12480,7 +12480,7 @@
       </c>
       <c r="H62" s="18"/>
     </row>
-    <row r="63" spans="1:8" ht="71" customHeight="1">
+    <row r="63" spans="1:8" ht="70.95" customHeight="1">
       <c r="A63" s="12">
         <v>44862</v>
       </c>
@@ -12504,7 +12504,7 @@
       </c>
       <c r="H63" s="18"/>
     </row>
-    <row r="64" spans="1:8" ht="74" customHeight="1">
+    <row r="64" spans="1:8" ht="73.95" customHeight="1">
       <c r="A64" s="12">
         <v>44855</v>
       </c>
@@ -12528,7 +12528,7 @@
       </c>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" spans="1:8" ht="73.25" customHeight="1">
+    <row r="65" spans="1:8" ht="73.2" customHeight="1">
       <c r="A65" s="12">
         <v>44848</v>
       </c>
@@ -12600,7 +12600,7 @@
       </c>
       <c r="H67" s="18"/>
     </row>
-    <row r="68" spans="1:8" ht="76.25" customHeight="1">
+    <row r="68" spans="1:8" ht="76.2" customHeight="1">
       <c r="A68" s="12">
         <v>44829</v>
       </c>
@@ -12624,7 +12624,7 @@
       </c>
       <c r="H68" s="18"/>
     </row>
-    <row r="69" spans="1:8" ht="77.75" customHeight="1">
+    <row r="69" spans="1:8" ht="77.7" customHeight="1">
       <c r="A69" s="12">
         <v>44822</v>
       </c>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="H69" s="18"/>
     </row>
-    <row r="70" spans="1:8" ht="94.25" customHeight="1">
+    <row r="70" spans="1:8" ht="94.2" customHeight="1">
       <c r="A70" s="12">
         <v>44813</v>
       </c>
@@ -12672,7 +12672,7 @@
       </c>
       <c r="H70" s="18"/>
     </row>
-    <row r="71" spans="1:8" ht="135.5" customHeight="1">
+    <row r="71" spans="1:8" ht="135.44999999999999" customHeight="1">
       <c r="A71" s="12">
         <v>44808</v>
       </c>
@@ -13318,21 +13318,21 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56.81640625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="12.77734375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.77734375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" ht="15.6">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -13513,7 +13513,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="58">
+    <row r="6" spans="1:23" ht="75">
       <c r="A6" s="9" t="s">
         <v>718</v>
       </c>
@@ -13550,7 +13550,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="59.5" customHeight="1">
+    <row r="7" spans="1:23" ht="59.55" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>716</v>
       </c>
@@ -13661,7 +13661,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="72.5" customHeight="1">
+    <row r="10" spans="1:23" ht="72.45" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>704</v>
       </c>
@@ -13698,7 +13698,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="59" customHeight="1">
+    <row r="11" spans="1:23" ht="58.95" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>699</v>
       </c>
@@ -13735,7 +13735,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="75.5" customHeight="1">
+    <row r="12" spans="1:23" ht="75.45" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>695</v>
       </c>
@@ -13772,7 +13772,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="43.5">
+    <row r="13" spans="1:23" ht="45.6">
       <c r="A13" s="9" t="s">
         <v>683</v>
       </c>
@@ -13809,7 +13809,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="58" customHeight="1">
+    <row r="14" spans="1:23" ht="58.05" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>682</v>
       </c>
@@ -13846,7 +13846,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="75.5" customHeight="1">
+    <row r="15" spans="1:23" ht="75.45" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>677</v>
       </c>
@@ -13883,7 +13883,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="75.5" customHeight="1">
+    <row r="16" spans="1:23" ht="75.45" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>673</v>
       </c>
@@ -13920,7 +13920,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="75.5" customHeight="1">
+    <row r="17" spans="1:23" ht="75.45" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>670</v>
       </c>
@@ -13957,7 +13957,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="75.5" customHeight="1">
+    <row r="18" spans="1:23" ht="75.45" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>668</v>
       </c>
@@ -13994,7 +13994,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="75.5" customHeight="1">
+    <row r="19" spans="1:23" ht="75.45" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>665</v>
       </c>
@@ -14031,7 +14031,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="58">
+    <row r="20" spans="1:23" ht="60">
       <c r="A20" s="9" t="s">
         <v>653</v>
       </c>
@@ -14068,7 +14068,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="75.5" customHeight="1">
+    <row r="21" spans="1:23" ht="75.45" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>649</v>
       </c>
@@ -14105,7 +14105,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="75.5" customHeight="1">
+    <row r="22" spans="1:23" ht="75.45" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>646</v>
       </c>
@@ -14142,7 +14142,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="75.5" customHeight="1">
+    <row r="23" spans="1:23" ht="75.45" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>642</v>
       </c>
@@ -14179,7 +14179,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="75.5" customHeight="1">
+    <row r="24" spans="1:23" ht="75.45" customHeight="1">
       <c r="A24" s="9" t="s">
         <v>639</v>
       </c>
@@ -14216,7 +14216,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="75.5" customHeight="1">
+    <row r="25" spans="1:23" ht="75.45" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>633</v>
       </c>
@@ -14253,7 +14253,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="75.5" customHeight="1">
+    <row r="26" spans="1:23" ht="75.45" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>631</v>
       </c>
@@ -14290,7 +14290,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="75.5" customHeight="1">
+    <row r="27" spans="1:23" ht="75.45" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>608</v>
       </c>
@@ -14327,7 +14327,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="75.5" customHeight="1">
+    <row r="28" spans="1:23" ht="75.45" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>601</v>
       </c>
@@ -14364,7 +14364,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="75.5" customHeight="1">
+    <row r="29" spans="1:23" ht="75.45" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>598</v>
       </c>
@@ -14401,7 +14401,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="75.5" customHeight="1">
+    <row r="30" spans="1:23" ht="75.45" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>591</v>
       </c>
@@ -14438,7 +14438,7 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="75.5" customHeight="1">
+    <row r="31" spans="1:23" ht="75.45" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>586</v>
       </c>
@@ -14475,7 +14475,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="75.5" customHeight="1">
+    <row r="32" spans="1:23" ht="75.45" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>583</v>
       </c>
@@ -14512,7 +14512,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="75.5" customHeight="1">
+    <row r="33" spans="1:23" ht="75.45" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>579</v>
       </c>
@@ -14549,7 +14549,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="75.5" customHeight="1">
+    <row r="34" spans="1:23" ht="75.45" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>570</v>
       </c>
@@ -14586,7 +14586,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="75.5" customHeight="1">
+    <row r="35" spans="1:23" ht="75.45" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>568</v>
       </c>
@@ -14623,7 +14623,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="75.5" customHeight="1">
+    <row r="36" spans="1:23" ht="75.45" customHeight="1">
       <c r="A36" s="9" t="s">
         <v>567</v>
       </c>
@@ -14660,7 +14660,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="75.5" customHeight="1">
+    <row r="37" spans="1:23" ht="75.45" customHeight="1">
       <c r="A37" s="9" t="s">
         <v>558</v>
       </c>
@@ -14697,7 +14697,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="75.5" customHeight="1">
+    <row r="38" spans="1:23" ht="75.45" customHeight="1">
       <c r="A38" s="9" t="s">
         <v>556</v>
       </c>
@@ -14734,7 +14734,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="57.5" customHeight="1">
+    <row r="39" spans="1:23" ht="57.45" customHeight="1">
       <c r="A39" s="9" t="s">
         <v>555</v>
       </c>
@@ -14771,7 +14771,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="75.5" customHeight="1">
+    <row r="40" spans="1:23" ht="75.45" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>546</v>
       </c>
@@ -14808,7 +14808,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="75.5" customHeight="1">
+    <row r="41" spans="1:23" ht="75.45" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>542</v>
       </c>
@@ -14845,7 +14845,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="74.5" customHeight="1">
+    <row r="42" spans="1:23" ht="74.55" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>538</v>
       </c>
@@ -14882,7 +14882,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="72.5">
+    <row r="43" spans="1:23" ht="75">
       <c r="A43" s="9" t="s">
         <v>536</v>
       </c>
@@ -14919,7 +14919,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="77" customHeight="1">
+    <row r="44" spans="1:23" ht="76.95" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>529</v>
       </c>
@@ -14956,7 +14956,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="72.5">
+    <row r="45" spans="1:23" ht="75">
       <c r="A45" s="9" t="s">
         <v>526</v>
       </c>
@@ -14993,7 +14993,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="62" customHeight="1">
+    <row r="46" spans="1:23" ht="61.95" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>525</v>
       </c>
@@ -15030,7 +15030,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="72.5">
+    <row r="47" spans="1:23" ht="75">
       <c r="A47" s="9" t="s">
         <v>516</v>
       </c>
@@ -15067,7 +15067,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="74.75" customHeight="1">
+    <row r="48" spans="1:23" ht="74.7" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>517</v>
       </c>
@@ -15104,7 +15104,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="74.75" customHeight="1">
+    <row r="49" spans="1:23" ht="74.7" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>518</v>
       </c>
@@ -15141,7 +15141,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="74.75" customHeight="1">
+    <row r="50" spans="1:23" ht="74.7" customHeight="1">
       <c r="A50" s="9" t="s">
         <v>519</v>
       </c>
@@ -15178,7 +15178,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="74.75" customHeight="1">
+    <row r="51" spans="1:23" ht="74.7" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>520</v>
       </c>
@@ -15215,7 +15215,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="74.75" customHeight="1">
+    <row r="52" spans="1:23" ht="74.7" customHeight="1">
       <c r="A52" s="9" t="s">
         <v>492</v>
       </c>
@@ -15252,7 +15252,7 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="74.75" customHeight="1">
+    <row r="53" spans="1:23" ht="74.7" customHeight="1">
       <c r="A53" s="9" t="s">
         <v>493</v>
       </c>
@@ -15289,7 +15289,7 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="74.75" customHeight="1">
+    <row r="54" spans="1:23" ht="74.7" customHeight="1">
       <c r="A54" s="9" t="s">
         <v>494</v>
       </c>
@@ -15326,7 +15326,7 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="74.75" customHeight="1">
+    <row r="55" spans="1:23" ht="74.7" customHeight="1">
       <c r="A55" s="9" t="s">
         <v>495</v>
       </c>
@@ -15363,7 +15363,7 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="74.75" customHeight="1">
+    <row r="56" spans="1:23" ht="74.7" customHeight="1">
       <c r="A56" s="9" t="s">
         <v>496</v>
       </c>
@@ -15400,7 +15400,7 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="74.75" customHeight="1">
+    <row r="57" spans="1:23" ht="74.7" customHeight="1">
       <c r="A57" s="9" t="s">
         <v>497</v>
       </c>
@@ -15437,7 +15437,7 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="74.75" customHeight="1">
+    <row r="58" spans="1:23" ht="74.7" customHeight="1">
       <c r="A58" s="9" t="s">
         <v>498</v>
       </c>
@@ -15474,7 +15474,7 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="74.75" customHeight="1">
+    <row r="59" spans="1:23" ht="74.7" customHeight="1">
       <c r="A59" s="9" t="s">
         <v>499</v>
       </c>
@@ -15511,7 +15511,7 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="74.75" customHeight="1">
+    <row r="60" spans="1:23" ht="74.7" customHeight="1">
       <c r="A60" s="9" t="s">
         <v>500</v>
       </c>
@@ -15548,7 +15548,7 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" ht="74.75" customHeight="1">
+    <row r="61" spans="1:23" ht="74.7" customHeight="1">
       <c r="A61" s="9" t="s">
         <v>501</v>
       </c>
@@ -15585,7 +15585,7 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="74.75" customHeight="1">
+    <row r="62" spans="1:23" ht="74.7" customHeight="1">
       <c r="A62" s="9" t="s">
         <v>502</v>
       </c>
@@ -15622,7 +15622,7 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="74.75" customHeight="1">
+    <row r="63" spans="1:23" ht="74.7" customHeight="1">
       <c r="A63" s="9" t="s">
         <v>503</v>
       </c>
@@ -15659,7 +15659,7 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" ht="74.75" customHeight="1">
+    <row r="64" spans="1:23" ht="74.7" customHeight="1">
       <c r="A64" s="9" t="s">
         <v>504</v>
       </c>
@@ -15696,7 +15696,7 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" ht="74.75" customHeight="1">
+    <row r="65" spans="1:23" ht="74.7" customHeight="1">
       <c r="A65" s="9" t="s">
         <v>505</v>
       </c>
@@ -15733,7 +15733,7 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="74.75" customHeight="1">
+    <row r="66" spans="1:23" ht="74.7" customHeight="1">
       <c r="A66" s="9" t="s">
         <v>506</v>
       </c>
@@ -15770,7 +15770,7 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" ht="74.75" customHeight="1">
+    <row r="67" spans="1:23" ht="74.7" customHeight="1">
       <c r="A67" s="9" t="s">
         <v>507</v>
       </c>
@@ -15807,7 +15807,7 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" ht="74.75" customHeight="1">
+    <row r="68" spans="1:23" ht="74.7" customHeight="1">
       <c r="A68" s="9" t="s">
         <v>508</v>
       </c>
@@ -15844,7 +15844,7 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" ht="74.75" customHeight="1">
+    <row r="69" spans="1:23" ht="74.7" customHeight="1">
       <c r="A69" s="9" t="s">
         <v>509</v>
       </c>
@@ -15881,7 +15881,7 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" ht="74.75" customHeight="1">
+    <row r="70" spans="1:23" ht="74.7" customHeight="1">
       <c r="A70" s="9" t="s">
         <v>510</v>
       </c>
@@ -15918,7 +15918,7 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" ht="72.5">
+    <row r="71" spans="1:23" ht="75.599999999999994">
       <c r="A71" s="9" t="s">
         <v>511</v>
       </c>
@@ -15955,7 +15955,7 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" ht="72.5">
+    <row r="72" spans="1:23" ht="75">
       <c r="A72" s="9" t="s">
         <v>512</v>
       </c>
@@ -15992,7 +15992,7 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" ht="72.5">
+    <row r="73" spans="1:23" ht="75">
       <c r="A73" s="9" t="s">
         <v>513</v>
       </c>
@@ -16029,7 +16029,7 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" ht="72.5">
+    <row r="74" spans="1:23" ht="90">
       <c r="A74" s="9" t="s">
         <v>514</v>
       </c>
@@ -16066,7 +16066,7 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" ht="72.5">
+    <row r="75" spans="1:23" ht="75">
       <c r="A75" s="9" t="s">
         <v>515</v>
       </c>
@@ -16103,7 +16103,7 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="87">
+    <row r="76" spans="1:23" ht="105">
       <c r="A76" s="9" t="s">
         <v>491</v>
       </c>
@@ -16140,7 +16140,7 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" ht="87">
+    <row r="77" spans="1:23" ht="90">
       <c r="A77" s="9" t="s">
         <v>443</v>
       </c>
@@ -16214,7 +16214,7 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" ht="72.5">
+    <row r="79" spans="1:23" ht="75">
       <c r="A79" s="9" t="s">
         <v>445</v>
       </c>
@@ -16251,7 +16251,7 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" ht="72.5">
+    <row r="80" spans="1:23" ht="75">
       <c r="A80" s="9" t="s">
         <v>446</v>
       </c>
@@ -16288,7 +16288,7 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="72.5">
+    <row r="81" spans="1:23" ht="75">
       <c r="A81" s="9" t="s">
         <v>447</v>
       </c>
@@ -16325,7 +16325,7 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" ht="87">
+    <row r="82" spans="1:23" ht="90">
       <c r="A82" s="9" t="s">
         <v>448</v>
       </c>
@@ -16362,7 +16362,7 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" ht="58">
+    <row r="83" spans="1:23" ht="60">
       <c r="A83" s="9" t="s">
         <v>449</v>
       </c>
@@ -16399,7 +16399,7 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="58">
+    <row r="84" spans="1:23" ht="60">
       <c r="A84" s="9" t="s">
         <v>450</v>
       </c>
@@ -16436,7 +16436,7 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" ht="43.5">
+    <row r="85" spans="1:23" ht="45">
       <c r="A85" s="9" t="s">
         <v>451</v>
       </c>
@@ -16473,7 +16473,7 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" ht="76.25" customHeight="1">
+    <row r="86" spans="1:23" ht="76.2" customHeight="1">
       <c r="A86" s="9" t="s">
         <v>452</v>
       </c>
@@ -16510,7 +16510,7 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" ht="76.25" customHeight="1">
+    <row r="87" spans="1:23" ht="76.2" customHeight="1">
       <c r="A87" s="9" t="s">
         <v>453</v>
       </c>
@@ -16547,7 +16547,7 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" ht="76.25" customHeight="1">
+    <row r="88" spans="1:23" ht="76.2" customHeight="1">
       <c r="A88" s="9" t="s">
         <v>454</v>
       </c>
@@ -16584,7 +16584,7 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" ht="59" customHeight="1">
+    <row r="89" spans="1:23" ht="58.95" customHeight="1">
       <c r="A89" s="9" t="s">
         <v>455</v>
       </c>
@@ -16658,7 +16658,7 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" ht="59" customHeight="1">
+    <row r="91" spans="1:23" ht="58.95" customHeight="1">
       <c r="A91" s="9" t="s">
         <v>457</v>
       </c>
@@ -16695,7 +16695,7 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" ht="59" customHeight="1">
+    <row r="92" spans="1:23" ht="58.95" customHeight="1">
       <c r="A92" s="9" t="s">
         <v>458</v>
       </c>
@@ -16732,7 +16732,7 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" ht="59" customHeight="1">
+    <row r="93" spans="1:23" ht="58.95" customHeight="1">
       <c r="A93" s="9" t="s">
         <v>459</v>
       </c>
@@ -16769,7 +16769,7 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" ht="59" customHeight="1">
+    <row r="94" spans="1:23" ht="58.95" customHeight="1">
       <c r="A94" s="9" t="s">
         <v>460</v>
       </c>
@@ -16806,7 +16806,7 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" ht="59" customHeight="1">
+    <row r="95" spans="1:23" ht="58.95" customHeight="1">
       <c r="A95" s="9" t="s">
         <v>461</v>
       </c>
@@ -16843,7 +16843,7 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" ht="59" customHeight="1">
+    <row r="96" spans="1:23" ht="58.95" customHeight="1">
       <c r="A96" s="9" t="s">
         <v>462</v>
       </c>
@@ -16880,7 +16880,7 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" ht="29">
+    <row r="97" spans="1:23" ht="45">
       <c r="A97" s="9" t="s">
         <v>463</v>
       </c>
@@ -17028,7 +17028,7 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" ht="32" customHeight="1">
+    <row r="101" spans="1:23" ht="31.95" customHeight="1">
       <c r="A101" s="9" t="s">
         <v>467</v>
       </c>
@@ -17065,7 +17065,7 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" ht="29">
+    <row r="102" spans="1:23" ht="30">
       <c r="A102" s="9" t="s">
         <v>468</v>
       </c>
@@ -17102,7 +17102,7 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" ht="29">
+    <row r="103" spans="1:23" ht="30">
       <c r="A103" s="9" t="s">
         <v>469</v>
       </c>
@@ -17139,7 +17139,7 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" ht="29">
+    <row r="104" spans="1:23" ht="30">
       <c r="A104" s="9" t="s">
         <v>470</v>
       </c>
@@ -17176,7 +17176,7 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" ht="29">
+    <row r="105" spans="1:23" ht="30">
       <c r="A105" s="9" t="s">
         <v>471</v>
       </c>
@@ -17213,7 +17213,7 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" ht="43.5">
+    <row r="106" spans="1:23" ht="45">
       <c r="A106" s="9" t="s">
         <v>472</v>
       </c>
@@ -17287,7 +17287,7 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="1:23" ht="29">
+    <row r="108" spans="1:23" ht="30">
       <c r="A108" s="9" t="s">
         <v>474</v>
       </c>
@@ -17322,7 +17322,7 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" ht="29">
+    <row r="109" spans="1:23" ht="30">
       <c r="A109" s="9" t="s">
         <v>475</v>
       </c>
@@ -17357,7 +17357,7 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" ht="29">
+    <row r="110" spans="1:23" ht="30">
       <c r="A110" s="9" t="s">
         <v>476</v>
       </c>
@@ -17392,7 +17392,7 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" ht="29">
+    <row r="111" spans="1:23" ht="30">
       <c r="A111" s="9" t="s">
         <v>477</v>
       </c>
@@ -17427,7 +17427,7 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" ht="29">
+    <row r="112" spans="1:23" ht="30">
       <c r="A112" s="9" t="s">
         <v>478</v>
       </c>
@@ -17462,7 +17462,7 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" ht="29">
+    <row r="113" spans="1:23" ht="30">
       <c r="A113" s="9" t="s">
         <v>479</v>
       </c>
@@ -17497,7 +17497,7 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" ht="29">
+    <row r="114" spans="1:23" ht="30">
       <c r="A114" s="9" t="s">
         <v>480</v>
       </c>
@@ -17532,7 +17532,7 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" ht="29">
+    <row r="115" spans="1:23" ht="30">
       <c r="A115" s="9" t="s">
         <v>481</v>
       </c>
@@ -17565,7 +17565,7 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" ht="29">
+    <row r="116" spans="1:23" ht="30">
       <c r="A116" s="9" t="s">
         <v>482</v>
       </c>
@@ -17600,7 +17600,7 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" ht="29">
+    <row r="117" spans="1:23" ht="30">
       <c r="A117" s="9" t="s">
         <v>483</v>
       </c>
@@ -17635,7 +17635,7 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" ht="43.5">
+    <row r="118" spans="1:23" ht="45">
       <c r="A118" s="9" t="s">
         <v>484</v>
       </c>
@@ -17670,7 +17670,7 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" ht="43.5">
+    <row r="119" spans="1:23" ht="45">
       <c r="A119" s="9" t="s">
         <v>485</v>
       </c>
@@ -17705,7 +17705,7 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" ht="58">
+    <row r="120" spans="1:23" ht="60">
       <c r="A120" s="9" t="s">
         <v>486</v>
       </c>
@@ -17740,7 +17740,7 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
-    <row r="121" spans="1:23" ht="43.5">
+    <row r="121" spans="1:23" ht="45">
       <c r="A121" s="9" t="s">
         <v>487</v>
       </c>
@@ -17775,7 +17775,7 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="1:23" ht="43.5">
+    <row r="122" spans="1:23" ht="45">
       <c r="A122" s="9" t="s">
         <v>488</v>
       </c>
@@ -17810,7 +17810,7 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="1:23" ht="72.5">
+    <row r="123" spans="1:23" ht="75">
       <c r="A123" s="9" t="s">
         <v>489</v>
       </c>
@@ -17845,7 +17845,7 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" spans="1:23" ht="58">
+    <row r="124" spans="1:23" ht="60">
       <c r="A124" s="9" t="s">
         <v>490</v>
       </c>
@@ -20238,18 +20238,18 @@
       <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="95.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="95.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15.6">
       <c r="A1" s="19" t="s">
         <v>222</v>
       </c>
@@ -20269,7 +20269,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72.5">
+    <row r="2" spans="1:6" ht="90">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -20289,7 +20289,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.5">
+    <row r="3" spans="1:6" ht="45">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -20309,7 +20309,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.5">
+    <row r="4" spans="1:6" ht="45">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -20329,7 +20329,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.5">
+    <row r="5" spans="1:6" ht="45">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -20349,7 +20349,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.5">
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -20369,7 +20369,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.5">
+    <row r="7" spans="1:6" ht="45">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
@@ -20389,7 +20389,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.5">
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -20429,7 +20429,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="29">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -20449,7 +20449,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="58">
+    <row r="11" spans="1:6" ht="60">
       <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
@@ -20469,7 +20469,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29">
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -20489,7 +20489,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="29">
+    <row r="13" spans="1:6" ht="30">
       <c r="A13" s="13" t="s">
         <v>7</v>
       </c>
@@ -20531,15 +20531,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.81640625" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5">
+    <row r="1" spans="1:6" ht="15.6">
       <c r="A1" s="24" t="s">
         <v>617</v>
       </c>
@@ -20551,7 +20551,7 @@
       <c r="E1" s="37"/>
       <c r="F1" s="38"/>
     </row>
-    <row r="2" spans="1:6" ht="14.5">
+    <row r="2" spans="1:6" ht="15.6">
       <c r="A2" s="28" t="s">
         <v>618</v>
       </c>
@@ -20571,7 +20571,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="31" t="s">
         <v>625</v>
       </c>
@@ -20587,7 +20587,7 @@
       <c r="E3" s="33"/>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="1:6" ht="14.5">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="31" t="s">
         <v>626</v>
       </c>
@@ -20603,7 +20603,7 @@
       <c r="E4" s="33"/>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:6" ht="29">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="31" t="s">
         <v>629</v>
       </c>
@@ -20619,7 +20619,7 @@
       <c r="E5" s="33"/>
       <c r="F5" s="23"/>
     </row>
-    <row r="6" spans="1:6" ht="29">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="31" t="s">
         <v>658</v>
       </c>
@@ -20635,7 +20635,7 @@
       <c r="E6" s="33"/>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:6" ht="14.5">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="31"/>
       <c r="B7" s="23"/>
       <c r="C7" s="32"/>
@@ -20643,7 +20643,7 @@
       <c r="E7" s="33"/>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="1:6" ht="14.5">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="31"/>
       <c r="B8" s="23"/>
       <c r="C8" s="32"/>
@@ -20651,7 +20651,7 @@
       <c r="E8" s="33"/>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:6" ht="14.5">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="31"/>
       <c r="B9" s="23"/>
       <c r="C9" s="32"/>
@@ -20659,7 +20659,7 @@
       <c r="E9" s="33"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:6" ht="14.5">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="31"/>
       <c r="B10" s="23"/>
       <c r="C10" s="32"/>

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resource\git-doc\docs\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DEBA7B-D44E-4EA1-8FC9-22AB83492A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD42457-2417-40D9-AACD-1962F2318D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="754">
   <si>
     <t>汇报日期</t>
   </si>
@@ -4866,14 +4866,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。07:29计划，23:40日报
-2.完成。09:40~14:20，7小时，2-00:15:52
-3.完成。16:20~16:45，复习-1题(108)
-4.未完成。17:00~23:25，视频3
-5.完成。74.3kg。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.7点起床计划，23点日报
 2.英语：4小时，学习
 3.leetcode：1题(非必须)
@@ -4882,11 +4874,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。07:28计划，23:25日报
-2.完成。09:30~13:30，3小时，2-00:15:52
-3.完成。15:00~16:45，复习-1题(108)
-4.完成。17:00~23:25，视频3
-5.未完成。74.6kg。</t>
+    <t>2023-12-28
+星期五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Leetcode：148. 排序链表（中等），学习了2种解法，一种用数组记录每个元素出现的次数，然后修改链表的值。
+   1. 一种是将链表转成arraylist使用jdk的排序方法，然后转成链表。
+2. 技术：架构设计实战，《亿级流量多级缓存分布式课程》看到视频4，00:17:50。
+   1. 长轮询，双工通信，资源的缓存，缓存控制，页面解析优化
+3. 英语：记忆之前学过的美剧中出现的单词，复习昨天直播课中学到的知识。晚上英语直播，学习单词记忆方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:29计划，23:40日报
+2.完成。09:40~14:20，7小时，艾力
+3.完成。16:20~16:45，复习-1题(108)
+4.未完成。17:00~23:25，视频3
+5.完成。74.3kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:26计划，23:40日报
+2.完成。17:00~23:00，7小时
+3.完成。16:20~16:45，复习-1题(108)
+4.未完成。17:00~23:25，视频3
+5.完成。74.kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:29计划，23:25日报
+2.完成。09:40~14:20，6小时，艾力
+3.完成。15:00~16:00，1题(148)
+4.完成。16:00~20:00，视频4，00:17:50
+5.未完成。74.5kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报睡觉
+2.英语：4小时，学习
+3.leetcode：1题(非必须)
+4.技术：设计视频5，提交git
+5.体重减到74.3kg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5225,7 +5254,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="492">
+  <dxfs count="496">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -10714,19 +10785,19 @@
       <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5546875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="11.81640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.54296875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.6">
+    <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -11932,7 +12003,7 @@
       </c>
       <c r="H39" s="18"/>
     </row>
-    <row r="40" spans="1:8" ht="45">
+    <row r="40" spans="1:8" ht="43.5">
       <c r="A40" s="12">
         <v>45009</v>
       </c>
@@ -11954,7 +12025,7 @@
       <c r="G40" s="15"/>
       <c r="H40" s="18"/>
     </row>
-    <row r="41" spans="1:8" ht="45">
+    <row r="41" spans="1:8" ht="43.5">
       <c r="A41" s="12">
         <v>45009</v>
       </c>
@@ -12384,7 +12455,7 @@
       </c>
       <c r="H58" s="18"/>
     </row>
-    <row r="59" spans="1:8" ht="90.6">
+    <row r="59" spans="1:8" ht="87">
       <c r="A59" s="12">
         <v>44883</v>
       </c>
@@ -12408,7 +12479,7 @@
       </c>
       <c r="H59" s="18"/>
     </row>
-    <row r="60" spans="1:8" ht="70.95" customHeight="1">
+    <row r="60" spans="1:8" ht="71" customHeight="1">
       <c r="A60" s="12">
         <v>44876</v>
       </c>
@@ -12456,7 +12527,7 @@
       </c>
       <c r="H61" s="18"/>
     </row>
-    <row r="62" spans="1:8" ht="68.7" customHeight="1">
+    <row r="62" spans="1:8" ht="68.75" customHeight="1">
       <c r="A62" s="12">
         <v>44870</v>
       </c>
@@ -12480,7 +12551,7 @@
       </c>
       <c r="H62" s="18"/>
     </row>
-    <row r="63" spans="1:8" ht="70.95" customHeight="1">
+    <row r="63" spans="1:8" ht="71" customHeight="1">
       <c r="A63" s="12">
         <v>44862</v>
       </c>
@@ -12504,7 +12575,7 @@
       </c>
       <c r="H63" s="18"/>
     </row>
-    <row r="64" spans="1:8" ht="73.95" customHeight="1">
+    <row r="64" spans="1:8" ht="74" customHeight="1">
       <c r="A64" s="12">
         <v>44855</v>
       </c>
@@ -12528,7 +12599,7 @@
       </c>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" spans="1:8" ht="73.2" customHeight="1">
+    <row r="65" spans="1:8" ht="73.25" customHeight="1">
       <c r="A65" s="12">
         <v>44848</v>
       </c>
@@ -12600,7 +12671,7 @@
       </c>
       <c r="H67" s="18"/>
     </row>
-    <row r="68" spans="1:8" ht="76.2" customHeight="1">
+    <row r="68" spans="1:8" ht="76.25" customHeight="1">
       <c r="A68" s="12">
         <v>44829</v>
       </c>
@@ -12624,7 +12695,7 @@
       </c>
       <c r="H68" s="18"/>
     </row>
-    <row r="69" spans="1:8" ht="77.7" customHeight="1">
+    <row r="69" spans="1:8" ht="77.75" customHeight="1">
       <c r="A69" s="12">
         <v>44822</v>
       </c>
@@ -12648,7 +12719,7 @@
       </c>
       <c r="H69" s="18"/>
     </row>
-    <row r="70" spans="1:8" ht="94.2" customHeight="1">
+    <row r="70" spans="1:8" ht="94.25" customHeight="1">
       <c r="A70" s="12">
         <v>44813</v>
       </c>
@@ -12672,7 +12743,7 @@
       </c>
       <c r="H70" s="18"/>
     </row>
-    <row r="71" spans="1:8" ht="135.44999999999999" customHeight="1">
+    <row r="71" spans="1:8" ht="135.5" customHeight="1">
       <c r="A71" s="12">
         <v>44808</v>
       </c>
@@ -12700,16 +12771,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B72:B1048576 B16:B61 B1">
-    <cfRule type="cellIs" dxfId="491" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="131" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="132" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="133" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="135" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="136">
@@ -12724,16 +12795,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="487" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="127" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="129" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="130">
@@ -12748,16 +12819,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="483" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="122" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="123" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="125">
@@ -12772,16 +12843,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="479" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="117" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="118" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="119" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="120">
@@ -12796,16 +12867,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="475" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="112" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="113" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="114" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="115">
@@ -12820,16 +12891,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="471" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="106" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="107" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="108" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="109" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -12844,16 +12915,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="467" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="101" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="102" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="103" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="104" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -12868,16 +12939,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="463" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="97" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="98" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="99" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -12892,16 +12963,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="459" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="94" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="95">
@@ -12916,16 +12987,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="455" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="86" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="87" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="88" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="89" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -12940,16 +13011,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="451" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -12964,16 +13035,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="447" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -12988,16 +13059,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="443" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -13012,16 +13083,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="439" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -13036,16 +13107,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="435" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -13060,16 +13131,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="431" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -13084,16 +13155,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="427" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -13108,16 +13179,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="423" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -13132,16 +13203,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="419" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -13156,16 +13227,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="415" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -13180,16 +13251,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="411" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -13204,16 +13275,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="407" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -13228,16 +13299,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="403" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -13252,16 +13323,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="399" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -13276,16 +13347,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="395" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -13312,27 +13383,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W124"/>
+  <dimension ref="A1:W125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56.77734375" style="25" customWidth="1"/>
-    <col min="6" max="6" width="6.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="12.81640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.81640625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.6">
+    <row r="1" spans="1:23">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -13371,16 +13442,16 @@
     </row>
     <row r="2" spans="1:23" ht="73.5" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="10"/>
@@ -13404,19 +13475,19 @@
     </row>
     <row r="3" spans="1:23" ht="73.5" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>134</v>
@@ -13441,19 +13512,19 @@
     </row>
     <row r="4" spans="1:23" ht="73.5" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>134</v>
@@ -13478,19 +13549,19 @@
     </row>
     <row r="5" spans="1:23" ht="73.5" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>134</v>
@@ -13513,21 +13584,21 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="75">
+    <row r="6" spans="1:23" ht="73.5" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>134</v>
@@ -13550,21 +13621,21 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="59.55" customHeight="1">
+    <row r="7" spans="1:23" ht="58">
       <c r="A7" s="9" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>134</v>
@@ -13587,24 +13658,24 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="73.5" customHeight="1">
+    <row r="8" spans="1:23" ht="59.5" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -13626,22 +13697,22 @@
     </row>
     <row r="9" spans="1:23" ht="73.5" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -13661,21 +13732,21 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="72.45" customHeight="1">
+    <row r="10" spans="1:23" ht="73.5" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>134</v>
@@ -13698,21 +13769,21 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="58.95" customHeight="1">
+    <row r="11" spans="1:23" ht="72.5" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>134</v>
@@ -13735,21 +13806,21 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="75.45" customHeight="1">
+    <row r="12" spans="1:23" ht="59" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>134</v>
@@ -13772,21 +13843,21 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="45.6">
+    <row r="13" spans="1:23" ht="75.5" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>134</v>
@@ -13809,21 +13880,21 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="58.05" customHeight="1">
+    <row r="14" spans="1:23" ht="43.5">
       <c r="A14" s="9" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>134</v>
@@ -13846,21 +13917,21 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="75.45" customHeight="1">
+    <row r="15" spans="1:23" ht="58" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>134</v>
@@ -13883,21 +13954,21 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="75.45" customHeight="1">
+    <row r="16" spans="1:23" ht="75.5" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>134</v>
@@ -13920,21 +13991,21 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="75.45" customHeight="1">
+    <row r="17" spans="1:23" ht="75.5" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>134</v>
@@ -13957,21 +14028,21 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="75.45" customHeight="1">
+    <row r="18" spans="1:23" ht="75.5" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>134</v>
@@ -13994,18 +14065,18 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="75.45" customHeight="1">
+    <row r="19" spans="1:23" ht="75.5" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>667</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>669</v>
@@ -14031,21 +14102,21 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="60">
+    <row r="20" spans="1:23" ht="75.5" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>134</v>
@@ -14068,21 +14139,21 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="75.45" customHeight="1">
+    <row r="21" spans="1:23" ht="58">
       <c r="A21" s="9" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>134</v>
@@ -14105,21 +14176,21 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="75.45" customHeight="1">
+    <row r="22" spans="1:23" ht="75.5" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>134</v>
@@ -14142,21 +14213,21 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="75.45" customHeight="1">
+    <row r="23" spans="1:23" ht="75.5" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>134</v>
@@ -14179,21 +14250,21 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="75.45" customHeight="1">
+    <row r="24" spans="1:23" ht="75.5" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>134</v>
@@ -14216,21 +14287,21 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="75.45" customHeight="1">
+    <row r="25" spans="1:23" ht="75.5" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>134</v>
@@ -14253,21 +14324,21 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="75.45" customHeight="1">
+    <row r="26" spans="1:23" ht="75.5" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>134</v>
@@ -14290,24 +14361,24 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="75.45" customHeight="1">
+    <row r="27" spans="1:23" ht="75.5" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -14327,24 +14398,24 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="75.45" customHeight="1">
+    <row r="28" spans="1:23" ht="75.5" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -14364,21 +14435,21 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="75.45" customHeight="1">
+    <row r="29" spans="1:23" ht="75.5" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>134</v>
@@ -14401,21 +14472,21 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="75.45" customHeight="1">
+    <row r="30" spans="1:23" ht="75.5" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>134</v>
@@ -14438,21 +14509,21 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="75.45" customHeight="1">
+    <row r="31" spans="1:23" ht="75.5" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>134</v>
@@ -14475,21 +14546,21 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="75.45" customHeight="1">
+    <row r="32" spans="1:23" ht="75.5" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>134</v>
@@ -14512,21 +14583,21 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="75.45" customHeight="1">
+    <row r="33" spans="1:23" ht="75.5" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>134</v>
@@ -14549,21 +14620,21 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="75.45" customHeight="1">
+    <row r="34" spans="1:23" ht="75.5" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>134</v>
@@ -14586,21 +14657,21 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="75.45" customHeight="1">
+    <row r="35" spans="1:23" ht="75.5" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>684</v>
+        <v>578</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>134</v>
@@ -14623,21 +14694,21 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="75.45" customHeight="1">
+    <row r="36" spans="1:23" ht="75.5" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>571</v>
+        <v>684</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>134</v>
@@ -14660,21 +14731,21 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="75.45" customHeight="1">
+    <row r="37" spans="1:23" ht="75.5" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>134</v>
@@ -14697,21 +14768,21 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="75.45" customHeight="1">
+    <row r="38" spans="1:23" ht="75.5" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>134</v>
@@ -14734,21 +14805,21 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="57.45" customHeight="1">
+    <row r="39" spans="1:23" ht="75.5" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>134</v>
@@ -14771,21 +14842,21 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="75.45" customHeight="1">
+    <row r="40" spans="1:23" ht="57.5" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>134</v>
@@ -14808,21 +14879,21 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="75.45" customHeight="1">
+    <row r="41" spans="1:23" ht="75.5" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>134</v>
@@ -14845,21 +14916,21 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="74.55" customHeight="1">
+    <row r="42" spans="1:23" ht="75.5" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>134</v>
@@ -14882,21 +14953,21 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="75">
+    <row r="43" spans="1:23" ht="74.5" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>134</v>
@@ -14919,21 +14990,21 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="76.95" customHeight="1">
+    <row r="44" spans="1:23" ht="72.5">
       <c r="A44" s="9" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>134</v>
@@ -14956,21 +15027,21 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="75">
+    <row r="45" spans="1:23" ht="77" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>134</v>
@@ -14993,24 +15064,24 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="61.95" customHeight="1">
+    <row r="46" spans="1:23" ht="72.5">
       <c r="A46" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>441</v>
+        <v>527</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -15030,21 +15101,21 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="75">
+    <row r="47" spans="1:23" ht="62" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>436</v>
+        <v>523</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>133</v>
@@ -15067,24 +15138,24 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="74.7" customHeight="1">
+    <row r="48" spans="1:23" ht="72.5">
       <c r="A48" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -15104,21 +15175,21 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="74.7" customHeight="1">
+    <row r="49" spans="1:23" ht="74.75" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>134</v>
@@ -15141,24 +15212,24 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="74.7" customHeight="1">
+    <row r="50" spans="1:23" ht="74.75" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -15178,24 +15249,24 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="74.7" customHeight="1">
+    <row r="51" spans="1:23" ht="74.75" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -15215,24 +15286,24 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="74.7" customHeight="1">
+    <row r="52" spans="1:23" ht="74.75" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>413</v>
+        <v>134</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -15252,24 +15323,24 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="74.7" customHeight="1">
+    <row r="53" spans="1:23" ht="74.75" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -15289,21 +15360,21 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="74.7" customHeight="1">
+    <row r="54" spans="1:23" ht="74.75" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>134</v>
@@ -15326,21 +15397,21 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="74.7" customHeight="1">
+    <row r="55" spans="1:23" ht="74.75" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>134</v>
@@ -15363,21 +15434,21 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="74.7" customHeight="1">
+    <row r="56" spans="1:23" ht="74.75" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>134</v>
@@ -15400,21 +15471,21 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="74.7" customHeight="1">
+    <row r="57" spans="1:23" ht="74.75" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>134</v>
@@ -15437,21 +15508,21 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="74.7" customHeight="1">
+    <row r="58" spans="1:23" ht="74.75" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>575</v>
+        <v>398</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>134</v>
@@ -15474,21 +15545,21 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="74.7" customHeight="1">
+    <row r="59" spans="1:23" ht="74.75" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>386</v>
+        <v>575</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>134</v>
@@ -15511,21 +15582,21 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="74.7" customHeight="1">
+    <row r="60" spans="1:23" ht="74.75" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>134</v>
@@ -15548,21 +15619,21 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" ht="74.7" customHeight="1">
+    <row r="61" spans="1:23" ht="74.75" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>134</v>
@@ -15585,21 +15656,21 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="74.7" customHeight="1">
+    <row r="62" spans="1:23" ht="74.75" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>134</v>
@@ -15622,24 +15693,24 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="74.7" customHeight="1">
+    <row r="63" spans="1:23" ht="74.75" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -15659,24 +15730,24 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" ht="74.7" customHeight="1">
+    <row r="64" spans="1:23" ht="74.75" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -15696,21 +15767,21 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" ht="74.7" customHeight="1">
+    <row r="65" spans="1:23" ht="74.75" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>362</v>
+        <v>371</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>369</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>134</v>
@@ -15733,21 +15804,21 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="74.7" customHeight="1">
+    <row r="66" spans="1:23" ht="74.75" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>134</v>
@@ -15770,24 +15841,24 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" ht="74.7" customHeight="1">
+    <row r="67" spans="1:23" ht="74.75" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -15807,24 +15878,24 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" ht="74.7" customHeight="1">
+    <row r="68" spans="1:23" ht="74.75" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -15844,21 +15915,21 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" ht="74.7" customHeight="1">
+    <row r="69" spans="1:23" ht="74.75" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>134</v>
@@ -15881,21 +15952,21 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" ht="74.7" customHeight="1">
+    <row r="70" spans="1:23" ht="74.75" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>134</v>
@@ -15918,24 +15989,24 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" ht="75.599999999999994">
+    <row r="71" spans="1:23" ht="74.75" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -15955,24 +16026,24 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" ht="75">
+    <row r="72" spans="1:23" ht="72.5">
       <c r="A72" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -15992,21 +16063,21 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" ht="75">
+    <row r="73" spans="1:23" ht="72.5">
       <c r="A73" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>134</v>
@@ -16029,21 +16100,21 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" ht="90">
+    <row r="74" spans="1:23" ht="72.5">
       <c r="A74" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>134</v>
@@ -16066,21 +16137,21 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" ht="75">
+    <row r="75" spans="1:23" ht="72.5">
       <c r="A75" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>134</v>
@@ -16103,21 +16174,21 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="105">
+    <row r="76" spans="1:23" ht="72.5">
       <c r="A76" s="9" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>134</v>
@@ -16140,21 +16211,21 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" ht="90">
+    <row r="77" spans="1:23" ht="87">
       <c r="A77" s="9" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>134</v>
@@ -16177,21 +16248,21 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" ht="73.5" customHeight="1">
+    <row r="78" spans="1:23" ht="87">
       <c r="A78" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>134</v>
@@ -16214,24 +16285,24 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" ht="75">
+    <row r="79" spans="1:23" ht="73.5" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -16251,21 +16322,21 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" ht="75">
+    <row r="80" spans="1:23" ht="72.5">
       <c r="A80" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>133</v>
@@ -16288,24 +16359,24 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="75">
+    <row r="81" spans="1:23" ht="72.5">
       <c r="A81" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -16325,21 +16396,21 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" ht="90">
+    <row r="82" spans="1:23" ht="72.5">
       <c r="A82" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>134</v>
@@ -16362,21 +16433,21 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" ht="60">
+    <row r="83" spans="1:23" ht="87">
       <c r="A83" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>134</v>
@@ -16399,21 +16470,21 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="60">
+    <row r="84" spans="1:23" ht="58">
       <c r="A84" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>134</v>
@@ -16436,24 +16507,24 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" ht="45">
+    <row r="85" spans="1:23" ht="58">
       <c r="A85" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -16473,24 +16544,24 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" ht="76.2" customHeight="1">
+    <row r="86" spans="1:23" ht="43.5">
       <c r="A86" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -16510,21 +16581,21 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" ht="76.2" customHeight="1">
+    <row r="87" spans="1:23" ht="76.25" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>134</v>
@@ -16547,21 +16618,21 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" ht="76.2" customHeight="1">
+    <row r="88" spans="1:23" ht="76.25" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>134</v>
@@ -16584,21 +16655,21 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" ht="58.95" customHeight="1">
+    <row r="89" spans="1:23" ht="76.25" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>134</v>
@@ -16621,21 +16692,21 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" ht="33" customHeight="1">
+    <row r="90" spans="1:23" ht="59" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>134</v>
@@ -16658,24 +16729,24 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" ht="58.95" customHeight="1">
+    <row r="91" spans="1:23" ht="33" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -16695,24 +16766,24 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" ht="58.95" customHeight="1">
+    <row r="92" spans="1:23" ht="59" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -16732,21 +16803,21 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" ht="58.95" customHeight="1">
+    <row r="93" spans="1:23" ht="59" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>134</v>
@@ -16769,21 +16840,21 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" ht="58.95" customHeight="1">
+    <row r="94" spans="1:23" ht="59" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>134</v>
@@ -16806,21 +16877,21 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" ht="58.95" customHeight="1">
+    <row r="95" spans="1:23" ht="59" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>134</v>
@@ -16843,21 +16914,21 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" ht="58.95" customHeight="1">
+    <row r="96" spans="1:23" ht="59" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>134</v>
@@ -16880,21 +16951,21 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" ht="45">
+    <row r="97" spans="1:23" ht="59" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>134</v>
@@ -16917,21 +16988,21 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" ht="42.75" customHeight="1">
+    <row r="98" spans="1:23" ht="29">
       <c r="A98" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>134</v>
@@ -16956,19 +17027,19 @@
     </row>
     <row r="99" spans="1:23" ht="42.75" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>134</v>
@@ -16993,19 +17064,19 @@
     </row>
     <row r="100" spans="1:23" ht="42.75" customHeight="1">
       <c r="A100" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>134</v>
@@ -17028,21 +17099,21 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" ht="31.95" customHeight="1">
+    <row r="101" spans="1:23" ht="42.75" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B101" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>134</v>
@@ -17065,9 +17136,9 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" ht="30">
+    <row r="102" spans="1:23" ht="32" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>9</v>
@@ -17079,7 +17150,7 @@
         <v>140</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>134</v>
@@ -17102,24 +17173,24 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" ht="30">
+    <row r="103" spans="1:23" ht="29">
       <c r="A103" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -17139,23 +17210,23 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" ht="30">
+    <row r="104" spans="1:23" ht="29">
       <c r="A104" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C104" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D104" s="13" t="s">
+      <c r="C104" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E104" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F104" s="14" t="s">
+      <c r="E104" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F104" s="10" t="s">
         <v>133</v>
       </c>
       <c r="G104" s="1"/>
@@ -17176,23 +17247,23 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" ht="30">
+    <row r="105" spans="1:23" ht="29">
       <c r="A105" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E105" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F105" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F105" s="14" t="s">
         <v>133</v>
       </c>
       <c r="G105" s="1"/>
@@ -17213,24 +17284,24 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" ht="45">
+    <row r="106" spans="1:23" ht="29">
       <c r="A106" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>134</v>
+        <v>149</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -17250,9 +17321,9 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="1:23" ht="42.75" customHeight="1">
+    <row r="107" spans="1:23" ht="43.5">
       <c r="A107" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>9</v>
@@ -17264,7 +17335,7 @@
         <v>140</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="F107" s="14" t="s">
         <v>134</v>
@@ -17287,23 +17358,25 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="1:23" ht="30">
+    <row r="108" spans="1:23" ht="42.75" customHeight="1">
       <c r="A108" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F108" s="14"/>
+        <v>231</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -17322,21 +17395,21 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" ht="30">
+    <row r="109" spans="1:23" ht="29">
       <c r="A109" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F109" s="14"/>
       <c r="G109" s="1"/>
@@ -17357,9 +17430,9 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" ht="30">
+    <row r="110" spans="1:23" ht="29">
       <c r="A110" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>9</v>
@@ -17368,10 +17441,10 @@
         <v>150</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="1"/>
@@ -17392,9 +17465,9 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" ht="30">
+    <row r="111" spans="1:23" ht="29">
       <c r="A111" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>9</v>
@@ -17403,10 +17476,10 @@
         <v>150</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="1"/>
@@ -17427,21 +17500,21 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" ht="30">
+    <row r="112" spans="1:23" ht="29">
       <c r="A112" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>162</v>
+        <v>9</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="1"/>
@@ -17462,21 +17535,21 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" ht="30">
+    <row r="113" spans="1:23" ht="29">
       <c r="A113" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="1"/>
@@ -17497,21 +17570,21 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" ht="30">
+    <row r="114" spans="1:23" ht="29">
       <c r="A114" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="1"/>
@@ -17532,20 +17605,22 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" ht="30">
+    <row r="115" spans="1:23" ht="29">
       <c r="A115" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E115" s="15"/>
+        <v>167</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>168</v>
+      </c>
       <c r="F115" s="14"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -17565,22 +17640,20 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" ht="30">
+    <row r="116" spans="1:23" ht="29">
       <c r="A116" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E116" s="15"/>
       <c r="F116" s="14"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -17600,21 +17673,21 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" ht="30">
+    <row r="117" spans="1:23" ht="29">
       <c r="A117" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F117" s="14"/>
       <c r="G117" s="1"/>
@@ -17635,21 +17708,21 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" ht="45">
+    <row r="118" spans="1:23" ht="29">
       <c r="A118" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="1"/>
@@ -17670,21 +17743,21 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" ht="45">
+    <row r="119" spans="1:23" ht="43.5">
       <c r="A119" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F119" s="14"/>
       <c r="G119" s="1"/>
@@ -17705,21 +17778,21 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" ht="60">
+    <row r="120" spans="1:23" ht="43.5">
       <c r="A120" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F120" s="14"/>
       <c r="G120" s="1"/>
@@ -17740,21 +17813,21 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
-    <row r="121" spans="1:23" ht="45">
+    <row r="121" spans="1:23" ht="58">
       <c r="A121" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F121" s="14"/>
       <c r="G121" s="1"/>
@@ -17775,21 +17848,21 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="1:23" ht="45">
+    <row r="122" spans="1:23" ht="43.5">
       <c r="A122" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B122" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F122" s="14"/>
       <c r="G122" s="1"/>
@@ -17810,21 +17883,21 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="1:23" ht="75">
+    <row r="123" spans="1:23" ht="43.5">
       <c r="A123" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F123" s="14"/>
       <c r="G123" s="1"/>
@@ -17845,21 +17918,21 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" spans="1:23" ht="60">
+    <row r="124" spans="1:23" ht="72.5">
       <c r="A124" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F124" s="14"/>
       <c r="G124" s="1"/>
@@ -17880,9 +17953,68 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
     </row>
+    <row r="125" spans="1:23" ht="58">
+      <c r="A125" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E125" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F125" s="14"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+      <c r="U125" s="1"/>
+      <c r="V125" s="1"/>
+      <c r="W125" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B98:B1048576 B1">
+  <conditionalFormatting sqref="B99:B1048576 B1">
+    <cfRule type="cellIs" dxfId="395" priority="501" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="502" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="393" priority="503" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="392" priority="504" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="505">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B97">
     <cfRule type="cellIs" dxfId="391" priority="496" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -17906,7 +18038,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B96">
+  <conditionalFormatting sqref="B98">
     <cfRule type="cellIs" dxfId="387" priority="491" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -17930,7 +18062,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B97">
+  <conditionalFormatting sqref="B96">
     <cfRule type="cellIs" dxfId="383" priority="486" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -18027,19 +18159,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="cellIs" dxfId="367" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="461" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="462" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="463" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="464" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="470">
+    <cfRule type="colorScale" priority="465">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18075,19 +18207,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="cellIs" dxfId="359" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="446" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="447" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="448" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="449" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="455">
+    <cfRule type="colorScale" priority="450">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -20091,19 +20223,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -20187,16 +20319,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -20211,7 +20343,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B124" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B125" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -20238,18 +20370,18 @@
       <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="95.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="95.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6">
+    <row r="1" spans="1:6">
       <c r="A1" s="19" t="s">
         <v>222</v>
       </c>
@@ -20269,7 +20401,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90">
+    <row r="2" spans="1:6" ht="72.5">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -20289,7 +20421,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45">
+    <row r="3" spans="1:6" ht="43.5">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -20309,7 +20441,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
+    <row r="4" spans="1:6" ht="43.5">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -20329,7 +20461,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45">
+    <row r="5" spans="1:6" ht="43.5">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -20349,7 +20481,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45">
+    <row r="6" spans="1:6" ht="43.5">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -20369,7 +20501,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45">
+    <row r="7" spans="1:6" ht="43.5">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
@@ -20389,7 +20521,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="43.5">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -20429,7 +20561,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="29">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -20449,7 +20581,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60">
+    <row r="11" spans="1:6" ht="58">
       <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
@@ -20469,7 +20601,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:6" ht="29">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -20489,7 +20621,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="29">
       <c r="A13" s="13" t="s">
         <v>7</v>
       </c>
@@ -20531,15 +20663,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6">
+    <row r="1" spans="1:6" ht="14.5">
       <c r="A1" s="24" t="s">
         <v>617</v>
       </c>
@@ -20551,7 +20683,7 @@
       <c r="E1" s="37"/>
       <c r="F1" s="38"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6">
+    <row r="2" spans="1:6" ht="14.5">
       <c r="A2" s="28" t="s">
         <v>618</v>
       </c>
@@ -20571,7 +20703,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="14.5">
       <c r="A3" s="31" t="s">
         <v>625</v>
       </c>
@@ -20587,7 +20719,7 @@
       <c r="E3" s="33"/>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:6" ht="14.5">
       <c r="A4" s="31" t="s">
         <v>626</v>
       </c>
@@ -20603,7 +20735,7 @@
       <c r="E4" s="33"/>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:6" ht="30">
+    <row r="5" spans="1:6" ht="29">
       <c r="A5" s="31" t="s">
         <v>629</v>
       </c>
@@ -20619,7 +20751,7 @@
       <c r="E5" s="33"/>
       <c r="F5" s="23"/>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="29">
       <c r="A6" s="31" t="s">
         <v>658</v>
       </c>
@@ -20635,7 +20767,7 @@
       <c r="E6" s="33"/>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="14.5">
       <c r="A7" s="31"/>
       <c r="B7" s="23"/>
       <c r="C7" s="32"/>
@@ -20643,7 +20775,7 @@
       <c r="E7" s="33"/>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="14.5">
       <c r="A8" s="31"/>
       <c r="B8" s="23"/>
       <c r="C8" s="32"/>
@@ -20651,7 +20783,7 @@
       <c r="E8" s="33"/>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6" ht="14.5">
       <c r="A9" s="31"/>
       <c r="B9" s="23"/>
       <c r="C9" s="32"/>
@@ -20659,7 +20791,7 @@
       <c r="E9" s="33"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:6" ht="15">
+    <row r="10" spans="1:6" ht="14.5">
       <c r="A10" s="31"/>
       <c r="B10" s="23"/>
       <c r="C10" s="32"/>
@@ -20673,16 +20805,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD42457-2417-40D9-AACD-1962F2318D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CC85C7-CB7D-4A6F-A2C5-155181DE359F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -4895,14 +4895,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。07:26计划，23:40日报
-2.完成。17:00~23:00，7小时
-3.完成。16:20~16:45，复习-1题(108)
-4.未完成。17:00~23:25，视频3
-5.完成。74.kg。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.完成。07:29计划，23:25日报
 2.完成。09:40~14:20，6小时，艾力
 3.完成。15:00~16:00，1题(148)
@@ -4912,10 +4904,18 @@
   </si>
   <si>
     <t>1.7点起床计划，23点日报睡觉
-2.英语：4小时，学习
+2.英语：2小时，学习
 3.leetcode：1题(非必须)
 4.技术：设计视频5，提交git
 5.体重减到74.3kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:26计划，23:40日报
+2.完成。20:00~23:00，3小时
+3.完成。09:30~12:54，1题(复习148和142)
+4.完成。14:30~18:50，视频5, 00:17:21
+5.完成。74.3kg。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10785,19 +10785,19 @@
       <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.54296875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="11.77734375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5546875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" ht="15.6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -12003,7 +12003,7 @@
       </c>
       <c r="H39" s="18"/>
     </row>
-    <row r="40" spans="1:8" ht="43.5">
+    <row r="40" spans="1:8" ht="45">
       <c r="A40" s="12">
         <v>45009</v>
       </c>
@@ -12025,7 +12025,7 @@
       <c r="G40" s="15"/>
       <c r="H40" s="18"/>
     </row>
-    <row r="41" spans="1:8" ht="43.5">
+    <row r="41" spans="1:8" ht="45">
       <c r="A41" s="12">
         <v>45009</v>
       </c>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="H58" s="18"/>
     </row>
-    <row r="59" spans="1:8" ht="87">
+    <row r="59" spans="1:8" ht="90.6">
       <c r="A59" s="12">
         <v>44883</v>
       </c>
@@ -12479,7 +12479,7 @@
       </c>
       <c r="H59" s="18"/>
     </row>
-    <row r="60" spans="1:8" ht="71" customHeight="1">
+    <row r="60" spans="1:8" ht="70.95" customHeight="1">
       <c r="A60" s="12">
         <v>44876</v>
       </c>
@@ -12527,7 +12527,7 @@
       </c>
       <c r="H61" s="18"/>
     </row>
-    <row r="62" spans="1:8" ht="68.75" customHeight="1">
+    <row r="62" spans="1:8" ht="68.7" customHeight="1">
       <c r="A62" s="12">
         <v>44870</v>
       </c>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="H62" s="18"/>
     </row>
-    <row r="63" spans="1:8" ht="71" customHeight="1">
+    <row r="63" spans="1:8" ht="70.95" customHeight="1">
       <c r="A63" s="12">
         <v>44862</v>
       </c>
@@ -12575,7 +12575,7 @@
       </c>
       <c r="H63" s="18"/>
     </row>
-    <row r="64" spans="1:8" ht="74" customHeight="1">
+    <row r="64" spans="1:8" ht="73.95" customHeight="1">
       <c r="A64" s="12">
         <v>44855</v>
       </c>
@@ -12599,7 +12599,7 @@
       </c>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" spans="1:8" ht="73.25" customHeight="1">
+    <row r="65" spans="1:8" ht="73.2" customHeight="1">
       <c r="A65" s="12">
         <v>44848</v>
       </c>
@@ -12671,7 +12671,7 @@
       </c>
       <c r="H67" s="18"/>
     </row>
-    <row r="68" spans="1:8" ht="76.25" customHeight="1">
+    <row r="68" spans="1:8" ht="76.2" customHeight="1">
       <c r="A68" s="12">
         <v>44829</v>
       </c>
@@ -12695,7 +12695,7 @@
       </c>
       <c r="H68" s="18"/>
     </row>
-    <row r="69" spans="1:8" ht="77.75" customHeight="1">
+    <row r="69" spans="1:8" ht="77.7" customHeight="1">
       <c r="A69" s="12">
         <v>44822</v>
       </c>
@@ -12719,7 +12719,7 @@
       </c>
       <c r="H69" s="18"/>
     </row>
-    <row r="70" spans="1:8" ht="94.25" customHeight="1">
+    <row r="70" spans="1:8" ht="94.2" customHeight="1">
       <c r="A70" s="12">
         <v>44813</v>
       </c>
@@ -12743,7 +12743,7 @@
       </c>
       <c r="H70" s="18"/>
     </row>
-    <row r="71" spans="1:8" ht="135.5" customHeight="1">
+    <row r="71" spans="1:8" ht="135.44999999999999" customHeight="1">
       <c r="A71" s="12">
         <v>44808</v>
       </c>
@@ -13389,21 +13389,21 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56.81640625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="12.77734375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.77734375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" ht="15.6">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -13440,7 +13440,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="73.5" customHeight="1">
+    <row r="2" spans="1:23" ht="76.2" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>748</v>
       </c>
@@ -13448,10 +13448,10 @@
         <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>753</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>751</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="10"/>
@@ -13484,7 +13484,7 @@
         <v>747</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>749</v>
@@ -13621,7 +13621,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="58">
+    <row r="7" spans="1:23" ht="75">
       <c r="A7" s="9" t="s">
         <v>718</v>
       </c>
@@ -13658,7 +13658,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="59.5" customHeight="1">
+    <row r="8" spans="1:23" ht="59.55" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>716</v>
       </c>
@@ -13769,7 +13769,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="72.5" customHeight="1">
+    <row r="11" spans="1:23" ht="72.45" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>704</v>
       </c>
@@ -13806,7 +13806,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="59" customHeight="1">
+    <row r="12" spans="1:23" ht="58.95" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>699</v>
       </c>
@@ -13843,7 +13843,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="75.5" customHeight="1">
+    <row r="13" spans="1:23" ht="75.45" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>695</v>
       </c>
@@ -13880,7 +13880,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="43.5">
+    <row r="14" spans="1:23" ht="45.6">
       <c r="A14" s="9" t="s">
         <v>683</v>
       </c>
@@ -13917,7 +13917,7 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="58" customHeight="1">
+    <row r="15" spans="1:23" ht="58.05" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>682</v>
       </c>
@@ -13954,7 +13954,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="75.5" customHeight="1">
+    <row r="16" spans="1:23" ht="75.45" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>677</v>
       </c>
@@ -13991,7 +13991,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="75.5" customHeight="1">
+    <row r="17" spans="1:23" ht="75.45" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>673</v>
       </c>
@@ -14028,7 +14028,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="75.5" customHeight="1">
+    <row r="18" spans="1:23" ht="75.45" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>670</v>
       </c>
@@ -14065,7 +14065,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="75.5" customHeight="1">
+    <row r="19" spans="1:23" ht="75.45" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>668</v>
       </c>
@@ -14102,7 +14102,7 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="75.5" customHeight="1">
+    <row r="20" spans="1:23" ht="75.45" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>665</v>
       </c>
@@ -14139,7 +14139,7 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="58">
+    <row r="21" spans="1:23" ht="60">
       <c r="A21" s="9" t="s">
         <v>653</v>
       </c>
@@ -14176,7 +14176,7 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="75.5" customHeight="1">
+    <row r="22" spans="1:23" ht="75.45" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>649</v>
       </c>
@@ -14213,7 +14213,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="75.5" customHeight="1">
+    <row r="23" spans="1:23" ht="75.45" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>646</v>
       </c>
@@ -14250,7 +14250,7 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="75.5" customHeight="1">
+    <row r="24" spans="1:23" ht="75.45" customHeight="1">
       <c r="A24" s="9" t="s">
         <v>642</v>
       </c>
@@ -14287,7 +14287,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="75.5" customHeight="1">
+    <row r="25" spans="1:23" ht="75.45" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>639</v>
       </c>
@@ -14324,7 +14324,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="75.5" customHeight="1">
+    <row r="26" spans="1:23" ht="75.45" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>633</v>
       </c>
@@ -14361,7 +14361,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="75.5" customHeight="1">
+    <row r="27" spans="1:23" ht="75.45" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>631</v>
       </c>
@@ -14398,7 +14398,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="75.5" customHeight="1">
+    <row r="28" spans="1:23" ht="75.45" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>608</v>
       </c>
@@ -14435,7 +14435,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="75.5" customHeight="1">
+    <row r="29" spans="1:23" ht="75.45" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>601</v>
       </c>
@@ -14472,7 +14472,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="75.5" customHeight="1">
+    <row r="30" spans="1:23" ht="75.45" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>598</v>
       </c>
@@ -14509,7 +14509,7 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="75.5" customHeight="1">
+    <row r="31" spans="1:23" ht="75.45" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>591</v>
       </c>
@@ -14546,7 +14546,7 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="75.5" customHeight="1">
+    <row r="32" spans="1:23" ht="75.45" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>586</v>
       </c>
@@ -14583,7 +14583,7 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="75.5" customHeight="1">
+    <row r="33" spans="1:23" ht="75.45" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>583</v>
       </c>
@@ -14620,7 +14620,7 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="75.5" customHeight="1">
+    <row r="34" spans="1:23" ht="75.45" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>579</v>
       </c>
@@ -14657,7 +14657,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="75.5" customHeight="1">
+    <row r="35" spans="1:23" ht="75.45" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>570</v>
       </c>
@@ -14694,7 +14694,7 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="75.5" customHeight="1">
+    <row r="36" spans="1:23" ht="75.45" customHeight="1">
       <c r="A36" s="9" t="s">
         <v>568</v>
       </c>
@@ -14731,7 +14731,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="75.5" customHeight="1">
+    <row r="37" spans="1:23" ht="75.45" customHeight="1">
       <c r="A37" s="9" t="s">
         <v>567</v>
       </c>
@@ -14768,7 +14768,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="75.5" customHeight="1">
+    <row r="38" spans="1:23" ht="75.45" customHeight="1">
       <c r="A38" s="9" t="s">
         <v>558</v>
       </c>
@@ -14805,7 +14805,7 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="75.5" customHeight="1">
+    <row r="39" spans="1:23" ht="75.45" customHeight="1">
       <c r="A39" s="9" t="s">
         <v>556</v>
       </c>
@@ -14842,7 +14842,7 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="57.5" customHeight="1">
+    <row r="40" spans="1:23" ht="57.45" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>555</v>
       </c>
@@ -14879,7 +14879,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="75.5" customHeight="1">
+    <row r="41" spans="1:23" ht="75.45" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>546</v>
       </c>
@@ -14916,7 +14916,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="75.5" customHeight="1">
+    <row r="42" spans="1:23" ht="75.45" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>542</v>
       </c>
@@ -14953,7 +14953,7 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="74.5" customHeight="1">
+    <row r="43" spans="1:23" ht="74.55" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>538</v>
       </c>
@@ -14990,7 +14990,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="72.5">
+    <row r="44" spans="1:23" ht="75">
       <c r="A44" s="9" t="s">
         <v>536</v>
       </c>
@@ -15027,7 +15027,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="77" customHeight="1">
+    <row r="45" spans="1:23" ht="76.95" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>529</v>
       </c>
@@ -15064,7 +15064,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="72.5">
+    <row r="46" spans="1:23" ht="75">
       <c r="A46" s="9" t="s">
         <v>526</v>
       </c>
@@ -15101,7 +15101,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="62" customHeight="1">
+    <row r="47" spans="1:23" ht="61.95" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>525</v>
       </c>
@@ -15138,7 +15138,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="72.5">
+    <row r="48" spans="1:23" ht="75">
       <c r="A48" s="9" t="s">
         <v>516</v>
       </c>
@@ -15175,7 +15175,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="74.75" customHeight="1">
+    <row r="49" spans="1:23" ht="74.7" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>517</v>
       </c>
@@ -15212,7 +15212,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="74.75" customHeight="1">
+    <row r="50" spans="1:23" ht="74.7" customHeight="1">
       <c r="A50" s="9" t="s">
         <v>518</v>
       </c>
@@ -15249,7 +15249,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="74.75" customHeight="1">
+    <row r="51" spans="1:23" ht="74.7" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>519</v>
       </c>
@@ -15286,7 +15286,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="74.75" customHeight="1">
+    <row r="52" spans="1:23" ht="74.7" customHeight="1">
       <c r="A52" s="9" t="s">
         <v>520</v>
       </c>
@@ -15323,7 +15323,7 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="74.75" customHeight="1">
+    <row r="53" spans="1:23" ht="74.7" customHeight="1">
       <c r="A53" s="9" t="s">
         <v>492</v>
       </c>
@@ -15360,7 +15360,7 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="74.75" customHeight="1">
+    <row r="54" spans="1:23" ht="74.7" customHeight="1">
       <c r="A54" s="9" t="s">
         <v>493</v>
       </c>
@@ -15397,7 +15397,7 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="74.75" customHeight="1">
+    <row r="55" spans="1:23" ht="74.7" customHeight="1">
       <c r="A55" s="9" t="s">
         <v>494</v>
       </c>
@@ -15434,7 +15434,7 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="74.75" customHeight="1">
+    <row r="56" spans="1:23" ht="74.7" customHeight="1">
       <c r="A56" s="9" t="s">
         <v>495</v>
       </c>
@@ -15471,7 +15471,7 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="74.75" customHeight="1">
+    <row r="57" spans="1:23" ht="74.7" customHeight="1">
       <c r="A57" s="9" t="s">
         <v>496</v>
       </c>
@@ -15508,7 +15508,7 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="74.75" customHeight="1">
+    <row r="58" spans="1:23" ht="74.7" customHeight="1">
       <c r="A58" s="9" t="s">
         <v>497</v>
       </c>
@@ -15545,7 +15545,7 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="74.75" customHeight="1">
+    <row r="59" spans="1:23" ht="74.7" customHeight="1">
       <c r="A59" s="9" t="s">
         <v>498</v>
       </c>
@@ -15582,7 +15582,7 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="74.75" customHeight="1">
+    <row r="60" spans="1:23" ht="74.7" customHeight="1">
       <c r="A60" s="9" t="s">
         <v>499</v>
       </c>
@@ -15619,7 +15619,7 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" ht="74.75" customHeight="1">
+    <row r="61" spans="1:23" ht="74.7" customHeight="1">
       <c r="A61" s="9" t="s">
         <v>500</v>
       </c>
@@ -15656,7 +15656,7 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="74.75" customHeight="1">
+    <row r="62" spans="1:23" ht="74.7" customHeight="1">
       <c r="A62" s="9" t="s">
         <v>501</v>
       </c>
@@ -15693,7 +15693,7 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="74.75" customHeight="1">
+    <row r="63" spans="1:23" ht="74.7" customHeight="1">
       <c r="A63" s="9" t="s">
         <v>502</v>
       </c>
@@ -15730,7 +15730,7 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" ht="74.75" customHeight="1">
+    <row r="64" spans="1:23" ht="74.7" customHeight="1">
       <c r="A64" s="9" t="s">
         <v>503</v>
       </c>
@@ -15767,7 +15767,7 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" ht="74.75" customHeight="1">
+    <row r="65" spans="1:23" ht="74.7" customHeight="1">
       <c r="A65" s="9" t="s">
         <v>504</v>
       </c>
@@ -15804,7 +15804,7 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="74.75" customHeight="1">
+    <row r="66" spans="1:23" ht="74.7" customHeight="1">
       <c r="A66" s="9" t="s">
         <v>505</v>
       </c>
@@ -15841,7 +15841,7 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" ht="74.75" customHeight="1">
+    <row r="67" spans="1:23" ht="74.7" customHeight="1">
       <c r="A67" s="9" t="s">
         <v>506</v>
       </c>
@@ -15878,7 +15878,7 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" ht="74.75" customHeight="1">
+    <row r="68" spans="1:23" ht="74.7" customHeight="1">
       <c r="A68" s="9" t="s">
         <v>507</v>
       </c>
@@ -15915,7 +15915,7 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" ht="74.75" customHeight="1">
+    <row r="69" spans="1:23" ht="74.7" customHeight="1">
       <c r="A69" s="9" t="s">
         <v>508</v>
       </c>
@@ -15952,7 +15952,7 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" ht="74.75" customHeight="1">
+    <row r="70" spans="1:23" ht="74.7" customHeight="1">
       <c r="A70" s="9" t="s">
         <v>509</v>
       </c>
@@ -15989,7 +15989,7 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" ht="74.75" customHeight="1">
+    <row r="71" spans="1:23" ht="74.7" customHeight="1">
       <c r="A71" s="9" t="s">
         <v>510</v>
       </c>
@@ -16026,7 +16026,7 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" ht="72.5">
+    <row r="72" spans="1:23" ht="75.599999999999994">
       <c r="A72" s="9" t="s">
         <v>511</v>
       </c>
@@ -16063,7 +16063,7 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" ht="72.5">
+    <row r="73" spans="1:23" ht="75">
       <c r="A73" s="9" t="s">
         <v>512</v>
       </c>
@@ -16100,7 +16100,7 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" ht="72.5">
+    <row r="74" spans="1:23" ht="75">
       <c r="A74" s="9" t="s">
         <v>513</v>
       </c>
@@ -16137,7 +16137,7 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" ht="72.5">
+    <row r="75" spans="1:23" ht="90">
       <c r="A75" s="9" t="s">
         <v>514</v>
       </c>
@@ -16174,7 +16174,7 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="72.5">
+    <row r="76" spans="1:23" ht="75">
       <c r="A76" s="9" t="s">
         <v>515</v>
       </c>
@@ -16211,7 +16211,7 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" ht="87">
+    <row r="77" spans="1:23" ht="105">
       <c r="A77" s="9" t="s">
         <v>491</v>
       </c>
@@ -16248,7 +16248,7 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" ht="87">
+    <row r="78" spans="1:23" ht="90">
       <c r="A78" s="9" t="s">
         <v>443</v>
       </c>
@@ -16322,7 +16322,7 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" ht="72.5">
+    <row r="80" spans="1:23" ht="75">
       <c r="A80" s="9" t="s">
         <v>445</v>
       </c>
@@ -16359,7 +16359,7 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="72.5">
+    <row r="81" spans="1:23" ht="75">
       <c r="A81" s="9" t="s">
         <v>446</v>
       </c>
@@ -16396,7 +16396,7 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" ht="72.5">
+    <row r="82" spans="1:23" ht="75">
       <c r="A82" s="9" t="s">
         <v>447</v>
       </c>
@@ -16433,7 +16433,7 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" ht="87">
+    <row r="83" spans="1:23" ht="90">
       <c r="A83" s="9" t="s">
         <v>448</v>
       </c>
@@ -16470,7 +16470,7 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="58">
+    <row r="84" spans="1:23" ht="60">
       <c r="A84" s="9" t="s">
         <v>449</v>
       </c>
@@ -16507,7 +16507,7 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" ht="58">
+    <row r="85" spans="1:23" ht="60">
       <c r="A85" s="9" t="s">
         <v>450</v>
       </c>
@@ -16544,7 +16544,7 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" ht="43.5">
+    <row r="86" spans="1:23" ht="45">
       <c r="A86" s="9" t="s">
         <v>451</v>
       </c>
@@ -16581,7 +16581,7 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" ht="76.25" customHeight="1">
+    <row r="87" spans="1:23" ht="76.2" customHeight="1">
       <c r="A87" s="9" t="s">
         <v>452</v>
       </c>
@@ -16618,7 +16618,7 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" ht="76.25" customHeight="1">
+    <row r="88" spans="1:23" ht="76.2" customHeight="1">
       <c r="A88" s="9" t="s">
         <v>453</v>
       </c>
@@ -16655,7 +16655,7 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" ht="76.25" customHeight="1">
+    <row r="89" spans="1:23" ht="76.2" customHeight="1">
       <c r="A89" s="9" t="s">
         <v>454</v>
       </c>
@@ -16692,7 +16692,7 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" ht="59" customHeight="1">
+    <row r="90" spans="1:23" ht="58.95" customHeight="1">
       <c r="A90" s="9" t="s">
         <v>455</v>
       </c>
@@ -16766,7 +16766,7 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" ht="59" customHeight="1">
+    <row r="92" spans="1:23" ht="58.95" customHeight="1">
       <c r="A92" s="9" t="s">
         <v>457</v>
       </c>
@@ -16803,7 +16803,7 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" ht="59" customHeight="1">
+    <row r="93" spans="1:23" ht="58.95" customHeight="1">
       <c r="A93" s="9" t="s">
         <v>458</v>
       </c>
@@ -16840,7 +16840,7 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" ht="59" customHeight="1">
+    <row r="94" spans="1:23" ht="58.95" customHeight="1">
       <c r="A94" s="9" t="s">
         <v>459</v>
       </c>
@@ -16877,7 +16877,7 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" ht="59" customHeight="1">
+    <row r="95" spans="1:23" ht="58.95" customHeight="1">
       <c r="A95" s="9" t="s">
         <v>460</v>
       </c>
@@ -16914,7 +16914,7 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" ht="59" customHeight="1">
+    <row r="96" spans="1:23" ht="58.95" customHeight="1">
       <c r="A96" s="9" t="s">
         <v>461</v>
       </c>
@@ -16951,7 +16951,7 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" ht="59" customHeight="1">
+    <row r="97" spans="1:23" ht="58.95" customHeight="1">
       <c r="A97" s="9" t="s">
         <v>462</v>
       </c>
@@ -16988,7 +16988,7 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" ht="29">
+    <row r="98" spans="1:23" ht="45">
       <c r="A98" s="9" t="s">
         <v>463</v>
       </c>
@@ -17136,7 +17136,7 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" ht="32" customHeight="1">
+    <row r="102" spans="1:23" ht="31.95" customHeight="1">
       <c r="A102" s="9" t="s">
         <v>467</v>
       </c>
@@ -17173,7 +17173,7 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" ht="29">
+    <row r="103" spans="1:23" ht="30">
       <c r="A103" s="9" t="s">
         <v>468</v>
       </c>
@@ -17210,7 +17210,7 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" ht="29">
+    <row r="104" spans="1:23" ht="30">
       <c r="A104" s="9" t="s">
         <v>469</v>
       </c>
@@ -17247,7 +17247,7 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" ht="29">
+    <row r="105" spans="1:23" ht="30">
       <c r="A105" s="9" t="s">
         <v>470</v>
       </c>
@@ -17284,7 +17284,7 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" ht="29">
+    <row r="106" spans="1:23" ht="30">
       <c r="A106" s="9" t="s">
         <v>471</v>
       </c>
@@ -17321,7 +17321,7 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="1:23" ht="43.5">
+    <row r="107" spans="1:23" ht="45">
       <c r="A107" s="9" t="s">
         <v>472</v>
       </c>
@@ -17395,7 +17395,7 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" ht="29">
+    <row r="109" spans="1:23" ht="30">
       <c r="A109" s="9" t="s">
         <v>474</v>
       </c>
@@ -17430,7 +17430,7 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" ht="29">
+    <row r="110" spans="1:23" ht="30">
       <c r="A110" s="9" t="s">
         <v>475</v>
       </c>
@@ -17465,7 +17465,7 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" ht="29">
+    <row r="111" spans="1:23" ht="30">
       <c r="A111" s="9" t="s">
         <v>476</v>
       </c>
@@ -17500,7 +17500,7 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" ht="29">
+    <row r="112" spans="1:23" ht="30">
       <c r="A112" s="9" t="s">
         <v>477</v>
       </c>
@@ -17535,7 +17535,7 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" ht="29">
+    <row r="113" spans="1:23" ht="30">
       <c r="A113" s="9" t="s">
         <v>478</v>
       </c>
@@ -17570,7 +17570,7 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" ht="29">
+    <row r="114" spans="1:23" ht="30">
       <c r="A114" s="9" t="s">
         <v>479</v>
       </c>
@@ -17605,7 +17605,7 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" ht="29">
+    <row r="115" spans="1:23" ht="30">
       <c r="A115" s="9" t="s">
         <v>480</v>
       </c>
@@ -17640,7 +17640,7 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" ht="29">
+    <row r="116" spans="1:23" ht="30">
       <c r="A116" s="9" t="s">
         <v>481</v>
       </c>
@@ -17673,7 +17673,7 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" ht="29">
+    <row r="117" spans="1:23" ht="30">
       <c r="A117" s="9" t="s">
         <v>482</v>
       </c>
@@ -17708,7 +17708,7 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" ht="29">
+    <row r="118" spans="1:23" ht="30">
       <c r="A118" s="9" t="s">
         <v>483</v>
       </c>
@@ -17743,7 +17743,7 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" ht="43.5">
+    <row r="119" spans="1:23" ht="45">
       <c r="A119" s="9" t="s">
         <v>484</v>
       </c>
@@ -17778,7 +17778,7 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" ht="43.5">
+    <row r="120" spans="1:23" ht="45">
       <c r="A120" s="9" t="s">
         <v>485</v>
       </c>
@@ -17813,7 +17813,7 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
-    <row r="121" spans="1:23" ht="58">
+    <row r="121" spans="1:23" ht="60">
       <c r="A121" s="9" t="s">
         <v>486</v>
       </c>
@@ -17848,7 +17848,7 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="1:23" ht="43.5">
+    <row r="122" spans="1:23" ht="45">
       <c r="A122" s="9" t="s">
         <v>487</v>
       </c>
@@ -17883,7 +17883,7 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="1:23" ht="43.5">
+    <row r="123" spans="1:23" ht="45">
       <c r="A123" s="9" t="s">
         <v>488</v>
       </c>
@@ -17918,7 +17918,7 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" spans="1:23" ht="72.5">
+    <row r="124" spans="1:23" ht="75">
       <c r="A124" s="9" t="s">
         <v>489</v>
       </c>
@@ -17953,7 +17953,7 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" spans="1:23" ht="58">
+    <row r="125" spans="1:23" ht="60">
       <c r="A125" s="9" t="s">
         <v>490</v>
       </c>
@@ -20319,16 +20319,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -20370,18 +20370,18 @@
       <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="95.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="95.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15.6">
       <c r="A1" s="19" t="s">
         <v>222</v>
       </c>
@@ -20401,7 +20401,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72.5">
+    <row r="2" spans="1:6" ht="90">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.5">
+    <row r="3" spans="1:6" ht="45">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -20441,7 +20441,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.5">
+    <row r="4" spans="1:6" ht="45">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -20461,7 +20461,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.5">
+    <row r="5" spans="1:6" ht="45">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -20481,7 +20481,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.5">
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -20501,7 +20501,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.5">
+    <row r="7" spans="1:6" ht="45">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
@@ -20521,7 +20521,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.5">
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -20561,7 +20561,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="29">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -20581,7 +20581,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="58">
+    <row r="11" spans="1:6" ht="60">
       <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
@@ -20601,7 +20601,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29">
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="29">
+    <row r="13" spans="1:6" ht="30">
       <c r="A13" s="13" t="s">
         <v>7</v>
       </c>
@@ -20663,15 +20663,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.81640625" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5">
+    <row r="1" spans="1:6" ht="15.6">
       <c r="A1" s="24" t="s">
         <v>617</v>
       </c>
@@ -20683,7 +20683,7 @@
       <c r="E1" s="37"/>
       <c r="F1" s="38"/>
     </row>
-    <row r="2" spans="1:6" ht="14.5">
+    <row r="2" spans="1:6" ht="15.6">
       <c r="A2" s="28" t="s">
         <v>618</v>
       </c>
@@ -20703,7 +20703,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.5">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="31" t="s">
         <v>625</v>
       </c>
@@ -20719,7 +20719,7 @@
       <c r="E3" s="33"/>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="1:6" ht="14.5">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="31" t="s">
         <v>626</v>
       </c>
@@ -20735,7 +20735,7 @@
       <c r="E4" s="33"/>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:6" ht="29">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="31" t="s">
         <v>629</v>
       </c>
@@ -20751,7 +20751,7 @@
       <c r="E5" s="33"/>
       <c r="F5" s="23"/>
     </row>
-    <row r="6" spans="1:6" ht="29">
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="31" t="s">
         <v>658</v>
       </c>
@@ -20767,7 +20767,7 @@
       <c r="E6" s="33"/>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:6" ht="14.5">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="31"/>
       <c r="B7" s="23"/>
       <c r="C7" s="32"/>
@@ -20775,7 +20775,7 @@
       <c r="E7" s="33"/>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="1:6" ht="14.5">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="31"/>
       <c r="B8" s="23"/>
       <c r="C8" s="32"/>
@@ -20783,7 +20783,7 @@
       <c r="E8" s="33"/>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:6" ht="14.5">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="31"/>
       <c r="B9" s="23"/>
       <c r="C9" s="32"/>
@@ -20791,7 +20791,7 @@
       <c r="E9" s="33"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:6" ht="14.5">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="31"/>
       <c r="B10" s="23"/>
       <c r="C10" s="32"/>
@@ -20805,16 +20805,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Resource\git-doc\docs\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CC85C7-CB7D-4A6F-A2C5-155181DE359F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82890199-A916-4AE1-AF71-D419181DD041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="758">
   <si>
     <t>汇报日期</t>
   </si>
@@ -4912,10 +4912,38 @@
   </si>
   <si>
     <t>1.完成。07:26计划，23:40日报
-2.完成。20:00~23:00，3小时
-3.完成。09:30~12:54，1题(复习148和142)
+2.完成。20:00~23:00，3小时，直播
+3.完成。09:30~12:54，1题(复习148，142)
 4.完成。14:30~18:50，视频5, 00:17:21
 5.完成。74.3kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Leetcode：复习148. 排序链表（中等），复习142. 环形链表 II（中等）。
+2. 技术：架构设计实战，《亿级流量多级缓存分布式课程》看到视频5，00:17:21。
+   1. 虚拟DOM的优缺点。页面加载优化，懒加载和预加载，动静分离，静态数据缓存，客户端数据库，特殊元素分离。
+3. 英语：复习昨天直播课中学到的知识。晚上英语直播，学习英语语法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报睡觉
+2.英语：2小时，学习
+3.leetcode：1题(非必须)
+4.技术：设计视频7，提交git
+5.体重减到74.0kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-29
+星期六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:26计划，23:40日报
+2.完成。20:00~23:00，3小时，直播
+3.完成。09:30~12:54，1题(复习148，142)
+4.完成。14:30~18:50，视频5, 00:17:21
+5.完成。74.0kg。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5254,7 +5282,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="496">
+  <dxfs count="500">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -10785,19 +10855,19 @@
       <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5546875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="11.81640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="61.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.54296875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.6">
+    <row r="1" spans="1:24">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -12003,7 +12073,7 @@
       </c>
       <c r="H39" s="18"/>
     </row>
-    <row r="40" spans="1:8" ht="45">
+    <row r="40" spans="1:8" ht="43.5">
       <c r="A40" s="12">
         <v>45009</v>
       </c>
@@ -12025,7 +12095,7 @@
       <c r="G40" s="15"/>
       <c r="H40" s="18"/>
     </row>
-    <row r="41" spans="1:8" ht="45">
+    <row r="41" spans="1:8" ht="43.5">
       <c r="A41" s="12">
         <v>45009</v>
       </c>
@@ -12455,7 +12525,7 @@
       </c>
       <c r="H58" s="18"/>
     </row>
-    <row r="59" spans="1:8" ht="90.6">
+    <row r="59" spans="1:8" ht="87">
       <c r="A59" s="12">
         <v>44883</v>
       </c>
@@ -12479,7 +12549,7 @@
       </c>
       <c r="H59" s="18"/>
     </row>
-    <row r="60" spans="1:8" ht="70.95" customHeight="1">
+    <row r="60" spans="1:8" ht="71" customHeight="1">
       <c r="A60" s="12">
         <v>44876</v>
       </c>
@@ -12527,7 +12597,7 @@
       </c>
       <c r="H61" s="18"/>
     </row>
-    <row r="62" spans="1:8" ht="68.7" customHeight="1">
+    <row r="62" spans="1:8" ht="68.75" customHeight="1">
       <c r="A62" s="12">
         <v>44870</v>
       </c>
@@ -12551,7 +12621,7 @@
       </c>
       <c r="H62" s="18"/>
     </row>
-    <row r="63" spans="1:8" ht="70.95" customHeight="1">
+    <row r="63" spans="1:8" ht="71" customHeight="1">
       <c r="A63" s="12">
         <v>44862</v>
       </c>
@@ -12575,7 +12645,7 @@
       </c>
       <c r="H63" s="18"/>
     </row>
-    <row r="64" spans="1:8" ht="73.95" customHeight="1">
+    <row r="64" spans="1:8" ht="74" customHeight="1">
       <c r="A64" s="12">
         <v>44855</v>
       </c>
@@ -12599,7 +12669,7 @@
       </c>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" spans="1:8" ht="73.2" customHeight="1">
+    <row r="65" spans="1:8" ht="73.25" customHeight="1">
       <c r="A65" s="12">
         <v>44848</v>
       </c>
@@ -12671,7 +12741,7 @@
       </c>
       <c r="H67" s="18"/>
     </row>
-    <row r="68" spans="1:8" ht="76.2" customHeight="1">
+    <row r="68" spans="1:8" ht="76.25" customHeight="1">
       <c r="A68" s="12">
         <v>44829</v>
       </c>
@@ -12695,7 +12765,7 @@
       </c>
       <c r="H68" s="18"/>
     </row>
-    <row r="69" spans="1:8" ht="77.7" customHeight="1">
+    <row r="69" spans="1:8" ht="77.75" customHeight="1">
       <c r="A69" s="12">
         <v>44822</v>
       </c>
@@ -12719,7 +12789,7 @@
       </c>
       <c r="H69" s="18"/>
     </row>
-    <row r="70" spans="1:8" ht="94.2" customHeight="1">
+    <row r="70" spans="1:8" ht="94.25" customHeight="1">
       <c r="A70" s="12">
         <v>44813</v>
       </c>
@@ -12743,7 +12813,7 @@
       </c>
       <c r="H70" s="18"/>
     </row>
-    <row r="71" spans="1:8" ht="135.44999999999999" customHeight="1">
+    <row r="71" spans="1:8" ht="135.5" customHeight="1">
       <c r="A71" s="12">
         <v>44808</v>
       </c>
@@ -12771,16 +12841,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B72:B1048576 B16:B61 B1">
-    <cfRule type="cellIs" dxfId="495" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="131" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="132" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="133" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="135" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="136">
@@ -12795,16 +12865,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="491" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="127" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="129" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="130">
@@ -12819,16 +12889,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="487" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="122" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="123" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="125">
@@ -12843,16 +12913,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="483" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="117" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="118" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="119" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="120">
@@ -12867,16 +12937,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="479" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="112" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="113" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="114" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="115">
@@ -12891,16 +12961,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="475" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="106" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="107" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="108" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="109" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -12915,16 +12985,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="471" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="101" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="102" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="103" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="104" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -12939,16 +13009,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="467" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="97" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="98" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="99" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -12963,16 +13033,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="463" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="94" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="95">
@@ -12987,16 +13057,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="459" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="86" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="87" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="88" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="89" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -13011,16 +13081,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="455" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -13035,16 +13105,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="451" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -13059,16 +13129,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="447" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -13083,16 +13153,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="443" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -13107,16 +13177,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="439" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -13131,16 +13201,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="435" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -13155,16 +13225,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="431" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -13179,16 +13249,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="427" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -13203,16 +13273,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="423" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -13227,16 +13297,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="419" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -13251,16 +13321,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="415" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -13275,16 +13345,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="411" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -13299,16 +13369,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="407" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -13323,16 +13393,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="403" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -13347,16 +13417,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="399" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -13383,27 +13453,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W125"/>
+  <dimension ref="A1:W126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56.77734375" style="25" customWidth="1"/>
-    <col min="6" max="6" width="6.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="12.81640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.81640625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.6">
+    <row r="1" spans="1:23">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -13440,21 +13510,25 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="76.2" customHeight="1">
+    <row r="2" spans="1:23" ht="76.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="10"/>
+        <v>757</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -13473,21 +13547,21 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="73.5" customHeight="1">
+    <row r="3" spans="1:23" ht="76.25" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>134</v>
@@ -13512,19 +13586,19 @@
     </row>
     <row r="4" spans="1:23" ht="73.5" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>134</v>
@@ -13549,19 +13623,19 @@
     </row>
     <row r="5" spans="1:23" ht="73.5" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>134</v>
@@ -13586,19 +13660,19 @@
     </row>
     <row r="6" spans="1:23" ht="73.5" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>134</v>
@@ -13621,21 +13695,21 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="75">
+    <row r="7" spans="1:23" ht="73.5" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>134</v>
@@ -13658,21 +13732,21 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="59.55" customHeight="1">
+    <row r="8" spans="1:23" ht="58">
       <c r="A8" s="9" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>134</v>
@@ -13695,24 +13769,24 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="73.5" customHeight="1">
+    <row r="9" spans="1:23" ht="59.5" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -13734,22 +13808,22 @@
     </row>
     <row r="10" spans="1:23" ht="73.5" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -13769,21 +13843,21 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="72.45" customHeight="1">
+    <row r="11" spans="1:23" ht="73.5" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>134</v>
@@ -13806,21 +13880,21 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="58.95" customHeight="1">
+    <row r="12" spans="1:23" ht="72.5" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>134</v>
@@ -13843,21 +13917,21 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="75.45" customHeight="1">
+    <row r="13" spans="1:23" ht="59" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>134</v>
@@ -13880,21 +13954,21 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="45.6">
+    <row r="14" spans="1:23" ht="75.5" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>134</v>
@@ -13917,21 +13991,21 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="58.05" customHeight="1">
+    <row r="15" spans="1:23" ht="43.5">
       <c r="A15" s="9" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>134</v>
@@ -13954,21 +14028,21 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="75.45" customHeight="1">
+    <row r="16" spans="1:23" ht="58" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>134</v>
@@ -13991,21 +14065,21 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="75.45" customHeight="1">
+    <row r="17" spans="1:23" ht="75.5" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>134</v>
@@ -14028,21 +14102,21 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="75.45" customHeight="1">
+    <row r="18" spans="1:23" ht="75.5" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>134</v>
@@ -14065,21 +14139,21 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="75.45" customHeight="1">
+    <row r="19" spans="1:23" ht="75.5" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>134</v>
@@ -14102,18 +14176,18 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="75.45" customHeight="1">
+    <row r="20" spans="1:23" ht="75.5" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>667</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>669</v>
@@ -14139,21 +14213,21 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="60">
+    <row r="21" spans="1:23" ht="75.5" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>134</v>
@@ -14176,21 +14250,21 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="75.45" customHeight="1">
+    <row r="22" spans="1:23" ht="58">
       <c r="A22" s="9" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>134</v>
@@ -14213,21 +14287,21 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="75.45" customHeight="1">
+    <row r="23" spans="1:23" ht="75.5" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>134</v>
@@ -14250,21 +14324,21 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="75.45" customHeight="1">
+    <row r="24" spans="1:23" ht="75.5" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>134</v>
@@ -14287,21 +14361,21 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="75.45" customHeight="1">
+    <row r="25" spans="1:23" ht="75.5" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>134</v>
@@ -14324,21 +14398,21 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="75.45" customHeight="1">
+    <row r="26" spans="1:23" ht="75.5" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>134</v>
@@ -14361,21 +14435,21 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="75.45" customHeight="1">
+    <row r="27" spans="1:23" ht="75.5" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>134</v>
@@ -14398,24 +14472,24 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="75.45" customHeight="1">
+    <row r="28" spans="1:23" ht="75.5" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -14435,24 +14509,24 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="75.45" customHeight="1">
+    <row r="29" spans="1:23" ht="75.5" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -14472,21 +14546,21 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="75.45" customHeight="1">
+    <row r="30" spans="1:23" ht="75.5" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>134</v>
@@ -14509,21 +14583,21 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="75.45" customHeight="1">
+    <row r="31" spans="1:23" ht="75.5" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>134</v>
@@ -14546,21 +14620,21 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="75.45" customHeight="1">
+    <row r="32" spans="1:23" ht="75.5" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>134</v>
@@ -14583,21 +14657,21 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="75.45" customHeight="1">
+    <row r="33" spans="1:23" ht="75.5" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>134</v>
@@ -14620,21 +14694,21 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="75.45" customHeight="1">
+    <row r="34" spans="1:23" ht="75.5" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>134</v>
@@ -14657,21 +14731,21 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="75.45" customHeight="1">
+    <row r="35" spans="1:23" ht="75.5" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>134</v>
@@ -14694,21 +14768,21 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="75.45" customHeight="1">
+    <row r="36" spans="1:23" ht="75.5" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>684</v>
+        <v>578</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>134</v>
@@ -14731,21 +14805,21 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="75.45" customHeight="1">
+    <row r="37" spans="1:23" ht="75.5" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>571</v>
+        <v>684</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>134</v>
@@ -14768,21 +14842,21 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="75.45" customHeight="1">
+    <row r="38" spans="1:23" ht="75.5" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>134</v>
@@ -14805,21 +14879,21 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="75.45" customHeight="1">
+    <row r="39" spans="1:23" ht="75.5" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>134</v>
@@ -14842,21 +14916,21 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="57.45" customHeight="1">
+    <row r="40" spans="1:23" ht="75.5" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>134</v>
@@ -14879,21 +14953,21 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="75.45" customHeight="1">
+    <row r="41" spans="1:23" ht="57.5" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>134</v>
@@ -14916,21 +14990,21 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="75.45" customHeight="1">
+    <row r="42" spans="1:23" ht="75.5" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>134</v>
@@ -14953,21 +15027,21 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="74.55" customHeight="1">
+    <row r="43" spans="1:23" ht="75.5" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>134</v>
@@ -14990,21 +15064,21 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="75">
+    <row r="44" spans="1:23" ht="74.5" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>134</v>
@@ -15027,21 +15101,21 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="76.95" customHeight="1">
+    <row r="45" spans="1:23" ht="72.5">
       <c r="A45" s="9" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>134</v>
@@ -15064,21 +15138,21 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="75">
+    <row r="46" spans="1:23" ht="77" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>134</v>
@@ -15101,24 +15175,24 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="61.95" customHeight="1">
+    <row r="47" spans="1:23" ht="72.5">
       <c r="A47" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>441</v>
+        <v>527</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -15138,21 +15212,21 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="75">
+    <row r="48" spans="1:23" ht="62" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>436</v>
+        <v>523</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>133</v>
@@ -15175,24 +15249,24 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="74.7" customHeight="1">
+    <row r="49" spans="1:23" ht="72.5">
       <c r="A49" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -15212,21 +15286,21 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="74.7" customHeight="1">
+    <row r="50" spans="1:23" ht="74.75" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>134</v>
@@ -15249,24 +15323,24 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="74.7" customHeight="1">
+    <row r="51" spans="1:23" ht="74.75" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -15286,24 +15360,24 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="74.7" customHeight="1">
+    <row r="52" spans="1:23" ht="74.75" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -15323,24 +15397,24 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="74.7" customHeight="1">
+    <row r="53" spans="1:23" ht="74.75" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>413</v>
+        <v>134</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -15360,24 +15434,24 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="74.7" customHeight="1">
+    <row r="54" spans="1:23" ht="74.75" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -15397,21 +15471,21 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="74.7" customHeight="1">
+    <row r="55" spans="1:23" ht="74.75" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>134</v>
@@ -15434,21 +15508,21 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="74.7" customHeight="1">
+    <row r="56" spans="1:23" ht="74.75" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>134</v>
@@ -15471,21 +15545,21 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="74.7" customHeight="1">
+    <row r="57" spans="1:23" ht="74.75" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>134</v>
@@ -15508,21 +15582,21 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="74.7" customHeight="1">
+    <row r="58" spans="1:23" ht="74.75" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>134</v>
@@ -15545,21 +15619,21 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="74.7" customHeight="1">
+    <row r="59" spans="1:23" ht="74.75" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>575</v>
+        <v>398</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>134</v>
@@ -15582,21 +15656,21 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="74.7" customHeight="1">
+    <row r="60" spans="1:23" ht="74.75" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>386</v>
+        <v>575</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>134</v>
@@ -15619,21 +15693,21 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" ht="74.7" customHeight="1">
+    <row r="61" spans="1:23" ht="74.75" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>134</v>
@@ -15656,21 +15730,21 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="74.7" customHeight="1">
+    <row r="62" spans="1:23" ht="74.75" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>134</v>
@@ -15693,21 +15767,21 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="74.7" customHeight="1">
+    <row r="63" spans="1:23" ht="74.75" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>134</v>
@@ -15730,24 +15804,24 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" ht="74.7" customHeight="1">
+    <row r="64" spans="1:23" ht="74.75" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -15767,24 +15841,24 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" ht="74.7" customHeight="1">
+    <row r="65" spans="1:23" ht="74.75" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -15804,21 +15878,21 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="74.7" customHeight="1">
+    <row r="66" spans="1:23" ht="74.75" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>362</v>
+        <v>371</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>369</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>134</v>
@@ -15841,21 +15915,21 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" ht="74.7" customHeight="1">
+    <row r="67" spans="1:23" ht="74.75" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>134</v>
@@ -15878,24 +15952,24 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" ht="74.7" customHeight="1">
+    <row r="68" spans="1:23" ht="74.75" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -15915,24 +15989,24 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" ht="74.7" customHeight="1">
+    <row r="69" spans="1:23" ht="74.75" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -15952,21 +16026,21 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" ht="74.7" customHeight="1">
+    <row r="70" spans="1:23" ht="74.75" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>134</v>
@@ -15989,21 +16063,21 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" ht="74.7" customHeight="1">
+    <row r="71" spans="1:23" ht="74.75" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>134</v>
@@ -16026,24 +16100,24 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" ht="75.599999999999994">
+    <row r="72" spans="1:23" ht="74.75" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -16063,24 +16137,24 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" ht="75">
+    <row r="73" spans="1:23" ht="72.5">
       <c r="A73" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -16100,21 +16174,21 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" ht="75">
+    <row r="74" spans="1:23" ht="72.5">
       <c r="A74" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>134</v>
@@ -16137,21 +16211,21 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" ht="90">
+    <row r="75" spans="1:23" ht="72.5">
       <c r="A75" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>134</v>
@@ -16174,21 +16248,21 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="75">
+    <row r="76" spans="1:23" ht="72.5">
       <c r="A76" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>134</v>
@@ -16211,21 +16285,21 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" ht="105">
+    <row r="77" spans="1:23" ht="72.5">
       <c r="A77" s="9" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>134</v>
@@ -16248,21 +16322,21 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" ht="90">
+    <row r="78" spans="1:23" ht="87">
       <c r="A78" s="9" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>134</v>
@@ -16285,21 +16359,21 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" ht="73.5" customHeight="1">
+    <row r="79" spans="1:23" ht="87">
       <c r="A79" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>134</v>
@@ -16322,24 +16396,24 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" ht="75">
+    <row r="80" spans="1:23" ht="73.5" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -16359,21 +16433,21 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="75">
+    <row r="81" spans="1:23" ht="72.5">
       <c r="A81" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>133</v>
@@ -16396,24 +16470,24 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" ht="75">
+    <row r="82" spans="1:23" ht="72.5">
       <c r="A82" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -16433,21 +16507,21 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" ht="90">
+    <row r="83" spans="1:23" ht="72.5">
       <c r="A83" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>134</v>
@@ -16470,21 +16544,21 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="60">
+    <row r="84" spans="1:23" ht="87">
       <c r="A84" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>134</v>
@@ -16507,21 +16581,21 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" ht="60">
+    <row r="85" spans="1:23" ht="58">
       <c r="A85" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>134</v>
@@ -16544,24 +16618,24 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" ht="45">
+    <row r="86" spans="1:23" ht="58">
       <c r="A86" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -16581,24 +16655,24 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" ht="76.2" customHeight="1">
+    <row r="87" spans="1:23" ht="43.5">
       <c r="A87" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -16618,21 +16692,21 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" ht="76.2" customHeight="1">
+    <row r="88" spans="1:23" ht="76.25" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>134</v>
@@ -16655,21 +16729,21 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" ht="76.2" customHeight="1">
+    <row r="89" spans="1:23" ht="76.25" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>134</v>
@@ -16692,21 +16766,21 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" ht="58.95" customHeight="1">
+    <row r="90" spans="1:23" ht="76.25" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>134</v>
@@ -16729,21 +16803,21 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" ht="33" customHeight="1">
+    <row r="91" spans="1:23" ht="59" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>134</v>
@@ -16766,24 +16840,24 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" ht="58.95" customHeight="1">
+    <row r="92" spans="1:23" ht="33" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -16803,24 +16877,24 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" ht="58.95" customHeight="1">
+    <row r="93" spans="1:23" ht="59" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -16840,21 +16914,21 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" ht="58.95" customHeight="1">
+    <row r="94" spans="1:23" ht="59" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>134</v>
@@ -16877,21 +16951,21 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" ht="58.95" customHeight="1">
+    <row r="95" spans="1:23" ht="59" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>134</v>
@@ -16914,21 +16988,21 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" ht="58.95" customHeight="1">
+    <row r="96" spans="1:23" ht="59" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>134</v>
@@ -16951,21 +17025,21 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" ht="58.95" customHeight="1">
+    <row r="97" spans="1:23" ht="59" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>134</v>
@@ -16988,21 +17062,21 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" ht="45">
+    <row r="98" spans="1:23" ht="59" customHeight="1">
       <c r="A98" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>134</v>
@@ -17025,21 +17099,21 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" ht="42.75" customHeight="1">
+    <row r="99" spans="1:23" ht="29">
       <c r="A99" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>134</v>
@@ -17064,19 +17138,19 @@
     </row>
     <row r="100" spans="1:23" ht="42.75" customHeight="1">
       <c r="A100" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>134</v>
@@ -17101,19 +17175,19 @@
     </row>
     <row r="101" spans="1:23" ht="42.75" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>134</v>
@@ -17136,21 +17210,21 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" ht="31.95" customHeight="1">
+    <row r="102" spans="1:23" ht="42.75" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B102" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>134</v>
@@ -17173,9 +17247,9 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" ht="30">
+    <row r="103" spans="1:23" ht="32" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>9</v>
@@ -17187,7 +17261,7 @@
         <v>140</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>134</v>
@@ -17210,24 +17284,24 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" ht="30">
+    <row r="104" spans="1:23" ht="29">
       <c r="A104" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -17247,23 +17321,23 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" ht="30">
+    <row r="105" spans="1:23" ht="29">
       <c r="A105" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C105" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D105" s="13" t="s">
+      <c r="C105" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E105" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F105" s="14" t="s">
+      <c r="E105" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F105" s="10" t="s">
         <v>133</v>
       </c>
       <c r="G105" s="1"/>
@@ -17284,23 +17358,23 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" ht="30">
+    <row r="106" spans="1:23" ht="29">
       <c r="A106" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E106" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F106" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F106" s="14" t="s">
         <v>133</v>
       </c>
       <c r="G106" s="1"/>
@@ -17321,24 +17395,24 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="1:23" ht="45">
+    <row r="107" spans="1:23" ht="29">
       <c r="A107" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>134</v>
+        <v>149</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -17358,9 +17432,9 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="1:23" ht="42.75" customHeight="1">
+    <row r="108" spans="1:23" ht="43.5">
       <c r="A108" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>9</v>
@@ -17372,7 +17446,7 @@
         <v>140</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="F108" s="14" t="s">
         <v>134</v>
@@ -17395,23 +17469,25 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" ht="30">
+    <row r="109" spans="1:23" ht="42.75" customHeight="1">
       <c r="A109" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F109" s="14"/>
+        <v>231</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -17430,21 +17506,21 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" ht="30">
+    <row r="110" spans="1:23" ht="29">
       <c r="A110" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="1"/>
@@ -17465,9 +17541,9 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" ht="30">
+    <row r="111" spans="1:23" ht="29">
       <c r="A111" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>9</v>
@@ -17476,10 +17552,10 @@
         <v>150</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="1"/>
@@ -17500,9 +17576,9 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" ht="30">
+    <row r="112" spans="1:23" ht="29">
       <c r="A112" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>9</v>
@@ -17511,10 +17587,10 @@
         <v>150</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="1"/>
@@ -17535,21 +17611,21 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" ht="30">
+    <row r="113" spans="1:23" ht="29">
       <c r="A113" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E113" s="15" t="s">
-        <v>162</v>
+        <v>9</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="1"/>
@@ -17570,21 +17646,21 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" ht="30">
+    <row r="114" spans="1:23" ht="29">
       <c r="A114" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="1"/>
@@ -17605,21 +17681,21 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" ht="30">
+    <row r="115" spans="1:23" ht="29">
       <c r="A115" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="1"/>
@@ -17640,20 +17716,22 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" ht="30">
+    <row r="116" spans="1:23" ht="29">
       <c r="A116" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E116" s="15"/>
+        <v>167</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>168</v>
+      </c>
       <c r="F116" s="14"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -17673,22 +17751,20 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" ht="30">
+    <row r="117" spans="1:23" ht="29">
       <c r="A117" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C117" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E117" s="15"/>
       <c r="F117" s="14"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -17708,21 +17784,21 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" ht="30">
+    <row r="118" spans="1:23" ht="29">
       <c r="A118" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="1"/>
@@ -17743,21 +17819,21 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" ht="45">
+    <row r="119" spans="1:23" ht="29">
       <c r="A119" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B119" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F119" s="14"/>
       <c r="G119" s="1"/>
@@ -17778,21 +17854,21 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" ht="45">
+    <row r="120" spans="1:23" ht="43.5">
       <c r="A120" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F120" s="14"/>
       <c r="G120" s="1"/>
@@ -17813,21 +17889,21 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
-    <row r="121" spans="1:23" ht="60">
+    <row r="121" spans="1:23" ht="43.5">
       <c r="A121" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F121" s="14"/>
       <c r="G121" s="1"/>
@@ -17848,21 +17924,21 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="1:23" ht="45">
+    <row r="122" spans="1:23" ht="58">
       <c r="A122" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F122" s="14"/>
       <c r="G122" s="1"/>
@@ -17883,21 +17959,21 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="1:23" ht="45">
+    <row r="123" spans="1:23" ht="43.5">
       <c r="A123" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F123" s="14"/>
       <c r="G123" s="1"/>
@@ -17918,21 +17994,21 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" spans="1:23" ht="75">
+    <row r="124" spans="1:23" ht="43.5">
       <c r="A124" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F124" s="14"/>
       <c r="G124" s="1"/>
@@ -17953,21 +18029,21 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" spans="1:23" ht="60">
+    <row r="125" spans="1:23" ht="72.5">
       <c r="A125" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B125" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F125" s="14"/>
       <c r="G125" s="1"/>
@@ -17988,9 +18064,68 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
     </row>
+    <row r="126" spans="1:23" ht="58">
+      <c r="A126" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E126" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F126" s="14"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+      <c r="W126" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B99:B1048576 B1">
+  <conditionalFormatting sqref="B100:B1048576 B1">
+    <cfRule type="cellIs" dxfId="399" priority="506" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="398" priority="507" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="397" priority="508" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="396" priority="509" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="510">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98">
     <cfRule type="cellIs" dxfId="395" priority="501" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -18014,7 +18149,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B97">
+  <conditionalFormatting sqref="B99">
     <cfRule type="cellIs" dxfId="391" priority="496" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -18038,7 +18173,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B98">
+  <conditionalFormatting sqref="B97">
     <cfRule type="cellIs" dxfId="387" priority="491" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -18135,19 +18270,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="cellIs" dxfId="371" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="466" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="467" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="468" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="469" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="475">
+    <cfRule type="colorScale" priority="470">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18183,19 +18318,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="cellIs" dxfId="363" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="451" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="452" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="453" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="454" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="460">
+    <cfRule type="colorScale" priority="455">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -20199,19 +20334,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -20319,16 +20454,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -20343,7 +20478,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B125" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B126" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -20370,18 +20505,18 @@
       <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="95.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="95.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6">
+    <row r="1" spans="1:6">
       <c r="A1" s="19" t="s">
         <v>222</v>
       </c>
@@ -20401,7 +20536,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90">
+    <row r="2" spans="1:6" ht="72.5">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -20421,7 +20556,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45">
+    <row r="3" spans="1:6" ht="43.5">
       <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
@@ -20441,7 +20576,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45">
+    <row r="4" spans="1:6" ht="43.5">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -20461,7 +20596,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45">
+    <row r="5" spans="1:6" ht="43.5">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -20481,7 +20616,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45">
+    <row r="6" spans="1:6" ht="43.5">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -20501,7 +20636,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45">
+    <row r="7" spans="1:6" ht="43.5">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
@@ -20521,7 +20656,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="43.5">
       <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
@@ -20561,7 +20696,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="29">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -20581,7 +20716,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60">
+    <row r="11" spans="1:6" ht="58">
       <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
@@ -20601,7 +20736,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:6" ht="29">
       <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
@@ -20621,7 +20756,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="29">
       <c r="A13" s="13" t="s">
         <v>7</v>
       </c>
@@ -20663,15 +20798,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.81640625" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6">
+    <row r="1" spans="1:6" ht="14.5">
       <c r="A1" s="24" t="s">
         <v>617</v>
       </c>
@@ -20683,7 +20818,7 @@
       <c r="E1" s="37"/>
       <c r="F1" s="38"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6">
+    <row r="2" spans="1:6" ht="14.5">
       <c r="A2" s="28" t="s">
         <v>618</v>
       </c>
@@ -20703,7 +20838,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="14.5">
       <c r="A3" s="31" t="s">
         <v>625</v>
       </c>
@@ -20719,7 +20854,7 @@
       <c r="E3" s="33"/>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:6" ht="14.5">
       <c r="A4" s="31" t="s">
         <v>626</v>
       </c>
@@ -20735,7 +20870,7 @@
       <c r="E4" s="33"/>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:6" ht="30">
+    <row r="5" spans="1:6" ht="29">
       <c r="A5" s="31" t="s">
         <v>629</v>
       </c>
@@ -20751,7 +20886,7 @@
       <c r="E5" s="33"/>
       <c r="F5" s="23"/>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="29">
       <c r="A6" s="31" t="s">
         <v>658</v>
       </c>
@@ -20767,7 +20902,7 @@
       <c r="E6" s="33"/>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="14.5">
       <c r="A7" s="31"/>
       <c r="B7" s="23"/>
       <c r="C7" s="32"/>
@@ -20775,7 +20910,7 @@
       <c r="E7" s="33"/>
       <c r="F7" s="23"/>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="14.5">
       <c r="A8" s="31"/>
       <c r="B8" s="23"/>
       <c r="C8" s="32"/>
@@ -20783,7 +20918,7 @@
       <c r="E8" s="33"/>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6" ht="14.5">
       <c r="A9" s="31"/>
       <c r="B9" s="23"/>
       <c r="C9" s="32"/>
@@ -20791,7 +20926,7 @@
       <c r="E9" s="33"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:6" ht="15">
+    <row r="10" spans="1:6" ht="14.5">
       <c r="A10" s="31"/>
       <c r="B10" s="23"/>
       <c r="C10" s="32"/>
@@ -20805,16 +20940,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82890199-A916-4AE1-AF71-D419181DD041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A5A6D3-2ABD-41CA-8BB8-D796488EBDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="762">
   <si>
     <t>汇报日期</t>
   </si>
@@ -3503,14 +3503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每日计划（7:30前更新）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日进展（23:30前更新）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.7点起床计划，23点日报睡觉
 2.英语:《海贼王真人版》到00:35
 3.leetcode(1题)
@@ -4676,36 +4668,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1.完成。实际：5天
-2.完成。实际：100%，5题
-3.完成。实际：22小时，
-4.部分完成。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实际：75.0kg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，7天
-5.未完成。实际：21:01</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英语：下周要报班了，不能自己摸黑下去了。技术上要注意不要陷入细节研究，已经理解的东西要注意如何正确表达出来。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4853,11 +4815,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023-12-27
-星期四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.完成。07:23计划，23:25日报
 2.完成。10:30~16:00，4小时，2-00:15:52
 3.完成。16:20~17:20，1题(108)
@@ -4874,11 +4831,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023-12-28
-星期五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. Leetcode：148. 排序链表（中等），学习了2种解法，一种用数组记录每个元素出现的次数，然后修改链表的值。
    1. 一种是将链表转成arraylist使用jdk的排序方法，然后转成链表。
 2. 技术：架构设计实战，《亿级流量多级缓存分布式课程》看到视频4，00:17:50。
@@ -4911,14 +4863,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成。07:26计划，23:40日报
-2.完成。20:00~23:00，3小时，直播
-3.完成。09:30~12:54，1题(复习148，142)
-4.完成。14:30~18:50，视频5, 00:17:21
-5.完成。74.3kg。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. Leetcode：复习148. 排序链表（中等），复习142. 环形链表 II（中等）。
 2. 技术：架构设计实战，《亿级流量多级缓存分布式课程》看到视频5，00:17:21。
    1. 虚拟DOM的优缺点。页面加载优化，懒加载和预加载，动静分离，静态数据缓存，客户端数据库，特殊元素分离。
@@ -4926,24 +4870,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.7点起床计划，23点日报睡觉
-2.英语：2小时，学习
-3.leetcode：1题(非必须)
-4.技术：设计视频7，提交git
-5.体重减到74.0kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-12-29
-星期六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。07:26计划，23:40日报
+    <t>1.完成。07:26计划，23:20日报
 2.完成。20:00~23:00，3小时，直播
 3.完成。09:30~12:54，1题(复习148，142)
 4.完成。14:30~18:50，视频5, 00:17:21
-5.完成。74.0kg。</t>
+5.完成。73.9kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报睡觉
+2.英语：2小时(非必须)
+3.技术：设计视频6，提交git
+4.体重减到74.5kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-29
+星期五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-28
+星期四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-30
+星期六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日进展（23:00前更新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日计划（7:00前更新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.完成。实际：5天
+2.完成。实际：100%，5题
+3.完成。实际：27小时，周六
+4.完成。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际：73.9kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，周六
+5.未完成。实际：21:01</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-12-31
+星期日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天上了英语直播，学习了导致口语不好的一般原因，母语陷阱，常用口语词汇少于高考词汇。只有2700。核心是把简单词用好，多练习，技术未学习。中饭吃的有点撑，晚饭未吃。从明天开始，为了适应英语晨读，6点起床，23点前必须睡觉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7点起床计划，23点日报睡觉
+2.周报，目标进度更新
+3.技术：设计视频6，提交git
+4.体重减到74.5kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:30计划，23:20日报
+2.完成。20:00~23:00，3小时，直播
+3.未完成。
+4.完成。14:30~18:50，视频6, 00:17:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:00计划，23:40日报
+2.完成。20:00~23:00，3小时，直播
+3.未完成。
+4.完成。14:30~18:50，视频6, 00:17:21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5282,7 +5302,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="500">
+  <dxfs count="504">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -10890,7 +10952,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="73.5" customHeight="1">
@@ -10907,10 +10969,10 @@
         <v>45291</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>724</v>
+        <v>756</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -10945,16 +11007,16 @@
         <v>45284</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>723</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>726</v>
-      </c>
       <c r="H3" s="18" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -10987,16 +11049,16 @@
         <v>45277</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -11029,16 +11091,16 @@
         <v>45270</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -11071,13 +11133,13 @@
         <v>45263</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="1"/>
@@ -11111,13 +11173,13 @@
         <v>45256</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="1"/>
@@ -11154,7 +11216,7 @@
         <v>522</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>554</v>
@@ -12841,16 +12903,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B72:B1048576 B16:B61 B1">
-    <cfRule type="cellIs" dxfId="499" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="131" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="132" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="133" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="135" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="136">
@@ -12865,16 +12927,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="495" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="127" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="129" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="130">
@@ -12889,16 +12951,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="491" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="122" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="123" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="125">
@@ -12913,16 +12975,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="487" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="117" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="118" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="119" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="120">
@@ -12937,16 +12999,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="483" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="112" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="113" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="114" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="115">
@@ -12961,16 +13023,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="479" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="106" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="107" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="108" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="109" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -12985,16 +13047,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="475" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="101" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="102" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="103" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="104" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -13009,16 +13071,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="471" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="97" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="98" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="99" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -13033,16 +13095,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="467" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="94" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="95">
@@ -13057,16 +13119,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="463" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="86" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="87" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="88" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="89" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -13081,16 +13143,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="459" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -13105,16 +13167,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="455" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -13129,16 +13191,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="451" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -13153,16 +13215,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="447" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -13177,16 +13239,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="443" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="56" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="57" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="58" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="60">
@@ -13201,16 +13263,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="439" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -13225,16 +13287,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="435" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -13249,16 +13311,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="431" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -13273,16 +13335,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="427" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -13297,16 +13359,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="423" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -13321,16 +13383,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="419" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -13345,16 +13407,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="415" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -13369,16 +13431,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="411" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -13393,16 +13455,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="407" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -13417,16 +13479,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="403" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -13453,13 +13515,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W126"/>
+  <dimension ref="A1:W127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:F2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -13481,13 +13543,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>562</v>
+        <v>755</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>563</v>
+        <v>754</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>132</v>
@@ -13510,25 +13572,21 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="76.25" customHeight="1">
+    <row r="2" spans="1:23" ht="58">
       <c r="A2" s="9" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>134</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -13547,24 +13605,24 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="76.25" customHeight="1">
+    <row r="3" spans="1:23" ht="58">
       <c r="A3" s="9" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -13584,9 +13642,9 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="73.5" customHeight="1">
+    <row r="4" spans="1:23" ht="76.25" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>9</v>
@@ -13595,10 +13653,10 @@
         <v>747</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>134</v>
@@ -13623,16 +13681,16 @@
     </row>
     <row r="5" spans="1:23" ht="73.5" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>743</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>744</v>
@@ -13660,16 +13718,16 @@
     </row>
     <row r="6" spans="1:23" ht="73.5" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>740</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>741</v>
@@ -13697,7 +13755,7 @@
     </row>
     <row r="7" spans="1:23" ht="73.5" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>9</v>
@@ -13706,10 +13764,10 @@
         <v>737</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>134</v>
@@ -13732,21 +13790,21 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="58">
+    <row r="8" spans="1:23" ht="73.5" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>134</v>
@@ -13769,7 +13827,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="59.5" customHeight="1">
+    <row r="9" spans="1:23" ht="58">
       <c r="A9" s="9" t="s">
         <v>716</v>
       </c>
@@ -13777,13 +13835,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>134</v>
@@ -13806,24 +13864,24 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="73.5" customHeight="1">
+    <row r="10" spans="1:23" ht="59.5" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -13845,22 +13903,22 @@
     </row>
     <row r="11" spans="1:23" ht="73.5" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>713</v>
       </c>
-      <c r="E11" s="26" t="s">
-        <v>711</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -13880,21 +13938,21 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="72.5" customHeight="1">
+    <row r="12" spans="1:23" ht="73.5" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>709</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>708</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>134</v>
@@ -13917,21 +13975,21 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="59" customHeight="1">
+    <row r="13" spans="1:23" ht="72.5" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>134</v>
@@ -13954,21 +14012,21 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="75.5" customHeight="1">
+    <row r="14" spans="1:23" ht="59" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>700</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>701</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>698</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>134</v>
@@ -13991,18 +14049,18 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="43.5">
+    <row r="15" spans="1:23" ht="75.5" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>696</v>
@@ -14028,21 +14086,21 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="58" customHeight="1">
+    <row r="16" spans="1:23" ht="43.5">
       <c r="A16" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>134</v>
@@ -14065,21 +14123,21 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="75.5" customHeight="1">
+    <row r="17" spans="1:23" ht="58" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>134</v>
@@ -14104,19 +14162,19 @@
     </row>
     <row r="18" spans="1:23" ht="75.5" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>134</v>
@@ -14141,19 +14199,19 @@
     </row>
     <row r="19" spans="1:23" ht="75.5" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>674</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>672</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>134</v>
@@ -14181,16 +14239,16 @@
         <v>668</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>134</v>
@@ -14215,19 +14273,19 @@
     </row>
     <row r="21" spans="1:23" ht="75.5" customHeight="1">
       <c r="A21" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="E21" s="26" t="s">
         <v>667</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>669</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>134</v>
@@ -14250,21 +14308,21 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="58">
+    <row r="22" spans="1:23" ht="75.5" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>134</v>
@@ -14287,21 +14345,21 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="75.5" customHeight="1">
+    <row r="23" spans="1:23" ht="58">
       <c r="A23" s="9" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>134</v>
@@ -14326,16 +14384,16 @@
     </row>
     <row r="24" spans="1:23" ht="75.5" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E24" s="26" t="s">
         <v>650</v>
@@ -14363,19 +14421,19 @@
     </row>
     <row r="25" spans="1:23" ht="75.5" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>134</v>
@@ -14400,19 +14458,19 @@
     </row>
     <row r="26" spans="1:23" ht="75.5" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="E26" s="26" t="s">
         <v>643</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>640</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>134</v>
@@ -14437,19 +14495,19 @@
     </row>
     <row r="27" spans="1:23" ht="75.5" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="E27" s="26" t="s">
         <v>638</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>637</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>134</v>
@@ -14480,13 +14538,13 @@
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>134</v>
@@ -14511,22 +14569,22 @@
     </row>
     <row r="29" spans="1:23" ht="75.5" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>608</v>
+        <v>629</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -14548,22 +14606,22 @@
     </row>
     <row r="30" spans="1:23" ht="75.5" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -14585,19 +14643,19 @@
     </row>
     <row r="31" spans="1:23" ht="75.5" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>134</v>
@@ -14622,7 +14680,7 @@
     </row>
     <row r="32" spans="1:23" ht="75.5" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>9</v>
@@ -14631,10 +14689,10 @@
         <v>597</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>134</v>
@@ -14659,19 +14717,19 @@
     </row>
     <row r="33" spans="1:23" ht="75.5" customHeight="1">
       <c r="A33" s="9" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>134</v>
@@ -14696,7 +14754,7 @@
     </row>
     <row r="34" spans="1:23" ht="75.5" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>13</v>
@@ -14705,10 +14763,10 @@
         <v>587</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="E34" s="26" t="s">
         <v>588</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>585</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>134</v>
@@ -14733,19 +14791,19 @@
     </row>
     <row r="35" spans="1:23" ht="75.5" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>134</v>
@@ -14770,19 +14828,19 @@
     </row>
     <row r="36" spans="1:23" ht="75.5" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>134</v>
@@ -14813,13 +14871,13 @@
         <v>13</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>684</v>
+        <v>576</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>134</v>
@@ -14844,19 +14902,19 @@
     </row>
     <row r="38" spans="1:23" ht="75.5" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>564</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>571</v>
+        <v>682</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>134</v>
@@ -14881,19 +14939,19 @@
     </row>
     <row r="39" spans="1:23" ht="75.5" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>134</v>
@@ -14918,19 +14976,19 @@
     </row>
     <row r="40" spans="1:23" ht="75.5" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>134</v>
@@ -14953,21 +15011,21 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="57.5" customHeight="1">
+    <row r="41" spans="1:23" ht="75.5" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>134</v>
@@ -14990,21 +15048,21 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="75.5" customHeight="1">
+    <row r="42" spans="1:23" ht="57.5" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>134</v>
@@ -15029,19 +15087,19 @@
     </row>
     <row r="43" spans="1:23" ht="75.5" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>134</v>
@@ -15064,21 +15122,21 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="74.5" customHeight="1">
+    <row r="44" spans="1:23" ht="75.5" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>134</v>
@@ -15101,21 +15159,21 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="72.5">
+    <row r="45" spans="1:23" ht="74.5" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>134</v>
@@ -15138,21 +15196,21 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="77" customHeight="1">
+    <row r="46" spans="1:23" ht="72.5">
       <c r="A46" s="9" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>134</v>
@@ -15175,21 +15233,21 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="72.5">
+    <row r="47" spans="1:23" ht="77" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>134</v>
@@ -15212,24 +15270,24 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="62" customHeight="1">
+    <row r="48" spans="1:23" ht="72.5">
       <c r="A48" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>441</v>
+        <v>527</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -15249,21 +15307,21 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="72.5">
+    <row r="49" spans="1:23" ht="62" customHeight="1">
       <c r="A49" s="9" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>436</v>
+        <v>523</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>133</v>
@@ -15286,24 +15344,24 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="74.75" customHeight="1">
+    <row r="50" spans="1:23" ht="72.5">
       <c r="A50" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -15325,19 +15383,19 @@
     </row>
     <row r="51" spans="1:23" ht="74.75" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>134</v>
@@ -15362,22 +15420,22 @@
     </row>
     <row r="52" spans="1:23" ht="74.75" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -15399,22 +15457,22 @@
     </row>
     <row r="53" spans="1:23" ht="74.75" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -15436,22 +15494,22 @@
     </row>
     <row r="54" spans="1:23" ht="74.75" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>413</v>
+        <v>134</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -15473,22 +15531,22 @@
     </row>
     <row r="55" spans="1:23" ht="74.75" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -15510,19 +15568,19 @@
     </row>
     <row r="56" spans="1:23" ht="74.75" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>134</v>
@@ -15547,19 +15605,19 @@
     </row>
     <row r="57" spans="1:23" ht="74.75" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>134</v>
@@ -15584,19 +15642,19 @@
     </row>
     <row r="58" spans="1:23" ht="74.75" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>134</v>
@@ -15621,19 +15679,19 @@
     </row>
     <row r="59" spans="1:23" ht="74.75" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>134</v>
@@ -15658,19 +15716,19 @@
     </row>
     <row r="60" spans="1:23" ht="74.75" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>575</v>
+        <v>398</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>134</v>
@@ -15695,19 +15753,19 @@
     </row>
     <row r="61" spans="1:23" ht="74.75" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>386</v>
+        <v>573</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>134</v>
@@ -15732,19 +15790,19 @@
     </row>
     <row r="62" spans="1:23" ht="74.75" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>134</v>
@@ -15769,19 +15827,19 @@
     </row>
     <row r="63" spans="1:23" ht="74.75" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>134</v>
@@ -15806,19 +15864,19 @@
     </row>
     <row r="64" spans="1:23" ht="74.75" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>134</v>
@@ -15843,22 +15901,22 @@
     </row>
     <row r="65" spans="1:23" ht="74.75" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -15880,22 +15938,22 @@
     </row>
     <row r="66" spans="1:23" ht="74.75" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -15917,19 +15975,19 @@
     </row>
     <row r="67" spans="1:23" ht="74.75" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>362</v>
+        <v>371</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>369</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>134</v>
@@ -15954,19 +16012,19 @@
     </row>
     <row r="68" spans="1:23" ht="74.75" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>134</v>
@@ -15991,22 +16049,22 @@
     </row>
     <row r="69" spans="1:23" ht="74.75" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -16028,22 +16086,22 @@
     </row>
     <row r="70" spans="1:23" ht="74.75" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -16065,19 +16123,19 @@
     </row>
     <row r="71" spans="1:23" ht="74.75" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>134</v>
@@ -16102,19 +16160,19 @@
     </row>
     <row r="72" spans="1:23" ht="74.75" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>134</v>
@@ -16137,24 +16195,24 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" ht="72.5">
+    <row r="73" spans="1:23" ht="74.75" customHeight="1">
       <c r="A73" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -16176,22 +16234,22 @@
     </row>
     <row r="74" spans="1:23" ht="72.5">
       <c r="A74" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -16213,19 +16271,19 @@
     </row>
     <row r="75" spans="1:23" ht="72.5">
       <c r="A75" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>134</v>
@@ -16250,19 +16308,19 @@
     </row>
     <row r="76" spans="1:23" ht="72.5">
       <c r="A76" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>134</v>
@@ -16287,19 +16345,19 @@
     </row>
     <row r="77" spans="1:23" ht="72.5">
       <c r="A77" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>134</v>
@@ -16322,21 +16380,21 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" ht="87">
+    <row r="78" spans="1:23" ht="72.5">
       <c r="A78" s="9" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>134</v>
@@ -16361,19 +16419,19 @@
     </row>
     <row r="79" spans="1:23" ht="87">
       <c r="A79" s="9" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>134</v>
@@ -16396,21 +16454,21 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" ht="73.5" customHeight="1">
+    <row r="80" spans="1:23" ht="87">
       <c r="A80" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>134</v>
@@ -16433,24 +16491,24 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="72.5">
+    <row r="81" spans="1:23" ht="73.5" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -16472,19 +16530,19 @@
     </row>
     <row r="82" spans="1:23" ht="72.5">
       <c r="A82" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>133</v>
@@ -16509,22 +16567,22 @@
     </row>
     <row r="83" spans="1:23" ht="72.5">
       <c r="A83" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -16544,21 +16602,21 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="87">
+    <row r="84" spans="1:23" ht="72.5">
       <c r="A84" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>134</v>
@@ -16581,21 +16639,21 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" ht="58">
+    <row r="85" spans="1:23" ht="87">
       <c r="A85" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>134</v>
@@ -16620,19 +16678,19 @@
     </row>
     <row r="86" spans="1:23" ht="58">
       <c r="A86" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>134</v>
@@ -16655,24 +16713,24 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" ht="43.5">
+    <row r="87" spans="1:23" ht="58">
       <c r="A87" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -16692,24 +16750,24 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" ht="76.25" customHeight="1">
+    <row r="88" spans="1:23" ht="43.5">
       <c r="A88" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -16731,19 +16789,19 @@
     </row>
     <row r="89" spans="1:23" ht="76.25" customHeight="1">
       <c r="A89" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>134</v>
@@ -16768,19 +16826,19 @@
     </row>
     <row r="90" spans="1:23" ht="76.25" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>134</v>
@@ -16803,21 +16861,21 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" ht="59" customHeight="1">
+    <row r="91" spans="1:23" ht="76.25" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>134</v>
@@ -16840,21 +16898,21 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" ht="33" customHeight="1">
+    <row r="92" spans="1:23" ht="59" customHeight="1">
       <c r="A92" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>134</v>
@@ -16877,24 +16935,24 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" ht="59" customHeight="1">
+    <row r="93" spans="1:23" ht="33" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -16916,22 +16974,22 @@
     </row>
     <row r="94" spans="1:23" ht="59" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -16953,19 +17011,19 @@
     </row>
     <row r="95" spans="1:23" ht="59" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>134</v>
@@ -16990,19 +17048,19 @@
     </row>
     <row r="96" spans="1:23" ht="59" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>134</v>
@@ -17027,19 +17085,19 @@
     </row>
     <row r="97" spans="1:23" ht="59" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>134</v>
@@ -17064,19 +17122,19 @@
     </row>
     <row r="98" spans="1:23" ht="59" customHeight="1">
       <c r="A98" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>134</v>
@@ -17099,21 +17157,21 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" ht="29">
+    <row r="99" spans="1:23" ht="59" customHeight="1">
       <c r="A99" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>134</v>
@@ -17136,21 +17194,21 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" ht="42.75" customHeight="1">
+    <row r="100" spans="1:23" ht="29">
       <c r="A100" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>134</v>
@@ -17175,19 +17233,19 @@
     </row>
     <row r="101" spans="1:23" ht="42.75" customHeight="1">
       <c r="A101" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>134</v>
@@ -17212,19 +17270,19 @@
     </row>
     <row r="102" spans="1:23" ht="42.75" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>134</v>
@@ -17247,21 +17305,21 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" ht="32" customHeight="1">
+    <row r="103" spans="1:23" ht="42.75" customHeight="1">
       <c r="A103" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B103" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>134</v>
@@ -17284,9 +17342,9 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" ht="29">
+    <row r="104" spans="1:23" ht="32" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>9</v>
@@ -17298,7 +17356,7 @@
         <v>140</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>134</v>
@@ -17323,22 +17381,22 @@
     </row>
     <row r="105" spans="1:23" ht="29">
       <c r="A105" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -17360,21 +17418,21 @@
     </row>
     <row r="106" spans="1:23" ht="29">
       <c r="A106" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C106" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D106" s="13" t="s">
+      <c r="C106" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E106" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F106" s="14" t="s">
+      <c r="E106" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F106" s="10" t="s">
         <v>133</v>
       </c>
       <c r="G106" s="1"/>
@@ -17397,21 +17455,21 @@
     </row>
     <row r="107" spans="1:23" ht="29">
       <c r="A107" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E107" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F107" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F107" s="14" t="s">
         <v>133</v>
       </c>
       <c r="G107" s="1"/>
@@ -17432,24 +17490,24 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="1:23" ht="43.5">
+    <row r="108" spans="1:23" ht="29">
       <c r="A108" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F108" s="14" t="s">
-        <v>134</v>
+        <v>149</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -17469,9 +17527,9 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" ht="42.75" customHeight="1">
+    <row r="109" spans="1:23" ht="43.5">
       <c r="A109" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>9</v>
@@ -17483,7 +17541,7 @@
         <v>140</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="F109" s="14" t="s">
         <v>134</v>
@@ -17506,23 +17564,25 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" ht="29">
+    <row r="110" spans="1:23" ht="42.75" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F110" s="14"/>
+        <v>231</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -17543,19 +17603,19 @@
     </row>
     <row r="111" spans="1:23" ht="29">
       <c r="A111" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="1"/>
@@ -17578,7 +17638,7 @@
     </row>
     <row r="112" spans="1:23" ht="29">
       <c r="A112" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>9</v>
@@ -17587,10 +17647,10 @@
         <v>150</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="1"/>
@@ -17613,7 +17673,7 @@
     </row>
     <row r="113" spans="1:23" ht="29">
       <c r="A113" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>9</v>
@@ -17622,10 +17682,10 @@
         <v>150</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="1"/>
@@ -17648,19 +17708,19 @@
     </row>
     <row r="114" spans="1:23" ht="29">
       <c r="A114" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E114" s="15" t="s">
-        <v>162</v>
+        <v>9</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="1"/>
@@ -17683,19 +17743,19 @@
     </row>
     <row r="115" spans="1:23" ht="29">
       <c r="A115" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="1"/>
@@ -17718,19 +17778,19 @@
     </row>
     <row r="116" spans="1:23" ht="29">
       <c r="A116" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="1"/>
@@ -17753,18 +17813,20 @@
     </row>
     <row r="117" spans="1:23" ht="29">
       <c r="A117" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E117" s="15"/>
+        <v>167</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>168</v>
+      </c>
       <c r="F117" s="14"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -17786,20 +17848,18 @@
     </row>
     <row r="118" spans="1:23" ht="29">
       <c r="A118" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E118" s="15" t="s">
-        <v>170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E118" s="15"/>
       <c r="F118" s="14"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -17821,19 +17881,19 @@
     </row>
     <row r="119" spans="1:23" ht="29">
       <c r="A119" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F119" s="14"/>
       <c r="G119" s="1"/>
@@ -17854,21 +17914,21 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" ht="43.5">
+    <row r="120" spans="1:23" ht="29">
       <c r="A120" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F120" s="14"/>
       <c r="G120" s="1"/>
@@ -17891,19 +17951,19 @@
     </row>
     <row r="121" spans="1:23" ht="43.5">
       <c r="A121" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F121" s="14"/>
       <c r="G121" s="1"/>
@@ -17924,21 +17984,21 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="1:23" ht="58">
+    <row r="122" spans="1:23" ht="43.5">
       <c r="A122" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B122" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F122" s="14"/>
       <c r="G122" s="1"/>
@@ -17959,21 +18019,21 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="1:23" ht="43.5">
+    <row r="123" spans="1:23" ht="58">
       <c r="A123" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F123" s="14"/>
       <c r="G123" s="1"/>
@@ -17996,19 +18056,19 @@
     </row>
     <row r="124" spans="1:23" ht="43.5">
       <c r="A124" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F124" s="14"/>
       <c r="G124" s="1"/>
@@ -18029,21 +18089,21 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" spans="1:23" ht="72.5">
+    <row r="125" spans="1:23" ht="43.5">
       <c r="A125" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F125" s="14"/>
       <c r="G125" s="1"/>
@@ -18064,21 +18124,21 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
     </row>
-    <row r="126" spans="1:23" ht="58">
+    <row r="126" spans="1:23" ht="72.5">
       <c r="A126" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="1"/>
@@ -18099,9 +18159,68 @@
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
     </row>
+    <row r="127" spans="1:23" ht="58">
+      <c r="A127" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E127" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F127" s="14"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
+      <c r="W127" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B100:B1048576 B1">
+  <conditionalFormatting sqref="B101:B1048576 B1">
+    <cfRule type="cellIs" dxfId="403" priority="511" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="402" priority="512" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="401" priority="513" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="400" priority="514" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="515">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99">
     <cfRule type="cellIs" dxfId="399" priority="506" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -18125,7 +18244,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B98">
+  <conditionalFormatting sqref="B100">
     <cfRule type="cellIs" dxfId="395" priority="501" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -18149,7 +18268,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B99">
+  <conditionalFormatting sqref="B98">
     <cfRule type="cellIs" dxfId="391" priority="496" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
@@ -18246,19 +18365,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="cellIs" dxfId="375" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="471" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="477" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="472" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="478" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="473" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="479" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="474" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="480">
+    <cfRule type="colorScale" priority="475">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18294,19 +18413,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="cellIs" dxfId="367" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="456" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="457" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="458" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="459" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="465">
+    <cfRule type="colorScale" priority="460">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -20310,19 +20429,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="40">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -20478,7 +20597,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B126" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B127" xr:uid="{E6A77140-D970-4A0E-A056-7CC50B06531A}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -20747,13 +20866,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>593</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>594</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="29">
@@ -20767,13 +20886,13 @@
         <v>299</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -20808,10 +20927,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.5">
       <c r="A1" s="24" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
@@ -20820,84 +20939,84 @@
     </row>
     <row r="2" spans="1:6" ht="14.5">
       <c r="A2" s="28" t="s">
+        <v>616</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>620</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>621</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>618</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>619</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>622</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>623</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>624</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.5">
       <c r="A3" s="31" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B3" s="23">
         <v>44808</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" ht="14.5">
       <c r="A4" s="31" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B4" s="23">
         <v>45051</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="29">
       <c r="A5" s="31" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B5" s="23">
         <v>45175</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="29">
       <c r="A6" s="31" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B6" s="23">
         <v>45264</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="23"/>

--- a/docs/report/周期报告-2023-Gem.xlsx
+++ b/docs/report/周期报告-2023-Gem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\resource\git-doc\docs\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A5A6D3-2ABD-41CA-8BB8-D796488EBDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB3A847-1839-4144-AE3A-107000319D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,48 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C1F23F3F-D6E7-4BAD-A0E8-AAB81FF94ABC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+出现如下情况可修改计划：
+1.本人生病或者其他不可抗力使计划无法执行
+2.帮助朋友或家人且时间影响项目进度20%以上
+3.周三前经过评估任务制定严重不合理。
+看到自己的目标一个个完成是可以增加自信心的
+通过不正当途径假装目标已完成则相反。
+切记：谎言可以欺骗别人但骗不了自己！</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
@@ -70,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="770">
   <si>
     <t>汇报日期</t>
   </si>
@@ -4908,10 +4950,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2023-12-31
+星期日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天上了英语直播，学习了导致口语不好的一般原因，母语陷阱，常用口语词汇少于高考词汇。只有2700。核心是把简单词用好，多练习，技术未学习。中饭吃的有点撑，晚饭未吃。从明天开始，为了适应英语晨读，6点起床，23点前必须睡觉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成。07:30计划，23:20日报
+2.完成。20:00~23:00，3小时，直播
+3.未完成。
+4.完成。14:30~18:50，视频6, 00:17:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8点起床计划，23点日报睡觉
+2.周报，目标进度更新
+3.技术：设计视频6，提交git
+4.体重减到74.5kg(非必须)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语：本周报名了北大的艾力老师原力英语课程，被他的课程和人格魅力影响，英语投入时间大大提升，目标超额完成，同时英语学习看到了希望。
+技术：本周目标勉强完成，完成的时候没有关注时间而是按视频看的。健康目标周六提前完成。下周开始为了配合英语早上的晨读，起床时间提早至6点，睡觉时间提前至23点。同时除了英语和技术其他目标默认非必须。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制定每日目标时要考虑每周目标，同时制定目标时要充分考量目标的可实现性，不能到最后发现目标完不成就改目标。要培养准确评估目标时间的能力更为重要。同时增加自信心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 技术：架构设计实战，《亿级流量多级缓存分布式课程》看到视频6, 00:00:21。1. 学习网络分发，DNS优化，CDN优化
+2. 进度：完成本周周报，计划下周周报。更新总体目标进度。
+3. 英语：参加了班会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-01-01
+星期一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6点起床计划，23点日报睡觉
+2.英语：4小时，晨读
+3.leetcode：1题(非必须)
+4.技术：设计视频5，提交git
+5.体重减到74.3kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>1.完成。实际：5天
-2.完成。实际：100%，5题
-3.完成。实际：27小时，周六
+2.完成。实际：100%，6题
+3.完成。实际：28小时，周六
 4.完成。</t>
     </r>
     <r>
@@ -4932,38 +5025,56 @@
         <charset val="134"/>
       </rPr>
       <t>，周六
-5.未完成。实际：21:01</t>
+5.未完成。实际：23:18</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023-12-31
-星期日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天上了英语直播，学习了导致口语不好的一般原因，母语陷阱，常用口语词汇少于高考词汇。只有2700。核心是把简单词用好，多练习，技术未学习。中饭吃的有点撑，晚饭未吃。从明天开始，为了适应英语晨读，6点起床，23点前必须睡觉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.7点起床计划，23点日报睡觉
-2.周报，目标进度更新
-3.技术：设计视频6，提交git
-4.体重减到74.5kg(非必须)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。07:30计划，23:20日报
-2.完成。20:00~23:00，3小时，直播
-3.未完成。
-4.完成。14:30~18:50，视频6, 00:17:21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.完成。07:00计划，23:40日报
-2.完成。20:00~23:00，3小时，直播
-3.未完成。
-4.完成。14:30~18:50，视频6, 00:17:21</t>
+    <t>1.完成。08:00计划，23:40日报
+2.完成。23:18
+3.完成。18:30~22:45，视频6, 00:00:21
+4.完成。74.5kg。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.生活：7:00起床计划，23:00日报，坚持5天。
+2.技术：亿级流量视频20。Leetcode：5题。
+3.英语：学习20小时。完成原力英语课程任务
+4.健康：周末减到73.5kg。git进度提交6天。
+5.周报：周日23:00前，更新目标进度，下周计划。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了英语和技术其他目标默认非必须。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.未完成。实际：5天
+2.未完成。实际：100%，6题
+3.未完成。实际：28小时，周六
+4.未完成。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际：73.9kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，周六
+5.未完成。实际：23:18</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4975,7 +5086,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -5302,7 +5413,91 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="504">
+  <dxfs count="512">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -10904,20 +11099,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:X71"/>
+  <dimension ref="A1:X72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.81640625" style="16" customWidth="1"/>
     <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
@@ -10929,7 +11124,7 @@
     <col min="9" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -10955,26 +11150,28 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="73.5" customHeight="1">
+    <row r="2" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>45291</v>
+        <v>45298</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="7">
-        <v>45285</v>
+        <v>45292</v>
       </c>
       <c r="D2" s="7">
-        <v>45291</v>
+        <v>45298</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>726</v>
+        <v>767</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="G2" s="18"/>
+        <v>769</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>768</v>
+      </c>
       <c r="H2" s="18"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -10993,30 +11190,30 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="73.5" customHeight="1">
+    <row r="3" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <v>45284</v>
+        <v>45291</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7">
-        <v>45278</v>
+        <v>45285</v>
       </c>
       <c r="D3" s="7">
-        <v>45284</v>
+        <v>45291</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>725</v>
+        <v>765</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>723</v>
+        <v>760</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>724</v>
+        <v>761</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -11035,30 +11232,30 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="73.5" customHeight="1">
+    <row r="4" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
-        <v>45277</v>
+        <v>45284</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7">
-        <v>45271</v>
+        <v>45278</v>
       </c>
       <c r="D4" s="7">
-        <v>45277</v>
+        <v>45284</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>654</v>
+        <v>721</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>688</v>
+        <v>725</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>689</v>
+        <v>723</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -11077,30 +11274,30 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="73.5" customHeight="1">
+    <row r="5" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7">
-        <v>45263</v>
+        <v>45271</v>
       </c>
       <c r="D5" s="7">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>633</v>
+        <v>654</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>659</v>
+        <v>688</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>655</v>
+        <v>689</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>660</v>
+        <v>722</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -11119,29 +11316,31 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="73.5" customHeight="1">
+    <row r="6" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="7">
-        <v>45257</v>
+        <v>45263</v>
       </c>
       <c r="D6" s="7">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>612</v>
+        <v>659</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>608</v>
-      </c>
-      <c r="H6" s="18"/>
+        <v>655</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>660</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -11159,27 +11358,27 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="73.5" customHeight="1">
+    <row r="7" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="7">
-        <v>45250</v>
+        <v>45257</v>
       </c>
       <c r="D7" s="7">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>567</v>
+        <v>609</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>690</v>
+        <v>612</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>579</v>
+        <v>608</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="1"/>
@@ -11199,27 +11398,27 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="73.5" customHeight="1">
+    <row r="8" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
-        <v>45249</v>
+        <v>45256</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7">
-        <v>45243</v>
+        <v>45250</v>
       </c>
       <c r="D8" s="7">
-        <v>45249</v>
+        <v>45256</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>522</v>
+        <v>567</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="1"/>
@@ -11239,27 +11438,27 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="73.5" customHeight="1">
+    <row r="9" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
-        <v>45242</v>
+        <v>45249</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="7">
-        <v>45236</v>
+        <v>45243</v>
       </c>
       <c r="D9" s="7">
-        <v>45242</v>
+        <v>45249</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>416</v>
+        <v>522</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>533</v>
+        <v>691</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="1"/>
@@ -11279,27 +11478,27 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="56.25" customHeight="1">
+    <row r="10" spans="1:24" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="7">
-        <v>45229</v>
+        <v>45236</v>
       </c>
       <c r="D10" s="7">
-        <v>45235</v>
+        <v>45242</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>417</v>
+        <v>533</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>415</v>
+        <v>521</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="1"/>
@@ -11319,27 +11518,27 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="56.25" customHeight="1">
+    <row r="11" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="7">
-        <v>45222</v>
+        <v>45229</v>
       </c>
       <c r="D11" s="7">
-        <v>45228</v>
+        <v>45235</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="1"/>
@@ -11359,27 +11558,27 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="56.25" customHeight="1">
+    <row r="12" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
-        <v>45221</v>
+        <v>45228</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7">
-        <v>45215</v>
+        <v>45222</v>
       </c>
       <c r="D12" s="7">
-        <v>45221</v>
+        <v>45228</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="1"/>
@@ -11399,27 +11598,27 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="56.25" customHeight="1">
+    <row r="13" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>45214</v>
+        <v>45221</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="7">
-        <v>45204</v>
+        <v>45215</v>
       </c>
       <c r="D13" s="7">
-        <v>45214</v>
+        <v>45221</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="1"/>
@@ -11439,27 +11638,27 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="56.25" customHeight="1">
+    <row r="14" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>45200</v>
+        <v>45214</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="7">
-        <v>45194</v>
+        <v>45204</v>
       </c>
       <c r="D14" s="7">
-        <v>45200</v>
+        <v>45214</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="1"/>
@@ -11479,27 +11678,27 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="56.25" customHeight="1">
+    <row r="15" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="7">
-        <v>45187</v>
+        <v>45194</v>
       </c>
       <c r="D15" s="7">
-        <v>45193</v>
+        <v>45200</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="1"/>
@@ -11519,27 +11718,27 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="56.25" customHeight="1">
+    <row r="16" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="7">
-        <v>45179</v>
+        <v>45187</v>
       </c>
       <c r="D16" s="7">
-        <v>45186</v>
+        <v>45193</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="1"/>
@@ -11559,27 +11758,27 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="56.25" customHeight="1">
+    <row r="17" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
-        <v>45178</v>
+        <v>45186</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="7">
-        <v>45171</v>
+        <v>45179</v>
       </c>
       <c r="D17" s="7">
-        <v>45177</v>
+        <v>45186</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="1"/>
@@ -11599,27 +11798,27 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="56.25" customHeight="1">
+    <row r="18" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
+        <v>45178</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7">
         <v>45171</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="7">
-        <v>45164</v>
-      </c>
       <c r="D18" s="7">
-        <v>45170</v>
+        <v>45177</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="1"/>
@@ -11639,846 +11838,862 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="56.25" customHeight="1">
-      <c r="A19" s="12">
+    <row r="19" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>45171</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7">
+        <v>45164</v>
+      </c>
+      <c r="D19" s="7">
+        <v>45170</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
         <v>45163</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C20" s="12">
         <v>45157</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12">
         <v>45163</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:24" ht="56.25" customHeight="1">
-      <c r="A20" s="12">
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
         <v>45156</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="12">
-        <v>45150</v>
-      </c>
-      <c r="D20" s="12">
-        <v>45156</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:24" ht="56.25" customHeight="1">
-      <c r="A21" s="12">
-        <v>45150</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="12">
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="D21" s="12">
-        <v>45149</v>
+        <v>45156</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:24" ht="56.25" customHeight="1">
+    <row r="22" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
-        <v>45143</v>
+        <v>45150</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="12">
+        <v>45143</v>
+      </c>
+      <c r="D22" s="12">
+        <v>45149</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>45143</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="12">
         <v>45136</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
         <v>45142</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:24" ht="56.25" customHeight="1">
-      <c r="A23" s="12">
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
         <v>45136</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="12">
-        <v>45129</v>
-      </c>
-      <c r="D23" s="12">
-        <v>45135</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:24" ht="56.25" customHeight="1">
-      <c r="A24" s="12">
-        <v>45129</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="12">
+        <v>45129</v>
+      </c>
+      <c r="D24" s="12">
+        <v>45135</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>45129</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="12">
         <v>45122</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="12">
         <v>45128</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F25" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:24" ht="56.25" customHeight="1">
-      <c r="A25" s="12">
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
         <v>45122</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="12">
-        <v>45115</v>
-      </c>
-      <c r="D25" s="12">
-        <v>45121</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:24" ht="56.25" customHeight="1">
-      <c r="A26" s="12">
-        <v>45115</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="12">
+        <v>45115</v>
+      </c>
+      <c r="D26" s="12">
+        <v>45121</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>45115</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="12">
         <v>45108</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="12">
         <v>45114</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F27" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G27" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:24" ht="56.25" customHeight="1">
-      <c r="A27" s="12">
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
         <v>45107</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B28" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C28" s="12">
         <v>45101</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D28" s="12">
         <v>45107</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E28" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F28" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G28" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:24" ht="56.25" customHeight="1">
-      <c r="A28" s="12">
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
         <v>45101</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="12">
-        <v>45094</v>
-      </c>
-      <c r="D28" s="12">
-        <v>45100</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:24" ht="56.25" customHeight="1">
-      <c r="A29" s="12">
-        <v>45094</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="12">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="D29" s="12">
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:24" ht="56.25" customHeight="1">
+    <row r="30" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
-        <v>45087</v>
+        <v>45094</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="12">
+        <v>45087</v>
+      </c>
+      <c r="D30" s="12">
+        <v>45093</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>45087</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="12">
         <v>45080</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="12">
         <v>45086</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E31" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F31" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G31" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="1:24" ht="56.25" customHeight="1">
-      <c r="A31" s="12">
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:24" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
         <v>45080</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="12">
-        <v>45073</v>
-      </c>
-      <c r="D31" s="12">
-        <v>45079</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="1:24" ht="56.25" customHeight="1">
-      <c r="A32" s="12">
-        <v>45073</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="12">
-        <v>45066</v>
+        <v>45073</v>
       </c>
       <c r="D32" s="12">
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8" ht="56.25" customHeight="1">
+    <row r="33" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
+        <v>45073</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="12">
+        <v>45066</v>
+      </c>
+      <c r="D33" s="12">
+        <v>45072</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
         <v>45065</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="12">
-        <v>45059</v>
-      </c>
-      <c r="D33" s="12">
-        <v>45065</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A34" s="12">
-        <v>45058</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="12">
-        <v>45052</v>
+        <v>45059</v>
       </c>
       <c r="D34" s="12">
+        <v>45065</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
         <v>45058</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A35" s="12">
-        <v>45051</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="12">
+        <v>45052</v>
+      </c>
+      <c r="D35" s="12">
+        <v>45058</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>45051</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="12">
         <v>45045</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D36" s="12">
         <v>45051</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E36" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F36" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G36" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A36" s="12">
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
         <v>45044</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C37" s="12">
         <v>45038</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="12">
         <v>45044</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E37" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F37" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="18"/>
-    </row>
-    <row r="37" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A37" s="12">
+      <c r="G37" s="13"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
         <v>45037</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C38" s="12">
         <v>45031</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D38" s="12">
         <v>45037</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E38" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F38" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G38" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A38" s="12">
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
         <v>45030</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="12">
-        <v>45024</v>
-      </c>
-      <c r="D38" s="12">
-        <v>45030</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A39" s="12">
-        <v>45024</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="12">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="D39" s="12">
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H39" s="18"/>
     </row>
-    <row r="40" spans="1:8" ht="43.5">
+    <row r="40" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
-        <v>45009</v>
+        <v>45024</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="12">
-        <v>45003</v>
+        <v>45017</v>
       </c>
       <c r="D40" s="12">
-        <v>45009</v>
+        <v>45023</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="H40" s="18"/>
     </row>
-    <row r="41" spans="1:8" ht="43.5">
+    <row r="41" spans="1:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>45009</v>
       </c>
       <c r="B41" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="12">
+        <v>45003</v>
+      </c>
+      <c r="D41" s="12">
+        <v>45009</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="15"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <v>45009</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C42" s="12">
         <v>45010</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D42" s="12">
         <v>45016</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E42" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F42" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G42" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A42" s="12">
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
         <v>45003</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C43" s="12">
         <v>44996</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D43" s="12">
         <v>45002</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E43" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F43" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A43" s="12">
+      <c r="G43" s="15"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
         <v>44996</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B44" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C44" s="12">
         <v>44989</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D44" s="12">
         <v>44995</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E44" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F44" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G44" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A44" s="12">
+      <c r="H44" s="18"/>
+    </row>
+    <row r="45" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
         <v>44989</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C45" s="12">
         <v>44982</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D45" s="12">
         <v>44988</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E45" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F45" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G45" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A45" s="12">
+      <c r="H45" s="18"/>
+    </row>
+    <row r="46" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
         <v>44983</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C46" s="12">
         <v>44975</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D46" s="12">
         <v>44981</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E46" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F46" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G46" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A46" s="12">
+      <c r="H46" s="18"/>
+    </row>
+    <row r="47" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
         <v>44975</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="12">
-        <v>44968</v>
-      </c>
-      <c r="D46" s="12">
-        <v>44974</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H46" s="18"/>
-    </row>
-    <row r="47" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A47" s="12">
-        <v>44968</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="12">
+        <v>44968</v>
+      </c>
+      <c r="D47" s="12">
+        <v>44974</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="18"/>
+    </row>
+    <row r="48" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>44968</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="12">
         <v>44961</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D48" s="12">
         <v>44967</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E48" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F48" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G48" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H47" s="18"/>
-    </row>
-    <row r="48" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A48" s="12">
+      <c r="H48" s="18"/>
+    </row>
+    <row r="49" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
         <v>44960</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B49" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C49" s="12">
         <v>44954</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D49" s="12">
         <v>44960</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E49" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F49" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G49" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A49" s="12">
+      <c r="H49" s="18"/>
+    </row>
+    <row r="50" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
         <v>44953</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B50" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C50" s="12">
         <v>44947</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D50" s="12">
         <v>44953</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E50" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F50" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G50" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A50" s="12">
+      <c r="H50" s="18"/>
+    </row>
+    <row r="51" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
         <v>44946</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="12">
-        <v>44940</v>
-      </c>
-      <c r="D50" s="12">
-        <v>44946</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H50" s="18"/>
-    </row>
-    <row r="51" spans="1:8" ht="56.25" customHeight="1">
-      <c r="A51" s="12">
-        <v>44940</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="12">
-        <v>44933</v>
+        <v>44940</v>
       </c>
       <c r="D51" s="12">
-        <v>44939</v>
+        <v>44946</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" ht="56.25" customHeight="1">
+    <row r="52" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
-        <v>44933</v>
+        <v>44940</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="12">
-        <v>44926</v>
+        <v>44933</v>
       </c>
       <c r="D52" s="12">
-        <v>44932</v>
+        <v>44939</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H52" s="18"/>
     </row>
-    <row r="53" spans="1:8" ht="56.25" customHeight="1">
+    <row r="53" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
-        <v>44926</v>
+        <v>44933</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="12">
-        <v>44919</v>
+        <v>44926</v>
       </c>
       <c r="D53" s="12">
-        <v>44925</v>
+        <v>44932</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H53" s="18"/>
     </row>
-    <row r="54" spans="1:8" ht="56.25" customHeight="1">
+    <row r="54" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
-        <v>44919</v>
+        <v>44926</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="12">
-        <v>44912</v>
+        <v>44919</v>
       </c>
       <c r="D54" s="12">
-        <v>44918</v>
+        <v>44925</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>110</v>
@@ -12487,179 +12702,179 @@
         <v>111</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H54" s="18"/>
     </row>
-    <row r="55" spans="1:8" ht="56.25" customHeight="1">
+    <row r="55" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
-        <v>44912</v>
+        <v>44919</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="12">
-        <v>44905</v>
+        <v>44912</v>
       </c>
       <c r="D55" s="12">
-        <v>44911</v>
+        <v>44918</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>110</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H55" s="18"/>
     </row>
-    <row r="56" spans="1:8" ht="56.25" customHeight="1">
+    <row r="56" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
-        <v>44905</v>
+        <v>44912</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="12">
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="D56" s="12">
-        <v>44904</v>
+        <v>44911</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H56" s="18"/>
     </row>
-    <row r="57" spans="1:8" ht="56.25" customHeight="1">
+    <row r="57" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
-        <v>44898</v>
+        <v>44905</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="12">
-        <v>44890</v>
+        <v>44898</v>
       </c>
       <c r="D57" s="12">
-        <v>44897</v>
+        <v>44904</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H57" s="18"/>
     </row>
-    <row r="58" spans="1:8" ht="99.75" customHeight="1">
+    <row r="58" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
-        <v>44890</v>
+        <v>44898</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="12">
-        <v>44883</v>
+        <v>44890</v>
       </c>
       <c r="D58" s="12">
-        <v>44890</v>
+        <v>44897</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>119</v>
       </c>
       <c r="F58" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H58" s="18"/>
+    </row>
+    <row r="59" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
+        <v>44890</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="12">
+        <v>44883</v>
+      </c>
+      <c r="D59" s="12">
+        <v>44890</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="G59" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="H58" s="18"/>
-    </row>
-    <row r="59" spans="1:8" ht="87">
-      <c r="A59" s="12">
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" spans="1:8" ht="87" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
         <v>44883</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B60" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C60" s="12">
         <v>44876</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D60" s="12">
         <v>44883</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E60" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F60" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="G59" s="15" t="s">
+      <c r="G60" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="H59" s="18"/>
-    </row>
-    <row r="60" spans="1:8" ht="71" customHeight="1">
-      <c r="A60" s="12">
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
         <v>44876</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="12">
-        <v>44870</v>
-      </c>
-      <c r="D60" s="12">
-        <v>44876</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H60" s="18"/>
-    </row>
-    <row r="61" spans="1:8" ht="73.5" customHeight="1">
-      <c r="A61" s="12">
-        <v>44870</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="12">
-        <v>44863</v>
+        <v>44870</v>
       </c>
       <c r="D61" s="12">
-        <v>44869</v>
+        <v>44876</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H61" s="18"/>
     </row>
-    <row r="62" spans="1:8" ht="68.75" customHeight="1">
+    <row r="62" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <v>44870</v>
       </c>
@@ -12683,239 +12898,263 @@
       </c>
       <c r="H62" s="18"/>
     </row>
-    <row r="63" spans="1:8" ht="71" customHeight="1">
+    <row r="63" spans="1:8" ht="68.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
-        <v>44862</v>
+        <v>44870</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="12">
-        <v>44855</v>
+        <v>44863</v>
       </c>
       <c r="D63" s="12">
+        <v>44869</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="12">
         <v>44862</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="H63" s="18"/>
-    </row>
-    <row r="64" spans="1:8" ht="74" customHeight="1">
-      <c r="A64" s="12">
-        <v>44855</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="12">
-        <v>44849</v>
+        <v>44855</v>
       </c>
       <c r="D64" s="12">
+        <v>44862</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="H64" s="18"/>
+    </row>
+    <row r="65" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="12">
         <v>44855</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="H64" s="18"/>
-    </row>
-    <row r="65" spans="1:8" ht="73.25" customHeight="1">
-      <c r="A65" s="12">
-        <v>44848</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="12">
-        <v>44842</v>
+        <v>44849</v>
       </c>
       <c r="D65" s="12">
+        <v>44855</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" spans="1:8" ht="73.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="12">
         <v>44848</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="H65" s="18"/>
-    </row>
-    <row r="66" spans="1:8" ht="78" customHeight="1">
-      <c r="A66" s="12">
-        <v>44842</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C66" s="12">
-        <v>44835</v>
+        <v>44842</v>
       </c>
       <c r="D66" s="12">
+        <v>44848</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="12">
         <v>44842</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="H66" s="18"/>
-    </row>
-    <row r="67" spans="1:8" ht="76.5" customHeight="1">
-      <c r="A67" s="12">
-        <v>44834</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C67" s="12">
-        <v>44829</v>
+        <v>44835</v>
       </c>
       <c r="D67" s="12">
+        <v>44842</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="12">
         <v>44834</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="H67" s="18"/>
-    </row>
-    <row r="68" spans="1:8" ht="76.25" customHeight="1">
-      <c r="A68" s="12">
-        <v>44829</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C68" s="12">
-        <v>44823</v>
+        <v>44829</v>
       </c>
       <c r="D68" s="12">
+        <v>44834</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="H68" s="18"/>
+    </row>
+    <row r="69" spans="1:8" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="12">
         <v>44829</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="H68" s="18"/>
-    </row>
-    <row r="69" spans="1:8" ht="77.75" customHeight="1">
-      <c r="A69" s="12">
-        <v>44822</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C69" s="12">
-        <v>44815</v>
+        <v>44823</v>
       </c>
       <c r="D69" s="12">
+        <v>44829</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="H69" s="18"/>
+    </row>
+    <row r="70" spans="1:8" ht="77.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="12">
         <v>44822</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="H69" s="18"/>
-    </row>
-    <row r="70" spans="1:8" ht="94.25" customHeight="1">
-      <c r="A70" s="12">
-        <v>44813</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C70" s="12">
-        <v>44807</v>
+        <v>44815</v>
       </c>
       <c r="D70" s="12">
+        <v>44822</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="H70" s="18"/>
+    </row>
+    <row r="71" spans="1:8" ht="94.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="12">
         <v>44813</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="H70" s="18"/>
-    </row>
-    <row r="71" spans="1:8" ht="135.5" customHeight="1">
-      <c r="A71" s="12">
-        <v>44808</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C71" s="12">
+        <v>44807</v>
+      </c>
+      <c r="D71" s="12">
+        <v>44813</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="H71" s="18"/>
+    </row>
+    <row r="72" spans="1:8" ht="135.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="12">
+        <v>44808</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="12">
         <v>44800</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D72" s="12">
         <v>44808</v>
       </c>
-      <c r="E71" s="34" t="s">
+      <c r="E72" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="15" t="s">
+      <c r="F72" s="35"/>
+      <c r="G72" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="H71" s="18"/>
+      <c r="H72" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B72:B1048576 B16:B61 B1">
-    <cfRule type="cellIs" dxfId="503" priority="131" operator="equal">
+  <conditionalFormatting sqref="B73:B1048576 B17:B62 B1">
+    <cfRule type="cellIs" dxfId="511" priority="136" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="137" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="138" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="140" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="136">
+    <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12926,17 +13165,41 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" dxfId="507" priority="131" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="506" priority="132" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="505" priority="133" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="504" priority="134" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="499" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="127" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="129" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="130">
@@ -12950,17 +13213,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="495" priority="121" operator="equal">
+  <conditionalFormatting sqref="B63">
+    <cfRule type="cellIs" dxfId="499" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="122" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="123" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="125">
@@ -12974,17 +13237,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="491" priority="116" operator="equal">
+  <conditionalFormatting sqref="B64">
+    <cfRule type="cellIs" dxfId="495" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="117" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="118" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="119" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="120">
@@ -12998,17 +13261,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="487" priority="111" operator="equal">
+  <conditionalFormatting sqref="B65">
+    <cfRule type="cellIs" dxfId="491" priority="111" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="112" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="113" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="114" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="115">
@@ -13022,17 +13285,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="483" priority="106" operator="equal">
+  <conditionalFormatting sqref="B66">
+    <cfRule type="cellIs" dxfId="487" priority="106" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="107" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="108" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="109" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -13046,17 +13309,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="479" priority="101" operator="equal">
+  <conditionalFormatting sqref="B67">
+    <cfRule type="cellIs" dxfId="483" priority="101" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="102" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="103" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="104" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="105">
@@ -13070,17 +13333,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="475" priority="96" operator="equal">
+  <conditionalFormatting sqref="B68">
+    <cfRule type="cellIs" dxfId="479" priority="96" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="97" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="98" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="99" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -13094,17 +13357,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="471" priority="91" operator="equal">
+  <conditionalFormatting sqref="B69">
+    <cfRule type="cellIs" dxfId="475" priority="91" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="92" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="93" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="94" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="95">
@@ -13118,20 +13381,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="467" priority="86" operator="equal">
+  <conditionalFormatting sqref="B70">
+    <cfRule type="cellIs" dxfId="471" priority="81" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="82" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="83" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="84" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13142,17 +13405,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="463" priority="76" operator="equal">
+  <conditionalFormatting sqref="B71">
+    <cfRule type="cellIs" dxfId="467" priority="76" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="77" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="78" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="79" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="80">
@@ -13166,17 +13429,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="459" priority="71" operator="equal">
+  <conditionalFormatting sqref="B72">
+    <cfRule type="cellIs" dxfId="463" priority="71" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="72" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="73" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="74" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="75">
@@ -13190,17 +13453,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="455" priority="66" operator="equal">
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="459" priority="66" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="67" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="68" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="69" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -13215,16 +13478,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="451" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="61" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="62" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="63" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="64" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="65">
@@ -13239,19 +13502,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="447" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="51" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="52" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="53" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="54" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="60">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13263,16 +13526,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="443" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="46" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="47" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="48" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="49" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -13287,16 +13550,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="439" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="41" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="42" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="43" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="44" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -13311,16 +13574,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="435" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="36" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="37" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="38" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="39" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="40">
@@ -13335,16 +13598,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="431" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="31" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="32" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="33" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="34" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="35">
@@ -13359,16 +13622,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="427" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="26" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="27" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="28" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="29" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -13383,16 +13646,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="423" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="21" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="22" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="23" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="24" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="25">
@@ -13407,16 +13670,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="419" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="16" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="17" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="18" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="19" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -13431,16 +13694,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="415" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="11" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="12" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="13" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="15">
@@ -13455,16 +13718,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="411" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="6" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="7" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="8" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -13479,16 +13742,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="cellIs" dxfId="407" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="5">
@@ -13506,25 +13769,26 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已完成,进行中,部分完成,里程碑,未完成,"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D71 A1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:C1048576 D2:D72" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W127"/>
+  <dimension ref="A1:W128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.81640625" style="27" customWidth="1"/>
     <col min="2" max="2" width="11.453125" style="1" customWidth="1"/>
@@ -13535,7 +13799,7 @@
     <col min="7" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -13572,18 +13836,18 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="58">
+    <row r="2" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>299</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="10"/>
@@ -13605,24 +13869,24 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="58">
+    <row r="3" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -13642,24 +13906,24 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="76.25" customHeight="1">
+    <row r="4" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -13679,21 +13943,21 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="73.5" customHeight="1">
+    <row r="5" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>134</v>
@@ -13716,21 +13980,21 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="73.5" customHeight="1">
+    <row r="6" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>134</v>
@@ -13753,21 +14017,21 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="73.5" customHeight="1">
+    <row r="7" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>134</v>
@@ -13790,21 +14054,21 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="73.5" customHeight="1">
+    <row r="8" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>134</v>
@@ -13827,21 +14091,21 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="58">
+    <row r="9" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>134</v>
@@ -13864,21 +14128,21 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="59.5" customHeight="1">
+    <row r="10" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>134</v>
@@ -13901,24 +14165,24 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="73.5" customHeight="1">
+    <row r="11" spans="1:23" ht="59.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -13938,24 +14202,24 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="73.5" customHeight="1">
+    <row r="12" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -13975,21 +14239,21 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="72.5" customHeight="1">
+    <row r="13" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>134</v>
@@ -14012,21 +14276,21 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="59" customHeight="1">
+    <row r="14" spans="1:23" ht="72.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>134</v>
@@ -14049,21 +14313,21 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="75.5" customHeight="1">
+    <row r="15" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>134</v>
@@ -14086,21 +14350,21 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="43.5">
+    <row r="16" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>134</v>
@@ -14123,21 +14387,21 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="58" customHeight="1">
+    <row r="17" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>134</v>
@@ -14160,21 +14424,21 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="75.5" customHeight="1">
+    <row r="18" spans="1:23" ht="58" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>134</v>
@@ -14197,21 +14461,21 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="75.5" customHeight="1">
+    <row r="19" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>134</v>
@@ -14234,21 +14498,21 @@
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" ht="75.5" customHeight="1">
+    <row r="20" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>134</v>
@@ -14271,21 +14535,21 @@
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="75.5" customHeight="1">
+    <row r="21" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>134</v>
@@ -14308,18 +14572,18 @@
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="1:23" ht="75.5" customHeight="1">
+    <row r="22" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>665</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>667</v>
@@ -14345,21 +14609,21 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="58">
+    <row r="23" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>134</v>
@@ -14382,21 +14646,21 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
-    <row r="24" spans="1:23" ht="75.5" customHeight="1">
+    <row r="24" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>134</v>
@@ -14419,21 +14683,21 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
-    <row r="25" spans="1:23" ht="75.5" customHeight="1">
+    <row r="25" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>134</v>
@@ -14456,21 +14720,21 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
-    <row r="26" spans="1:23" ht="75.5" customHeight="1">
+    <row r="26" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>134</v>
@@ -14493,21 +14757,21 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="75.5" customHeight="1">
+    <row r="27" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>134</v>
@@ -14530,21 +14794,21 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="75.5" customHeight="1">
+    <row r="28" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>134</v>
@@ -14567,21 +14831,21 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="75.5" customHeight="1">
+    <row r="29" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>134</v>
@@ -14604,24 +14868,24 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="75.5" customHeight="1">
+    <row r="30" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -14641,24 +14905,24 @@
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
-    <row r="31" spans="1:23" ht="75.5" customHeight="1">
+    <row r="31" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -14678,21 +14942,21 @@
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
-    <row r="32" spans="1:23" ht="75.5" customHeight="1">
+    <row r="32" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>134</v>
@@ -14715,21 +14979,21 @@
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="75.5" customHeight="1">
+    <row r="33" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>134</v>
@@ -14752,21 +15016,21 @@
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="75.5" customHeight="1">
+    <row r="34" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>134</v>
@@ -14789,21 +15053,21 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:23" ht="75.5" customHeight="1">
+    <row r="35" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>134</v>
@@ -14826,21 +15090,21 @@
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="75.5" customHeight="1">
+    <row r="36" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>134</v>
@@ -14863,21 +15127,21 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="75.5" customHeight="1">
+    <row r="37" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>134</v>
@@ -14900,21 +15164,21 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="75.5" customHeight="1">
+    <row r="38" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>682</v>
+        <v>576</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>134</v>
@@ -14937,21 +15201,21 @@
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="75.5" customHeight="1">
+    <row r="39" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>569</v>
+        <v>682</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>134</v>
@@ -14974,21 +15238,21 @@
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
-    <row r="40" spans="1:23" ht="75.5" customHeight="1">
+    <row r="40" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>134</v>
@@ -15011,21 +15275,21 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="75.5" customHeight="1">
+    <row r="41" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>134</v>
@@ -15048,21 +15312,21 @@
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="57.5" customHeight="1">
+    <row r="42" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>134</v>
@@ -15085,21 +15349,21 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
-    <row r="43" spans="1:23" ht="75.5" customHeight="1">
+    <row r="43" spans="1:23" ht="57.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>134</v>
@@ -15122,21 +15386,21 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
-    <row r="44" spans="1:23" ht="75.5" customHeight="1">
+    <row r="44" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>134</v>
@@ -15159,21 +15423,21 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="74.5" customHeight="1">
+    <row r="45" spans="1:23" ht="75.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>134</v>
@@ -15196,21 +15460,21 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="72.5">
+    <row r="46" spans="1:23" ht="74.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>134</v>
@@ -15233,21 +15497,21 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="77" customHeight="1">
+    <row r="47" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>134</v>
@@ -15270,21 +15534,21 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="72.5">
+    <row r="48" spans="1:23" ht="77" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>134</v>
@@ -15307,24 +15571,24 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" ht="62" customHeight="1">
+    <row r="49" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>441</v>
+        <v>527</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -15344,21 +15608,21 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" ht="72.5">
+    <row r="50" spans="1:23" ht="62" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>436</v>
+        <v>523</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>133</v>
@@ -15381,24 +15645,24 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" ht="74.75" customHeight="1">
+    <row r="51" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -15418,21 +15682,21 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="74.75" customHeight="1">
+    <row r="52" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>134</v>
@@ -15455,24 +15719,24 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
     </row>
-    <row r="53" spans="1:23" ht="74.75" customHeight="1">
+    <row r="53" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -15492,24 +15756,24 @@
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
     </row>
-    <row r="54" spans="1:23" ht="74.75" customHeight="1">
+    <row r="54" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -15529,24 +15793,24 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
     </row>
-    <row r="55" spans="1:23" ht="74.75" customHeight="1">
+    <row r="55" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>413</v>
+        <v>134</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -15566,24 +15830,24 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
     </row>
-    <row r="56" spans="1:23" ht="74.75" customHeight="1">
+    <row r="56" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>134</v>
+        <v>413</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -15603,21 +15867,21 @@
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
     </row>
-    <row r="57" spans="1:23" ht="74.75" customHeight="1">
+    <row r="57" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>134</v>
@@ -15640,21 +15904,21 @@
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
     </row>
-    <row r="58" spans="1:23" ht="74.75" customHeight="1">
+    <row r="58" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>134</v>
@@ -15677,21 +15941,21 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
     </row>
-    <row r="59" spans="1:23" ht="74.75" customHeight="1">
+    <row r="59" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>134</v>
@@ -15714,21 +15978,21 @@
       <c r="V59" s="1"/>
       <c r="W59" s="1"/>
     </row>
-    <row r="60" spans="1:23" ht="74.75" customHeight="1">
+    <row r="60" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>134</v>
@@ -15751,21 +16015,21 @@
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
     </row>
-    <row r="61" spans="1:23" ht="74.75" customHeight="1">
+    <row r="61" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>573</v>
+        <v>398</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>134</v>
@@ -15788,21 +16052,21 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
     </row>
-    <row r="62" spans="1:23" ht="74.75" customHeight="1">
+    <row r="62" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>386</v>
+        <v>573</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>134</v>
@@ -15825,21 +16089,21 @@
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" ht="74.75" customHeight="1">
+    <row r="63" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>134</v>
@@ -15862,21 +16126,21 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
     </row>
-    <row r="64" spans="1:23" ht="74.75" customHeight="1">
+    <row r="64" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>134</v>
@@ -15899,21 +16163,21 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
     </row>
-    <row r="65" spans="1:23" ht="74.75" customHeight="1">
+    <row r="65" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>134</v>
@@ -15936,24 +16200,24 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="74.75" customHeight="1">
+    <row r="66" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -15973,24 +16237,24 @@
       <c r="V66" s="1"/>
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" ht="74.75" customHeight="1">
+    <row r="67" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -16010,21 +16274,21 @@
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:23" ht="74.75" customHeight="1">
+    <row r="68" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>362</v>
+        <v>371</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>369</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>134</v>
@@ -16047,21 +16311,21 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
     </row>
-    <row r="69" spans="1:23" ht="74.75" customHeight="1">
+    <row r="69" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>134</v>
@@ -16084,24 +16348,24 @@
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
     </row>
-    <row r="70" spans="1:23" ht="74.75" customHeight="1">
+    <row r="70" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -16121,24 +16385,24 @@
       <c r="V70" s="1"/>
       <c r="W70" s="1"/>
     </row>
-    <row r="71" spans="1:23" ht="74.75" customHeight="1">
+    <row r="71" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -16158,21 +16422,21 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
     </row>
-    <row r="72" spans="1:23" ht="74.75" customHeight="1">
+    <row r="72" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>134</v>
@@ -16195,21 +16459,21 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
     </row>
-    <row r="73" spans="1:23" ht="74.75" customHeight="1">
+    <row r="73" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>134</v>
@@ -16232,24 +16496,24 @@
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
     </row>
-    <row r="74" spans="1:23" ht="72.5">
+    <row r="74" spans="1:23" ht="74.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -16269,24 +16533,24 @@
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
     </row>
-    <row r="75" spans="1:23" ht="72.5">
+    <row r="75" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -16306,21 +16570,21 @@
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
     </row>
-    <row r="76" spans="1:23" ht="72.5">
+    <row r="76" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>134</v>
@@ -16343,21 +16607,21 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
     </row>
-    <row r="77" spans="1:23" ht="72.5">
+    <row r="77" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>134</v>
@@ -16380,21 +16644,21 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
     </row>
-    <row r="78" spans="1:23" ht="72.5">
+    <row r="78" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>134</v>
@@ -16417,21 +16681,21 @@
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
     </row>
-    <row r="79" spans="1:23" ht="87">
+    <row r="79" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>134</v>
@@ -16454,21 +16718,21 @@
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
     </row>
-    <row r="80" spans="1:23" ht="87">
+    <row r="80" spans="1:23" ht="87" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>134</v>
@@ -16491,21 +16755,21 @@
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
     </row>
-    <row r="81" spans="1:23" ht="73.5" customHeight="1">
+    <row r="81" spans="1:23" ht="87" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>134</v>
@@ -16528,24 +16792,24 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
     </row>
-    <row r="82" spans="1:23" ht="72.5">
+    <row r="82" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -16565,21 +16829,21 @@
       <c r="V82" s="1"/>
       <c r="W82" s="1"/>
     </row>
-    <row r="83" spans="1:23" ht="72.5">
+    <row r="83" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>133</v>
@@ -16602,24 +16866,24 @@
       <c r="V83" s="1"/>
       <c r="W83" s="1"/>
     </row>
-    <row r="84" spans="1:23" ht="72.5">
+    <row r="84" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -16639,21 +16903,21 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
     </row>
-    <row r="85" spans="1:23" ht="87">
+    <row r="85" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>134</v>
@@ -16676,21 +16940,21 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
     </row>
-    <row r="86" spans="1:23" ht="58">
+    <row r="86" spans="1:23" ht="87" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>134</v>
@@ -16713,21 +16977,21 @@
       <c r="V86" s="1"/>
       <c r="W86" s="1"/>
     </row>
-    <row r="87" spans="1:23" ht="58">
+    <row r="87" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>134</v>
@@ -16750,24 +17014,24 @@
       <c r="V87" s="1"/>
       <c r="W87" s="1"/>
     </row>
-    <row r="88" spans="1:23" ht="43.5">
+    <row r="88" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -16787,24 +17051,24 @@
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
     </row>
-    <row r="89" spans="1:23" ht="76.25" customHeight="1">
+    <row r="89" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -16824,21 +17088,21 @@
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
     </row>
-    <row r="90" spans="1:23" ht="76.25" customHeight="1">
+    <row r="90" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>134</v>
@@ -16861,21 +17125,21 @@
       <c r="V90" s="1"/>
       <c r="W90" s="1"/>
     </row>
-    <row r="91" spans="1:23" ht="76.25" customHeight="1">
+    <row r="91" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>134</v>
@@ -16898,21 +17162,21 @@
       <c r="V91" s="1"/>
       <c r="W91" s="1"/>
     </row>
-    <row r="92" spans="1:23" ht="59" customHeight="1">
+    <row r="92" spans="1:23" ht="76.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>134</v>
@@ -16935,21 +17199,21 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
     </row>
-    <row r="93" spans="1:23" ht="33" customHeight="1">
+    <row r="93" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>134</v>
@@ -16972,24 +17236,24 @@
       <c r="V93" s="1"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" ht="59" customHeight="1">
+    <row r="94" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -17009,24 +17273,24 @@
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
     </row>
-    <row r="95" spans="1:23" ht="59" customHeight="1">
+    <row r="95" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -17046,21 +17310,21 @@
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
     </row>
-    <row r="96" spans="1:23" ht="59" customHeight="1">
+    <row r="96" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>134</v>
@@ -17083,21 +17347,21 @@
       <c r="V96" s="1"/>
       <c r="W96" s="1"/>
     </row>
-    <row r="97" spans="1:23" ht="59" customHeight="1">
+    <row r="97" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>134</v>
@@ -17120,21 +17384,21 @@
       <c r="V97" s="1"/>
       <c r="W97" s="1"/>
     </row>
-    <row r="98" spans="1:23" ht="59" customHeight="1">
+    <row r="98" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>134</v>
@@ -17157,21 +17421,21 @@
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
     </row>
-    <row r="99" spans="1:23" ht="59" customHeight="1">
+    <row r="99" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>134</v>
@@ -17194,21 +17458,21 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
     </row>
-    <row r="100" spans="1:23" ht="29">
+    <row r="100" spans="1:23" ht="59" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>134</v>
@@ -17231,21 +17495,21 @@
       <c r="V100" s="1"/>
       <c r="W100" s="1"/>
     </row>
-    <row r="101" spans="1:23" ht="42.75" customHeight="1">
+    <row r="101" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>134</v>
@@ -17268,21 +17532,21 @@
       <c r="V101" s="1"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" ht="42.75" customHeight="1">
+    <row r="102" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>134</v>
@@ -17305,21 +17569,21 @@
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:23" ht="42.75" customHeight="1">
+    <row r="103" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>134</v>
@@ -17342,21 +17606,21 @@
       <c r="V103" s="1"/>
       <c r="W103" s="1"/>
     </row>
-    <row r="104" spans="1:23" ht="32" customHeight="1">
+    <row r="104" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="B104" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>134</v>
@@ -17379,9 +17643,9 @@
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
     </row>
-    <row r="105" spans="1:23" ht="29">
+    <row r="105" spans="1:23" ht="32" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>9</v>
@@ -17393,7 +17657,7 @@
         <v>140</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>134</v>
@@ -17416,24 +17680,24 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
     </row>
-    <row r="106" spans="1:23" ht="29">
+    <row r="106" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>139</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -17453,23 +17717,23 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
     </row>
-    <row r="107" spans="1:23" ht="29">
+    <row r="107" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C107" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D107" s="13" t="s">
+      <c r="C107" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E107" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F107" s="14" t="s">
+      <c r="E107" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F107" s="10" t="s">
         <v>133</v>
       </c>
       <c r="G107" s="1"/>
@@ -17490,23 +17754,23 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
     </row>
-    <row r="108" spans="1:23" ht="29">
+    <row r="108" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E108" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F108" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F108" s="14" t="s">
         <v>133</v>
       </c>
       <c r="G108" s="1"/>
@@ -17527,24 +17791,24 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
     </row>
-    <row r="109" spans="1:23" ht="43.5">
+    <row r="109" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F109" s="14" t="s">
-        <v>134</v>
+        <v>149</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -17564,9 +17828,9 @@
       <c r="V109" s="1"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" ht="42.75" customHeight="1">
+    <row r="110" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>9</v>
@@ -17578,7 +17842,7 @@
         <v>140</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="F110" s="14" t="s">
         <v>134</v>
@@ -17601,23 +17865,25 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
     </row>
-    <row r="111" spans="1:23" ht="29">
+    <row r="111" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F111" s="14"/>
+        <v>231</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -17636,21 +17902,21 @@
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
     </row>
-    <row r="112" spans="1:23" ht="29">
+    <row r="112" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="1"/>
@@ -17671,9 +17937,9 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
     </row>
-    <row r="113" spans="1:23" ht="29">
+    <row r="113" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>9</v>
@@ -17682,10 +17948,10 @@
         <v>150</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="1"/>
@@ -17706,9 +17972,9 @@
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
     </row>
-    <row r="114" spans="1:23" ht="29">
+    <row r="114" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>9</v>
@@ -17717,10 +17983,10 @@
         <v>150</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="1"/>
@@ -17741,21 +18007,21 @@
       <c r="V114" s="1"/>
       <c r="W114" s="1"/>
     </row>
-    <row r="115" spans="1:23" ht="29">
+    <row r="115" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>162</v>
+        <v>9</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="1"/>
@@ -17776,21 +18042,21 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
     </row>
-    <row r="116" spans="1:23" ht="29">
+    <row r="116" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="1"/>
@@ -17811,21 +18077,21 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
     </row>
-    <row r="117" spans="1:23" ht="29">
+    <row r="117" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F117" s="14"/>
       <c r="G117" s="1"/>
@@ -17846,20 +18112,22 @@
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" ht="29">
+    <row r="118" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E118" s="15"/>
+        <v>167</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>168</v>
+      </c>
       <c r="F118" s="14"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -17879,22 +18147,20 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
     </row>
-    <row r="119" spans="1:23" ht="29">
+    <row r="119" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C119" s="13" t="s">
         <v>163</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E119" s="15" t="s">
-        <v>170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E119" s="15"/>
       <c r="F119" s="14"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -17914,21 +18180,21 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
     </row>
-    <row r="120" spans="1:23" ht="29">
+    <row r="120" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F120" s="14"/>
       <c r="G120" s="1"/>
@@ -17949,21 +18215,21 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
     </row>
-    <row r="121" spans="1:23" ht="43.5">
+    <row r="121" spans="1:23" ht="29" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F121" s="14"/>
       <c r="G121" s="1"/>
@@ -17984,21 +18250,21 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
     </row>
-    <row r="122" spans="1:23" ht="43.5">
+    <row r="122" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F122" s="14"/>
       <c r="G122" s="1"/>
@@ -18019,21 +18285,21 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
     </row>
-    <row r="123" spans="1:23" ht="58">
+    <row r="123" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F123" s="14"/>
       <c r="G123" s="1"/>
@@ -18054,21 +18320,21 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
     </row>
-    <row r="124" spans="1:23" ht="43.5">
+    <row r="124" spans="1:23" ht="58" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F124" s="14"/>
       <c r="G124" s="1"/>
@@ -18089,21 +18355,21 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
     </row>
-    <row r="125" spans="1:23" ht="43.5">
+    <row r="125" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B125" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F125" s="14"/>
       <c r="G125" s="1"/>
@@ -18124,21 +18390,21 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
     </row>
-    <row r="126" spans="1:23" ht="72.5">
+    <row r="126" spans="1:23" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="1"/>
@@ -18159,21 +18425,21 @@
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
     </row>
-    <row r="127" spans="1:23" ht="58">
+    <row r="127" spans="1:23" ht="72.5" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B127" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F127" s="14"/>
       <c r="G127" s="1"/>
@@ -18194,19 +18460,78 @@
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
     </row>
+    <row r="128" spans="1:23" ht="58" x14ac:dyDescent="0.3">
+      <c r="A128" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F128" s="14"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+      <c r="T128" s="1"/>
+      <c r="U128" s="1"/>
+      <c r="V128" s="1"/>
+      <c r="W128" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B101:B1048576 B1">
-    <cfRule type="cellIs" dxfId="403" priority="511" operator="equal">
+  <conditionalFormatting sqref="B102:B1048576 B1">
+    <cfRule type="cellIs" dxfId="411" priority="516" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="517" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="513" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="518" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="514" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="519" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="520">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B100">
+    <cfRule type="cellIs" dxfId="407" priority="511" operator="equal">
+      <formula>"部分完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="406" priority="512" operator="equal">
+      <formula>"里程碑"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="405" priority="513" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="404" priority="514" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="515">
@@ -18220,17 +18545,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B99">
-    <cfRule type="cellIs" dxfId="399" priority="506" operator="equal">
+  <conditionalFormatting sqref="B101">
+    <cfRule type="cellIs" dxfId="403" priority="506" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="507" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="507" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="508" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="508" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="509" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="509" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="510">
@@ -18244,17 +18569,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B100">
-    <cfRule type="cellIs" dxfId="395" priority="501" operator="equal">
+  <conditionalFormatting sqref="B99">
+    <cfRule type="cellIs" dxfId="399" priority="501" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="502" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="502" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="503" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="503" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="504" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="504" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="505">
@@ -18269,16 +18594,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="cellIs" dxfId="391" priority="496" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="496" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="497" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="497" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="498" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="498" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="499" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="499" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="500">
@@ -18293,16 +18618,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="cellIs" dxfId="387" priority="491" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="491" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="492" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="492" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="493" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="493" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="494" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="494" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="495">
@@ -18317,16 +18642,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="cellIs" dxfId="383" priority="486" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="486" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="487" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="488" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="489" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="489" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="490">
@@ -18341,19 +18666,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="cellIs" dxfId="379" priority="481" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="476" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="482" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="477" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="483" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="478" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="484" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="479" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="485">
+    <cfRule type="colorScale" priority="480">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18365,16 +18690,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="cellIs" dxfId="375" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="471" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="472" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="472" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="473" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="474" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="475">
@@ -18389,19 +18714,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="cellIs" dxfId="371" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="461" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="462" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="463" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="464" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="470">
+    <cfRule type="colorScale" priority="465">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18413,16 +18738,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="cellIs" dxfId="367" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="456" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="457" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="458" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="459" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="460">
@@ -18437,16 +18762,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="cellIs" dxfId="363" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="451" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="452" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="453" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="454" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="455">
@@ -18461,16 +18786,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="cellIs" dxfId="359" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="446" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="447" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="448" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="449" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="449" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="450">
@@ -18485,16 +18810,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B89">
-    <cfRule type="cellIs" dxfId="355" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="441" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="442" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="443" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="444" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="445">
@@ -18509,16 +18834,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88">
-    <cfRule type="cellIs" dxfId="351" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="436" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="437" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="438" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="439" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="440">
@@ -18533,16 +18858,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87">
-    <cfRule type="cellIs" dxfId="347" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="431" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="432" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="433" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="434" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="435">
@@ -18557,16 +18882,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86">
-    <cfRule type="cellIs" dxfId="343" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="426" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="427" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="428" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="429" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="430">
@@ -18581,16 +18906,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85">
-    <cfRule type="cellIs" dxfId="339" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="421" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="422" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="423" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="424" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="425">
@@ -18605,16 +18930,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84">
-    <cfRule type="cellIs" dxfId="335" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="416" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="417" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="418" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="419" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="420">
@@ -18629,16 +18954,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="cellIs" dxfId="331" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="411" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="412" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="413" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="414" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="415">
@@ -18653,16 +18978,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="cellIs" dxfId="327" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="406" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="407" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="408" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="409" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="410">
@@ -18677,16 +19002,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81">
-    <cfRule type="cellIs" dxfId="323" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="401" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="402" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="403" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="404" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="405">
@@ -18701,16 +19026,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80">
-    <cfRule type="cellIs" dxfId="319" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="396" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="397" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="398" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="399" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="400">
@@ -18725,16 +19050,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79">
-    <cfRule type="cellIs" dxfId="315" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="391" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="392" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="393" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="394" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="395">
@@ -18749,16 +19074,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="cellIs" dxfId="311" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="386" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="387" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="388" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="389" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="390">
@@ -18773,16 +19098,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B77">
-    <cfRule type="cellIs" dxfId="307" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="381" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="382" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="383" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="384" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="385">
@@ -18797,16 +19122,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="cellIs" dxfId="303" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="376" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="377" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="378" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="379" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="380">
@@ -18821,16 +19146,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="cellIs" dxfId="299" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="371" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="372" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="373" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="374" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="374" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="375">
@@ -18845,16 +19170,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="295" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="366" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="367" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="368" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="369" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="370">
@@ -18869,16 +19194,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="291" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="361" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="362" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="363" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="364" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="365">
@@ -18893,16 +19218,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="cellIs" dxfId="287" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="356" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="357" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="358" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="359" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="360">
@@ -18917,16 +19242,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="283" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="351" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="352" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="353" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="354" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="355">
@@ -18941,16 +19266,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="279" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="346" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="347" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="348" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="349" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="350">
@@ -18965,16 +19290,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="275" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="341" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="342" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="343" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="344" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="345">
@@ -18989,16 +19314,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="271" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="336" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="337" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="338" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="339" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="340">
@@ -19013,16 +19338,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="267" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="331" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="332" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="333" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="334" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="335">
@@ -19037,16 +19362,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="263" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="326" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="327" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="328" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="329" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="330">
@@ -19061,16 +19386,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="cellIs" dxfId="259" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="321" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="322" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="323" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="323" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="324" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="325">
@@ -19085,16 +19410,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="cellIs" dxfId="255" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="316" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="317" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="318" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="319" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="320">
@@ -19109,16 +19434,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="cellIs" dxfId="251" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="311" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="312" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="313" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="314" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="315">
@@ -19133,16 +19458,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="247" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="306" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="307" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="308" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="309" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="310">
@@ -19157,16 +19482,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61">
-    <cfRule type="cellIs" dxfId="243" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="301" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="302" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="303" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="304" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="305">
@@ -19181,16 +19506,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="239" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="296" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="297" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="298" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="299" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="300">
@@ -19205,16 +19530,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59">
-    <cfRule type="cellIs" dxfId="235" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="291" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="292" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="293" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="294" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="295">
@@ -19229,16 +19554,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="cellIs" dxfId="231" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="286" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="287" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="288" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="289" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="290">
@@ -19253,16 +19578,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="227" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="281" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="282" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="283" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="284" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="285">
@@ -19277,16 +19602,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="223" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="276" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="277" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="278" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="279" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="280">
@@ -19301,16 +19626,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="cellIs" dxfId="219" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="271" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="272" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="273" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="274" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="275">
@@ -19325,16 +19650,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="215" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="266" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="267" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="268" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="269" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="270">
@@ -19349,16 +19674,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="211" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="261" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="262" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="263" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="264" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="265">
@@ -19373,16 +19698,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="cellIs" dxfId="207" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="256" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="257" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="258" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="259" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="260">
@@ -19397,16 +19722,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="cellIs" dxfId="203" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="251" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="252" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="253" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="254" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="255">
@@ -19421,16 +19746,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="cellIs" dxfId="199" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="246" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="247" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="248" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="249" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="250">
@@ -19445,16 +19770,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="cellIs" dxfId="195" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="241" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="242" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="243" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="244" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="245">
@@ -19469,16 +19794,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="cellIs" dxfId="191" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="236" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="237" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="238" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="239" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="240">
@@ -19493,16 +19818,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="cellIs" dxfId="187" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="231" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="232" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="233" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="234" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="235">
@@ -19517,16 +19842,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="183" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="226" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="227" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="228" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="229" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="230">
@@ -19541,16 +19866,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="179" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="221" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="222" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="223" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="224" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="225">
@@ -19565,16 +19890,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="cellIs" dxfId="175" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="216" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="217" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="218" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="219" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="220">
@@ -19589,16 +19914,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="cellIs" dxfId="171" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="211" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="212" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="213" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="214" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="215">
@@ -19613,16 +19938,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="cellIs" dxfId="167" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="206" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="207" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="208" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="209" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="210">
@@ -19637,16 +19962,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="163" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="201" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="202" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="203" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="204" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="205">
@@ -19661,16 +19986,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="cellIs" dxfId="159" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="196" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="197" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="198" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="199" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="200">
@@ -19685,16 +20010,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="cellIs" dxfId="155" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="191" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="192" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="193" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="194" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="195">
@@ -19709,16 +20034,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="151" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="186" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="187" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="188" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="189" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="190">
@@ -19733,16 +20058,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="147" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="181" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="182" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="183" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="184" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="185">
@@ -19757,16 +20082,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="143" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="176" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="177" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="178" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="179" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="180">
@@ -19781,16 +20106,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="139" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="171" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="172" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="173" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="174" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="175">
@@ -19805,16 +20130,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="135" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="166" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="167" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="168" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="169" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="170">
@@ -19829,16 +20154,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="131" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="161" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="162" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="163" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="164" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="165">
@@ -19853,16 +20178,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="127" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="156" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="157" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="158" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="159" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="160">
@@ -19877,16 +20202,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="cellIs" dxfId="123" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="151" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="152" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="153" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="154" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="155">
@@ -19901,16 +20226,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="cellIs" dxfId="119" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="146" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="147" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="148" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="149" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="150">
@@ -19925,16 +20250,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="cellIs" dxfId="115" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="141" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="142" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="143" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="144" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="145">
@@ -19949,16 +20274,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="cellIs" dxfId="111" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="136" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="137" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="138" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="139" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="140">
@@ -19973,16 +20298,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="cellIs" dxfId="107" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="131" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="132" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="133" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="134" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="135">
@@ -19997,16 +20322,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="103" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="126" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="127" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="128" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="129" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="130">
@@ -20021,16 +20346,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="99" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="121" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="122" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="123" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="124" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="125">
@@ -20045,16 +20370,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="95" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="116" operator="equal">
       <formula>"部分完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="117" operator="equal">
       <formula>"里程碑"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="118" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="119" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="120">
@@ -20069,16 +20394,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="91" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="111" operator="equal">
   